--- a/config/input.xlsx
+++ b/config/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10120" windowWidth="24700" windowHeight="5440" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24660" windowHeight="15620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PalavrasReservadas" sheetId="1" r:id="rId1"/>
@@ -792,7 +792,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -806,7 +805,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1042,7 +1041,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:I8" numberStoredAsText="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/config/input.xlsx
+++ b/config/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24660" windowHeight="15620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PalavrasReservadas" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>if</t>
   </si>
@@ -141,6 +141,33 @@
   </si>
   <si>
     <t>1,6</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
 </sst>
 </file>
@@ -594,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -672,6 +699,54 @@
       </c>
       <c r="B9" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -686,10 +761,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -788,6 +863,30 @@
       </c>
       <c r="B12" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/config/input.xlsx
+++ b/config/input.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24700" windowHeight="15620" tabRatio="884" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="PalavrasReservadas" sheetId="1" r:id="rId1"/>
     <sheet name="Sinais" sheetId="2" r:id="rId2"/>
     <sheet name="Transicoes" sheetId="3" r:id="rId3"/>
+    <sheet name="Automatos" sheetId="4" r:id="rId4"/>
+    <sheet name="Submaquinas" sheetId="5" r:id="rId5"/>
+    <sheet name="1.Programa" sheetId="6" r:id="rId6"/>
+    <sheet name="2.Dec_Parametros" sheetId="7" r:id="rId7"/>
+    <sheet name="3.Dec_Variavel" sheetId="8" r:id="rId8"/>
+    <sheet name="4.Comando" sheetId="9" r:id="rId9"/>
+    <sheet name="5.Exp_Booleana" sheetId="10" r:id="rId10"/>
+    <sheet name="6.Termo_Booleano" sheetId="11" r:id="rId11"/>
+    <sheet name="7.Exp_Aritmetica" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="116">
   <si>
     <t>if</t>
   </si>
@@ -168,13 +177,214 @@
   </si>
   <si>
     <t>!</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Nome Maq.</t>
+  </si>
+  <si>
+    <t># Maq.</t>
+  </si>
+  <si>
+    <t>programa</t>
+  </si>
+  <si>
+    <t>dec_parametros</t>
+  </si>
+  <si>
+    <t>dec_variavel</t>
+  </si>
+  <si>
+    <t>comando</t>
+  </si>
+  <si>
+    <t>exp_booleana</t>
+  </si>
+  <si>
+    <t>termo_booleano</t>
+  </si>
+  <si>
+    <t>exp_aritmetica</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>Maquina, estado</t>
+  </si>
+  <si>
+    <t>Estados Finais</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>:=</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Submaquina</t>
+  </si>
+  <si>
+    <t>Retorno</t>
+  </si>
+  <si>
+    <t>identificador</t>
+  </si>
+  <si>
+    <t>*programa</t>
+  </si>
+  <si>
+    <t>*dec_parametros</t>
+  </si>
+  <si>
+    <t>*dec_variavel</t>
+  </si>
+  <si>
+    <t>*comando</t>
+  </si>
+  <si>
+    <t>*exp_booleana</t>
+  </si>
+  <si>
+    <t>*termo_booleano</t>
+  </si>
+  <si>
+    <t>*exp_aritmetica</t>
+  </si>
+  <si>
+    <t>Num. Maq.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,13 +415,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -223,7 +445,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -255,13 +477,195 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -277,6 +681,68 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -292,6 +758,68 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -621,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -633,7 +1161,7 @@
       <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -748,6 +1276,423 @@
       <c r="B15" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -761,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -889,8 +1834,17 @@
         <v>44</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -901,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1136,6 +2090,11 @@
       </c>
       <c r="I8" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1149,4 +2108,3689 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U98"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:G93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" style="9" customWidth="1"/>
+    <col min="2" max="15" width="10.83203125" style="9"/>
+    <col min="16" max="18" width="10.83203125" style="10"/>
+    <col min="19" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="S2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" s="17">
+        <v>256</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="S3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="17">
+        <v>257</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="S4" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" s="17">
+        <v>258</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="S5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="17">
+        <v>259</v>
+      </c>
+      <c r="U5" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="S6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="17">
+        <v>259</v>
+      </c>
+      <c r="U6" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="S7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="17">
+        <v>259</v>
+      </c>
+      <c r="U7" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="S8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="17">
+        <v>259</v>
+      </c>
+      <c r="U8" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="S9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9" s="17">
+        <v>259</v>
+      </c>
+      <c r="U9" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="S10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="17">
+        <v>259</v>
+      </c>
+      <c r="U10" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="S11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="17">
+        <v>259</v>
+      </c>
+      <c r="U11" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="S12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="17">
+        <v>259</v>
+      </c>
+      <c r="U12" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="17">
+        <v>259</v>
+      </c>
+      <c r="U13" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="10">
+        <v>0</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="S14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="17">
+        <v>259</v>
+      </c>
+      <c r="U14" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="10">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10">
+        <v>4</v>
+      </c>
+      <c r="E15" s="10">
+        <v>4</v>
+      </c>
+      <c r="F15" s="10">
+        <v>4</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="S15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="17">
+        <v>259</v>
+      </c>
+      <c r="U15" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="10">
+        <v>2</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="S16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="17">
+        <v>259</v>
+      </c>
+      <c r="U16" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="10">
+        <v>3</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10">
+        <v>5</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="S17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T17" s="17">
+        <v>259</v>
+      </c>
+      <c r="U17" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="10">
+        <v>4</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="9">
+        <v>6</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="17">
+        <v>259</v>
+      </c>
+      <c r="U18" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="10">
+        <v>5</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <v>7</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="S19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="T19" s="17">
+        <v>259</v>
+      </c>
+      <c r="U19" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="10">
+        <v>6</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10">
+        <v>8</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="S20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="T20" s="17">
+        <v>259</v>
+      </c>
+      <c r="U20" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="10">
+        <v>7</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10">
+        <v>9</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="S21" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="T21" s="17">
+        <v>260</v>
+      </c>
+      <c r="U21" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="10">
+        <v>8</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="S22" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" s="17">
+        <v>261</v>
+      </c>
+      <c r="U22" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="10">
+        <v>9</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10">
+        <v>12</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="S23" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="17">
+        <v>262</v>
+      </c>
+      <c r="U23" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="10">
+        <v>10</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
+        <v>13</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="S24" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="17">
+        <v>263</v>
+      </c>
+      <c r="U24" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="10">
+        <v>11</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10">
+        <v>12</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="S25" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="T25" s="17">
+        <v>264</v>
+      </c>
+      <c r="U25" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="10">
+        <v>12</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="S26" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="17">
+        <v>265</v>
+      </c>
+      <c r="U26" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="10">
+        <v>13</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10">
+        <v>14</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="S27" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="T27" s="17">
+        <v>266</v>
+      </c>
+      <c r="U27" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="10">
+        <v>14</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10">
+        <v>0</v>
+      </c>
+      <c r="K28" s="10">
+        <v>16</v>
+      </c>
+      <c r="S28" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="T28" s="17">
+        <v>267</v>
+      </c>
+      <c r="U28" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="10">
+        <v>15</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10">
+        <v>0</v>
+      </c>
+      <c r="K29" s="10">
+        <v>16</v>
+      </c>
+      <c r="S29" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="17">
+        <v>268</v>
+      </c>
+      <c r="U29" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="10">
+        <v>16</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="9">
+        <v>17</v>
+      </c>
+      <c r="S30" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" s="17">
+        <v>269</v>
+      </c>
+      <c r="U30" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="10">
+        <v>17</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10">
+        <v>0</v>
+      </c>
+      <c r="K31" s="10"/>
+      <c r="S31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="T31" s="17">
+        <v>270</v>
+      </c>
+      <c r="U31" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="S32" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="T32" s="17">
+        <v>271</v>
+      </c>
+      <c r="U32" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S33" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" s="17">
+        <v>272</v>
+      </c>
+      <c r="U33" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="10">
+        <v>0</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+      <c r="S34" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="T34" s="17">
+        <v>273</v>
+      </c>
+      <c r="U34" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="10">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2</v>
+      </c>
+      <c r="S35" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="T35" s="17">
+        <v>274</v>
+      </c>
+      <c r="U35" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="10">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9">
+        <v>3</v>
+      </c>
+      <c r="S36" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="T36" s="17">
+        <v>275</v>
+      </c>
+      <c r="U36" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="10">
+        <v>3</v>
+      </c>
+      <c r="S37" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="T37" s="17">
+        <v>276</v>
+      </c>
+      <c r="U37" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="10">
+        <v>4</v>
+      </c>
+      <c r="S38" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="T38" s="17">
+        <v>277</v>
+      </c>
+      <c r="U38" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="S39" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T39" s="17">
+        <v>278</v>
+      </c>
+      <c r="U39" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="S40" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="T40" s="17">
+        <v>279</v>
+      </c>
+      <c r="U40" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="10">
+        <v>0</v>
+      </c>
+      <c r="B41" s="9">
+        <v>1</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+      <c r="S41" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="T41" s="17">
+        <v>280</v>
+      </c>
+      <c r="U41" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="10">
+        <v>1</v>
+      </c>
+      <c r="D42" s="9">
+        <v>2</v>
+      </c>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="10">
+        <v>2</v>
+      </c>
+      <c r="E43" s="9">
+        <v>3</v>
+      </c>
+      <c r="F43" s="9">
+        <v>4</v>
+      </c>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="10">
+        <v>3</v>
+      </c>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="10">
+        <v>4</v>
+      </c>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="10">
+        <v>5</v>
+      </c>
+      <c r="F46" s="9">
+        <v>4</v>
+      </c>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="10"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R48" s="9"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="20"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="10">
+        <v>0</v>
+      </c>
+      <c r="B49" s="9">
+        <v>2</v>
+      </c>
+      <c r="E49" s="9">
+        <v>3</v>
+      </c>
+      <c r="F49" s="9">
+        <v>4</v>
+      </c>
+      <c r="G49" s="9">
+        <v>4</v>
+      </c>
+      <c r="O49" s="10">
+        <v>1</v>
+      </c>
+      <c r="R49" s="9"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="20"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="10">
+        <v>1</v>
+      </c>
+      <c r="H50" s="9">
+        <v>5</v>
+      </c>
+      <c r="O50" s="10"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="20"/>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="10">
+        <v>2</v>
+      </c>
+      <c r="I51" s="9">
+        <v>16</v>
+      </c>
+      <c r="O51" s="10"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="20"/>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="10">
+        <v>3</v>
+      </c>
+      <c r="I52" s="9">
+        <v>11</v>
+      </c>
+      <c r="O52" s="10"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="20"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="10">
+        <v>4</v>
+      </c>
+      <c r="O53" s="10">
+        <v>6</v>
+      </c>
+      <c r="R53" s="9"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="20"/>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="10">
+        <v>5</v>
+      </c>
+      <c r="O54" s="10">
+        <v>7</v>
+      </c>
+      <c r="R54" s="9"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="20"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="10">
+        <v>6</v>
+      </c>
+      <c r="K55" s="9">
+        <v>8</v>
+      </c>
+      <c r="O55" s="10"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="20"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="10">
+        <v>7</v>
+      </c>
+      <c r="I56" s="9">
+        <v>9</v>
+      </c>
+      <c r="K56" s="9">
+        <v>8</v>
+      </c>
+      <c r="O56" s="10"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="20"/>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="10">
+        <v>8</v>
+      </c>
+      <c r="O57" s="10"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="20"/>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="10">
+        <v>9</v>
+      </c>
+      <c r="J58" s="9">
+        <v>6</v>
+      </c>
+      <c r="O58" s="10">
+        <v>10</v>
+      </c>
+      <c r="R58" s="9"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="20"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="10">
+        <v>10</v>
+      </c>
+      <c r="J59" s="9">
+        <v>6</v>
+      </c>
+      <c r="L59" s="9">
+        <v>13</v>
+      </c>
+      <c r="O59" s="10"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="20"/>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="10">
+        <v>11</v>
+      </c>
+      <c r="O60" s="10"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="20"/>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="10">
+        <v>12</v>
+      </c>
+      <c r="J61" s="9">
+        <v>14</v>
+      </c>
+      <c r="O61" s="10"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="20"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="10">
+        <v>13</v>
+      </c>
+      <c r="O62" s="10">
+        <v>10</v>
+      </c>
+      <c r="R62" s="9"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="20"/>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="10">
+        <v>14</v>
+      </c>
+      <c r="M63" s="9">
+        <v>15</v>
+      </c>
+      <c r="O63" s="10"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="20"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="10">
+        <v>15</v>
+      </c>
+      <c r="N64" s="9">
+        <v>8</v>
+      </c>
+      <c r="O64" s="10"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="20"/>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="10">
+        <v>16</v>
+      </c>
+      <c r="O65" s="10"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="20"/>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="10">
+        <v>17</v>
+      </c>
+      <c r="J66" s="9">
+        <v>18</v>
+      </c>
+      <c r="O66" s="10"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="20"/>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="10">
+        <v>18</v>
+      </c>
+      <c r="D67" s="9">
+        <v>19</v>
+      </c>
+      <c r="O67" s="10"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="20"/>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="10">
+        <v>19</v>
+      </c>
+      <c r="M68" s="9">
+        <v>20</v>
+      </c>
+      <c r="O68" s="10"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="20"/>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="10">
+        <v>20</v>
+      </c>
+      <c r="N69" s="9">
+        <v>21</v>
+      </c>
+      <c r="O69" s="10"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="20"/>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="10">
+        <v>21</v>
+      </c>
+      <c r="C70" s="9">
+        <v>14</v>
+      </c>
+      <c r="O70" s="10"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="20"/>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" s="10">
+        <v>0</v>
+      </c>
+      <c r="B73" s="9">
+        <v>2</v>
+      </c>
+      <c r="C73" s="9">
+        <v>2</v>
+      </c>
+      <c r="D73" s="9">
+        <v>2</v>
+      </c>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" s="10">
+        <v>1</v>
+      </c>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" s="10">
+        <v>2</v>
+      </c>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="S76" s="17"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S77" s="17"/>
+      <c r="T77" s="17"/>
+      <c r="U77" s="17"/>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" s="10">
+        <v>0</v>
+      </c>
+      <c r="B78" s="9">
+        <v>3</v>
+      </c>
+      <c r="C78" s="9">
+        <v>3</v>
+      </c>
+      <c r="D78" s="9">
+        <v>4</v>
+      </c>
+      <c r="J78" s="9">
+        <v>2</v>
+      </c>
+      <c r="S78" s="17"/>
+      <c r="T78" s="17"/>
+      <c r="U78" s="17"/>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" s="10">
+        <v>1</v>
+      </c>
+      <c r="F79" s="9">
+        <v>5</v>
+      </c>
+      <c r="G79" s="9">
+        <v>5</v>
+      </c>
+      <c r="H79" s="9">
+        <v>6</v>
+      </c>
+      <c r="I79" s="9">
+        <v>6</v>
+      </c>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" s="10">
+        <v>2</v>
+      </c>
+      <c r="F80" s="9">
+        <v>8</v>
+      </c>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" s="10">
+        <v>3</v>
+      </c>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" s="10">
+        <v>4</v>
+      </c>
+      <c r="S82" s="17"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="17"/>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" s="10">
+        <v>5</v>
+      </c>
+      <c r="S83" s="17"/>
+      <c r="T83" s="17"/>
+      <c r="U83" s="17"/>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" s="10">
+        <v>6</v>
+      </c>
+      <c r="F84" s="9">
+        <v>5</v>
+      </c>
+      <c r="S84" s="17"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" s="10">
+        <v>7</v>
+      </c>
+      <c r="E85" s="9">
+        <v>3</v>
+      </c>
+      <c r="S85" s="17"/>
+      <c r="T85" s="17"/>
+      <c r="U85" s="17"/>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" s="10">
+        <v>8</v>
+      </c>
+      <c r="S86" s="17"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="17"/>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="S87" s="17"/>
+      <c r="T87" s="17"/>
+      <c r="U87" s="17"/>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S88" s="17"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="17"/>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89" s="10">
+        <v>0</v>
+      </c>
+      <c r="B89" s="9">
+        <v>2</v>
+      </c>
+      <c r="S89" s="17"/>
+      <c r="T89" s="17"/>
+      <c r="U89" s="17"/>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90" s="10">
+        <v>1</v>
+      </c>
+      <c r="D90" s="9">
+        <v>3</v>
+      </c>
+      <c r="E90" s="9">
+        <v>3</v>
+      </c>
+      <c r="F90" s="9">
+        <v>3</v>
+      </c>
+      <c r="G90" s="9">
+        <v>3</v>
+      </c>
+      <c r="S90" s="17"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="17"/>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91" s="10">
+        <v>2</v>
+      </c>
+      <c r="S91" s="17"/>
+      <c r="T91" s="17"/>
+      <c r="U91" s="17"/>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92" s="10">
+        <v>3</v>
+      </c>
+      <c r="S92" s="17"/>
+      <c r="T92" s="17"/>
+      <c r="U92" s="17"/>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93" s="10">
+        <v>4</v>
+      </c>
+      <c r="C93" s="9">
+        <v>1</v>
+      </c>
+      <c r="S93" s="17"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="17"/>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="S94" s="17"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="17"/>
+    </row>
+    <row r="95" spans="1:21">
+      <c r="S95" s="17"/>
+      <c r="T95" s="17"/>
+      <c r="U95" s="17"/>
+    </row>
+    <row r="96" spans="1:21">
+      <c r="A96" s="10"/>
+      <c r="S96" s="17"/>
+      <c r="T96" s="17"/>
+      <c r="U96" s="17"/>
+    </row>
+    <row r="97" spans="1:21">
+      <c r="A97" s="10"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="17"/>
+    </row>
+    <row r="98" spans="1:21">
+      <c r="A98" s="10"/>
+      <c r="S98" s="17"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="5">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="5">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5">
+        <v>3</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2</v>
+      </c>
+      <c r="C26" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5">
+        <v>3</v>
+      </c>
+      <c r="B30" s="5">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5">
+        <v>3</v>
+      </c>
+      <c r="B31" s="5">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5">
+        <v>5</v>
+      </c>
+      <c r="B35" s="5">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5">
+        <v>5</v>
+      </c>
+      <c r="B36" s="5">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5">
+        <v>11</v>
+      </c>
+      <c r="B37" s="5">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5">
+        <v>16</v>
+      </c>
+      <c r="B38" s="5">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5">
+        <v>20</v>
+      </c>
+      <c r="B39" s="5">
+        <v>4</v>
+      </c>
+      <c r="C39" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5">
+        <v>0</v>
+      </c>
+      <c r="B43" s="5">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5">
+        <v>2</v>
+      </c>
+      <c r="B44" s="5">
+        <v>5</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="5">
+        <v>0</v>
+      </c>
+      <c r="B47" s="5">
+        <v>7</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="5">
+        <v>4</v>
+      </c>
+      <c r="B48" s="5">
+        <v>5</v>
+      </c>
+      <c r="C48" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5">
+        <v>5</v>
+      </c>
+      <c r="B49" s="5">
+        <v>7</v>
+      </c>
+      <c r="C49" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5">
+        <v>6</v>
+      </c>
+      <c r="B50" s="5">
+        <v>7</v>
+      </c>
+      <c r="C50" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5">
+        <v>2</v>
+      </c>
+      <c r="B53" s="5">
+        <v>7</v>
+      </c>
+      <c r="C53" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5">
+        <v>3</v>
+      </c>
+      <c r="B54" s="5">
+        <v>7</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="22">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="22">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="22">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="22">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="22">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="22">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="22">
+        <v>11</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="22">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="22">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="22">
+        <v>14</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="22">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="22">
+        <v>16</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="22">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/config/input.xlsx
+++ b/config/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="0" windowWidth="23720" windowHeight="15540" tabRatio="884" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="7180" yWindow="0" windowWidth="17440" windowHeight="15620" tabRatio="884" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PalavrasReservadas" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="114">
   <si>
     <t>if</t>
   </si>
@@ -223,15 +223,6 @@
     <t>comando</t>
   </si>
   <si>
-    <t>exp_booleana</t>
-  </si>
-  <si>
-    <t>termo_booleano</t>
-  </si>
-  <si>
-    <t>exp_aritmetica</t>
-  </si>
-  <si>
     <t>token</t>
   </si>
   <si>
@@ -307,15 +298,6 @@
     <t>*comando</t>
   </si>
   <si>
-    <t>*exp_booleana</t>
-  </si>
-  <si>
-    <t>*termo_booleano</t>
-  </si>
-  <si>
-    <t>*exp_aritmetica</t>
-  </si>
-  <si>
     <t>Num. Maq.</t>
   </si>
   <si>
@@ -383,6 +365,21 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>expressao</t>
+  </si>
+  <si>
+    <t>aritmetica</t>
+  </si>
+  <si>
+    <t>*expressao</t>
+  </si>
+  <si>
+    <t>*aritmetica</t>
+  </si>
+  <si>
+    <t>numero</t>
   </si>
 </sst>
 </file>
@@ -450,7 +447,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="175">
+  <cellStyleXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -626,8 +623,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -667,12 +672,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -692,7 +691,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="175">
+  <cellStyles count="183">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -780,6 +779,10 @@
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -867,6 +870,10 @@
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1374,7 +1381,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1414,7 +1420,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>15</v>
@@ -1426,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>43</v>
@@ -1435,26 +1441,26 @@
         <v>44</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>107</v>
+      <c r="B2" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>95</v>
+      <c r="E2" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -1463,8 +1469,8 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
-      <c r="O2" s="25" t="s">
-        <v>93</v>
+      <c r="O2" s="23" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1477,8 +1483,8 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="24" t="s">
-        <v>96</v>
+      <c r="H3" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -1499,8 +1505,8 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="24" t="s">
-        <v>104</v>
+      <c r="I4" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1520,8 +1526,8 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="24" t="s">
-        <v>108</v>
+      <c r="I5" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -1547,8 +1553,8 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="25" t="s">
-        <v>106</v>
+      <c r="O6" s="23" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1568,8 +1574,8 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="25" t="s">
-        <v>98</v>
+      <c r="O7" s="23" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1585,8 +1591,8 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="24" t="s">
-        <v>97</v>
+      <c r="K8" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1604,12 +1610,12 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="24" t="s">
-        <v>99</v>
+      <c r="I9" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="24" t="s">
-        <v>97</v>
+      <c r="K9" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1647,15 +1653,15 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="24" t="s">
-        <v>106</v>
+      <c r="J11" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="25" t="s">
-        <v>109</v>
+      <c r="O11" s="23" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1670,12 +1676,12 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="24" t="s">
-        <v>106</v>
+      <c r="J12" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="K12" s="8"/>
-      <c r="L12" s="24" t="s">
-        <v>100</v>
+      <c r="L12" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -1712,8 +1718,8 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="24" t="s">
-        <v>101</v>
+      <c r="J14" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -1738,8 +1744,8 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="25" t="s">
-        <v>109</v>
+      <c r="O15" s="23" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1757,8 +1763,8 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="24" t="s">
-        <v>112</v>
+      <c r="M16" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="9"/>
@@ -1779,8 +1785,8 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="24" t="s">
-        <v>97</v>
+      <c r="N17" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="O17" s="9"/>
     </row>
@@ -1815,8 +1821,8 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="24" t="s">
-        <v>113</v>
+      <c r="J19" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -1830,8 +1836,8 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="24" t="s">
-        <v>114</v>
+      <c r="D20" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1860,8 +1866,8 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="24" t="s">
-        <v>111</v>
+      <c r="M21" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="9"/>
@@ -1882,8 +1888,8 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="24" t="s">
-        <v>110</v>
+      <c r="N22" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="O22" s="9"/>
     </row>
@@ -1892,8 +1898,8 @@
         <v>21</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="24" t="s">
-        <v>101</v>
+      <c r="C23" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1922,7 +1928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1931,27 +1937,27 @@
     <row r="1" spans="1:4">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>107</v>
+      <c r="B2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2017,29 +2023,29 @@
         <v>20</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>95</v>
+      <c r="B2" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="24" t="s">
-        <v>107</v>
+      <c r="J2" s="22" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2050,17 +2056,17 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>106</v>
+      <c r="F3" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="J3" s="8"/>
     </row>
@@ -2072,8 +2078,8 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="24" t="s">
-        <v>97</v>
+      <c r="F4" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -2130,8 +2136,8 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="24" t="s">
-        <v>96</v>
+      <c r="F8" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -2145,8 +2151,8 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="24" t="s">
-        <v>94</v>
+      <c r="E9" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -2213,8 +2219,8 @@
       <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>107</v>
+      <c r="B2" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2228,17 +2234,17 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>94</v>
+      <c r="D3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2268,8 +2274,8 @@
         <v>4</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="24" t="s">
-        <v>93</v>
+      <c r="C6" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -2298,13 +2304,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2428,13 +2434,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2450,7 +2456,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2471,13 +2476,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2504,7 +2509,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2525,13 +2529,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2591,7 +2595,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2612,13 +2615,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2645,7 +2648,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2666,13 +2668,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2721,7 +2723,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2865,12 +2866,11 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2891,13 +2891,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2936,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3186,10 +3186,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U98"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:U41"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3201,14 +3201,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="20" t="s">
-        <v>92</v>
+      <c r="A1" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -3216,29 +3216,29 @@
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="20">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -3250,22 +3250,22 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="S2" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T2" s="16">
         <v>256</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -3281,7 +3281,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
@@ -3294,7 +3294,7 @@
         <v>257</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -3310,20 +3310,20 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="S4" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="T4" s="16">
         <v>258</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -3339,7 +3339,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -3355,213 +3355,193 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="13">
+    <row r="6" spans="1:21" customFormat="1">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="S6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="16">
-        <v>259</v>
-      </c>
-      <c r="U6" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="13">
+      <c r="B6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" customFormat="1">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="S7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="T7" s="16">
-        <v>259</v>
-      </c>
-      <c r="U7" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="S8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" s="16">
-        <v>259</v>
-      </c>
-      <c r="U8" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="S9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="T9" s="16">
-        <v>259</v>
-      </c>
-      <c r="U9" s="16">
-        <v>4</v>
-      </c>
+      <c r="B7" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" customFormat="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" customFormat="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
       <c r="S10" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T10" s="16">
         <v>259</v>
       </c>
       <c r="U10" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="S11" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T11" s="16">
         <v>259</v>
       </c>
       <c r="U11" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:21">
+      <c r="A12" s="9">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
       <c r="S12" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T12" s="16">
         <v>259</v>
       </c>
       <c r="U12" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="A13" s="9">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9">
+        <v>4</v>
+      </c>
+      <c r="F13" s="9">
+        <v>4</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
       <c r="S13" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="T13" s="16">
         <v>259</v>
       </c>
       <c r="U13" s="16">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="9">
-        <v>0</v>
-      </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B14" s="9"/>
       <c r="C14" s="9">
         <v>3</v>
       </c>
@@ -3574,53 +3554,47 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="S14" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T14" s="16">
         <v>259</v>
       </c>
       <c r="U14" s="16">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="9">
-        <v>4</v>
-      </c>
-      <c r="E15" s="9">
-        <v>4</v>
-      </c>
-      <c r="F15" s="9">
-        <v>4</v>
-      </c>
-      <c r="G15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9">
+        <v>5</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="S15" s="16" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="T15" s="16">
         <v>259</v>
       </c>
       <c r="U15" s="16">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="9">
-        <v>3</v>
-      </c>
+      <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -3629,72 +3603,74 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
+      <c r="L16" s="8">
+        <v>6</v>
+      </c>
       <c r="S16" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="T16" s="16">
         <v>259</v>
       </c>
       <c r="U16" s="16">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="9">
-        <v>5</v>
-      </c>
-      <c r="H17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
+        <v>7</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="S17" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="T17" s="16">
         <v>259</v>
       </c>
       <c r="U17" s="16">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="9">
+        <v>8</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="8">
-        <v>6</v>
-      </c>
       <c r="S18" s="16" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="T18" s="16">
         <v>259</v>
       </c>
       <c r="U18" s="16">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -3702,51 +3678,49 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="9">
-        <v>7</v>
-      </c>
-      <c r="I19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9">
+        <v>9</v>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="S19" s="16" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="T19" s="16">
-        <v>259</v>
-      </c>
-      <c r="U19" s="16">
-        <v>14</v>
+        <v>260</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9">
-        <v>8</v>
-      </c>
+      <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="S20" s="16" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="T20" s="16">
-        <v>259</v>
-      </c>
-      <c r="U20" s="16">
-        <v>15</v>
+        <v>261</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -3755,24 +3729,24 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="9">
-        <v>9</v>
-      </c>
-      <c r="J21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9">
+        <v>12</v>
+      </c>
       <c r="K21" s="9"/>
       <c r="S21" s="16" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T21" s="16">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="U21" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -3780,23 +3754,25 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="9">
+        <v>13</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="S22" s="16" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T22" s="16">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -3811,18 +3787,18 @@
       </c>
       <c r="K23" s="9"/>
       <c r="S23" s="16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T23" s="16">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -3830,25 +3806,23 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="9">
-        <v>13</v>
-      </c>
+      <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="S24" s="16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T24" s="16">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3857,24 +3831,24 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9">
-        <v>12</v>
-      </c>
+      <c r="I25" s="9">
+        <v>14</v>
+      </c>
+      <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="S25" s="16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T25" s="16">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -3884,21 +3858,25 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>16</v>
+      </c>
       <c r="S26" s="16" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T26" s="16">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="U26" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -3907,24 +3885,26 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="9">
-        <v>14</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>16</v>
+      </c>
       <c r="S27" s="16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T27" s="16">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="U27" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -3934,25 +3914,24 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="9">
-        <v>0</v>
-      </c>
-      <c r="K28" s="9">
-        <v>16</v>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="8">
+        <v>17</v>
       </c>
       <c r="S28" s="16" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="T28" s="16">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="U28" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3965,257 +3944,224 @@
       <c r="J29" s="9">
         <v>0</v>
       </c>
-      <c r="K29" s="9">
-        <v>16</v>
-      </c>
+      <c r="K29" s="9"/>
       <c r="S29" s="16" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="T29" s="16">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U29" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="9">
-        <v>16</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="8">
-        <v>17</v>
-      </c>
       <c r="S30" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T30" s="16">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="U30" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="9">
-        <v>17</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9">
+      <c r="A31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="S31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T31" s="16">
+        <v>272</v>
+      </c>
+      <c r="U31" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="9">
         <v>0</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="S31" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="T31" s="16">
-        <v>270</v>
-      </c>
-      <c r="U31" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
       <c r="S32" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="T32" s="16">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="U32" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>84</v>
+      <c r="A33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8">
+        <v>2</v>
       </c>
       <c r="S33" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T33" s="16">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="9">
-        <v>0</v>
-      </c>
-      <c r="B34" s="8">
-        <v>1</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D34" s="8">
+        <v>3</v>
       </c>
       <c r="S34" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="T34" s="16">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="U34" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="9">
-        <v>1</v>
-      </c>
-      <c r="E35" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S35" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T35" s="16">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="U35" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="9">
+        <v>4</v>
+      </c>
+      <c r="S36" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="T36" s="16">
+        <v>277</v>
+      </c>
+      <c r="U36" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="S37" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="T37" s="16">
+        <v>278</v>
+      </c>
+      <c r="U37" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="S38" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="T38" s="16">
+        <v>279</v>
+      </c>
+      <c r="U38" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="9">
+        <v>0</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="S39" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="T39" s="16">
+        <v>280</v>
+      </c>
+      <c r="U39" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="9">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8">
         <v>2</v>
       </c>
-      <c r="D36" s="8">
-        <v>3</v>
-      </c>
-      <c r="S36" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="T36" s="16">
-        <v>275</v>
-      </c>
-      <c r="U36" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="9">
-        <v>3</v>
-      </c>
-      <c r="S37" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="T37" s="16">
-        <v>276</v>
-      </c>
-      <c r="U37" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="9">
-        <v>4</v>
-      </c>
-      <c r="S38" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="T38" s="16">
-        <v>277</v>
-      </c>
-      <c r="U38" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="S39" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="T39" s="16">
-        <v>278</v>
-      </c>
-      <c r="U39" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="S40" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="T40" s="16">
-        <v>279</v>
-      </c>
-      <c r="U40" s="16" t="s">
-        <v>73</v>
-      </c>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="9">
-        <v>0</v>
-      </c>
-      <c r="B41" s="8">
-        <v>1</v>
-      </c>
-      <c r="C41" s="8">
-        <v>1</v>
-      </c>
-      <c r="S41" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="T41" s="16">
-        <v>280</v>
-      </c>
-      <c r="U41" s="16" t="s">
-        <v>73</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E41" s="8">
+        <v>3</v>
+      </c>
+      <c r="F41" s="8">
+        <v>4</v>
+      </c>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="9">
-        <v>1</v>
-      </c>
-      <c r="D42" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S42" s="16"/>
       <c r="T42" s="16"/>
@@ -4223,12 +4169,6 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="9">
-        <v>2</v>
-      </c>
-      <c r="E43" s="8">
-        <v>3</v>
-      </c>
-      <c r="F43" s="8">
         <v>4</v>
       </c>
       <c r="S43" s="16"/>
@@ -4237,398 +4177,425 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="9">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F44" s="8">
+        <v>4</v>
       </c>
       <c r="S44" s="16"/>
       <c r="T44" s="16"/>
       <c r="U44" s="16"/>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="9">
-        <v>4</v>
-      </c>
+      <c r="A45" s="9"/>
       <c r="S45" s="16"/>
       <c r="T45" s="16"/>
       <c r="U45" s="16"/>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="9">
-        <v>5</v>
-      </c>
-      <c r="F46" s="8">
-        <v>4</v>
-      </c>
+      <c r="A46" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R46" s="8"/>
       <c r="S46" s="16"/>
       <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
+      <c r="U46" s="17"/>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="9"/>
+      <c r="A47" s="9">
+        <v>0</v>
+      </c>
+      <c r="B47" s="8">
+        <v>2</v>
+      </c>
+      <c r="E47" s="8">
+        <v>3</v>
+      </c>
+      <c r="F47" s="8">
+        <v>4</v>
+      </c>
+      <c r="G47" s="8">
+        <v>4</v>
+      </c>
+      <c r="O47" s="9">
+        <v>1</v>
+      </c>
+      <c r="R47" s="8"/>
       <c r="S47" s="16"/>
       <c r="T47" s="16"/>
-      <c r="U47" s="16"/>
+      <c r="U47" s="17"/>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="8" t="s">
+      <c r="A48" s="9">
         <v>1</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O48" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="H48" s="8">
+        <v>5</v>
+      </c>
+      <c r="O48" s="9"/>
       <c r="R48" s="8"/>
       <c r="S48" s="16"/>
       <c r="T48" s="16"/>
-      <c r="U48" s="19"/>
+      <c r="U48" s="17"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="9">
-        <v>0</v>
-      </c>
-      <c r="B49" s="8">
         <v>2</v>
       </c>
-      <c r="E49" s="8">
-        <v>3</v>
-      </c>
-      <c r="F49" s="8">
-        <v>4</v>
-      </c>
-      <c r="G49" s="8">
-        <v>4</v>
-      </c>
-      <c r="O49" s="9">
-        <v>1</v>
-      </c>
+      <c r="I49" s="8">
+        <v>15</v>
+      </c>
+      <c r="O49" s="9"/>
       <c r="R49" s="8"/>
       <c r="S49" s="16"/>
       <c r="T49" s="16"/>
-      <c r="U49" s="19"/>
+      <c r="U49" s="17"/>
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="9">
-        <v>1</v>
-      </c>
-      <c r="H50" s="8">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="I50" s="8">
+        <v>11</v>
       </c>
       <c r="O50" s="9"/>
       <c r="R50" s="8"/>
       <c r="S50" s="16"/>
       <c r="T50" s="16"/>
-      <c r="U50" s="19"/>
+      <c r="U50" s="17"/>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="9">
-        <v>2</v>
-      </c>
-      <c r="I51" s="8">
-        <v>16</v>
-      </c>
-      <c r="O51" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="O51" s="9">
+        <v>6</v>
+      </c>
       <c r="R51" s="8"/>
       <c r="S51" s="16"/>
       <c r="T51" s="16"/>
-      <c r="U51" s="19"/>
+      <c r="U51" s="17"/>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="9">
-        <v>3</v>
-      </c>
-      <c r="I52" s="8">
-        <v>11</v>
-      </c>
-      <c r="O52" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="O52" s="9">
+        <v>7</v>
+      </c>
       <c r="R52" s="8"/>
       <c r="S52" s="16"/>
       <c r="T52" s="16"/>
-      <c r="U52" s="19"/>
+      <c r="U52" s="17"/>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="9">
-        <v>4</v>
-      </c>
-      <c r="O53" s="9">
         <v>6</v>
       </c>
+      <c r="K53" s="8">
+        <v>8</v>
+      </c>
+      <c r="O53" s="9"/>
       <c r="R53" s="8"/>
       <c r="S53" s="16"/>
       <c r="T53" s="16"/>
-      <c r="U53" s="19"/>
+      <c r="U53" s="17"/>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="9">
-        <v>5</v>
-      </c>
-      <c r="O54" s="9">
         <v>7</v>
       </c>
+      <c r="I54" s="8">
+        <v>9</v>
+      </c>
+      <c r="O54" s="9"/>
       <c r="R54" s="8"/>
       <c r="S54" s="16"/>
       <c r="T54" s="16"/>
-      <c r="U54" s="19"/>
+      <c r="U54" s="17"/>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="9">
-        <v>6</v>
-      </c>
-      <c r="K55" s="8">
         <v>8</v>
       </c>
       <c r="O55" s="9"/>
       <c r="R55" s="8"/>
       <c r="S55" s="16"/>
       <c r="T55" s="16"/>
-      <c r="U55" s="19"/>
+      <c r="U55" s="17"/>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="9">
-        <v>7</v>
-      </c>
-      <c r="I56" s="8">
         <v>9</v>
       </c>
-      <c r="K56" s="8">
-        <v>8</v>
-      </c>
-      <c r="O56" s="9"/>
+      <c r="J56" s="8">
+        <v>6</v>
+      </c>
+      <c r="O56" s="9">
+        <v>10</v>
+      </c>
       <c r="R56" s="8"/>
       <c r="S56" s="16"/>
       <c r="T56" s="16"/>
-      <c r="U56" s="19"/>
+      <c r="U56" s="17"/>
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="9">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="J57" s="8">
+        <v>6</v>
+      </c>
+      <c r="L57" s="8">
+        <v>12</v>
       </c>
       <c r="O57" s="9"/>
       <c r="R57" s="8"/>
       <c r="S57" s="16"/>
       <c r="T57" s="16"/>
-      <c r="U57" s="19"/>
+      <c r="U57" s="17"/>
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="9">
-        <v>9</v>
-      </c>
-      <c r="J58" s="8">
-        <v>6</v>
-      </c>
-      <c r="O58" s="9">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="O58" s="9"/>
       <c r="R58" s="8"/>
       <c r="S58" s="16"/>
       <c r="T58" s="16"/>
-      <c r="U58" s="19"/>
+      <c r="U58" s="17"/>
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="9">
+        <v>12</v>
+      </c>
+      <c r="O59" s="9">
         <v>10</v>
       </c>
-      <c r="J59" s="8">
-        <v>6</v>
-      </c>
-      <c r="L59" s="8">
-        <v>13</v>
-      </c>
-      <c r="O59" s="9"/>
       <c r="R59" s="8"/>
       <c r="S59" s="16"/>
       <c r="T59" s="16"/>
-      <c r="U59" s="19"/>
+      <c r="U59" s="17"/>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="9">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="J60" s="8">
+        <v>14</v>
       </c>
       <c r="O60" s="9"/>
       <c r="R60" s="8"/>
       <c r="S60" s="16"/>
       <c r="T60" s="16"/>
-      <c r="U60" s="19"/>
+      <c r="U60" s="17"/>
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="9">
-        <v>12</v>
-      </c>
-      <c r="J61" s="8">
         <v>14</v>
+      </c>
+      <c r="M61" s="8">
+        <v>16</v>
       </c>
       <c r="O61" s="9"/>
       <c r="R61" s="8"/>
       <c r="S61" s="16"/>
       <c r="T61" s="16"/>
-      <c r="U61" s="19"/>
+      <c r="U61" s="17"/>
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="9">
-        <v>13</v>
-      </c>
-      <c r="O62" s="9">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="O62" s="9"/>
       <c r="R62" s="8"/>
       <c r="S62" s="16"/>
       <c r="T62" s="16"/>
-      <c r="U62" s="19"/>
+      <c r="U62" s="17"/>
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="9">
-        <v>14</v>
-      </c>
-      <c r="M63" s="8">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="N63" s="8">
+        <v>8</v>
       </c>
       <c r="O63" s="9"/>
       <c r="R63" s="8"/>
       <c r="S63" s="16"/>
       <c r="T63" s="16"/>
-      <c r="U63" s="19"/>
+      <c r="U63" s="17"/>
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="9">
-        <v>15</v>
-      </c>
-      <c r="N64" s="8">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="J64" s="8">
+        <v>18</v>
       </c>
       <c r="O64" s="9"/>
       <c r="R64" s="8"/>
       <c r="S64" s="16"/>
       <c r="T64" s="16"/>
-      <c r="U64" s="19"/>
+      <c r="U64" s="17"/>
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="9">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="D65" s="8">
+        <v>19</v>
       </c>
       <c r="O65" s="9"/>
       <c r="R65" s="8"/>
       <c r="S65" s="16"/>
       <c r="T65" s="16"/>
-      <c r="U65" s="19"/>
+      <c r="U65" s="17"/>
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="9">
-        <v>17</v>
-      </c>
-      <c r="J66" s="8">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="M66" s="8">
+        <v>20</v>
       </c>
       <c r="O66" s="9"/>
       <c r="R66" s="8"/>
       <c r="S66" s="16"/>
       <c r="T66" s="16"/>
-      <c r="U66" s="19"/>
+      <c r="U66" s="17"/>
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="9">
-        <v>18</v>
-      </c>
-      <c r="D67" s="8">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="N67" s="8">
+        <v>21</v>
       </c>
       <c r="O67" s="9"/>
       <c r="R67" s="8"/>
       <c r="S67" s="16"/>
       <c r="T67" s="16"/>
-      <c r="U67" s="19"/>
+      <c r="U67" s="17"/>
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="9">
-        <v>19</v>
-      </c>
-      <c r="M68" s="8">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C68" s="8">
+        <v>14</v>
       </c>
       <c r="O68" s="9"/>
       <c r="R68" s="8"/>
       <c r="S68" s="16"/>
       <c r="T68" s="16"/>
-      <c r="U68" s="19"/>
+      <c r="U68" s="17"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="9">
-        <v>20</v>
-      </c>
-      <c r="N69" s="8">
-        <v>21</v>
-      </c>
-      <c r="O69" s="9"/>
-      <c r="R69" s="8"/>
       <c r="S69" s="16"/>
       <c r="T69" s="16"/>
-      <c r="U69" s="19"/>
+      <c r="U69" s="16"/>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="9">
-        <v>21</v>
-      </c>
-      <c r="C70" s="8">
-        <v>14</v>
-      </c>
-      <c r="O70" s="9"/>
-      <c r="R70" s="8"/>
       <c r="S70" s="16"/>
       <c r="T70" s="16"/>
-      <c r="U70" s="19"/>
+      <c r="U70" s="16"/>
     </row>
     <row r="71" spans="1:21">
+      <c r="A71" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="S71" s="16"/>
       <c r="T71" s="16"/>
       <c r="U71" s="16"/>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>72</v>
+      <c r="A72" s="9">
+        <v>0</v>
+      </c>
+      <c r="J72" s="8">
+        <v>1</v>
+      </c>
+      <c r="M72" s="8">
+        <v>2</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="16"/>
@@ -4636,15 +4603,9 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="9">
-        <v>0</v>
-      </c>
-      <c r="B73" s="8">
-        <v>2</v>
-      </c>
-      <c r="C73" s="8">
-        <v>2</v>
-      </c>
-      <c r="D73" s="8">
+        <v>1</v>
+      </c>
+      <c r="M73" s="8">
         <v>2</v>
       </c>
       <c r="S73" s="16"/>
@@ -4653,7 +4614,13 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K74" s="8">
+        <v>6</v>
+      </c>
+      <c r="L74" s="8">
+        <v>6</v>
       </c>
       <c r="S74" s="16"/>
       <c r="T74" s="16"/>
@@ -4661,47 +4628,41 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="9">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F75" s="8">
+        <v>4</v>
+      </c>
+      <c r="G75" s="8">
+        <v>4</v>
+      </c>
+      <c r="H75" s="8">
+        <v>5</v>
+      </c>
+      <c r="I75" s="8">
+        <v>5</v>
+      </c>
+      <c r="K75" s="8">
+        <v>6</v>
+      </c>
+      <c r="L75" s="8">
+        <v>6</v>
       </c>
       <c r="S75" s="16"/>
       <c r="T75" s="16"/>
       <c r="U75" s="16"/>
     </row>
     <row r="76" spans="1:21">
+      <c r="A76" s="9">
+        <v>4</v>
+      </c>
       <c r="S76" s="16"/>
       <c r="T76" s="16"/>
       <c r="U76" s="16"/>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>84</v>
+      <c r="A77" s="9">
+        <v>5</v>
       </c>
       <c r="S77" s="16"/>
       <c r="T77" s="16"/>
@@ -4709,58 +4670,59 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="9">
-        <v>0</v>
-      </c>
-      <c r="B78" s="8">
-        <v>3</v>
-      </c>
-      <c r="C78" s="8">
-        <v>3</v>
-      </c>
-      <c r="D78" s="8">
+        <v>6</v>
+      </c>
+      <c r="F78" s="8">
         <v>4</v>
-      </c>
-      <c r="J78" s="8">
-        <v>2</v>
       </c>
       <c r="S78" s="16"/>
       <c r="T78" s="16"/>
       <c r="U78" s="16"/>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="9">
-        <v>1</v>
-      </c>
-      <c r="F79" s="8">
-        <v>5</v>
-      </c>
-      <c r="G79" s="8">
-        <v>5</v>
-      </c>
-      <c r="H79" s="8">
-        <v>6</v>
-      </c>
-      <c r="I79" s="8">
-        <v>6</v>
-      </c>
+      <c r="A79" s="9"/>
       <c r="S79" s="16"/>
       <c r="T79" s="16"/>
       <c r="U79" s="16"/>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="9">
-        <v>2</v>
-      </c>
-      <c r="F80" s="8">
-        <v>8</v>
-      </c>
       <c r="S80" s="16"/>
       <c r="T80" s="16"/>
       <c r="U80" s="16"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="9">
-        <v>3</v>
+      <c r="A81" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J81" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K81" s="8" t="b">
+        <v>0</v>
       </c>
       <c r="S81" s="16"/>
       <c r="T81" s="16"/>
@@ -4768,7 +4730,22 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="9">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="B82" s="8">
+        <v>2</v>
+      </c>
+      <c r="H82" s="8">
+        <v>1</v>
+      </c>
+      <c r="I82" s="8">
+        <v>1</v>
+      </c>
+      <c r="J82" s="8">
+        <v>1</v>
+      </c>
+      <c r="K82" s="8">
+        <v>1</v>
       </c>
       <c r="S82" s="16"/>
       <c r="T82" s="16"/>
@@ -4776,7 +4753,19 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" s="9">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="D83" s="8">
+        <v>0</v>
+      </c>
+      <c r="E83" s="8">
+        <v>0</v>
+      </c>
+      <c r="F83" s="8">
+        <v>0</v>
+      </c>
+      <c r="G83" s="8">
+        <v>0</v>
       </c>
       <c r="S83" s="16"/>
       <c r="T83" s="16"/>
@@ -4784,10 +4773,7 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="9">
-        <v>6</v>
-      </c>
-      <c r="F84" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S84" s="16"/>
       <c r="T84" s="16"/>
@@ -4795,19 +4781,16 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="9">
-        <v>7</v>
-      </c>
-      <c r="E85" s="8">
         <v>3</v>
+      </c>
+      <c r="C85" s="8">
+        <v>1</v>
       </c>
       <c r="S85" s="16"/>
       <c r="T85" s="16"/>
       <c r="U85" s="16"/>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="9">
-        <v>8</v>
-      </c>
       <c r="S86" s="16"/>
       <c r="T86" s="16"/>
       <c r="U86" s="16"/>
@@ -4818,116 +4801,22 @@
       <c r="U87" s="16"/>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="A88" s="9"/>
       <c r="S88" s="16"/>
       <c r="T88" s="16"/>
       <c r="U88" s="16"/>
     </row>
     <row r="89" spans="1:21">
-      <c r="A89" s="9">
-        <v>0</v>
-      </c>
-      <c r="B89" s="8">
-        <v>2</v>
-      </c>
+      <c r="A89" s="9"/>
       <c r="S89" s="16"/>
       <c r="T89" s="16"/>
       <c r="U89" s="16"/>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="9">
-        <v>1</v>
-      </c>
-      <c r="D90" s="8">
-        <v>3</v>
-      </c>
-      <c r="E90" s="8">
-        <v>3</v>
-      </c>
-      <c r="F90" s="8">
-        <v>3</v>
-      </c>
-      <c r="G90" s="8">
-        <v>3</v>
-      </c>
+      <c r="A90" s="9"/>
       <c r="S90" s="16"/>
       <c r="T90" s="16"/>
       <c r="U90" s="16"/>
-    </row>
-    <row r="91" spans="1:21">
-      <c r="A91" s="9">
-        <v>2</v>
-      </c>
-      <c r="S91" s="16"/>
-      <c r="T91" s="16"/>
-      <c r="U91" s="16"/>
-    </row>
-    <row r="92" spans="1:21">
-      <c r="A92" s="9">
-        <v>3</v>
-      </c>
-      <c r="S92" s="16"/>
-      <c r="T92" s="16"/>
-      <c r="U92" s="16"/>
-    </row>
-    <row r="93" spans="1:21">
-      <c r="A93" s="9">
-        <v>4</v>
-      </c>
-      <c r="C93" s="8">
-        <v>1</v>
-      </c>
-      <c r="S93" s="16"/>
-      <c r="T93" s="16"/>
-      <c r="U93" s="16"/>
-    </row>
-    <row r="94" spans="1:21">
-      <c r="S94" s="16"/>
-      <c r="T94" s="16"/>
-      <c r="U94" s="16"/>
-    </row>
-    <row r="95" spans="1:21">
-      <c r="S95" s="16"/>
-      <c r="T95" s="16"/>
-      <c r="U95" s="16"/>
-    </row>
-    <row r="96" spans="1:21">
-      <c r="A96" s="9"/>
-      <c r="S96" s="16"/>
-      <c r="T96" s="16"/>
-      <c r="U96" s="16"/>
-    </row>
-    <row r="97" spans="1:21">
-      <c r="A97" s="9"/>
-      <c r="S97" s="16"/>
-      <c r="T97" s="16"/>
-      <c r="U97" s="16"/>
-    </row>
-    <row r="98" spans="1:21">
-      <c r="A98" s="9"/>
-      <c r="S98" s="16"/>
-      <c r="T98" s="16"/>
-      <c r="U98" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4943,10 +4832,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4962,7 +4851,7 @@
         <v>55</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4970,16 +4859,16 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4995,10 +4884,10 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -5017,7 +4906,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -5037,7 +4926,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -5057,7 +4946,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -5069,7 +4958,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="6"/>
@@ -5077,7 +4966,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -5089,7 +4978,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
@@ -5103,12 +4992,8 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="11"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -5134,39 +5019,36 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>83</v>
+      <c r="A13" s="4">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
@@ -5177,24 +5059,24 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="4">
-        <v>3</v>
-      </c>
       <c r="C15" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5202,15 +5084,15 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>4</v>
@@ -5221,13 +5103,13 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5235,15 +5117,15 @@
         <v>14</v>
       </c>
       <c r="B20" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
@@ -5252,265 +5134,216 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4">
-        <v>15</v>
-      </c>
-      <c r="B22" s="4">
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4">
         <v>4</v>
       </c>
-      <c r="C22" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4">
         <v>3</v>
       </c>
-      <c r="B26" s="4">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4">
-        <v>3</v>
-      </c>
-      <c r="B30" s="4">
-        <v>7</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B29" s="4">
         <v>5</v>
       </c>
+      <c r="C29" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="4">
-        <v>3</v>
-      </c>
-      <c r="B31" s="4">
+      <c r="A31" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4">
         <v>5</v>
       </c>
-      <c r="C31" s="4">
+      <c r="B33" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>88</v>
+      <c r="C33" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>83</v>
+      <c r="A34" s="4">
+        <v>11</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5</v>
+      </c>
+      <c r="C34" s="4">
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B35" s="4">
         <v>5</v>
       </c>
       <c r="C35" s="4">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B36" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C36" s="4">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B37" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4">
-        <v>16</v>
-      </c>
-      <c r="B38" s="4">
-        <v>5</v>
-      </c>
-      <c r="C38" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="4">
-        <v>20</v>
-      </c>
-      <c r="B39" s="4">
-        <v>4</v>
-      </c>
-      <c r="C39" s="4">
-        <v>20</v>
+      <c r="A39" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="4" t="s">
-        <v>89</v>
+      <c r="A41" s="4">
+        <v>0</v>
+      </c>
+      <c r="B41" s="4">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>83</v>
+      <c r="A42" s="4">
+        <v>1</v>
+      </c>
+      <c r="B42" s="4">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B43" s="4">
         <v>6</v>
       </c>
       <c r="C43" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4">
+        <v>5</v>
+      </c>
+      <c r="B44" s="4">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4">
         <v>2</v>
       </c>
-      <c r="B44" s="4">
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4">
+        <v>6</v>
+      </c>
+      <c r="B45" s="4">
         <v>5</v>
       </c>
-      <c r="C44" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="4" t="s">
-        <v>90</v>
+      <c r="C45" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="4">
-        <v>0</v>
-      </c>
-      <c r="B47" s="4">
-        <v>7</v>
-      </c>
-      <c r="C47" s="4">
-        <v>1</v>
+      <c r="A47" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="4">
-        <v>5</v>
-      </c>
-      <c r="B49" s="4">
-        <v>7</v>
-      </c>
-      <c r="C49" s="4">
         <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="4">
-        <v>6</v>
-      </c>
-      <c r="B50" s="4">
-        <v>7</v>
-      </c>
-      <c r="C50" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="4">
-        <v>2</v>
-      </c>
-      <c r="B53" s="4">
-        <v>7</v>
-      </c>
-      <c r="C53" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="4">
-        <v>3</v>
-      </c>
-      <c r="B54" s="4">
-        <v>7</v>
-      </c>
-      <c r="C54" s="4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5536,24 +5369,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B2" s="12">
         <v>256</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5564,18 +5397,18 @@
         <v>257</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="12">
         <v>258</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5745,7 +5578,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B20" s="12">
         <v>259</v>
@@ -5762,7 +5595,7 @@
         <v>260</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5773,7 +5606,7 @@
         <v>261</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5784,7 +5617,7 @@
         <v>262</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5795,7 +5628,7 @@
         <v>263</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5806,7 +5639,7 @@
         <v>264</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5817,7 +5650,7 @@
         <v>265</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5828,7 +5661,7 @@
         <v>266</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5839,7 +5672,7 @@
         <v>267</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5850,7 +5683,7 @@
         <v>268</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5861,7 +5694,7 @@
         <v>269</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5872,7 +5705,7 @@
         <v>270</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5883,7 +5716,7 @@
         <v>271</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5894,7 +5727,7 @@
         <v>272</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5905,7 +5738,7 @@
         <v>273</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5916,7 +5749,7 @@
         <v>274</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5927,7 +5760,7 @@
         <v>275</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5938,7 +5771,7 @@
         <v>276</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5949,29 +5782,29 @@
         <v>277</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="24" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="12">
         <v>278</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="12">
         <v>279</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5982,7 +5815,7 @@
         <v>280</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -6006,374 +5839,373 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>84</v>
+      <c r="L1" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="21">
+      <c r="A2" s="19">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="19">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="19">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="19">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="19">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="19">
+        <v>10</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="21">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22" t="s">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="19">
+        <v>11</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="19">
+        <v>12</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="19">
+        <v>13</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="21">
-        <v>2</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="21">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="21">
-        <v>4</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="21">
-        <v>5</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22" t="s">
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="19">
+        <v>14</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="21">
-        <v>6</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22" t="s">
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="19">
+        <v>15</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="21">
-        <v>7</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22" t="s">
+      <c r="K17" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="19">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="21">
-        <v>8</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="21">
-        <v>9</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="21">
-        <v>10</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="21">
-        <v>11</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="21">
-        <v>12</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="21">
-        <v>13</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="21">
-        <v>14</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" s="21"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="21">
-        <v>15</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="L17" s="21"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="21">
-        <v>16</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="21">
+      <c r="A19" s="19">
         <v>17</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6401,38 +6233,38 @@
         <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="12">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>93</v>
+      <c r="B2" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="12">
@@ -6441,16 +6273,16 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="E3" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="12">
@@ -6458,17 +6290,17 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="23" t="s">
-        <v>94</v>
+      <c r="D4" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="12">
@@ -6478,13 +6310,13 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="12">
@@ -6494,199 +6326,198 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="21"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="21"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6714,12 +6545,12 @@
         <v>50</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6727,11 +6558,11 @@
       <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>93</v>
+      <c r="B2" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -6743,8 +6574,8 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="24" t="s">
-        <v>107</v>
+      <c r="D3" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -6756,11 +6587,11 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>95</v>
+      <c r="E4" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6791,8 +6622,8 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="24" t="s">
-        <v>95</v>
+      <c r="F7" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/config/input.xlsx
+++ b/config/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="0" windowWidth="17440" windowHeight="15620" tabRatio="884" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24700" windowHeight="15620" tabRatio="884" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PalavrasReservadas" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,12 @@
     <sheet name="4.Diretas" sheetId="9" r:id="rId10"/>
     <sheet name="5.Diretas" sheetId="10" r:id="rId11"/>
     <sheet name="6.Diretas" sheetId="11" r:id="rId12"/>
-    <sheet name="7.Diretas" sheetId="12" r:id="rId13"/>
-    <sheet name="1.Indiretas" sheetId="14" r:id="rId14"/>
-    <sheet name="2.Indiretas" sheetId="15" r:id="rId15"/>
-    <sheet name="3.Indiretas" sheetId="16" r:id="rId16"/>
-    <sheet name="4.Indiretas" sheetId="17" r:id="rId17"/>
-    <sheet name="5.Indiretas" sheetId="18" r:id="rId18"/>
-    <sheet name="6.Indiretas" sheetId="19" r:id="rId19"/>
-    <sheet name="7.Indiretas" sheetId="20" r:id="rId20"/>
+    <sheet name="1.Indiretas" sheetId="14" r:id="rId13"/>
+    <sheet name="2.Indiretas" sheetId="15" r:id="rId14"/>
+    <sheet name="3.Indiretas" sheetId="16" r:id="rId15"/>
+    <sheet name="4.Indiretas" sheetId="17" r:id="rId16"/>
+    <sheet name="5.Indiretas" sheetId="18" r:id="rId17"/>
+    <sheet name="6.Indiretas" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="92">
   <si>
     <t>if</t>
   </si>
@@ -299,72 +297,6 @@
   </si>
   <si>
     <t>Num. Maq.</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>expressao</t>
@@ -447,8 +379,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="183">
+  <cellStyleXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -691,7 +655,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="183">
+  <cellStyles count="215">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -783,6 +747,22 @@
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -874,6 +854,22 @@
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1394,7 +1390,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B2" sqref="B2:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1448,474 +1444,1347 @@
       <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="23" t="s">
-        <v>87</v>
+      <c r="B2" s="22" t="str">
+        <f>TEXT(Automatos!B47, "##")</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="22" t="str">
+        <f>TEXT(Automatos!C47, "##")</f>
+        <v/>
+      </c>
+      <c r="D2" s="22" t="str">
+        <f>TEXT(Automatos!D47, "##")</f>
+        <v/>
+      </c>
+      <c r="E2" s="22" t="str">
+        <f>TEXT(Automatos!E47, "##")</f>
+        <v>3</v>
+      </c>
+      <c r="F2" s="22" t="str">
+        <f>TEXT(Automatos!F47, "##")</f>
+        <v>4</v>
+      </c>
+      <c r="G2" s="22" t="str">
+        <f>TEXT(Automatos!G47, "##")</f>
+        <v>4</v>
+      </c>
+      <c r="H2" s="22" t="str">
+        <f>TEXT(Automatos!H47, "##")</f>
+        <v/>
+      </c>
+      <c r="I2" s="22" t="str">
+        <f>TEXT(Automatos!I47, "##")</f>
+        <v/>
+      </c>
+      <c r="J2" s="22" t="str">
+        <f>TEXT(Automatos!J47, "##")</f>
+        <v/>
+      </c>
+      <c r="K2" s="22" t="str">
+        <f>TEXT(Automatos!K47, "##")</f>
+        <v/>
+      </c>
+      <c r="L2" s="22" t="str">
+        <f>TEXT(Automatos!L47, "##")</f>
+        <v/>
+      </c>
+      <c r="M2" s="22" t="str">
+        <f>TEXT(Automatos!M47, "##")</f>
+        <v/>
+      </c>
+      <c r="N2" s="22" t="str">
+        <f>TEXT(Automatos!N47, "##")</f>
+        <v/>
+      </c>
+      <c r="O2" s="22" t="str">
+        <f>TEXT(Automatos!O47, "##")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
+      <c r="B3" s="22" t="str">
+        <f>TEXT(Automatos!B48, "##")</f>
+        <v/>
+      </c>
+      <c r="C3" s="22" t="str">
+        <f>TEXT(Automatos!C48, "##")</f>
+        <v/>
+      </c>
+      <c r="D3" s="22" t="str">
+        <f>TEXT(Automatos!D48, "##")</f>
+        <v/>
+      </c>
+      <c r="E3" s="22" t="str">
+        <f>TEXT(Automatos!E48, "##")</f>
+        <v/>
+      </c>
+      <c r="F3" s="22" t="str">
+        <f>TEXT(Automatos!F48, "##")</f>
+        <v/>
+      </c>
+      <c r="G3" s="22" t="str">
+        <f>TEXT(Automatos!G48, "##")</f>
+        <v/>
+      </c>
+      <c r="H3" s="22" t="str">
+        <f>TEXT(Automatos!H48, "##")</f>
+        <v>5</v>
+      </c>
+      <c r="I3" s="22" t="str">
+        <f>TEXT(Automatos!I48, "##")</f>
+        <v/>
+      </c>
+      <c r="J3" s="22" t="str">
+        <f>TEXT(Automatos!J48, "##")</f>
+        <v/>
+      </c>
+      <c r="K3" s="22" t="str">
+        <f>TEXT(Automatos!K48, "##")</f>
+        <v/>
+      </c>
+      <c r="L3" s="22" t="str">
+        <f>TEXT(Automatos!L48, "##")</f>
+        <v/>
+      </c>
+      <c r="M3" s="22" t="str">
+        <f>TEXT(Automatos!M48, "##")</f>
+        <v/>
+      </c>
+      <c r="N3" s="22" t="str">
+        <f>TEXT(Automatos!N48, "##")</f>
+        <v/>
+      </c>
+      <c r="O3" s="22" t="str">
+        <f>TEXT(Automatos!O48, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
+      <c r="B4" s="22" t="str">
+        <f>TEXT(Automatos!B49, "##")</f>
+        <v/>
+      </c>
+      <c r="C4" s="22" t="str">
+        <f>TEXT(Automatos!C49, "##")</f>
+        <v/>
+      </c>
+      <c r="D4" s="22" t="str">
+        <f>TEXT(Automatos!D49, "##")</f>
+        <v/>
+      </c>
+      <c r="E4" s="22" t="str">
+        <f>TEXT(Automatos!E49, "##")</f>
+        <v/>
+      </c>
+      <c r="F4" s="22" t="str">
+        <f>TEXT(Automatos!F49, "##")</f>
+        <v/>
+      </c>
+      <c r="G4" s="22" t="str">
+        <f>TEXT(Automatos!G49, "##")</f>
+        <v/>
+      </c>
+      <c r="H4" s="22" t="str">
+        <f>TEXT(Automatos!H49, "##")</f>
+        <v/>
+      </c>
+      <c r="I4" s="22" t="str">
+        <f>TEXT(Automatos!I49, "##")</f>
+        <v>15</v>
+      </c>
+      <c r="J4" s="22" t="str">
+        <f>TEXT(Automatos!J49, "##")</f>
+        <v/>
+      </c>
+      <c r="K4" s="22" t="str">
+        <f>TEXT(Automatos!K49, "##")</f>
+        <v/>
+      </c>
+      <c r="L4" s="22" t="str">
+        <f>TEXT(Automatos!L49, "##")</f>
+        <v/>
+      </c>
+      <c r="M4" s="22" t="str">
+        <f>TEXT(Automatos!M49, "##")</f>
+        <v/>
+      </c>
+      <c r="N4" s="22" t="str">
+        <f>TEXT(Automatos!N49, "##")</f>
+        <v/>
+      </c>
+      <c r="O4" s="22" t="str">
+        <f>TEXT(Automatos!O49, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
+      <c r="B5" s="22" t="str">
+        <f>TEXT(Automatos!B50, "##")</f>
+        <v/>
+      </c>
+      <c r="C5" s="22" t="str">
+        <f>TEXT(Automatos!C50, "##")</f>
+        <v/>
+      </c>
+      <c r="D5" s="22" t="str">
+        <f>TEXT(Automatos!D50, "##")</f>
+        <v/>
+      </c>
+      <c r="E5" s="22" t="str">
+        <f>TEXT(Automatos!E50, "##")</f>
+        <v/>
+      </c>
+      <c r="F5" s="22" t="str">
+        <f>TEXT(Automatos!F50, "##")</f>
+        <v/>
+      </c>
+      <c r="G5" s="22" t="str">
+        <f>TEXT(Automatos!G50, "##")</f>
+        <v/>
+      </c>
+      <c r="H5" s="22" t="str">
+        <f>TEXT(Automatos!H50, "##")</f>
+        <v/>
+      </c>
+      <c r="I5" s="22" t="str">
+        <f>TEXT(Automatos!I50, "##")</f>
+        <v>11</v>
+      </c>
+      <c r="J5" s="22" t="str">
+        <f>TEXT(Automatos!J50, "##")</f>
+        <v/>
+      </c>
+      <c r="K5" s="22" t="str">
+        <f>TEXT(Automatos!K50, "##")</f>
+        <v/>
+      </c>
+      <c r="L5" s="22" t="str">
+        <f>TEXT(Automatos!L50, "##")</f>
+        <v/>
+      </c>
+      <c r="M5" s="22" t="str">
+        <f>TEXT(Automatos!M50, "##")</f>
+        <v/>
+      </c>
+      <c r="N5" s="22" t="str">
+        <f>TEXT(Automatos!N50, "##")</f>
+        <v/>
+      </c>
+      <c r="O5" s="22" t="str">
+        <f>TEXT(Automatos!O50, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="23" t="s">
-        <v>100</v>
+      <c r="B6" s="22" t="str">
+        <f>TEXT(Automatos!B51, "##")</f>
+        <v/>
+      </c>
+      <c r="C6" s="22" t="str">
+        <f>TEXT(Automatos!C51, "##")</f>
+        <v/>
+      </c>
+      <c r="D6" s="22" t="str">
+        <f>TEXT(Automatos!D51, "##")</f>
+        <v/>
+      </c>
+      <c r="E6" s="22" t="str">
+        <f>TEXT(Automatos!E51, "##")</f>
+        <v/>
+      </c>
+      <c r="F6" s="22" t="str">
+        <f>TEXT(Automatos!F51, "##")</f>
+        <v/>
+      </c>
+      <c r="G6" s="22" t="str">
+        <f>TEXT(Automatos!G51, "##")</f>
+        <v/>
+      </c>
+      <c r="H6" s="22" t="str">
+        <f>TEXT(Automatos!H51, "##")</f>
+        <v/>
+      </c>
+      <c r="I6" s="22" t="str">
+        <f>TEXT(Automatos!I51, "##")</f>
+        <v/>
+      </c>
+      <c r="J6" s="22" t="str">
+        <f>TEXT(Automatos!J51, "##")</f>
+        <v/>
+      </c>
+      <c r="K6" s="22" t="str">
+        <f>TEXT(Automatos!K51, "##")</f>
+        <v/>
+      </c>
+      <c r="L6" s="22" t="str">
+        <f>TEXT(Automatos!L51, "##")</f>
+        <v/>
+      </c>
+      <c r="M6" s="22" t="str">
+        <f>TEXT(Automatos!M51, "##")</f>
+        <v/>
+      </c>
+      <c r="N6" s="22" t="str">
+        <f>TEXT(Automatos!N51, "##")</f>
+        <v/>
+      </c>
+      <c r="O6" s="22" t="str">
+        <f>TEXT(Automatos!O51, "##")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="23" t="s">
-        <v>92</v>
+      <c r="B7" s="22" t="str">
+        <f>TEXT(Automatos!B52, "##")</f>
+        <v/>
+      </c>
+      <c r="C7" s="22" t="str">
+        <f>TEXT(Automatos!C52, "##")</f>
+        <v/>
+      </c>
+      <c r="D7" s="22" t="str">
+        <f>TEXT(Automatos!D52, "##")</f>
+        <v/>
+      </c>
+      <c r="E7" s="22" t="str">
+        <f>TEXT(Automatos!E52, "##")</f>
+        <v/>
+      </c>
+      <c r="F7" s="22" t="str">
+        <f>TEXT(Automatos!F52, "##")</f>
+        <v/>
+      </c>
+      <c r="G7" s="22" t="str">
+        <f>TEXT(Automatos!G52, "##")</f>
+        <v/>
+      </c>
+      <c r="H7" s="22" t="str">
+        <f>TEXT(Automatos!H52, "##")</f>
+        <v/>
+      </c>
+      <c r="I7" s="22" t="str">
+        <f>TEXT(Automatos!I52, "##")</f>
+        <v/>
+      </c>
+      <c r="J7" s="22" t="str">
+        <f>TEXT(Automatos!J52, "##")</f>
+        <v/>
+      </c>
+      <c r="K7" s="22" t="str">
+        <f>TEXT(Automatos!K52, "##")</f>
+        <v/>
+      </c>
+      <c r="L7" s="22" t="str">
+        <f>TEXT(Automatos!L52, "##")</f>
+        <v/>
+      </c>
+      <c r="M7" s="22" t="str">
+        <f>TEXT(Automatos!M52, "##")</f>
+        <v/>
+      </c>
+      <c r="N7" s="22" t="str">
+        <f>TEXT(Automatos!N52, "##")</f>
+        <v/>
+      </c>
+      <c r="O7" s="22" t="str">
+        <f>TEXT(Automatos!O52, "##")</f>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
+      <c r="B8" s="22" t="str">
+        <f>TEXT(Automatos!B53, "##")</f>
+        <v/>
+      </c>
+      <c r="C8" s="22" t="str">
+        <f>TEXT(Automatos!C53, "##")</f>
+        <v/>
+      </c>
+      <c r="D8" s="22" t="str">
+        <f>TEXT(Automatos!D53, "##")</f>
+        <v/>
+      </c>
+      <c r="E8" s="22" t="str">
+        <f>TEXT(Automatos!E53, "##")</f>
+        <v/>
+      </c>
+      <c r="F8" s="22" t="str">
+        <f>TEXT(Automatos!F53, "##")</f>
+        <v/>
+      </c>
+      <c r="G8" s="22" t="str">
+        <f>TEXT(Automatos!G53, "##")</f>
+        <v/>
+      </c>
+      <c r="H8" s="22" t="str">
+        <f>TEXT(Automatos!H53, "##")</f>
+        <v/>
+      </c>
+      <c r="I8" s="22" t="str">
+        <f>TEXT(Automatos!I53, "##")</f>
+        <v/>
+      </c>
+      <c r="J8" s="22" t="str">
+        <f>TEXT(Automatos!J53, "##")</f>
+        <v/>
+      </c>
+      <c r="K8" s="22" t="str">
+        <f>TEXT(Automatos!K53, "##")</f>
+        <v>8</v>
+      </c>
+      <c r="L8" s="22" t="str">
+        <f>TEXT(Automatos!L53, "##")</f>
+        <v/>
+      </c>
+      <c r="M8" s="22" t="str">
+        <f>TEXT(Automatos!M53, "##")</f>
+        <v/>
+      </c>
+      <c r="N8" s="22" t="str">
+        <f>TEXT(Automatos!N53, "##")</f>
+        <v/>
+      </c>
+      <c r="O8" s="22" t="str">
+        <f>TEXT(Automatos!O53, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
+      <c r="B9" s="22" t="str">
+        <f>TEXT(Automatos!B54, "##")</f>
+        <v/>
+      </c>
+      <c r="C9" s="22" t="str">
+        <f>TEXT(Automatos!C54, "##")</f>
+        <v/>
+      </c>
+      <c r="D9" s="22" t="str">
+        <f>TEXT(Automatos!D54, "##")</f>
+        <v/>
+      </c>
+      <c r="E9" s="22" t="str">
+        <f>TEXT(Automatos!E54, "##")</f>
+        <v/>
+      </c>
+      <c r="F9" s="22" t="str">
+        <f>TEXT(Automatos!F54, "##")</f>
+        <v/>
+      </c>
+      <c r="G9" s="22" t="str">
+        <f>TEXT(Automatos!G54, "##")</f>
+        <v/>
+      </c>
+      <c r="H9" s="22" t="str">
+        <f>TEXT(Automatos!H54, "##")</f>
+        <v/>
+      </c>
+      <c r="I9" s="22" t="str">
+        <f>TEXT(Automatos!I54, "##")</f>
+        <v>9</v>
+      </c>
+      <c r="J9" s="22" t="str">
+        <f>TEXT(Automatos!J54, "##")</f>
+        <v/>
+      </c>
+      <c r="K9" s="22" t="str">
+        <f>TEXT(Automatos!K54, "##")</f>
+        <v/>
+      </c>
+      <c r="L9" s="22" t="str">
+        <f>TEXT(Automatos!L54, "##")</f>
+        <v/>
+      </c>
+      <c r="M9" s="22" t="str">
+        <f>TEXT(Automatos!M54, "##")</f>
+        <v/>
+      </c>
+      <c r="N9" s="22" t="str">
+        <f>TEXT(Automatos!N54, "##")</f>
+        <v/>
+      </c>
+      <c r="O9" s="22" t="str">
+        <f>TEXT(Automatos!O54, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
+      <c r="B10" s="22" t="str">
+        <f>TEXT(Automatos!B55, "##")</f>
+        <v/>
+      </c>
+      <c r="C10" s="22" t="str">
+        <f>TEXT(Automatos!C55, "##")</f>
+        <v/>
+      </c>
+      <c r="D10" s="22" t="str">
+        <f>TEXT(Automatos!D55, "##")</f>
+        <v/>
+      </c>
+      <c r="E10" s="22" t="str">
+        <f>TEXT(Automatos!E55, "##")</f>
+        <v/>
+      </c>
+      <c r="F10" s="22" t="str">
+        <f>TEXT(Automatos!F55, "##")</f>
+        <v/>
+      </c>
+      <c r="G10" s="22" t="str">
+        <f>TEXT(Automatos!G55, "##")</f>
+        <v/>
+      </c>
+      <c r="H10" s="22" t="str">
+        <f>TEXT(Automatos!H55, "##")</f>
+        <v/>
+      </c>
+      <c r="I10" s="22" t="str">
+        <f>TEXT(Automatos!I55, "##")</f>
+        <v/>
+      </c>
+      <c r="J10" s="22" t="str">
+        <f>TEXT(Automatos!J55, "##")</f>
+        <v/>
+      </c>
+      <c r="K10" s="22" t="str">
+        <f>TEXT(Automatos!K55, "##")</f>
+        <v/>
+      </c>
+      <c r="L10" s="22" t="str">
+        <f>TEXT(Automatos!L55, "##")</f>
+        <v/>
+      </c>
+      <c r="M10" s="22" t="str">
+        <f>TEXT(Automatos!M55, "##")</f>
+        <v/>
+      </c>
+      <c r="N10" s="22" t="str">
+        <f>TEXT(Automatos!N55, "##")</f>
+        <v/>
+      </c>
+      <c r="O10" s="22" t="str">
+        <f>TEXT(Automatos!O55, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="23" t="s">
-        <v>103</v>
+      <c r="B11" s="22" t="str">
+        <f>TEXT(Automatos!B56, "##")</f>
+        <v/>
+      </c>
+      <c r="C11" s="22" t="str">
+        <f>TEXT(Automatos!C56, "##")</f>
+        <v/>
+      </c>
+      <c r="D11" s="22" t="str">
+        <f>TEXT(Automatos!D56, "##")</f>
+        <v/>
+      </c>
+      <c r="E11" s="22" t="str">
+        <f>TEXT(Automatos!E56, "##")</f>
+        <v/>
+      </c>
+      <c r="F11" s="22" t="str">
+        <f>TEXT(Automatos!F56, "##")</f>
+        <v/>
+      </c>
+      <c r="G11" s="22" t="str">
+        <f>TEXT(Automatos!G56, "##")</f>
+        <v/>
+      </c>
+      <c r="H11" s="22" t="str">
+        <f>TEXT(Automatos!H56, "##")</f>
+        <v/>
+      </c>
+      <c r="I11" s="22" t="str">
+        <f>TEXT(Automatos!I56, "##")</f>
+        <v/>
+      </c>
+      <c r="J11" s="22" t="str">
+        <f>TEXT(Automatos!J56, "##")</f>
+        <v>6</v>
+      </c>
+      <c r="K11" s="22" t="str">
+        <f>TEXT(Automatos!K56, "##")</f>
+        <v/>
+      </c>
+      <c r="L11" s="22" t="str">
+        <f>TEXT(Automatos!L56, "##")</f>
+        <v/>
+      </c>
+      <c r="M11" s="22" t="str">
+        <f>TEXT(Automatos!M56, "##")</f>
+        <v/>
+      </c>
+      <c r="N11" s="22" t="str">
+        <f>TEXT(Automatos!N56, "##")</f>
+        <v/>
+      </c>
+      <c r="O11" s="22" t="str">
+        <f>TEXT(Automatos!O56, "##")</f>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
+      <c r="B12" s="22" t="str">
+        <f>TEXT(Automatos!B57, "##")</f>
+        <v/>
+      </c>
+      <c r="C12" s="22" t="str">
+        <f>TEXT(Automatos!C57, "##")</f>
+        <v/>
+      </c>
+      <c r="D12" s="22" t="str">
+        <f>TEXT(Automatos!D57, "##")</f>
+        <v/>
+      </c>
+      <c r="E12" s="22" t="str">
+        <f>TEXT(Automatos!E57, "##")</f>
+        <v/>
+      </c>
+      <c r="F12" s="22" t="str">
+        <f>TEXT(Automatos!F57, "##")</f>
+        <v/>
+      </c>
+      <c r="G12" s="22" t="str">
+        <f>TEXT(Automatos!G57, "##")</f>
+        <v/>
+      </c>
+      <c r="H12" s="22" t="str">
+        <f>TEXT(Automatos!H57, "##")</f>
+        <v/>
+      </c>
+      <c r="I12" s="22" t="str">
+        <f>TEXT(Automatos!I57, "##")</f>
+        <v/>
+      </c>
+      <c r="J12" s="22" t="str">
+        <f>TEXT(Automatos!J57, "##")</f>
+        <v>6</v>
+      </c>
+      <c r="K12" s="22" t="str">
+        <f>TEXT(Automatos!K57, "##")</f>
+        <v/>
+      </c>
+      <c r="L12" s="22" t="str">
+        <f>TEXT(Automatos!L57, "##")</f>
+        <v>12</v>
+      </c>
+      <c r="M12" s="22" t="str">
+        <f>TEXT(Automatos!M57, "##")</f>
+        <v/>
+      </c>
+      <c r="N12" s="22" t="str">
+        <f>TEXT(Automatos!N57, "##")</f>
+        <v/>
+      </c>
+      <c r="O12" s="22" t="str">
+        <f>TEXT(Automatos!O57, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
+      <c r="B13" s="22" t="str">
+        <f>TEXT(Automatos!B58, "##")</f>
+        <v/>
+      </c>
+      <c r="C13" s="22" t="str">
+        <f>TEXT(Automatos!C58, "##")</f>
+        <v/>
+      </c>
+      <c r="D13" s="22" t="str">
+        <f>TEXT(Automatos!D58, "##")</f>
+        <v/>
+      </c>
+      <c r="E13" s="22" t="str">
+        <f>TEXT(Automatos!E58, "##")</f>
+        <v/>
+      </c>
+      <c r="F13" s="22" t="str">
+        <f>TEXT(Automatos!F58, "##")</f>
+        <v/>
+      </c>
+      <c r="G13" s="22" t="str">
+        <f>TEXT(Automatos!G58, "##")</f>
+        <v/>
+      </c>
+      <c r="H13" s="22" t="str">
+        <f>TEXT(Automatos!H58, "##")</f>
+        <v/>
+      </c>
+      <c r="I13" s="22" t="str">
+        <f>TEXT(Automatos!I58, "##")</f>
+        <v/>
+      </c>
+      <c r="J13" s="22" t="str">
+        <f>TEXT(Automatos!J58, "##")</f>
+        <v/>
+      </c>
+      <c r="K13" s="22" t="str">
+        <f>TEXT(Automatos!K58, "##")</f>
+        <v/>
+      </c>
+      <c r="L13" s="22" t="str">
+        <f>TEXT(Automatos!L58, "##")</f>
+        <v/>
+      </c>
+      <c r="M13" s="22" t="str">
+        <f>TEXT(Automatos!M58, "##")</f>
+        <v/>
+      </c>
+      <c r="N13" s="22" t="str">
+        <f>TEXT(Automatos!N58, "##")</f>
+        <v/>
+      </c>
+      <c r="O13" s="22" t="str">
+        <f>TEXT(Automatos!O58, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
+      <c r="B14" s="22" t="str">
+        <f>TEXT(Automatos!B59, "##")</f>
+        <v/>
+      </c>
+      <c r="C14" s="22" t="str">
+        <f>TEXT(Automatos!C59, "##")</f>
+        <v/>
+      </c>
+      <c r="D14" s="22" t="str">
+        <f>TEXT(Automatos!D59, "##")</f>
+        <v/>
+      </c>
+      <c r="E14" s="22" t="str">
+        <f>TEXT(Automatos!E59, "##")</f>
+        <v/>
+      </c>
+      <c r="F14" s="22" t="str">
+        <f>TEXT(Automatos!F59, "##")</f>
+        <v/>
+      </c>
+      <c r="G14" s="22" t="str">
+        <f>TEXT(Automatos!G59, "##")</f>
+        <v/>
+      </c>
+      <c r="H14" s="22" t="str">
+        <f>TEXT(Automatos!H59, "##")</f>
+        <v/>
+      </c>
+      <c r="I14" s="22" t="str">
+        <f>TEXT(Automatos!I59, "##")</f>
+        <v/>
+      </c>
+      <c r="J14" s="22" t="str">
+        <f>TEXT(Automatos!J59, "##")</f>
+        <v/>
+      </c>
+      <c r="K14" s="22" t="str">
+        <f>TEXT(Automatos!K59, "##")</f>
+        <v/>
+      </c>
+      <c r="L14" s="22" t="str">
+        <f>TEXT(Automatos!L59, "##")</f>
+        <v/>
+      </c>
+      <c r="M14" s="22" t="str">
+        <f>TEXT(Automatos!M59, "##")</f>
+        <v/>
+      </c>
+      <c r="N14" s="22" t="str">
+        <f>TEXT(Automatos!N59, "##")</f>
+        <v/>
+      </c>
+      <c r="O14" s="22" t="str">
+        <f>TEXT(Automatos!O59, "##")</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="23" t="s">
-        <v>103</v>
+      <c r="B15" s="22" t="str">
+        <f>TEXT(Automatos!B60, "##")</f>
+        <v/>
+      </c>
+      <c r="C15" s="22" t="str">
+        <f>TEXT(Automatos!C60, "##")</f>
+        <v/>
+      </c>
+      <c r="D15" s="22" t="str">
+        <f>TEXT(Automatos!D60, "##")</f>
+        <v/>
+      </c>
+      <c r="E15" s="22" t="str">
+        <f>TEXT(Automatos!E60, "##")</f>
+        <v/>
+      </c>
+      <c r="F15" s="22" t="str">
+        <f>TEXT(Automatos!F60, "##")</f>
+        <v/>
+      </c>
+      <c r="G15" s="22" t="str">
+        <f>TEXT(Automatos!G60, "##")</f>
+        <v/>
+      </c>
+      <c r="H15" s="22" t="str">
+        <f>TEXT(Automatos!H60, "##")</f>
+        <v/>
+      </c>
+      <c r="I15" s="22" t="str">
+        <f>TEXT(Automatos!I60, "##")</f>
+        <v/>
+      </c>
+      <c r="J15" s="22" t="str">
+        <f>TEXT(Automatos!J60, "##")</f>
+        <v>14</v>
+      </c>
+      <c r="K15" s="22" t="str">
+        <f>TEXT(Automatos!K60, "##")</f>
+        <v/>
+      </c>
+      <c r="L15" s="22" t="str">
+        <f>TEXT(Automatos!L60, "##")</f>
+        <v/>
+      </c>
+      <c r="M15" s="22" t="str">
+        <f>TEXT(Automatos!M60, "##")</f>
+        <v/>
+      </c>
+      <c r="N15" s="22" t="str">
+        <f>TEXT(Automatos!N60, "##")</f>
+        <v/>
+      </c>
+      <c r="O15" s="22" t="str">
+        <f>TEXT(Automatos!O60, "##")</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
+      <c r="B16" s="22" t="str">
+        <f>TEXT(Automatos!B61, "##")</f>
+        <v/>
+      </c>
+      <c r="C16" s="22" t="str">
+        <f>TEXT(Automatos!C61, "##")</f>
+        <v/>
+      </c>
+      <c r="D16" s="22" t="str">
+        <f>TEXT(Automatos!D61, "##")</f>
+        <v/>
+      </c>
+      <c r="E16" s="22" t="str">
+        <f>TEXT(Automatos!E61, "##")</f>
+        <v/>
+      </c>
+      <c r="F16" s="22" t="str">
+        <f>TEXT(Automatos!F61, "##")</f>
+        <v/>
+      </c>
+      <c r="G16" s="22" t="str">
+        <f>TEXT(Automatos!G61, "##")</f>
+        <v/>
+      </c>
+      <c r="H16" s="22" t="str">
+        <f>TEXT(Automatos!H61, "##")</f>
+        <v/>
+      </c>
+      <c r="I16" s="22" t="str">
+        <f>TEXT(Automatos!I61, "##")</f>
+        <v/>
+      </c>
+      <c r="J16" s="22" t="str">
+        <f>TEXT(Automatos!J61, "##")</f>
+        <v/>
+      </c>
+      <c r="K16" s="22" t="str">
+        <f>TEXT(Automatos!K61, "##")</f>
+        <v/>
+      </c>
+      <c r="L16" s="22" t="str">
+        <f>TEXT(Automatos!L61, "##")</f>
+        <v/>
+      </c>
+      <c r="M16" s="22" t="str">
+        <f>TEXT(Automatos!M61, "##")</f>
+        <v>16</v>
+      </c>
+      <c r="N16" s="22" t="str">
+        <f>TEXT(Automatos!N61, "##")</f>
+        <v/>
+      </c>
+      <c r="O16" s="22" t="str">
+        <f>TEXT(Automatos!O61, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="O17" s="9"/>
+      <c r="B17" s="22" t="str">
+        <f>TEXT(Automatos!B62, "##")</f>
+        <v/>
+      </c>
+      <c r="C17" s="22" t="str">
+        <f>TEXT(Automatos!C62, "##")</f>
+        <v/>
+      </c>
+      <c r="D17" s="22" t="str">
+        <f>TEXT(Automatos!D62, "##")</f>
+        <v/>
+      </c>
+      <c r="E17" s="22" t="str">
+        <f>TEXT(Automatos!E62, "##")</f>
+        <v/>
+      </c>
+      <c r="F17" s="22" t="str">
+        <f>TEXT(Automatos!F62, "##")</f>
+        <v/>
+      </c>
+      <c r="G17" s="22" t="str">
+        <f>TEXT(Automatos!G62, "##")</f>
+        <v/>
+      </c>
+      <c r="H17" s="22" t="str">
+        <f>TEXT(Automatos!H62, "##")</f>
+        <v/>
+      </c>
+      <c r="I17" s="22" t="str">
+        <f>TEXT(Automatos!I62, "##")</f>
+        <v/>
+      </c>
+      <c r="J17" s="22" t="str">
+        <f>TEXT(Automatos!J62, "##")</f>
+        <v/>
+      </c>
+      <c r="K17" s="22" t="str">
+        <f>TEXT(Automatos!K62, "##")</f>
+        <v/>
+      </c>
+      <c r="L17" s="22" t="str">
+        <f>TEXT(Automatos!L62, "##")</f>
+        <v/>
+      </c>
+      <c r="M17" s="22" t="str">
+        <f>TEXT(Automatos!M62, "##")</f>
+        <v/>
+      </c>
+      <c r="N17" s="22" t="str">
+        <f>TEXT(Automatos!N62, "##")</f>
+        <v/>
+      </c>
+      <c r="O17" s="22" t="str">
+        <f>TEXT(Automatos!O62, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
+      <c r="B18" s="22" t="str">
+        <f>TEXT(Automatos!B63, "##")</f>
+        <v/>
+      </c>
+      <c r="C18" s="22" t="str">
+        <f>TEXT(Automatos!C63, "##")</f>
+        <v/>
+      </c>
+      <c r="D18" s="22" t="str">
+        <f>TEXT(Automatos!D63, "##")</f>
+        <v/>
+      </c>
+      <c r="E18" s="22" t="str">
+        <f>TEXT(Automatos!E63, "##")</f>
+        <v/>
+      </c>
+      <c r="F18" s="22" t="str">
+        <f>TEXT(Automatos!F63, "##")</f>
+        <v/>
+      </c>
+      <c r="G18" s="22" t="str">
+        <f>TEXT(Automatos!G63, "##")</f>
+        <v/>
+      </c>
+      <c r="H18" s="22" t="str">
+        <f>TEXT(Automatos!H63, "##")</f>
+        <v/>
+      </c>
+      <c r="I18" s="22" t="str">
+        <f>TEXT(Automatos!I63, "##")</f>
+        <v/>
+      </c>
+      <c r="J18" s="22" t="str">
+        <f>TEXT(Automatos!J63, "##")</f>
+        <v/>
+      </c>
+      <c r="K18" s="22" t="str">
+        <f>TEXT(Automatos!K63, "##")</f>
+        <v/>
+      </c>
+      <c r="L18" s="22" t="str">
+        <f>TEXT(Automatos!L63, "##")</f>
+        <v/>
+      </c>
+      <c r="M18" s="22" t="str">
+        <f>TEXT(Automatos!M63, "##")</f>
+        <v/>
+      </c>
+      <c r="N18" s="22" t="str">
+        <f>TEXT(Automatos!N63, "##")</f>
+        <v>8</v>
+      </c>
+      <c r="O18" s="22" t="str">
+        <f>TEXT(Automatos!O63, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
+      <c r="B19" s="22" t="str">
+        <f>TEXT(Automatos!B64, "##")</f>
+        <v/>
+      </c>
+      <c r="C19" s="22" t="str">
+        <f>TEXT(Automatos!C64, "##")</f>
+        <v/>
+      </c>
+      <c r="D19" s="22" t="str">
+        <f>TEXT(Automatos!D64, "##")</f>
+        <v/>
+      </c>
+      <c r="E19" s="22" t="str">
+        <f>TEXT(Automatos!E64, "##")</f>
+        <v/>
+      </c>
+      <c r="F19" s="22" t="str">
+        <f>TEXT(Automatos!F64, "##")</f>
+        <v/>
+      </c>
+      <c r="G19" s="22" t="str">
+        <f>TEXT(Automatos!G64, "##")</f>
+        <v/>
+      </c>
+      <c r="H19" s="22" t="str">
+        <f>TEXT(Automatos!H64, "##")</f>
+        <v/>
+      </c>
+      <c r="I19" s="22" t="str">
+        <f>TEXT(Automatos!I64, "##")</f>
+        <v/>
+      </c>
+      <c r="J19" s="22" t="str">
+        <f>TEXT(Automatos!J64, "##")</f>
+        <v>18</v>
+      </c>
+      <c r="K19" s="22" t="str">
+        <f>TEXT(Automatos!K64, "##")</f>
+        <v/>
+      </c>
+      <c r="L19" s="22" t="str">
+        <f>TEXT(Automatos!L64, "##")</f>
+        <v/>
+      </c>
+      <c r="M19" s="22" t="str">
+        <f>TEXT(Automatos!M64, "##")</f>
+        <v/>
+      </c>
+      <c r="N19" s="22" t="str">
+        <f>TEXT(Automatos!N64, "##")</f>
+        <v/>
+      </c>
+      <c r="O19" s="22" t="str">
+        <f>TEXT(Automatos!O64, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
+      <c r="B20" s="22" t="str">
+        <f>TEXT(Automatos!B65, "##")</f>
+        <v/>
+      </c>
+      <c r="C20" s="22" t="str">
+        <f>TEXT(Automatos!C65, "##")</f>
+        <v/>
+      </c>
+      <c r="D20" s="22" t="str">
+        <f>TEXT(Automatos!D65, "##")</f>
+        <v>19</v>
+      </c>
+      <c r="E20" s="22" t="str">
+        <f>TEXT(Automatos!E65, "##")</f>
+        <v/>
+      </c>
+      <c r="F20" s="22" t="str">
+        <f>TEXT(Automatos!F65, "##")</f>
+        <v/>
+      </c>
+      <c r="G20" s="22" t="str">
+        <f>TEXT(Automatos!G65, "##")</f>
+        <v/>
+      </c>
+      <c r="H20" s="22" t="str">
+        <f>TEXT(Automatos!H65, "##")</f>
+        <v/>
+      </c>
+      <c r="I20" s="22" t="str">
+        <f>TEXT(Automatos!I65, "##")</f>
+        <v/>
+      </c>
+      <c r="J20" s="22" t="str">
+        <f>TEXT(Automatos!J65, "##")</f>
+        <v/>
+      </c>
+      <c r="K20" s="22" t="str">
+        <f>TEXT(Automatos!K65, "##")</f>
+        <v/>
+      </c>
+      <c r="L20" s="22" t="str">
+        <f>TEXT(Automatos!L65, "##")</f>
+        <v/>
+      </c>
+      <c r="M20" s="22" t="str">
+        <f>TEXT(Automatos!M65, "##")</f>
+        <v/>
+      </c>
+      <c r="N20" s="22" t="str">
+        <f>TEXT(Automatos!N65, "##")</f>
+        <v/>
+      </c>
+      <c r="O20" s="22" t="str">
+        <f>TEXT(Automatos!O65, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="N21" s="8"/>
-      <c r="O21" s="9"/>
+      <c r="B21" s="22" t="str">
+        <f>TEXT(Automatos!B66, "##")</f>
+        <v/>
+      </c>
+      <c r="C21" s="22" t="str">
+        <f>TEXT(Automatos!C66, "##")</f>
+        <v/>
+      </c>
+      <c r="D21" s="22" t="str">
+        <f>TEXT(Automatos!D66, "##")</f>
+        <v/>
+      </c>
+      <c r="E21" s="22" t="str">
+        <f>TEXT(Automatos!E66, "##")</f>
+        <v/>
+      </c>
+      <c r="F21" s="22" t="str">
+        <f>TEXT(Automatos!F66, "##")</f>
+        <v/>
+      </c>
+      <c r="G21" s="22" t="str">
+        <f>TEXT(Automatos!G66, "##")</f>
+        <v/>
+      </c>
+      <c r="H21" s="22" t="str">
+        <f>TEXT(Automatos!H66, "##")</f>
+        <v/>
+      </c>
+      <c r="I21" s="22" t="str">
+        <f>TEXT(Automatos!I66, "##")</f>
+        <v/>
+      </c>
+      <c r="J21" s="22" t="str">
+        <f>TEXT(Automatos!J66, "##")</f>
+        <v/>
+      </c>
+      <c r="K21" s="22" t="str">
+        <f>TEXT(Automatos!K66, "##")</f>
+        <v/>
+      </c>
+      <c r="L21" s="22" t="str">
+        <f>TEXT(Automatos!L66, "##")</f>
+        <v/>
+      </c>
+      <c r="M21" s="22" t="str">
+        <f>TEXT(Automatos!M66, "##")</f>
+        <v>20</v>
+      </c>
+      <c r="N21" s="22" t="str">
+        <f>TEXT(Automatos!N66, "##")</f>
+        <v/>
+      </c>
+      <c r="O21" s="22" t="str">
+        <f>TEXT(Automatos!O66, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="O22" s="9"/>
+      <c r="B22" s="22" t="str">
+        <f>TEXT(Automatos!B67, "##")</f>
+        <v/>
+      </c>
+      <c r="C22" s="22" t="str">
+        <f>TEXT(Automatos!C67, "##")</f>
+        <v/>
+      </c>
+      <c r="D22" s="22" t="str">
+        <f>TEXT(Automatos!D67, "##")</f>
+        <v/>
+      </c>
+      <c r="E22" s="22" t="str">
+        <f>TEXT(Automatos!E67, "##")</f>
+        <v/>
+      </c>
+      <c r="F22" s="22" t="str">
+        <f>TEXT(Automatos!F67, "##")</f>
+        <v/>
+      </c>
+      <c r="G22" s="22" t="str">
+        <f>TEXT(Automatos!G67, "##")</f>
+        <v/>
+      </c>
+      <c r="H22" s="22" t="str">
+        <f>TEXT(Automatos!H67, "##")</f>
+        <v/>
+      </c>
+      <c r="I22" s="22" t="str">
+        <f>TEXT(Automatos!I67, "##")</f>
+        <v/>
+      </c>
+      <c r="J22" s="22" t="str">
+        <f>TEXT(Automatos!J67, "##")</f>
+        <v/>
+      </c>
+      <c r="K22" s="22" t="str">
+        <f>TEXT(Automatos!K67, "##")</f>
+        <v/>
+      </c>
+      <c r="L22" s="22" t="str">
+        <f>TEXT(Automatos!L67, "##")</f>
+        <v/>
+      </c>
+      <c r="M22" s="22" t="str">
+        <f>TEXT(Automatos!M67, "##")</f>
+        <v/>
+      </c>
+      <c r="N22" s="22" t="str">
+        <f>TEXT(Automatos!N67, "##")</f>
+        <v>21</v>
+      </c>
+      <c r="O22" s="22" t="str">
+        <f>TEXT(Automatos!O67, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
+      <c r="B23" s="22" t="str">
+        <f>TEXT(Automatos!B68, "##")</f>
+        <v/>
+      </c>
+      <c r="C23" s="22" t="str">
+        <f>TEXT(Automatos!C68, "##")</f>
+        <v>14</v>
+      </c>
+      <c r="D23" s="22" t="str">
+        <f>TEXT(Automatos!D68, "##")</f>
+        <v/>
+      </c>
+      <c r="E23" s="22" t="str">
+        <f>TEXT(Automatos!E68, "##")</f>
+        <v/>
+      </c>
+      <c r="F23" s="22" t="str">
+        <f>TEXT(Automatos!F68, "##")</f>
+        <v/>
+      </c>
+      <c r="G23" s="22" t="str">
+        <f>TEXT(Automatos!G68, "##")</f>
+        <v/>
+      </c>
+      <c r="H23" s="22" t="str">
+        <f>TEXT(Automatos!H68, "##")</f>
+        <v/>
+      </c>
+      <c r="I23" s="22" t="str">
+        <f>TEXT(Automatos!I68, "##")</f>
+        <v/>
+      </c>
+      <c r="J23" s="22" t="str">
+        <f>TEXT(Automatos!J68, "##")</f>
+        <v/>
+      </c>
+      <c r="K23" s="22" t="str">
+        <f>TEXT(Automatos!K68, "##")</f>
+        <v/>
+      </c>
+      <c r="L23" s="22" t="str">
+        <f>TEXT(Automatos!L68, "##")</f>
+        <v/>
+      </c>
+      <c r="M23" s="22" t="str">
+        <f>TEXT(Automatos!M68, "##")</f>
+        <v/>
+      </c>
+      <c r="N23" s="22" t="str">
+        <f>TEXT(Automatos!N68, "##")</f>
+        <v/>
+      </c>
+      <c r="O23" s="22" t="str">
+        <f>TEXT(Automatos!O68, "##")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1926,58 +2795,427 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="M1" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" s="22" t="str">
+        <f>TEXT(Automatos!B72, "##")</f>
+        <v/>
+      </c>
+      <c r="C2" s="22" t="str">
+        <f>TEXT(Automatos!C72, "##")</f>
+        <v/>
+      </c>
+      <c r="D2" s="22" t="str">
+        <f>TEXT(Automatos!D72, "##")</f>
+        <v/>
+      </c>
+      <c r="E2" s="22" t="str">
+        <f>TEXT(Automatos!E72, "##")</f>
+        <v/>
+      </c>
+      <c r="F2" s="22" t="str">
+        <f>TEXT(Automatos!F72, "##")</f>
+        <v/>
+      </c>
+      <c r="G2" s="22" t="str">
+        <f>TEXT(Automatos!G72, "##")</f>
+        <v/>
+      </c>
+      <c r="H2" s="22" t="str">
+        <f>TEXT(Automatos!H72, "##")</f>
+        <v/>
+      </c>
+      <c r="I2" s="22" t="str">
+        <f>TEXT(Automatos!I72, "##")</f>
+        <v/>
+      </c>
+      <c r="J2" s="22" t="str">
+        <f>TEXT(Automatos!J72, "##")</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="22" t="str">
+        <f>TEXT(Automatos!K72, "##")</f>
+        <v/>
+      </c>
+      <c r="L2" s="22" t="str">
+        <f>TEXT(Automatos!L72, "##")</f>
+        <v/>
+      </c>
+      <c r="M2" s="22" t="str">
+        <f>TEXT(Automatos!M72, "##")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" s="22" t="str">
+        <f>TEXT(Automatos!B73, "##")</f>
+        <v/>
+      </c>
+      <c r="C3" s="22" t="str">
+        <f>TEXT(Automatos!C73, "##")</f>
+        <v/>
+      </c>
+      <c r="D3" s="22" t="str">
+        <f>TEXT(Automatos!D73, "##")</f>
+        <v/>
+      </c>
+      <c r="E3" s="22" t="str">
+        <f>TEXT(Automatos!E73, "##")</f>
+        <v/>
+      </c>
+      <c r="F3" s="22" t="str">
+        <f>TEXT(Automatos!F73, "##")</f>
+        <v/>
+      </c>
+      <c r="G3" s="22" t="str">
+        <f>TEXT(Automatos!G73, "##")</f>
+        <v/>
+      </c>
+      <c r="H3" s="22" t="str">
+        <f>TEXT(Automatos!H73, "##")</f>
+        <v/>
+      </c>
+      <c r="I3" s="22" t="str">
+        <f>TEXT(Automatos!I73, "##")</f>
+        <v/>
+      </c>
+      <c r="J3" s="22" t="str">
+        <f>TEXT(Automatos!J73, "##")</f>
+        <v/>
+      </c>
+      <c r="K3" s="22" t="str">
+        <f>TEXT(Automatos!K73, "##")</f>
+        <v/>
+      </c>
+      <c r="L3" s="22" t="str">
+        <f>TEXT(Automatos!L73, "##")</f>
+        <v/>
+      </c>
+      <c r="M3" s="22" t="str">
+        <f>TEXT(Automatos!M73, "##")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="22" t="str">
+        <f>TEXT(Automatos!B74, "##")</f>
+        <v/>
+      </c>
+      <c r="C4" s="22" t="str">
+        <f>TEXT(Automatos!C74, "##")</f>
+        <v/>
+      </c>
+      <c r="D4" s="22" t="str">
+        <f>TEXT(Automatos!D74, "##")</f>
+        <v/>
+      </c>
+      <c r="E4" s="22" t="str">
+        <f>TEXT(Automatos!E74, "##")</f>
+        <v/>
+      </c>
+      <c r="F4" s="22" t="str">
+        <f>TEXT(Automatos!F74, "##")</f>
+        <v/>
+      </c>
+      <c r="G4" s="22" t="str">
+        <f>TEXT(Automatos!G74, "##")</f>
+        <v/>
+      </c>
+      <c r="H4" s="22" t="str">
+        <f>TEXT(Automatos!H74, "##")</f>
+        <v/>
+      </c>
+      <c r="I4" s="22" t="str">
+        <f>TEXT(Automatos!I74, "##")</f>
+        <v/>
+      </c>
+      <c r="J4" s="22" t="str">
+        <f>TEXT(Automatos!J74, "##")</f>
+        <v/>
+      </c>
+      <c r="K4" s="22" t="str">
+        <f>TEXT(Automatos!K74, "##")</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="22" t="str">
+        <f>TEXT(Automatos!L74, "##")</f>
+        <v>6</v>
+      </c>
+      <c r="M4" s="22" t="str">
+        <f>TEXT(Automatos!M74, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22" t="str">
+        <f>TEXT(Automatos!B75, "##")</f>
+        <v/>
+      </c>
+      <c r="C5" s="22" t="str">
+        <f>TEXT(Automatos!C75, "##")</f>
+        <v/>
+      </c>
+      <c r="D5" s="22" t="str">
+        <f>TEXT(Automatos!D75, "##")</f>
+        <v/>
+      </c>
+      <c r="E5" s="22" t="str">
+        <f>TEXT(Automatos!E75, "##")</f>
+        <v/>
+      </c>
+      <c r="F5" s="22" t="str">
+        <f>TEXT(Automatos!F75, "##")</f>
+        <v>4</v>
+      </c>
+      <c r="G5" s="22" t="str">
+        <f>TEXT(Automatos!G75, "##")</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="22" t="str">
+        <f>TEXT(Automatos!H75, "##")</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="22" t="str">
+        <f>TEXT(Automatos!I75, "##")</f>
+        <v>5</v>
+      </c>
+      <c r="J5" s="22" t="str">
+        <f>TEXT(Automatos!J75, "##")</f>
+        <v/>
+      </c>
+      <c r="K5" s="22" t="str">
+        <f>TEXT(Automatos!K75, "##")</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="22" t="str">
+        <f>TEXT(Automatos!L75, "##")</f>
+        <v>6</v>
+      </c>
+      <c r="M5" s="22" t="str">
+        <f>TEXT(Automatos!M75, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22" t="str">
+        <f>TEXT(Automatos!B76, "##")</f>
+        <v/>
+      </c>
+      <c r="C6" s="22" t="str">
+        <f>TEXT(Automatos!C76, "##")</f>
+        <v/>
+      </c>
+      <c r="D6" s="22" t="str">
+        <f>TEXT(Automatos!D76, "##")</f>
+        <v/>
+      </c>
+      <c r="E6" s="22" t="str">
+        <f>TEXT(Automatos!E76, "##")</f>
+        <v/>
+      </c>
+      <c r="F6" s="22" t="str">
+        <f>TEXT(Automatos!F76, "##")</f>
+        <v/>
+      </c>
+      <c r="G6" s="22" t="str">
+        <f>TEXT(Automatos!G76, "##")</f>
+        <v/>
+      </c>
+      <c r="H6" s="22" t="str">
+        <f>TEXT(Automatos!H76, "##")</f>
+        <v/>
+      </c>
+      <c r="I6" s="22" t="str">
+        <f>TEXT(Automatos!I76, "##")</f>
+        <v/>
+      </c>
+      <c r="J6" s="22" t="str">
+        <f>TEXT(Automatos!J76, "##")</f>
+        <v/>
+      </c>
+      <c r="K6" s="22" t="str">
+        <f>TEXT(Automatos!K76, "##")</f>
+        <v/>
+      </c>
+      <c r="L6" s="22" t="str">
+        <f>TEXT(Automatos!L76, "##")</f>
+        <v/>
+      </c>
+      <c r="M6" s="22" t="str">
+        <f>TEXT(Automatos!M76, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22" t="str">
+        <f>TEXT(Automatos!B77, "##")</f>
+        <v/>
+      </c>
+      <c r="C7" s="22" t="str">
+        <f>TEXT(Automatos!C77, "##")</f>
+        <v/>
+      </c>
+      <c r="D7" s="22" t="str">
+        <f>TEXT(Automatos!D77, "##")</f>
+        <v/>
+      </c>
+      <c r="E7" s="22" t="str">
+        <f>TEXT(Automatos!E77, "##")</f>
+        <v/>
+      </c>
+      <c r="F7" s="22" t="str">
+        <f>TEXT(Automatos!F77, "##")</f>
+        <v/>
+      </c>
+      <c r="G7" s="22" t="str">
+        <f>TEXT(Automatos!G77, "##")</f>
+        <v/>
+      </c>
+      <c r="H7" s="22" t="str">
+        <f>TEXT(Automatos!H77, "##")</f>
+        <v/>
+      </c>
+      <c r="I7" s="22" t="str">
+        <f>TEXT(Automatos!I77, "##")</f>
+        <v/>
+      </c>
+      <c r="J7" s="22" t="str">
+        <f>TEXT(Automatos!J77, "##")</f>
+        <v/>
+      </c>
+      <c r="K7" s="22" t="str">
+        <f>TEXT(Automatos!K77, "##")</f>
+        <v/>
+      </c>
+      <c r="L7" s="22" t="str">
+        <f>TEXT(Automatos!L77, "##")</f>
+        <v/>
+      </c>
+      <c r="M7" s="22" t="str">
+        <f>TEXT(Automatos!M77, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="str">
+        <f>TEXT(Automatos!B78, "##")</f>
+        <v/>
+      </c>
+      <c r="C8" s="22" t="str">
+        <f>TEXT(Automatos!C78, "##")</f>
+        <v/>
+      </c>
+      <c r="D8" s="22" t="str">
+        <f>TEXT(Automatos!D78, "##")</f>
+        <v/>
+      </c>
+      <c r="E8" s="22" t="str">
+        <f>TEXT(Automatos!E78, "##")</f>
+        <v/>
+      </c>
+      <c r="F8" s="22" t="str">
+        <f>TEXT(Automatos!F78, "##")</f>
+        <v>4</v>
+      </c>
+      <c r="G8" s="22" t="str">
+        <f>TEXT(Automatos!G78, "##")</f>
+        <v/>
+      </c>
+      <c r="H8" s="22" t="str">
+        <f>TEXT(Automatos!H78, "##")</f>
+        <v/>
+      </c>
+      <c r="I8" s="22" t="str">
+        <f>TEXT(Automatos!I78, "##")</f>
+        <v/>
+      </c>
+      <c r="J8" s="22" t="str">
+        <f>TEXT(Automatos!J78, "##")</f>
+        <v/>
+      </c>
+      <c r="K8" s="22" t="str">
+        <f>TEXT(Automatos!K78, "##")</f>
+        <v/>
+      </c>
+      <c r="L8" s="22" t="str">
+        <f>TEXT(Automatos!L78, "##")</f>
+        <v/>
+      </c>
+      <c r="M8" s="22" t="str">
+        <f>TEXT(Automatos!M78, "##")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1988,194 +3226,230 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="K1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="B2" s="22" t="str">
+        <f>TEXT(Automatos!B82, "##")</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="22" t="str">
+        <f>TEXT(Automatos!C82, "##")</f>
+        <v/>
+      </c>
+      <c r="D2" s="22" t="str">
+        <f>TEXT(Automatos!D82, "##")</f>
+        <v/>
+      </c>
+      <c r="E2" s="22" t="str">
+        <f>TEXT(Automatos!E82, "##")</f>
+        <v/>
+      </c>
+      <c r="F2" s="22" t="str">
+        <f>TEXT(Automatos!F82, "##")</f>
+        <v/>
+      </c>
+      <c r="G2" s="22" t="str">
+        <f>TEXT(Automatos!G82, "##")</f>
+        <v/>
+      </c>
+      <c r="H2" s="22" t="str">
+        <f>TEXT(Automatos!H82, "##")</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="22" t="str">
+        <f>TEXT(Automatos!I82, "##")</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="22" t="str">
+        <f>TEXT(Automatos!J82, "##")</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="22" t="str">
+        <f>TEXT(Automatos!K82, "##")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="B3" s="22" t="str">
+        <f>TEXT(Automatos!B83, "##")</f>
+        <v/>
+      </c>
+      <c r="C3" s="22" t="str">
+        <f>TEXT(Automatos!C83, "##")</f>
+        <v/>
+      </c>
+      <c r="D3" s="22" t="str">
+        <f>TEXT(Automatos!D83, "##")</f>
+        <v/>
+      </c>
+      <c r="E3" s="22" t="str">
+        <f>TEXT(Automatos!E83, "##")</f>
+        <v/>
+      </c>
+      <c r="F3" s="22" t="str">
+        <f>TEXT(Automatos!F83, "##")</f>
+        <v/>
+      </c>
+      <c r="G3" s="22" t="str">
+        <f>TEXT(Automatos!G83, "##")</f>
+        <v/>
+      </c>
+      <c r="H3" s="22" t="str">
+        <f>TEXT(Automatos!H83, "##")</f>
+        <v/>
+      </c>
+      <c r="I3" s="22" t="str">
+        <f>TEXT(Automatos!I83, "##")</f>
+        <v/>
+      </c>
+      <c r="J3" s="22" t="str">
+        <f>TEXT(Automatos!J83, "##")</f>
+        <v/>
+      </c>
+      <c r="K3" s="22" t="str">
+        <f>TEXT(Automatos!K83, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="B4" s="22" t="str">
+        <f>TEXT(Automatos!B84, "##")</f>
+        <v/>
+      </c>
+      <c r="C4" s="22" t="str">
+        <f>TEXT(Automatos!C84, "##")</f>
+        <v/>
+      </c>
+      <c r="D4" s="22" t="str">
+        <f>TEXT(Automatos!D84, "##")</f>
+        <v/>
+      </c>
+      <c r="E4" s="22" t="str">
+        <f>TEXT(Automatos!E84, "##")</f>
+        <v/>
+      </c>
+      <c r="F4" s="22" t="str">
+        <f>TEXT(Automatos!F84, "##")</f>
+        <v/>
+      </c>
+      <c r="G4" s="22" t="str">
+        <f>TEXT(Automatos!G84, "##")</f>
+        <v/>
+      </c>
+      <c r="H4" s="22" t="str">
+        <f>TEXT(Automatos!H84, "##")</f>
+        <v/>
+      </c>
+      <c r="I4" s="22" t="str">
+        <f>TEXT(Automatos!I84, "##")</f>
+        <v/>
+      </c>
+      <c r="J4" s="22" t="str">
+        <f>TEXT(Automatos!J84, "##")</f>
+        <v/>
+      </c>
+      <c r="K4" s="22" t="str">
+        <f>TEXT(Automatos!K84, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="B5" s="22" t="str">
+        <f>TEXT(Automatos!B85, "##")</f>
+        <v/>
+      </c>
+      <c r="C5" s="22" t="str">
+        <f>TEXT(Automatos!C85, "##")</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="22" t="str">
+        <f>TEXT(Automatos!D85, "##")</f>
+        <v/>
+      </c>
+      <c r="E5" s="22" t="str">
+        <f>TEXT(Automatos!E85, "##")</f>
+        <v/>
+      </c>
+      <c r="F5" s="22" t="str">
+        <f>TEXT(Automatos!F85, "##")</f>
+        <v/>
+      </c>
+      <c r="G5" s="22" t="str">
+        <f>TEXT(Automatos!G85, "##")</f>
+        <v/>
+      </c>
+      <c r="H5" s="22" t="str">
+        <f>TEXT(Automatos!H85, "##")</f>
+        <v/>
+      </c>
+      <c r="I5" s="22" t="str">
+        <f>TEXT(Automatos!I85, "##")</f>
+        <v/>
+      </c>
+      <c r="J5" s="22" t="str">
+        <f>TEXT(Automatos!J85, "##")</f>
+        <v/>
+      </c>
+      <c r="K5" s="22" t="str">
+        <f>TEXT(Automatos!K85, "##")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2186,101 +3460,123 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="9">
-        <v>0</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="9">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C10" s="4">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2294,10 +3590,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A3" sqref="A3:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2315,101 +3611,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
         <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2427,19 +3635,19 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD10"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2448,10 +3656,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2466,10 +3674,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD11"/>
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2487,24 +3695,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
       </c>
       <c r="C3" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4">
         <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2522,7 +3763,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD15"/>
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2540,57 +3781,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2605,10 +3846,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2625,99 +3866,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="12">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="C2" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2879,59 +4034,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
@@ -3188,8 +4290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3360,7 +4462,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="6"/>
@@ -3380,7 +4482,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
@@ -4545,7 +5647,7 @@
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="8" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>53</v>
@@ -4692,7 +5794,7 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="8" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>15</v>
@@ -4713,16 +5815,16 @@
         <v>12</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="I81" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="J81" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K81" s="8" t="b">
-        <v>0</v>
+      <c r="J81" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K81" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="S81" s="16"/>
       <c r="T81" s="16"/>
@@ -4834,8 +5936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4958,7 +6060,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="6"/>
@@ -4978,7 +6080,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="6"/>
@@ -5261,7 +6363,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5332,7 +6434,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5833,7 +6935,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5878,334 +6980,887 @@
       <c r="A2" s="19">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="B2" s="23" t="str">
+        <f>TEXT(Automatos!B12,"##")</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="str">
+        <f>TEXT(Automatos!C12,"##")</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="23" t="str">
+        <f>TEXT(Automatos!D12,"##")</f>
+        <v/>
+      </c>
+      <c r="E2" s="23" t="str">
+        <f>TEXT(Automatos!E12,"##")</f>
+        <v/>
+      </c>
+      <c r="F2" s="23" t="str">
+        <f>TEXT(Automatos!F12,"##")</f>
+        <v/>
+      </c>
+      <c r="G2" s="23" t="str">
+        <f>TEXT(Automatos!G12,"##")</f>
+        <v/>
+      </c>
+      <c r="H2" s="23" t="str">
+        <f>TEXT(Automatos!H12,"##")</f>
+        <v/>
+      </c>
+      <c r="I2" s="23" t="str">
+        <f>TEXT(Automatos!I12,"##")</f>
+        <v/>
+      </c>
+      <c r="J2" s="23" t="str">
+        <f>TEXT(Automatos!J12,"##")</f>
+        <v/>
+      </c>
+      <c r="K2" s="23" t="str">
+        <f>TEXT(Automatos!K12,"##")</f>
+        <v/>
+      </c>
+      <c r="L2" s="23" t="str">
+        <f>TEXT(Automatos!L12,"##")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="B3" s="23" t="str">
+        <f>TEXT(Automatos!B13,"##")</f>
+        <v/>
+      </c>
+      <c r="C3" s="23" t="str">
+        <f>TEXT(Automatos!C13,"##")</f>
+        <v/>
+      </c>
+      <c r="D3" s="23" t="str">
+        <f>TEXT(Automatos!D13,"##")</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="23" t="str">
+        <f>TEXT(Automatos!E13,"##")</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="23" t="str">
+        <f>TEXT(Automatos!F13,"##")</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="23" t="str">
+        <f>TEXT(Automatos!G13,"##")</f>
+        <v/>
+      </c>
+      <c r="H3" s="23" t="str">
+        <f>TEXT(Automatos!H13,"##")</f>
+        <v/>
+      </c>
+      <c r="I3" s="23" t="str">
+        <f>TEXT(Automatos!I13,"##")</f>
+        <v/>
+      </c>
+      <c r="J3" s="23" t="str">
+        <f>TEXT(Automatos!J13,"##")</f>
+        <v/>
+      </c>
+      <c r="K3" s="23" t="str">
+        <f>TEXT(Automatos!K13,"##")</f>
+        <v/>
+      </c>
+      <c r="L3" s="23" t="str">
+        <f>TEXT(Automatos!L13,"##")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="B4" s="23" t="str">
+        <f>TEXT(Automatos!B14,"##")</f>
+        <v/>
+      </c>
+      <c r="C4" s="23" t="str">
+        <f>TEXT(Automatos!C14,"##")</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="23" t="str">
+        <f>TEXT(Automatos!D14,"##")</f>
+        <v/>
+      </c>
+      <c r="E4" s="23" t="str">
+        <f>TEXT(Automatos!E14,"##")</f>
+        <v/>
+      </c>
+      <c r="F4" s="23" t="str">
+        <f>TEXT(Automatos!F14,"##")</f>
+        <v/>
+      </c>
+      <c r="G4" s="23" t="str">
+        <f>TEXT(Automatos!G14,"##")</f>
+        <v/>
+      </c>
+      <c r="H4" s="23" t="str">
+        <f>TEXT(Automatos!H14,"##")</f>
+        <v/>
+      </c>
+      <c r="I4" s="23" t="str">
+        <f>TEXT(Automatos!I14,"##")</f>
+        <v/>
+      </c>
+      <c r="J4" s="23" t="str">
+        <f>TEXT(Automatos!J14,"##")</f>
+        <v/>
+      </c>
+      <c r="K4" s="23" t="str">
+        <f>TEXT(Automatos!K14,"##")</f>
+        <v/>
+      </c>
+      <c r="L4" s="23" t="str">
+        <f>TEXT(Automatos!L14,"##")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="B5" s="23" t="str">
+        <f>TEXT(Automatos!B15,"##")</f>
+        <v/>
+      </c>
+      <c r="C5" s="23" t="str">
+        <f>TEXT(Automatos!C15,"##")</f>
+        <v/>
+      </c>
+      <c r="D5" s="23" t="str">
+        <f>TEXT(Automatos!D15,"##")</f>
+        <v/>
+      </c>
+      <c r="E5" s="23" t="str">
+        <f>TEXT(Automatos!E15,"##")</f>
+        <v/>
+      </c>
+      <c r="F5" s="23" t="str">
+        <f>TEXT(Automatos!F15,"##")</f>
+        <v/>
+      </c>
+      <c r="G5" s="23" t="str">
+        <f>TEXT(Automatos!G15,"##")</f>
+        <v>5</v>
+      </c>
+      <c r="H5" s="23" t="str">
+        <f>TEXT(Automatos!H15,"##")</f>
+        <v/>
+      </c>
+      <c r="I5" s="23" t="str">
+        <f>TEXT(Automatos!I15,"##")</f>
+        <v/>
+      </c>
+      <c r="J5" s="23" t="str">
+        <f>TEXT(Automatos!J15,"##")</f>
+        <v/>
+      </c>
+      <c r="K5" s="23" t="str">
+        <f>TEXT(Automatos!K15,"##")</f>
+        <v/>
+      </c>
+      <c r="L5" s="23" t="str">
+        <f>TEXT(Automatos!L15,"##")</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20" t="s">
-        <v>100</v>
+      <c r="B6" s="23" t="str">
+        <f>TEXT(Automatos!B16,"##")</f>
+        <v/>
+      </c>
+      <c r="C6" s="23" t="str">
+        <f>TEXT(Automatos!C16,"##")</f>
+        <v/>
+      </c>
+      <c r="D6" s="23" t="str">
+        <f>TEXT(Automatos!D16,"##")</f>
+        <v/>
+      </c>
+      <c r="E6" s="23" t="str">
+        <f>TEXT(Automatos!E16,"##")</f>
+        <v/>
+      </c>
+      <c r="F6" s="23" t="str">
+        <f>TEXT(Automatos!F16,"##")</f>
+        <v/>
+      </c>
+      <c r="G6" s="23" t="str">
+        <f>TEXT(Automatos!G16,"##")</f>
+        <v/>
+      </c>
+      <c r="H6" s="23" t="str">
+        <f>TEXT(Automatos!H16,"##")</f>
+        <v/>
+      </c>
+      <c r="I6" s="23" t="str">
+        <f>TEXT(Automatos!I16,"##")</f>
+        <v/>
+      </c>
+      <c r="J6" s="23" t="str">
+        <f>TEXT(Automatos!J16,"##")</f>
+        <v/>
+      </c>
+      <c r="K6" s="23" t="str">
+        <f>TEXT(Automatos!K16,"##")</f>
+        <v/>
+      </c>
+      <c r="L6" s="23" t="str">
+        <f>TEXT(Automatos!L16,"##")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="B7" s="23" t="str">
+        <f>TEXT(Automatos!B17,"##")</f>
+        <v/>
+      </c>
+      <c r="C7" s="23" t="str">
+        <f>TEXT(Automatos!C17,"##")</f>
+        <v/>
+      </c>
+      <c r="D7" s="23" t="str">
+        <f>TEXT(Automatos!D17,"##")</f>
+        <v/>
+      </c>
+      <c r="E7" s="23" t="str">
+        <f>TEXT(Automatos!E17,"##")</f>
+        <v/>
+      </c>
+      <c r="F7" s="23" t="str">
+        <f>TEXT(Automatos!F17,"##")</f>
+        <v/>
+      </c>
+      <c r="G7" s="23" t="str">
+        <f>TEXT(Automatos!G17,"##")</f>
+        <v/>
+      </c>
+      <c r="H7" s="23" t="str">
+        <f>TEXT(Automatos!H17,"##")</f>
+        <v>7</v>
+      </c>
+      <c r="I7" s="23" t="str">
+        <f>TEXT(Automatos!I17,"##")</f>
+        <v/>
+      </c>
+      <c r="J7" s="23" t="str">
+        <f>TEXT(Automatos!J17,"##")</f>
+        <v/>
+      </c>
+      <c r="K7" s="23" t="str">
+        <f>TEXT(Automatos!K17,"##")</f>
+        <v/>
+      </c>
+      <c r="L7" s="23" t="str">
+        <f>TEXT(Automatos!L17,"##")</f>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="19">
         <v>6</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="B8" s="23" t="str">
+        <f>TEXT(Automatos!B18,"##")</f>
+        <v/>
+      </c>
+      <c r="C8" s="23" t="str">
+        <f>TEXT(Automatos!C18,"##")</f>
+        <v/>
+      </c>
+      <c r="D8" s="23" t="str">
+        <f>TEXT(Automatos!D18,"##")</f>
+        <v/>
+      </c>
+      <c r="E8" s="23" t="str">
+        <f>TEXT(Automatos!E18,"##")</f>
+        <v/>
+      </c>
+      <c r="F8" s="23" t="str">
+        <f>TEXT(Automatos!F18,"##")</f>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="str">
+        <f>TEXT(Automatos!G18,"##")</f>
+        <v>8</v>
+      </c>
+      <c r="H8" s="23" t="str">
+        <f>TEXT(Automatos!H18,"##")</f>
+        <v/>
+      </c>
+      <c r="I8" s="23" t="str">
+        <f>TEXT(Automatos!I18,"##")</f>
+        <v/>
+      </c>
+      <c r="J8" s="23" t="str">
+        <f>TEXT(Automatos!J18,"##")</f>
+        <v/>
+      </c>
+      <c r="K8" s="23" t="str">
+        <f>TEXT(Automatos!K18,"##")</f>
+        <v/>
+      </c>
+      <c r="L8" s="23" t="str">
+        <f>TEXT(Automatos!L18,"##")</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="B9" s="23" t="str">
+        <f>TEXT(Automatos!B19,"##")</f>
+        <v/>
+      </c>
+      <c r="C9" s="23" t="str">
+        <f>TEXT(Automatos!C19,"##")</f>
+        <v/>
+      </c>
+      <c r="D9" s="23" t="str">
+        <f>TEXT(Automatos!D19,"##")</f>
+        <v/>
+      </c>
+      <c r="E9" s="23" t="str">
+        <f>TEXT(Automatos!E19,"##")</f>
+        <v/>
+      </c>
+      <c r="F9" s="23" t="str">
+        <f>TEXT(Automatos!F19,"##")</f>
+        <v/>
+      </c>
+      <c r="G9" s="23" t="str">
+        <f>TEXT(Automatos!G19,"##")</f>
+        <v/>
+      </c>
+      <c r="H9" s="23" t="str">
+        <f>TEXT(Automatos!H19,"##")</f>
+        <v/>
+      </c>
+      <c r="I9" s="23" t="str">
+        <f>TEXT(Automatos!I19,"##")</f>
+        <v>9</v>
+      </c>
+      <c r="J9" s="23" t="str">
+        <f>TEXT(Automatos!J19,"##")</f>
+        <v/>
+      </c>
+      <c r="K9" s="23" t="str">
+        <f>TEXT(Automatos!K19,"##")</f>
+        <v/>
+      </c>
+      <c r="L9" s="23" t="str">
+        <f>TEXT(Automatos!L19,"##")</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="19">
         <v>8</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="B10" s="23" t="str">
+        <f>TEXT(Automatos!B20,"##")</f>
+        <v/>
+      </c>
+      <c r="C10" s="23" t="str">
+        <f>TEXT(Automatos!C20,"##")</f>
+        <v/>
+      </c>
+      <c r="D10" s="23" t="str">
+        <f>TEXT(Automatos!D20,"##")</f>
+        <v/>
+      </c>
+      <c r="E10" s="23" t="str">
+        <f>TEXT(Automatos!E20,"##")</f>
+        <v/>
+      </c>
+      <c r="F10" s="23" t="str">
+        <f>TEXT(Automatos!F20,"##")</f>
+        <v/>
+      </c>
+      <c r="G10" s="23" t="str">
+        <f>TEXT(Automatos!G20,"##")</f>
+        <v/>
+      </c>
+      <c r="H10" s="23" t="str">
+        <f>TEXT(Automatos!H20,"##")</f>
+        <v/>
+      </c>
+      <c r="I10" s="23" t="str">
+        <f>TEXT(Automatos!I20,"##")</f>
+        <v/>
+      </c>
+      <c r="J10" s="23" t="str">
+        <f>TEXT(Automatos!J20,"##")</f>
+        <v/>
+      </c>
+      <c r="K10" s="23" t="str">
+        <f>TEXT(Automatos!K20,"##")</f>
+        <v/>
+      </c>
+      <c r="L10" s="23" t="str">
+        <f>TEXT(Automatos!L20,"##")</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="B11" s="23" t="str">
+        <f>TEXT(Automatos!B21,"##")</f>
+        <v/>
+      </c>
+      <c r="C11" s="23" t="str">
+        <f>TEXT(Automatos!C21,"##")</f>
+        <v/>
+      </c>
+      <c r="D11" s="23" t="str">
+        <f>TEXT(Automatos!D21,"##")</f>
+        <v/>
+      </c>
+      <c r="E11" s="23" t="str">
+        <f>TEXT(Automatos!E21,"##")</f>
+        <v/>
+      </c>
+      <c r="F11" s="23" t="str">
+        <f>TEXT(Automatos!F21,"##")</f>
+        <v/>
+      </c>
+      <c r="G11" s="23" t="str">
+        <f>TEXT(Automatos!G21,"##")</f>
+        <v/>
+      </c>
+      <c r="H11" s="23" t="str">
+        <f>TEXT(Automatos!H21,"##")</f>
+        <v/>
+      </c>
+      <c r="I11" s="23" t="str">
+        <f>TEXT(Automatos!I21,"##")</f>
+        <v/>
+      </c>
+      <c r="J11" s="23" t="str">
+        <f>TEXT(Automatos!J21,"##")</f>
+        <v>12</v>
+      </c>
+      <c r="K11" s="23" t="str">
+        <f>TEXT(Automatos!K21,"##")</f>
+        <v/>
+      </c>
+      <c r="L11" s="23" t="str">
+        <f>TEXT(Automatos!L21,"##")</f>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="19">
         <v>10</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="B12" s="23" t="str">
+        <f>TEXT(Automatos!B22,"##")</f>
+        <v/>
+      </c>
+      <c r="C12" s="23" t="str">
+        <f>TEXT(Automatos!C22,"##")</f>
+        <v/>
+      </c>
+      <c r="D12" s="23" t="str">
+        <f>TEXT(Automatos!D22,"##")</f>
+        <v/>
+      </c>
+      <c r="E12" s="23" t="str">
+        <f>TEXT(Automatos!E22,"##")</f>
+        <v/>
+      </c>
+      <c r="F12" s="23" t="str">
+        <f>TEXT(Automatos!F22,"##")</f>
+        <v/>
+      </c>
+      <c r="G12" s="23" t="str">
+        <f>TEXT(Automatos!G22,"##")</f>
+        <v/>
+      </c>
+      <c r="H12" s="23" t="str">
+        <f>TEXT(Automatos!H22,"##")</f>
+        <v>13</v>
+      </c>
+      <c r="I12" s="23" t="str">
+        <f>TEXT(Automatos!I22,"##")</f>
+        <v/>
+      </c>
+      <c r="J12" s="23" t="str">
+        <f>TEXT(Automatos!J22,"##")</f>
+        <v/>
+      </c>
+      <c r="K12" s="23" t="str">
+        <f>TEXT(Automatos!K22,"##")</f>
+        <v/>
+      </c>
+      <c r="L12" s="23" t="str">
+        <f>TEXT(Automatos!L22,"##")</f>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="19">
         <v>11</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="B13" s="23" t="str">
+        <f>TEXT(Automatos!B23,"##")</f>
+        <v/>
+      </c>
+      <c r="C13" s="23" t="str">
+        <f>TEXT(Automatos!C23,"##")</f>
+        <v/>
+      </c>
+      <c r="D13" s="23" t="str">
+        <f>TEXT(Automatos!D23,"##")</f>
+        <v/>
+      </c>
+      <c r="E13" s="23" t="str">
+        <f>TEXT(Automatos!E23,"##")</f>
+        <v/>
+      </c>
+      <c r="F13" s="23" t="str">
+        <f>TEXT(Automatos!F23,"##")</f>
+        <v/>
+      </c>
+      <c r="G13" s="23" t="str">
+        <f>TEXT(Automatos!G23,"##")</f>
+        <v/>
+      </c>
+      <c r="H13" s="23" t="str">
+        <f>TEXT(Automatos!H23,"##")</f>
+        <v/>
+      </c>
+      <c r="I13" s="23" t="str">
+        <f>TEXT(Automatos!I23,"##")</f>
+        <v/>
+      </c>
+      <c r="J13" s="23" t="str">
+        <f>TEXT(Automatos!J23,"##")</f>
+        <v>12</v>
+      </c>
+      <c r="K13" s="23" t="str">
+        <f>TEXT(Automatos!K23,"##")</f>
+        <v/>
+      </c>
+      <c r="L13" s="23" t="str">
+        <f>TEXT(Automatos!L23,"##")</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="19">
         <v>12</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="B14" s="23" t="str">
+        <f>TEXT(Automatos!B24,"##")</f>
+        <v/>
+      </c>
+      <c r="C14" s="23" t="str">
+        <f>TEXT(Automatos!C24,"##")</f>
+        <v/>
+      </c>
+      <c r="D14" s="23" t="str">
+        <f>TEXT(Automatos!D24,"##")</f>
+        <v/>
+      </c>
+      <c r="E14" s="23" t="str">
+        <f>TEXT(Automatos!E24,"##")</f>
+        <v/>
+      </c>
+      <c r="F14" s="23" t="str">
+        <f>TEXT(Automatos!F24,"##")</f>
+        <v/>
+      </c>
+      <c r="G14" s="23" t="str">
+        <f>TEXT(Automatos!G24,"##")</f>
+        <v/>
+      </c>
+      <c r="H14" s="23" t="str">
+        <f>TEXT(Automatos!H24,"##")</f>
+        <v/>
+      </c>
+      <c r="I14" s="23" t="str">
+        <f>TEXT(Automatos!I24,"##")</f>
+        <v/>
+      </c>
+      <c r="J14" s="23" t="str">
+        <f>TEXT(Automatos!J24,"##")</f>
+        <v/>
+      </c>
+      <c r="K14" s="23" t="str">
+        <f>TEXT(Automatos!K24,"##")</f>
+        <v/>
+      </c>
+      <c r="L14" s="23" t="str">
+        <f>TEXT(Automatos!L24,"##")</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="19">
         <v>13</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="B15" s="23" t="str">
+        <f>TEXT(Automatos!B25,"##")</f>
+        <v/>
+      </c>
+      <c r="C15" s="23" t="str">
+        <f>TEXT(Automatos!C25,"##")</f>
+        <v/>
+      </c>
+      <c r="D15" s="23" t="str">
+        <f>TEXT(Automatos!D25,"##")</f>
+        <v/>
+      </c>
+      <c r="E15" s="23" t="str">
+        <f>TEXT(Automatos!E25,"##")</f>
+        <v/>
+      </c>
+      <c r="F15" s="23" t="str">
+        <f>TEXT(Automatos!F25,"##")</f>
+        <v/>
+      </c>
+      <c r="G15" s="23" t="str">
+        <f>TEXT(Automatos!G25,"##")</f>
+        <v/>
+      </c>
+      <c r="H15" s="23" t="str">
+        <f>TEXT(Automatos!H25,"##")</f>
+        <v/>
+      </c>
+      <c r="I15" s="23" t="str">
+        <f>TEXT(Automatos!I25,"##")</f>
+        <v>14</v>
+      </c>
+      <c r="J15" s="23" t="str">
+        <f>TEXT(Automatos!J25,"##")</f>
+        <v/>
+      </c>
+      <c r="K15" s="23" t="str">
+        <f>TEXT(Automatos!K25,"##")</f>
+        <v/>
+      </c>
+      <c r="L15" s="23" t="str">
+        <f>TEXT(Automatos!L25,"##")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="19">
         <v>14</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="19"/>
+      <c r="B16" s="23" t="str">
+        <f>TEXT(Automatos!B26,"##")</f>
+        <v/>
+      </c>
+      <c r="C16" s="23" t="str">
+        <f>TEXT(Automatos!C26,"##")</f>
+        <v/>
+      </c>
+      <c r="D16" s="23" t="str">
+        <f>TEXT(Automatos!D26,"##")</f>
+        <v/>
+      </c>
+      <c r="E16" s="23" t="str">
+        <f>TEXT(Automatos!E26,"##")</f>
+        <v/>
+      </c>
+      <c r="F16" s="23" t="str">
+        <f>TEXT(Automatos!F26,"##")</f>
+        <v/>
+      </c>
+      <c r="G16" s="23" t="str">
+        <f>TEXT(Automatos!G26,"##")</f>
+        <v/>
+      </c>
+      <c r="H16" s="23" t="str">
+        <f>TEXT(Automatos!H26,"##")</f>
+        <v/>
+      </c>
+      <c r="I16" s="23" t="str">
+        <f>TEXT(Automatos!I26,"##")</f>
+        <v/>
+      </c>
+      <c r="J16" s="23" t="str">
+        <f>TEXT(Automatos!J26,"##")</f>
+        <v/>
+      </c>
+      <c r="K16" s="23" t="str">
+        <f>TEXT(Automatos!K26,"##")</f>
+        <v>16</v>
+      </c>
+      <c r="L16" s="23" t="str">
+        <f>TEXT(Automatos!L26,"##")</f>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="19">
         <v>15</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="19"/>
+      <c r="B17" s="23" t="str">
+        <f>TEXT(Automatos!B27,"##")</f>
+        <v/>
+      </c>
+      <c r="C17" s="23" t="str">
+        <f>TEXT(Automatos!C27,"##")</f>
+        <v/>
+      </c>
+      <c r="D17" s="23" t="str">
+        <f>TEXT(Automatos!D27,"##")</f>
+        <v/>
+      </c>
+      <c r="E17" s="23" t="str">
+        <f>TEXT(Automatos!E27,"##")</f>
+        <v/>
+      </c>
+      <c r="F17" s="23" t="str">
+        <f>TEXT(Automatos!F27,"##")</f>
+        <v/>
+      </c>
+      <c r="G17" s="23" t="str">
+        <f>TEXT(Automatos!G27,"##")</f>
+        <v/>
+      </c>
+      <c r="H17" s="23" t="str">
+        <f>TEXT(Automatos!H27,"##")</f>
+        <v/>
+      </c>
+      <c r="I17" s="23" t="str">
+        <f>TEXT(Automatos!I27,"##")</f>
+        <v/>
+      </c>
+      <c r="J17" s="23" t="str">
+        <f>TEXT(Automatos!J27,"##")</f>
+        <v/>
+      </c>
+      <c r="K17" s="23" t="str">
+        <f>TEXT(Automatos!K27,"##")</f>
+        <v>16</v>
+      </c>
+      <c r="L17" s="23" t="str">
+        <f>TEXT(Automatos!L27,"##")</f>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="19">
         <v>16</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20" t="s">
-        <v>99</v>
+      <c r="B18" s="23" t="str">
+        <f>TEXT(Automatos!B28,"##")</f>
+        <v/>
+      </c>
+      <c r="C18" s="23" t="str">
+        <f>TEXT(Automatos!C28,"##")</f>
+        <v/>
+      </c>
+      <c r="D18" s="23" t="str">
+        <f>TEXT(Automatos!D28,"##")</f>
+        <v/>
+      </c>
+      <c r="E18" s="23" t="str">
+        <f>TEXT(Automatos!E28,"##")</f>
+        <v/>
+      </c>
+      <c r="F18" s="23" t="str">
+        <f>TEXT(Automatos!F28,"##")</f>
+        <v/>
+      </c>
+      <c r="G18" s="23" t="str">
+        <f>TEXT(Automatos!G28,"##")</f>
+        <v/>
+      </c>
+      <c r="H18" s="23" t="str">
+        <f>TEXT(Automatos!H28,"##")</f>
+        <v/>
+      </c>
+      <c r="I18" s="23" t="str">
+        <f>TEXT(Automatos!I28,"##")</f>
+        <v/>
+      </c>
+      <c r="J18" s="23" t="str">
+        <f>TEXT(Automatos!J28,"##")</f>
+        <v/>
+      </c>
+      <c r="K18" s="23" t="str">
+        <f>TEXT(Automatos!K28,"##")</f>
+        <v/>
+      </c>
+      <c r="L18" s="23" t="str">
+        <f>TEXT(Automatos!L28,"##")</f>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="19">
         <v>17</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="B19" s="23" t="str">
+        <f>TEXT(Automatos!B29,"##")</f>
+        <v/>
+      </c>
+      <c r="C19" s="23" t="str">
+        <f>TEXT(Automatos!C29,"##")</f>
+        <v/>
+      </c>
+      <c r="D19" s="23" t="str">
+        <f>TEXT(Automatos!D29,"##")</f>
+        <v/>
+      </c>
+      <c r="E19" s="23" t="str">
+        <f>TEXT(Automatos!E29,"##")</f>
+        <v/>
+      </c>
+      <c r="F19" s="23" t="str">
+        <f>TEXT(Automatos!F29,"##")</f>
+        <v/>
+      </c>
+      <c r="G19" s="23" t="str">
+        <f>TEXT(Automatos!G29,"##")</f>
+        <v/>
+      </c>
+      <c r="H19" s="23" t="str">
+        <f>TEXT(Automatos!H29,"##")</f>
+        <v/>
+      </c>
+      <c r="I19" s="23" t="str">
+        <f>TEXT(Automatos!I29,"##")</f>
+        <v/>
+      </c>
+      <c r="J19" s="23" t="str">
+        <f>TEXT(Automatos!J29,"##")</f>
+        <v/>
+      </c>
+      <c r="K19" s="23" t="str">
+        <f>TEXT(Automatos!K29,"##")</f>
+        <v/>
+      </c>
+      <c r="L19" s="23" t="str">
+        <f>TEXT(Automatos!L29,"##")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6219,7 +7874,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6250,14 +7905,22 @@
       <c r="A2" s="12">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="21" t="str">
+        <f>TEXT(Automatos!B32,"##")</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="str">
+        <f>TEXT(Automatos!C32,"##")</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="21" t="str">
+        <f>TEXT(Automatos!D32,"##")</f>
+        <v/>
+      </c>
+      <c r="E2" s="21" t="str">
+        <f>TEXT(Automatos!E32,"##")</f>
+        <v/>
+      </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -6270,11 +7933,21 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="21" t="s">
-        <v>101</v>
+      <c r="B3" s="21" t="str">
+        <f>TEXT(Automatos!B33,"##")</f>
+        <v/>
+      </c>
+      <c r="C3" s="21" t="str">
+        <f>TEXT(Automatos!C33,"##")</f>
+        <v/>
+      </c>
+      <c r="D3" s="21" t="str">
+        <f>TEXT(Automatos!D33,"##")</f>
+        <v/>
+      </c>
+      <c r="E3" s="21" t="str">
+        <f>TEXT(Automatos!E33,"##")</f>
+        <v>2</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="19"/>
@@ -6288,12 +7961,22 @@
       <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="B4" s="21" t="str">
+        <f>TEXT(Automatos!B34,"##")</f>
+        <v/>
+      </c>
+      <c r="C4" s="21" t="str">
+        <f>TEXT(Automatos!C34,"##")</f>
+        <v/>
+      </c>
+      <c r="D4" s="21" t="str">
+        <f>TEXT(Automatos!D34,"##")</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="21" t="str">
+        <f>TEXT(Automatos!E34,"##")</f>
+        <v/>
+      </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
@@ -6306,10 +7989,22 @@
       <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="21" t="str">
+        <f>TEXT(Automatos!B35,"##")</f>
+        <v/>
+      </c>
+      <c r="C5" s="21" t="str">
+        <f>TEXT(Automatos!C35,"##")</f>
+        <v/>
+      </c>
+      <c r="D5" s="21" t="str">
+        <f>TEXT(Automatos!D35,"##")</f>
+        <v/>
+      </c>
+      <c r="E5" s="21" t="str">
+        <f>TEXT(Automatos!E35,"##")</f>
+        <v/>
+      </c>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
       <c r="H5" s="19"/>
@@ -6322,10 +8017,22 @@
       <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="21" t="str">
+        <f>TEXT(Automatos!B36,"##")</f>
+        <v/>
+      </c>
+      <c r="C6" s="21" t="str">
+        <f>TEXT(Automatos!C36,"##")</f>
+        <v/>
+      </c>
+      <c r="D6" s="21" t="str">
+        <f>TEXT(Automatos!D36,"##")</f>
+        <v/>
+      </c>
+      <c r="E6" s="21" t="str">
+        <f>TEXT(Automatos!E36,"##")</f>
+        <v/>
+      </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -6518,6 +8225,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6531,7 +8239,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6558,76 +8266,155 @@
       <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="22" t="str">
+        <f>TEXT(Automatos!B39, "##")</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="22" t="str">
+        <f>TEXT(Automatos!C39, "##")</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="22" t="str">
+        <f>TEXT(Automatos!D39, "##")</f>
+        <v/>
+      </c>
+      <c r="E2" s="22" t="str">
+        <f>TEXT(Automatos!E39, "##")</f>
+        <v/>
+      </c>
+      <c r="F2" s="22" t="str">
+        <f>TEXT(Automatos!F39, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="22" t="str">
+        <f>TEXT(Automatos!B40, "##")</f>
+        <v/>
+      </c>
+      <c r="C3" s="22" t="str">
+        <f>TEXT(Automatos!C40, "##")</f>
+        <v/>
+      </c>
+      <c r="D3" s="22" t="str">
+        <f>TEXT(Automatos!D40, "##")</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="22" t="str">
+        <f>TEXT(Automatos!E40, "##")</f>
+        <v/>
+      </c>
+      <c r="F3" s="22" t="str">
+        <f>TEXT(Automatos!F40, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>89</v>
+      <c r="B4" s="22" t="str">
+        <f>TEXT(Automatos!B41, "##")</f>
+        <v/>
+      </c>
+      <c r="C4" s="22" t="str">
+        <f>TEXT(Automatos!C41, "##")</f>
+        <v/>
+      </c>
+      <c r="D4" s="22" t="str">
+        <f>TEXT(Automatos!D41, "##")</f>
+        <v/>
+      </c>
+      <c r="E4" s="22" t="str">
+        <f>TEXT(Automatos!E41, "##")</f>
+        <v>3</v>
+      </c>
+      <c r="F4" s="22" t="str">
+        <f>TEXT(Automatos!F41, "##")</f>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="22" t="str">
+        <f>TEXT(Automatos!B42, "##")</f>
+        <v/>
+      </c>
+      <c r="C5" s="22" t="str">
+        <f>TEXT(Automatos!C42, "##")</f>
+        <v/>
+      </c>
+      <c r="D5" s="22" t="str">
+        <f>TEXT(Automatos!D42, "##")</f>
+        <v/>
+      </c>
+      <c r="E5" s="22" t="str">
+        <f>TEXT(Automatos!E42, "##")</f>
+        <v/>
+      </c>
+      <c r="F5" s="22" t="str">
+        <f>TEXT(Automatos!F42, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="22" t="str">
+        <f>TEXT(Automatos!B43, "##")</f>
+        <v/>
+      </c>
+      <c r="C6" s="22" t="str">
+        <f>TEXT(Automatos!C43, "##")</f>
+        <v/>
+      </c>
+      <c r="D6" s="22" t="str">
+        <f>TEXT(Automatos!D43, "##")</f>
+        <v/>
+      </c>
+      <c r="E6" s="22" t="str">
+        <f>TEXT(Automatos!E43, "##")</f>
+        <v/>
+      </c>
+      <c r="F6" s="22" t="str">
+        <f>TEXT(Automatos!F43, "##")</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="22" t="s">
-        <v>89</v>
+      <c r="B7" s="22" t="str">
+        <f>TEXT(Automatos!B44, "##")</f>
+        <v/>
+      </c>
+      <c r="C7" s="22" t="str">
+        <f>TEXT(Automatos!C44, "##")</f>
+        <v/>
+      </c>
+      <c r="D7" s="22" t="str">
+        <f>TEXT(Automatos!D44, "##")</f>
+        <v/>
+      </c>
+      <c r="E7" s="22" t="str">
+        <f>TEXT(Automatos!E44, "##")</f>
+        <v/>
+      </c>
+      <c r="F7" s="22" t="str">
+        <f>TEXT(Automatos!F44, "##")</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/config/input.xlsx
+++ b/config/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24700" windowHeight="15620" tabRatio="884" activeTab="3"/>
+    <workbookView xWindow="15040" yWindow="0" windowWidth="12940" windowHeight="15620" tabRatio="884" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PalavrasReservadas" sheetId="1" r:id="rId1"/>
@@ -13,18 +13,19 @@
     <sheet name="Automatos" sheetId="4" r:id="rId4"/>
     <sheet name="Submaquinas" sheetId="5" r:id="rId5"/>
     <sheet name="Tokens" sheetId="13" r:id="rId6"/>
-    <sheet name="1.Diretas" sheetId="6" r:id="rId7"/>
-    <sheet name="2.Diretas" sheetId="7" r:id="rId8"/>
-    <sheet name="3.Diretas" sheetId="8" r:id="rId9"/>
-    <sheet name="4.Diretas" sheetId="9" r:id="rId10"/>
-    <sheet name="5.Diretas" sheetId="10" r:id="rId11"/>
-    <sheet name="6.Diretas" sheetId="11" r:id="rId12"/>
-    <sheet name="1.Indiretas" sheetId="14" r:id="rId13"/>
-    <sheet name="2.Indiretas" sheetId="15" r:id="rId14"/>
-    <sheet name="3.Indiretas" sheetId="16" r:id="rId15"/>
-    <sheet name="4.Indiretas" sheetId="17" r:id="rId16"/>
-    <sheet name="5.Indiretas" sheetId="18" r:id="rId17"/>
-    <sheet name="6.Indiretas" sheetId="19" r:id="rId18"/>
+    <sheet name="EstadosFinais" sheetId="20" r:id="rId7"/>
+    <sheet name="1.Diretas" sheetId="6" r:id="rId8"/>
+    <sheet name="2.Diretas" sheetId="7" r:id="rId9"/>
+    <sheet name="3.Diretas" sheetId="8" r:id="rId10"/>
+    <sheet name="4.Diretas" sheetId="9" r:id="rId11"/>
+    <sheet name="5.Diretas" sheetId="10" r:id="rId12"/>
+    <sheet name="6.Diretas" sheetId="11" r:id="rId13"/>
+    <sheet name="1.Indiretas" sheetId="14" r:id="rId14"/>
+    <sheet name="2.Indiretas" sheetId="15" r:id="rId15"/>
+    <sheet name="3.Indiretas" sheetId="16" r:id="rId16"/>
+    <sheet name="4.Indiretas" sheetId="17" r:id="rId17"/>
+    <sheet name="5.Indiretas" sheetId="18" r:id="rId18"/>
+    <sheet name="6.Indiretas" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="97">
   <si>
     <t>if</t>
   </si>
@@ -312,6 +313,21 @@
   </si>
   <si>
     <t>numero</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>8,21</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -379,8 +395,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="215">
+  <cellStyleXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -655,7 +675,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="215">
+  <cellStyles count="219">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -763,6 +783,8 @@
     <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -870,6 +892,8 @@
     <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1387,1399 +1411,180 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O23"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:6">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="F1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="9">
         <v>0</v>
       </c>
       <c r="B2" s="22" t="str">
-        <f>TEXT(Automatos!B47, "##")</f>
-        <v>2</v>
+        <f>TEXT(Automatos!B39, "##")</f>
+        <v>1</v>
       </c>
       <c r="C2" s="22" t="str">
-        <f>TEXT(Automatos!C47, "##")</f>
-        <v/>
+        <f>TEXT(Automatos!C39, "##")</f>
+        <v>1</v>
       </c>
       <c r="D2" s="22" t="str">
-        <f>TEXT(Automatos!D47, "##")</f>
+        <f>TEXT(Automatos!D39, "##")</f>
         <v/>
       </c>
       <c r="E2" s="22" t="str">
-        <f>TEXT(Automatos!E47, "##")</f>
-        <v>3</v>
+        <f>TEXT(Automatos!E39, "##")</f>
+        <v/>
       </c>
       <c r="F2" s="22" t="str">
-        <f>TEXT(Automatos!F47, "##")</f>
-        <v>4</v>
-      </c>
-      <c r="G2" s="22" t="str">
-        <f>TEXT(Automatos!G47, "##")</f>
-        <v>4</v>
-      </c>
-      <c r="H2" s="22" t="str">
-        <f>TEXT(Automatos!H47, "##")</f>
-        <v/>
-      </c>
-      <c r="I2" s="22" t="str">
-        <f>TEXT(Automatos!I47, "##")</f>
-        <v/>
-      </c>
-      <c r="J2" s="22" t="str">
-        <f>TEXT(Automatos!J47, "##")</f>
-        <v/>
-      </c>
-      <c r="K2" s="22" t="str">
-        <f>TEXT(Automatos!K47, "##")</f>
-        <v/>
-      </c>
-      <c r="L2" s="22" t="str">
-        <f>TEXT(Automatos!L47, "##")</f>
-        <v/>
-      </c>
-      <c r="M2" s="22" t="str">
-        <f>TEXT(Automatos!M47, "##")</f>
-        <v/>
-      </c>
-      <c r="N2" s="22" t="str">
-        <f>TEXT(Automatos!N47, "##")</f>
-        <v/>
-      </c>
-      <c r="O2" s="22" t="str">
-        <f>TEXT(Automatos!O47, "##")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <f>TEXT(Automatos!F39, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="22" t="str">
-        <f>TEXT(Automatos!B48, "##")</f>
+        <f>TEXT(Automatos!B40, "##")</f>
         <v/>
       </c>
       <c r="C3" s="22" t="str">
-        <f>TEXT(Automatos!C48, "##")</f>
+        <f>TEXT(Automatos!C40, "##")</f>
         <v/>
       </c>
       <c r="D3" s="22" t="str">
-        <f>TEXT(Automatos!D48, "##")</f>
-        <v/>
+        <f>TEXT(Automatos!D40, "##")</f>
+        <v>2</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f>TEXT(Automatos!E48, "##")</f>
+        <f>TEXT(Automatos!E40, "##")</f>
         <v/>
       </c>
       <c r="F3" s="22" t="str">
-        <f>TEXT(Automatos!F48, "##")</f>
-        <v/>
-      </c>
-      <c r="G3" s="22" t="str">
-        <f>TEXT(Automatos!G48, "##")</f>
-        <v/>
-      </c>
-      <c r="H3" s="22" t="str">
-        <f>TEXT(Automatos!H48, "##")</f>
-        <v>5</v>
-      </c>
-      <c r="I3" s="22" t="str">
-        <f>TEXT(Automatos!I48, "##")</f>
-        <v/>
-      </c>
-      <c r="J3" s="22" t="str">
-        <f>TEXT(Automatos!J48, "##")</f>
-        <v/>
-      </c>
-      <c r="K3" s="22" t="str">
-        <f>TEXT(Automatos!K48, "##")</f>
-        <v/>
-      </c>
-      <c r="L3" s="22" t="str">
-        <f>TEXT(Automatos!L48, "##")</f>
-        <v/>
-      </c>
-      <c r="M3" s="22" t="str">
-        <f>TEXT(Automatos!M48, "##")</f>
-        <v/>
-      </c>
-      <c r="N3" s="22" t="str">
-        <f>TEXT(Automatos!N48, "##")</f>
-        <v/>
-      </c>
-      <c r="O3" s="22" t="str">
-        <f>TEXT(Automatos!O48, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <f>TEXT(Automatos!F40, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="22" t="str">
-        <f>TEXT(Automatos!B49, "##")</f>
+        <f>TEXT(Automatos!B41, "##")</f>
         <v/>
       </c>
       <c r="C4" s="22" t="str">
-        <f>TEXT(Automatos!C49, "##")</f>
+        <f>TEXT(Automatos!C41, "##")</f>
         <v/>
       </c>
       <c r="D4" s="22" t="str">
-        <f>TEXT(Automatos!D49, "##")</f>
+        <f>TEXT(Automatos!D41, "##")</f>
         <v/>
       </c>
       <c r="E4" s="22" t="str">
-        <f>TEXT(Automatos!E49, "##")</f>
-        <v/>
+        <f>TEXT(Automatos!E41, "##")</f>
+        <v>3</v>
       </c>
       <c r="F4" s="22" t="str">
-        <f>TEXT(Automatos!F49, "##")</f>
-        <v/>
-      </c>
-      <c r="G4" s="22" t="str">
-        <f>TEXT(Automatos!G49, "##")</f>
-        <v/>
-      </c>
-      <c r="H4" s="22" t="str">
-        <f>TEXT(Automatos!H49, "##")</f>
-        <v/>
-      </c>
-      <c r="I4" s="22" t="str">
-        <f>TEXT(Automatos!I49, "##")</f>
-        <v>15</v>
-      </c>
-      <c r="J4" s="22" t="str">
-        <f>TEXT(Automatos!J49, "##")</f>
-        <v/>
-      </c>
-      <c r="K4" s="22" t="str">
-        <f>TEXT(Automatos!K49, "##")</f>
-        <v/>
-      </c>
-      <c r="L4" s="22" t="str">
-        <f>TEXT(Automatos!L49, "##")</f>
-        <v/>
-      </c>
-      <c r="M4" s="22" t="str">
-        <f>TEXT(Automatos!M49, "##")</f>
-        <v/>
-      </c>
-      <c r="N4" s="22" t="str">
-        <f>TEXT(Automatos!N49, "##")</f>
-        <v/>
-      </c>
-      <c r="O4" s="22" t="str">
-        <f>TEXT(Automatos!O49, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <f>TEXT(Automatos!F41, "##")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="22" t="str">
-        <f>TEXT(Automatos!B50, "##")</f>
+        <f>TEXT(Automatos!B42, "##")</f>
         <v/>
       </c>
       <c r="C5" s="22" t="str">
-        <f>TEXT(Automatos!C50, "##")</f>
+        <f>TEXT(Automatos!C42, "##")</f>
         <v/>
       </c>
       <c r="D5" s="22" t="str">
-        <f>TEXT(Automatos!D50, "##")</f>
+        <f>TEXT(Automatos!D42, "##")</f>
         <v/>
       </c>
       <c r="E5" s="22" t="str">
-        <f>TEXT(Automatos!E50, "##")</f>
+        <f>TEXT(Automatos!E42, "##")</f>
         <v/>
       </c>
       <c r="F5" s="22" t="str">
-        <f>TEXT(Automatos!F50, "##")</f>
-        <v/>
-      </c>
-      <c r="G5" s="22" t="str">
-        <f>TEXT(Automatos!G50, "##")</f>
-        <v/>
-      </c>
-      <c r="H5" s="22" t="str">
-        <f>TEXT(Automatos!H50, "##")</f>
-        <v/>
-      </c>
-      <c r="I5" s="22" t="str">
-        <f>TEXT(Automatos!I50, "##")</f>
-        <v>11</v>
-      </c>
-      <c r="J5" s="22" t="str">
-        <f>TEXT(Automatos!J50, "##")</f>
-        <v/>
-      </c>
-      <c r="K5" s="22" t="str">
-        <f>TEXT(Automatos!K50, "##")</f>
-        <v/>
-      </c>
-      <c r="L5" s="22" t="str">
-        <f>TEXT(Automatos!L50, "##")</f>
-        <v/>
-      </c>
-      <c r="M5" s="22" t="str">
-        <f>TEXT(Automatos!M50, "##")</f>
-        <v/>
-      </c>
-      <c r="N5" s="22" t="str">
-        <f>TEXT(Automatos!N50, "##")</f>
-        <v/>
-      </c>
-      <c r="O5" s="22" t="str">
-        <f>TEXT(Automatos!O50, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <f>TEXT(Automatos!F42, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="22" t="str">
-        <f>TEXT(Automatos!B51, "##")</f>
+        <f>TEXT(Automatos!B43, "##")</f>
         <v/>
       </c>
       <c r="C6" s="22" t="str">
-        <f>TEXT(Automatos!C51, "##")</f>
+        <f>TEXT(Automatos!C43, "##")</f>
         <v/>
       </c>
       <c r="D6" s="22" t="str">
-        <f>TEXT(Automatos!D51, "##")</f>
+        <f>TEXT(Automatos!D43, "##")</f>
         <v/>
       </c>
       <c r="E6" s="22" t="str">
-        <f>TEXT(Automatos!E51, "##")</f>
+        <f>TEXT(Automatos!E43, "##")</f>
         <v/>
       </c>
       <c r="F6" s="22" t="str">
-        <f>TEXT(Automatos!F51, "##")</f>
-        <v/>
-      </c>
-      <c r="G6" s="22" t="str">
-        <f>TEXT(Automatos!G51, "##")</f>
-        <v/>
-      </c>
-      <c r="H6" s="22" t="str">
-        <f>TEXT(Automatos!H51, "##")</f>
-        <v/>
-      </c>
-      <c r="I6" s="22" t="str">
-        <f>TEXT(Automatos!I51, "##")</f>
-        <v/>
-      </c>
-      <c r="J6" s="22" t="str">
-        <f>TEXT(Automatos!J51, "##")</f>
-        <v/>
-      </c>
-      <c r="K6" s="22" t="str">
-        <f>TEXT(Automatos!K51, "##")</f>
-        <v/>
-      </c>
-      <c r="L6" s="22" t="str">
-        <f>TEXT(Automatos!L51, "##")</f>
-        <v/>
-      </c>
-      <c r="M6" s="22" t="str">
-        <f>TEXT(Automatos!M51, "##")</f>
-        <v/>
-      </c>
-      <c r="N6" s="22" t="str">
-        <f>TEXT(Automatos!N51, "##")</f>
-        <v/>
-      </c>
-      <c r="O6" s="22" t="str">
-        <f>TEXT(Automatos!O51, "##")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <f>TEXT(Automatos!F43, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="22" t="str">
-        <f>TEXT(Automatos!B52, "##")</f>
+        <f>TEXT(Automatos!B44, "##")</f>
         <v/>
       </c>
       <c r="C7" s="22" t="str">
-        <f>TEXT(Automatos!C52, "##")</f>
+        <f>TEXT(Automatos!C44, "##")</f>
         <v/>
       </c>
       <c r="D7" s="22" t="str">
-        <f>TEXT(Automatos!D52, "##")</f>
+        <f>TEXT(Automatos!D44, "##")</f>
         <v/>
       </c>
       <c r="E7" s="22" t="str">
-        <f>TEXT(Automatos!E52, "##")</f>
+        <f>TEXT(Automatos!E44, "##")</f>
         <v/>
       </c>
       <c r="F7" s="22" t="str">
-        <f>TEXT(Automatos!F52, "##")</f>
-        <v/>
-      </c>
-      <c r="G7" s="22" t="str">
-        <f>TEXT(Automatos!G52, "##")</f>
-        <v/>
-      </c>
-      <c r="H7" s="22" t="str">
-        <f>TEXT(Automatos!H52, "##")</f>
-        <v/>
-      </c>
-      <c r="I7" s="22" t="str">
-        <f>TEXT(Automatos!I52, "##")</f>
-        <v/>
-      </c>
-      <c r="J7" s="22" t="str">
-        <f>TEXT(Automatos!J52, "##")</f>
-        <v/>
-      </c>
-      <c r="K7" s="22" t="str">
-        <f>TEXT(Automatos!K52, "##")</f>
-        <v/>
-      </c>
-      <c r="L7" s="22" t="str">
-        <f>TEXT(Automatos!L52, "##")</f>
-        <v/>
-      </c>
-      <c r="M7" s="22" t="str">
-        <f>TEXT(Automatos!M52, "##")</f>
-        <v/>
-      </c>
-      <c r="N7" s="22" t="str">
-        <f>TEXT(Automatos!N52, "##")</f>
-        <v/>
-      </c>
-      <c r="O7" s="22" t="str">
-        <f>TEXT(Automatos!O52, "##")</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="22" t="str">
-        <f>TEXT(Automatos!B53, "##")</f>
-        <v/>
-      </c>
-      <c r="C8" s="22" t="str">
-        <f>TEXT(Automatos!C53, "##")</f>
-        <v/>
-      </c>
-      <c r="D8" s="22" t="str">
-        <f>TEXT(Automatos!D53, "##")</f>
-        <v/>
-      </c>
-      <c r="E8" s="22" t="str">
-        <f>TEXT(Automatos!E53, "##")</f>
-        <v/>
-      </c>
-      <c r="F8" s="22" t="str">
-        <f>TEXT(Automatos!F53, "##")</f>
-        <v/>
-      </c>
-      <c r="G8" s="22" t="str">
-        <f>TEXT(Automatos!G53, "##")</f>
-        <v/>
-      </c>
-      <c r="H8" s="22" t="str">
-        <f>TEXT(Automatos!H53, "##")</f>
-        <v/>
-      </c>
-      <c r="I8" s="22" t="str">
-        <f>TEXT(Automatos!I53, "##")</f>
-        <v/>
-      </c>
-      <c r="J8" s="22" t="str">
-        <f>TEXT(Automatos!J53, "##")</f>
-        <v/>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f>TEXT(Automatos!K53, "##")</f>
-        <v>8</v>
-      </c>
-      <c r="L8" s="22" t="str">
-        <f>TEXT(Automatos!L53, "##")</f>
-        <v/>
-      </c>
-      <c r="M8" s="22" t="str">
-        <f>TEXT(Automatos!M53, "##")</f>
-        <v/>
-      </c>
-      <c r="N8" s="22" t="str">
-        <f>TEXT(Automatos!N53, "##")</f>
-        <v/>
-      </c>
-      <c r="O8" s="22" t="str">
-        <f>TEXT(Automatos!O53, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="22" t="str">
-        <f>TEXT(Automatos!B54, "##")</f>
-        <v/>
-      </c>
-      <c r="C9" s="22" t="str">
-        <f>TEXT(Automatos!C54, "##")</f>
-        <v/>
-      </c>
-      <c r="D9" s="22" t="str">
-        <f>TEXT(Automatos!D54, "##")</f>
-        <v/>
-      </c>
-      <c r="E9" s="22" t="str">
-        <f>TEXT(Automatos!E54, "##")</f>
-        <v/>
-      </c>
-      <c r="F9" s="22" t="str">
-        <f>TEXT(Automatos!F54, "##")</f>
-        <v/>
-      </c>
-      <c r="G9" s="22" t="str">
-        <f>TEXT(Automatos!G54, "##")</f>
-        <v/>
-      </c>
-      <c r="H9" s="22" t="str">
-        <f>TEXT(Automatos!H54, "##")</f>
-        <v/>
-      </c>
-      <c r="I9" s="22" t="str">
-        <f>TEXT(Automatos!I54, "##")</f>
-        <v>9</v>
-      </c>
-      <c r="J9" s="22" t="str">
-        <f>TEXT(Automatos!J54, "##")</f>
-        <v/>
-      </c>
-      <c r="K9" s="22" t="str">
-        <f>TEXT(Automatos!K54, "##")</f>
-        <v/>
-      </c>
-      <c r="L9" s="22" t="str">
-        <f>TEXT(Automatos!L54, "##")</f>
-        <v/>
-      </c>
-      <c r="M9" s="22" t="str">
-        <f>TEXT(Automatos!M54, "##")</f>
-        <v/>
-      </c>
-      <c r="N9" s="22" t="str">
-        <f>TEXT(Automatos!N54, "##")</f>
-        <v/>
-      </c>
-      <c r="O9" s="22" t="str">
-        <f>TEXT(Automatos!O54, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="22" t="str">
-        <f>TEXT(Automatos!B55, "##")</f>
-        <v/>
-      </c>
-      <c r="C10" s="22" t="str">
-        <f>TEXT(Automatos!C55, "##")</f>
-        <v/>
-      </c>
-      <c r="D10" s="22" t="str">
-        <f>TEXT(Automatos!D55, "##")</f>
-        <v/>
-      </c>
-      <c r="E10" s="22" t="str">
-        <f>TEXT(Automatos!E55, "##")</f>
-        <v/>
-      </c>
-      <c r="F10" s="22" t="str">
-        <f>TEXT(Automatos!F55, "##")</f>
-        <v/>
-      </c>
-      <c r="G10" s="22" t="str">
-        <f>TEXT(Automatos!G55, "##")</f>
-        <v/>
-      </c>
-      <c r="H10" s="22" t="str">
-        <f>TEXT(Automatos!H55, "##")</f>
-        <v/>
-      </c>
-      <c r="I10" s="22" t="str">
-        <f>TEXT(Automatos!I55, "##")</f>
-        <v/>
-      </c>
-      <c r="J10" s="22" t="str">
-        <f>TEXT(Automatos!J55, "##")</f>
-        <v/>
-      </c>
-      <c r="K10" s="22" t="str">
-        <f>TEXT(Automatos!K55, "##")</f>
-        <v/>
-      </c>
-      <c r="L10" s="22" t="str">
-        <f>TEXT(Automatos!L55, "##")</f>
-        <v/>
-      </c>
-      <c r="M10" s="22" t="str">
-        <f>TEXT(Automatos!M55, "##")</f>
-        <v/>
-      </c>
-      <c r="N10" s="22" t="str">
-        <f>TEXT(Automatos!N55, "##")</f>
-        <v/>
-      </c>
-      <c r="O10" s="22" t="str">
-        <f>TEXT(Automatos!O55, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="22" t="str">
-        <f>TEXT(Automatos!B56, "##")</f>
-        <v/>
-      </c>
-      <c r="C11" s="22" t="str">
-        <f>TEXT(Automatos!C56, "##")</f>
-        <v/>
-      </c>
-      <c r="D11" s="22" t="str">
-        <f>TEXT(Automatos!D56, "##")</f>
-        <v/>
-      </c>
-      <c r="E11" s="22" t="str">
-        <f>TEXT(Automatos!E56, "##")</f>
-        <v/>
-      </c>
-      <c r="F11" s="22" t="str">
-        <f>TEXT(Automatos!F56, "##")</f>
-        <v/>
-      </c>
-      <c r="G11" s="22" t="str">
-        <f>TEXT(Automatos!G56, "##")</f>
-        <v/>
-      </c>
-      <c r="H11" s="22" t="str">
-        <f>TEXT(Automatos!H56, "##")</f>
-        <v/>
-      </c>
-      <c r="I11" s="22" t="str">
-        <f>TEXT(Automatos!I56, "##")</f>
-        <v/>
-      </c>
-      <c r="J11" s="22" t="str">
-        <f>TEXT(Automatos!J56, "##")</f>
-        <v>6</v>
-      </c>
-      <c r="K11" s="22" t="str">
-        <f>TEXT(Automatos!K56, "##")</f>
-        <v/>
-      </c>
-      <c r="L11" s="22" t="str">
-        <f>TEXT(Automatos!L56, "##")</f>
-        <v/>
-      </c>
-      <c r="M11" s="22" t="str">
-        <f>TEXT(Automatos!M56, "##")</f>
-        <v/>
-      </c>
-      <c r="N11" s="22" t="str">
-        <f>TEXT(Automatos!N56, "##")</f>
-        <v/>
-      </c>
-      <c r="O11" s="22" t="str">
-        <f>TEXT(Automatos!O56, "##")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="22" t="str">
-        <f>TEXT(Automatos!B57, "##")</f>
-        <v/>
-      </c>
-      <c r="C12" s="22" t="str">
-        <f>TEXT(Automatos!C57, "##")</f>
-        <v/>
-      </c>
-      <c r="D12" s="22" t="str">
-        <f>TEXT(Automatos!D57, "##")</f>
-        <v/>
-      </c>
-      <c r="E12" s="22" t="str">
-        <f>TEXT(Automatos!E57, "##")</f>
-        <v/>
-      </c>
-      <c r="F12" s="22" t="str">
-        <f>TEXT(Automatos!F57, "##")</f>
-        <v/>
-      </c>
-      <c r="G12" s="22" t="str">
-        <f>TEXT(Automatos!G57, "##")</f>
-        <v/>
-      </c>
-      <c r="H12" s="22" t="str">
-        <f>TEXT(Automatos!H57, "##")</f>
-        <v/>
-      </c>
-      <c r="I12" s="22" t="str">
-        <f>TEXT(Automatos!I57, "##")</f>
-        <v/>
-      </c>
-      <c r="J12" s="22" t="str">
-        <f>TEXT(Automatos!J57, "##")</f>
-        <v>6</v>
-      </c>
-      <c r="K12" s="22" t="str">
-        <f>TEXT(Automatos!K57, "##")</f>
-        <v/>
-      </c>
-      <c r="L12" s="22" t="str">
-        <f>TEXT(Automatos!L57, "##")</f>
-        <v>12</v>
-      </c>
-      <c r="M12" s="22" t="str">
-        <f>TEXT(Automatos!M57, "##")</f>
-        <v/>
-      </c>
-      <c r="N12" s="22" t="str">
-        <f>TEXT(Automatos!N57, "##")</f>
-        <v/>
-      </c>
-      <c r="O12" s="22" t="str">
-        <f>TEXT(Automatos!O57, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="22" t="str">
-        <f>TEXT(Automatos!B58, "##")</f>
-        <v/>
-      </c>
-      <c r="C13" s="22" t="str">
-        <f>TEXT(Automatos!C58, "##")</f>
-        <v/>
-      </c>
-      <c r="D13" s="22" t="str">
-        <f>TEXT(Automatos!D58, "##")</f>
-        <v/>
-      </c>
-      <c r="E13" s="22" t="str">
-        <f>TEXT(Automatos!E58, "##")</f>
-        <v/>
-      </c>
-      <c r="F13" s="22" t="str">
-        <f>TEXT(Automatos!F58, "##")</f>
-        <v/>
-      </c>
-      <c r="G13" s="22" t="str">
-        <f>TEXT(Automatos!G58, "##")</f>
-        <v/>
-      </c>
-      <c r="H13" s="22" t="str">
-        <f>TEXT(Automatos!H58, "##")</f>
-        <v/>
-      </c>
-      <c r="I13" s="22" t="str">
-        <f>TEXT(Automatos!I58, "##")</f>
-        <v/>
-      </c>
-      <c r="J13" s="22" t="str">
-        <f>TEXT(Automatos!J58, "##")</f>
-        <v/>
-      </c>
-      <c r="K13" s="22" t="str">
-        <f>TEXT(Automatos!K58, "##")</f>
-        <v/>
-      </c>
-      <c r="L13" s="22" t="str">
-        <f>TEXT(Automatos!L58, "##")</f>
-        <v/>
-      </c>
-      <c r="M13" s="22" t="str">
-        <f>TEXT(Automatos!M58, "##")</f>
-        <v/>
-      </c>
-      <c r="N13" s="22" t="str">
-        <f>TEXT(Automatos!N58, "##")</f>
-        <v/>
-      </c>
-      <c r="O13" s="22" t="str">
-        <f>TEXT(Automatos!O58, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="22" t="str">
-        <f>TEXT(Automatos!B59, "##")</f>
-        <v/>
-      </c>
-      <c r="C14" s="22" t="str">
-        <f>TEXT(Automatos!C59, "##")</f>
-        <v/>
-      </c>
-      <c r="D14" s="22" t="str">
-        <f>TEXT(Automatos!D59, "##")</f>
-        <v/>
-      </c>
-      <c r="E14" s="22" t="str">
-        <f>TEXT(Automatos!E59, "##")</f>
-        <v/>
-      </c>
-      <c r="F14" s="22" t="str">
-        <f>TEXT(Automatos!F59, "##")</f>
-        <v/>
-      </c>
-      <c r="G14" s="22" t="str">
-        <f>TEXT(Automatos!G59, "##")</f>
-        <v/>
-      </c>
-      <c r="H14" s="22" t="str">
-        <f>TEXT(Automatos!H59, "##")</f>
-        <v/>
-      </c>
-      <c r="I14" s="22" t="str">
-        <f>TEXT(Automatos!I59, "##")</f>
-        <v/>
-      </c>
-      <c r="J14" s="22" t="str">
-        <f>TEXT(Automatos!J59, "##")</f>
-        <v/>
-      </c>
-      <c r="K14" s="22" t="str">
-        <f>TEXT(Automatos!K59, "##")</f>
-        <v/>
-      </c>
-      <c r="L14" s="22" t="str">
-        <f>TEXT(Automatos!L59, "##")</f>
-        <v/>
-      </c>
-      <c r="M14" s="22" t="str">
-        <f>TEXT(Automatos!M59, "##")</f>
-        <v/>
-      </c>
-      <c r="N14" s="22" t="str">
-        <f>TEXT(Automatos!N59, "##")</f>
-        <v/>
-      </c>
-      <c r="O14" s="22" t="str">
-        <f>TEXT(Automatos!O59, "##")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="22" t="str">
-        <f>TEXT(Automatos!B60, "##")</f>
-        <v/>
-      </c>
-      <c r="C15" s="22" t="str">
-        <f>TEXT(Automatos!C60, "##")</f>
-        <v/>
-      </c>
-      <c r="D15" s="22" t="str">
-        <f>TEXT(Automatos!D60, "##")</f>
-        <v/>
-      </c>
-      <c r="E15" s="22" t="str">
-        <f>TEXT(Automatos!E60, "##")</f>
-        <v/>
-      </c>
-      <c r="F15" s="22" t="str">
-        <f>TEXT(Automatos!F60, "##")</f>
-        <v/>
-      </c>
-      <c r="G15" s="22" t="str">
-        <f>TEXT(Automatos!G60, "##")</f>
-        <v/>
-      </c>
-      <c r="H15" s="22" t="str">
-        <f>TEXT(Automatos!H60, "##")</f>
-        <v/>
-      </c>
-      <c r="I15" s="22" t="str">
-        <f>TEXT(Automatos!I60, "##")</f>
-        <v/>
-      </c>
-      <c r="J15" s="22" t="str">
-        <f>TEXT(Automatos!J60, "##")</f>
-        <v>14</v>
-      </c>
-      <c r="K15" s="22" t="str">
-        <f>TEXT(Automatos!K60, "##")</f>
-        <v/>
-      </c>
-      <c r="L15" s="22" t="str">
-        <f>TEXT(Automatos!L60, "##")</f>
-        <v/>
-      </c>
-      <c r="M15" s="22" t="str">
-        <f>TEXT(Automatos!M60, "##")</f>
-        <v/>
-      </c>
-      <c r="N15" s="22" t="str">
-        <f>TEXT(Automatos!N60, "##")</f>
-        <v/>
-      </c>
-      <c r="O15" s="22" t="str">
-        <f>TEXT(Automatos!O60, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" s="22" t="str">
-        <f>TEXT(Automatos!B61, "##")</f>
-        <v/>
-      </c>
-      <c r="C16" s="22" t="str">
-        <f>TEXT(Automatos!C61, "##")</f>
-        <v/>
-      </c>
-      <c r="D16" s="22" t="str">
-        <f>TEXT(Automatos!D61, "##")</f>
-        <v/>
-      </c>
-      <c r="E16" s="22" t="str">
-        <f>TEXT(Automatos!E61, "##")</f>
-        <v/>
-      </c>
-      <c r="F16" s="22" t="str">
-        <f>TEXT(Automatos!F61, "##")</f>
-        <v/>
-      </c>
-      <c r="G16" s="22" t="str">
-        <f>TEXT(Automatos!G61, "##")</f>
-        <v/>
-      </c>
-      <c r="H16" s="22" t="str">
-        <f>TEXT(Automatos!H61, "##")</f>
-        <v/>
-      </c>
-      <c r="I16" s="22" t="str">
-        <f>TEXT(Automatos!I61, "##")</f>
-        <v/>
-      </c>
-      <c r="J16" s="22" t="str">
-        <f>TEXT(Automatos!J61, "##")</f>
-        <v/>
-      </c>
-      <c r="K16" s="22" t="str">
-        <f>TEXT(Automatos!K61, "##")</f>
-        <v/>
-      </c>
-      <c r="L16" s="22" t="str">
-        <f>TEXT(Automatos!L61, "##")</f>
-        <v/>
-      </c>
-      <c r="M16" s="22" t="str">
-        <f>TEXT(Automatos!M61, "##")</f>
-        <v>16</v>
-      </c>
-      <c r="N16" s="22" t="str">
-        <f>TEXT(Automatos!N61, "##")</f>
-        <v/>
-      </c>
-      <c r="O16" s="22" t="str">
-        <f>TEXT(Automatos!O61, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="9">
-        <v>15</v>
-      </c>
-      <c r="B17" s="22" t="str">
-        <f>TEXT(Automatos!B62, "##")</f>
-        <v/>
-      </c>
-      <c r="C17" s="22" t="str">
-        <f>TEXT(Automatos!C62, "##")</f>
-        <v/>
-      </c>
-      <c r="D17" s="22" t="str">
-        <f>TEXT(Automatos!D62, "##")</f>
-        <v/>
-      </c>
-      <c r="E17" s="22" t="str">
-        <f>TEXT(Automatos!E62, "##")</f>
-        <v/>
-      </c>
-      <c r="F17" s="22" t="str">
-        <f>TEXT(Automatos!F62, "##")</f>
-        <v/>
-      </c>
-      <c r="G17" s="22" t="str">
-        <f>TEXT(Automatos!G62, "##")</f>
-        <v/>
-      </c>
-      <c r="H17" s="22" t="str">
-        <f>TEXT(Automatos!H62, "##")</f>
-        <v/>
-      </c>
-      <c r="I17" s="22" t="str">
-        <f>TEXT(Automatos!I62, "##")</f>
-        <v/>
-      </c>
-      <c r="J17" s="22" t="str">
-        <f>TEXT(Automatos!J62, "##")</f>
-        <v/>
-      </c>
-      <c r="K17" s="22" t="str">
-        <f>TEXT(Automatos!K62, "##")</f>
-        <v/>
-      </c>
-      <c r="L17" s="22" t="str">
-        <f>TEXT(Automatos!L62, "##")</f>
-        <v/>
-      </c>
-      <c r="M17" s="22" t="str">
-        <f>TEXT(Automatos!M62, "##")</f>
-        <v/>
-      </c>
-      <c r="N17" s="22" t="str">
-        <f>TEXT(Automatos!N62, "##")</f>
-        <v/>
-      </c>
-      <c r="O17" s="22" t="str">
-        <f>TEXT(Automatos!O62, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="9">
-        <v>16</v>
-      </c>
-      <c r="B18" s="22" t="str">
-        <f>TEXT(Automatos!B63, "##")</f>
-        <v/>
-      </c>
-      <c r="C18" s="22" t="str">
-        <f>TEXT(Automatos!C63, "##")</f>
-        <v/>
-      </c>
-      <c r="D18" s="22" t="str">
-        <f>TEXT(Automatos!D63, "##")</f>
-        <v/>
-      </c>
-      <c r="E18" s="22" t="str">
-        <f>TEXT(Automatos!E63, "##")</f>
-        <v/>
-      </c>
-      <c r="F18" s="22" t="str">
-        <f>TEXT(Automatos!F63, "##")</f>
-        <v/>
-      </c>
-      <c r="G18" s="22" t="str">
-        <f>TEXT(Automatos!G63, "##")</f>
-        <v/>
-      </c>
-      <c r="H18" s="22" t="str">
-        <f>TEXT(Automatos!H63, "##")</f>
-        <v/>
-      </c>
-      <c r="I18" s="22" t="str">
-        <f>TEXT(Automatos!I63, "##")</f>
-        <v/>
-      </c>
-      <c r="J18" s="22" t="str">
-        <f>TEXT(Automatos!J63, "##")</f>
-        <v/>
-      </c>
-      <c r="K18" s="22" t="str">
-        <f>TEXT(Automatos!K63, "##")</f>
-        <v/>
-      </c>
-      <c r="L18" s="22" t="str">
-        <f>TEXT(Automatos!L63, "##")</f>
-        <v/>
-      </c>
-      <c r="M18" s="22" t="str">
-        <f>TEXT(Automatos!M63, "##")</f>
-        <v/>
-      </c>
-      <c r="N18" s="22" t="str">
-        <f>TEXT(Automatos!N63, "##")</f>
-        <v>8</v>
-      </c>
-      <c r="O18" s="22" t="str">
-        <f>TEXT(Automatos!O63, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="9">
-        <v>17</v>
-      </c>
-      <c r="B19" s="22" t="str">
-        <f>TEXT(Automatos!B64, "##")</f>
-        <v/>
-      </c>
-      <c r="C19" s="22" t="str">
-        <f>TEXT(Automatos!C64, "##")</f>
-        <v/>
-      </c>
-      <c r="D19" s="22" t="str">
-        <f>TEXT(Automatos!D64, "##")</f>
-        <v/>
-      </c>
-      <c r="E19" s="22" t="str">
-        <f>TEXT(Automatos!E64, "##")</f>
-        <v/>
-      </c>
-      <c r="F19" s="22" t="str">
-        <f>TEXT(Automatos!F64, "##")</f>
-        <v/>
-      </c>
-      <c r="G19" s="22" t="str">
-        <f>TEXT(Automatos!G64, "##")</f>
-        <v/>
-      </c>
-      <c r="H19" s="22" t="str">
-        <f>TEXT(Automatos!H64, "##")</f>
-        <v/>
-      </c>
-      <c r="I19" s="22" t="str">
-        <f>TEXT(Automatos!I64, "##")</f>
-        <v/>
-      </c>
-      <c r="J19" s="22" t="str">
-        <f>TEXT(Automatos!J64, "##")</f>
-        <v>18</v>
-      </c>
-      <c r="K19" s="22" t="str">
-        <f>TEXT(Automatos!K64, "##")</f>
-        <v/>
-      </c>
-      <c r="L19" s="22" t="str">
-        <f>TEXT(Automatos!L64, "##")</f>
-        <v/>
-      </c>
-      <c r="M19" s="22" t="str">
-        <f>TEXT(Automatos!M64, "##")</f>
-        <v/>
-      </c>
-      <c r="N19" s="22" t="str">
-        <f>TEXT(Automatos!N64, "##")</f>
-        <v/>
-      </c>
-      <c r="O19" s="22" t="str">
-        <f>TEXT(Automatos!O64, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="9">
-        <v>18</v>
-      </c>
-      <c r="B20" s="22" t="str">
-        <f>TEXT(Automatos!B65, "##")</f>
-        <v/>
-      </c>
-      <c r="C20" s="22" t="str">
-        <f>TEXT(Automatos!C65, "##")</f>
-        <v/>
-      </c>
-      <c r="D20" s="22" t="str">
-        <f>TEXT(Automatos!D65, "##")</f>
-        <v>19</v>
-      </c>
-      <c r="E20" s="22" t="str">
-        <f>TEXT(Automatos!E65, "##")</f>
-        <v/>
-      </c>
-      <c r="F20" s="22" t="str">
-        <f>TEXT(Automatos!F65, "##")</f>
-        <v/>
-      </c>
-      <c r="G20" s="22" t="str">
-        <f>TEXT(Automatos!G65, "##")</f>
-        <v/>
-      </c>
-      <c r="H20" s="22" t="str">
-        <f>TEXT(Automatos!H65, "##")</f>
-        <v/>
-      </c>
-      <c r="I20" s="22" t="str">
-        <f>TEXT(Automatos!I65, "##")</f>
-        <v/>
-      </c>
-      <c r="J20" s="22" t="str">
-        <f>TEXT(Automatos!J65, "##")</f>
-        <v/>
-      </c>
-      <c r="K20" s="22" t="str">
-        <f>TEXT(Automatos!K65, "##")</f>
-        <v/>
-      </c>
-      <c r="L20" s="22" t="str">
-        <f>TEXT(Automatos!L65, "##")</f>
-        <v/>
-      </c>
-      <c r="M20" s="22" t="str">
-        <f>TEXT(Automatos!M65, "##")</f>
-        <v/>
-      </c>
-      <c r="N20" s="22" t="str">
-        <f>TEXT(Automatos!N65, "##")</f>
-        <v/>
-      </c>
-      <c r="O20" s="22" t="str">
-        <f>TEXT(Automatos!O65, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="9">
-        <v>19</v>
-      </c>
-      <c r="B21" s="22" t="str">
-        <f>TEXT(Automatos!B66, "##")</f>
-        <v/>
-      </c>
-      <c r="C21" s="22" t="str">
-        <f>TEXT(Automatos!C66, "##")</f>
-        <v/>
-      </c>
-      <c r="D21" s="22" t="str">
-        <f>TEXT(Automatos!D66, "##")</f>
-        <v/>
-      </c>
-      <c r="E21" s="22" t="str">
-        <f>TEXT(Automatos!E66, "##")</f>
-        <v/>
-      </c>
-      <c r="F21" s="22" t="str">
-        <f>TEXT(Automatos!F66, "##")</f>
-        <v/>
-      </c>
-      <c r="G21" s="22" t="str">
-        <f>TEXT(Automatos!G66, "##")</f>
-        <v/>
-      </c>
-      <c r="H21" s="22" t="str">
-        <f>TEXT(Automatos!H66, "##")</f>
-        <v/>
-      </c>
-      <c r="I21" s="22" t="str">
-        <f>TEXT(Automatos!I66, "##")</f>
-        <v/>
-      </c>
-      <c r="J21" s="22" t="str">
-        <f>TEXT(Automatos!J66, "##")</f>
-        <v/>
-      </c>
-      <c r="K21" s="22" t="str">
-        <f>TEXT(Automatos!K66, "##")</f>
-        <v/>
-      </c>
-      <c r="L21" s="22" t="str">
-        <f>TEXT(Automatos!L66, "##")</f>
-        <v/>
-      </c>
-      <c r="M21" s="22" t="str">
-        <f>TEXT(Automatos!M66, "##")</f>
-        <v>20</v>
-      </c>
-      <c r="N21" s="22" t="str">
-        <f>TEXT(Automatos!N66, "##")</f>
-        <v/>
-      </c>
-      <c r="O21" s="22" t="str">
-        <f>TEXT(Automatos!O66, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="9">
-        <v>20</v>
-      </c>
-      <c r="B22" s="22" t="str">
-        <f>TEXT(Automatos!B67, "##")</f>
-        <v/>
-      </c>
-      <c r="C22" s="22" t="str">
-        <f>TEXT(Automatos!C67, "##")</f>
-        <v/>
-      </c>
-      <c r="D22" s="22" t="str">
-        <f>TEXT(Automatos!D67, "##")</f>
-        <v/>
-      </c>
-      <c r="E22" s="22" t="str">
-        <f>TEXT(Automatos!E67, "##")</f>
-        <v/>
-      </c>
-      <c r="F22" s="22" t="str">
-        <f>TEXT(Automatos!F67, "##")</f>
-        <v/>
-      </c>
-      <c r="G22" s="22" t="str">
-        <f>TEXT(Automatos!G67, "##")</f>
-        <v/>
-      </c>
-      <c r="H22" s="22" t="str">
-        <f>TEXT(Automatos!H67, "##")</f>
-        <v/>
-      </c>
-      <c r="I22" s="22" t="str">
-        <f>TEXT(Automatos!I67, "##")</f>
-        <v/>
-      </c>
-      <c r="J22" s="22" t="str">
-        <f>TEXT(Automatos!J67, "##")</f>
-        <v/>
-      </c>
-      <c r="K22" s="22" t="str">
-        <f>TEXT(Automatos!K67, "##")</f>
-        <v/>
-      </c>
-      <c r="L22" s="22" t="str">
-        <f>TEXT(Automatos!L67, "##")</f>
-        <v/>
-      </c>
-      <c r="M22" s="22" t="str">
-        <f>TEXT(Automatos!M67, "##")</f>
-        <v/>
-      </c>
-      <c r="N22" s="22" t="str">
-        <f>TEXT(Automatos!N67, "##")</f>
-        <v>21</v>
-      </c>
-      <c r="O22" s="22" t="str">
-        <f>TEXT(Automatos!O67, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="9">
-        <v>21</v>
-      </c>
-      <c r="B23" s="22" t="str">
-        <f>TEXT(Automatos!B68, "##")</f>
-        <v/>
-      </c>
-      <c r="C23" s="22" t="str">
-        <f>TEXT(Automatos!C68, "##")</f>
-        <v>14</v>
-      </c>
-      <c r="D23" s="22" t="str">
-        <f>TEXT(Automatos!D68, "##")</f>
-        <v/>
-      </c>
-      <c r="E23" s="22" t="str">
-        <f>TEXT(Automatos!E68, "##")</f>
-        <v/>
-      </c>
-      <c r="F23" s="22" t="str">
-        <f>TEXT(Automatos!F68, "##")</f>
-        <v/>
-      </c>
-      <c r="G23" s="22" t="str">
-        <f>TEXT(Automatos!G68, "##")</f>
-        <v/>
-      </c>
-      <c r="H23" s="22" t="str">
-        <f>TEXT(Automatos!H68, "##")</f>
-        <v/>
-      </c>
-      <c r="I23" s="22" t="str">
-        <f>TEXT(Automatos!I68, "##")</f>
-        <v/>
-      </c>
-      <c r="J23" s="22" t="str">
-        <f>TEXT(Automatos!J68, "##")</f>
-        <v/>
-      </c>
-      <c r="K23" s="22" t="str">
-        <f>TEXT(Automatos!K68, "##")</f>
-        <v/>
-      </c>
-      <c r="L23" s="22" t="str">
-        <f>TEXT(Automatos!L68, "##")</f>
-        <v/>
-      </c>
-      <c r="M23" s="22" t="str">
-        <f>TEXT(Automatos!M68, "##")</f>
-        <v/>
-      </c>
-      <c r="N23" s="22" t="str">
-        <f>TEXT(Automatos!N68, "##")</f>
-        <v/>
-      </c>
-      <c r="O23" s="22" t="str">
-        <f>TEXT(Automatos!O68, "##")</f>
-        <v/>
+        <f>TEXT(Automatos!F44, "##")</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2795,421 +1600,1398 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M8"/>
+      <selection activeCell="B2" sqref="B2:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>43</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="9">
         <v>0</v>
       </c>
       <c r="B2" s="22" t="str">
-        <f>TEXT(Automatos!B72, "##")</f>
-        <v/>
+        <f>TEXT(Automatos!B47, "##")</f>
+        <v>2</v>
       </c>
       <c r="C2" s="22" t="str">
-        <f>TEXT(Automatos!C72, "##")</f>
+        <f>TEXT(Automatos!C47, "##")</f>
         <v/>
       </c>
       <c r="D2" s="22" t="str">
-        <f>TEXT(Automatos!D72, "##")</f>
+        <f>TEXT(Automatos!D47, "##")</f>
         <v/>
       </c>
       <c r="E2" s="22" t="str">
-        <f>TEXT(Automatos!E72, "##")</f>
-        <v/>
+        <f>TEXT(Automatos!E47, "##")</f>
+        <v>3</v>
       </c>
       <c r="F2" s="22" t="str">
-        <f>TEXT(Automatos!F72, "##")</f>
-        <v/>
+        <f>TEXT(Automatos!F47, "##")</f>
+        <v>4</v>
       </c>
       <c r="G2" s="22" t="str">
-        <f>TEXT(Automatos!G72, "##")</f>
-        <v/>
+        <f>TEXT(Automatos!G47, "##")</f>
+        <v>4</v>
       </c>
       <c r="H2" s="22" t="str">
-        <f>TEXT(Automatos!H72, "##")</f>
+        <f>TEXT(Automatos!H47, "##")</f>
         <v/>
       </c>
       <c r="I2" s="22" t="str">
-        <f>TEXT(Automatos!I72, "##")</f>
+        <f>TEXT(Automatos!I47, "##")</f>
         <v/>
       </c>
       <c r="J2" s="22" t="str">
-        <f>TEXT(Automatos!J72, "##")</f>
+        <f>TEXT(Automatos!J47, "##")</f>
+        <v/>
+      </c>
+      <c r="K2" s="22" t="str">
+        <f>TEXT(Automatos!K47, "##")</f>
+        <v/>
+      </c>
+      <c r="L2" s="22" t="str">
+        <f>TEXT(Automatos!L47, "##")</f>
+        <v/>
+      </c>
+      <c r="M2" s="22" t="str">
+        <f>TEXT(Automatos!M47, "##")</f>
+        <v/>
+      </c>
+      <c r="N2" s="22" t="str">
+        <f>TEXT(Automatos!N47, "##")</f>
+        <v/>
+      </c>
+      <c r="O2" s="22" t="str">
+        <f>TEXT(Automatos!O47, "##")</f>
         <v>1</v>
       </c>
-      <c r="K2" s="22" t="str">
-        <f>TEXT(Automatos!K72, "##")</f>
-        <v/>
-      </c>
-      <c r="L2" s="22" t="str">
-        <f>TEXT(Automatos!L72, "##")</f>
-        <v/>
-      </c>
-      <c r="M2" s="22" t="str">
-        <f>TEXT(Automatos!M72, "##")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="22" t="str">
-        <f>TEXT(Automatos!B73, "##")</f>
+        <f>TEXT(Automatos!B48, "##")</f>
         <v/>
       </c>
       <c r="C3" s="22" t="str">
-        <f>TEXT(Automatos!C73, "##")</f>
+        <f>TEXT(Automatos!C48, "##")</f>
         <v/>
       </c>
       <c r="D3" s="22" t="str">
-        <f>TEXT(Automatos!D73, "##")</f>
+        <f>TEXT(Automatos!D48, "##")</f>
         <v/>
       </c>
       <c r="E3" s="22" t="str">
-        <f>TEXT(Automatos!E73, "##")</f>
+        <f>TEXT(Automatos!E48, "##")</f>
         <v/>
       </c>
       <c r="F3" s="22" t="str">
-        <f>TEXT(Automatos!F73, "##")</f>
+        <f>TEXT(Automatos!F48, "##")</f>
         <v/>
       </c>
       <c r="G3" s="22" t="str">
-        <f>TEXT(Automatos!G73, "##")</f>
+        <f>TEXT(Automatos!G48, "##")</f>
         <v/>
       </c>
       <c r="H3" s="22" t="str">
-        <f>TEXT(Automatos!H73, "##")</f>
-        <v/>
+        <f>TEXT(Automatos!H48, "##")</f>
+        <v>5</v>
       </c>
       <c r="I3" s="22" t="str">
-        <f>TEXT(Automatos!I73, "##")</f>
+        <f>TEXT(Automatos!I48, "##")</f>
         <v/>
       </c>
       <c r="J3" s="22" t="str">
-        <f>TEXT(Automatos!J73, "##")</f>
+        <f>TEXT(Automatos!J48, "##")</f>
         <v/>
       </c>
       <c r="K3" s="22" t="str">
-        <f>TEXT(Automatos!K73, "##")</f>
+        <f>TEXT(Automatos!K48, "##")</f>
         <v/>
       </c>
       <c r="L3" s="22" t="str">
-        <f>TEXT(Automatos!L73, "##")</f>
+        <f>TEXT(Automatos!L48, "##")</f>
         <v/>
       </c>
       <c r="M3" s="22" t="str">
-        <f>TEXT(Automatos!M73, "##")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <f>TEXT(Automatos!M48, "##")</f>
+        <v/>
+      </c>
+      <c r="N3" s="22" t="str">
+        <f>TEXT(Automatos!N48, "##")</f>
+        <v/>
+      </c>
+      <c r="O3" s="22" t="str">
+        <f>TEXT(Automatos!O48, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="22" t="str">
-        <f>TEXT(Automatos!B74, "##")</f>
+        <f>TEXT(Automatos!B49, "##")</f>
         <v/>
       </c>
       <c r="C4" s="22" t="str">
-        <f>TEXT(Automatos!C74, "##")</f>
+        <f>TEXT(Automatos!C49, "##")</f>
         <v/>
       </c>
       <c r="D4" s="22" t="str">
-        <f>TEXT(Automatos!D74, "##")</f>
+        <f>TEXT(Automatos!D49, "##")</f>
         <v/>
       </c>
       <c r="E4" s="22" t="str">
-        <f>TEXT(Automatos!E74, "##")</f>
+        <f>TEXT(Automatos!E49, "##")</f>
         <v/>
       </c>
       <c r="F4" s="22" t="str">
-        <f>TEXT(Automatos!F74, "##")</f>
+        <f>TEXT(Automatos!F49, "##")</f>
         <v/>
       </c>
       <c r="G4" s="22" t="str">
-        <f>TEXT(Automatos!G74, "##")</f>
+        <f>TEXT(Automatos!G49, "##")</f>
         <v/>
       </c>
       <c r="H4" s="22" t="str">
-        <f>TEXT(Automatos!H74, "##")</f>
+        <f>TEXT(Automatos!H49, "##")</f>
         <v/>
       </c>
       <c r="I4" s="22" t="str">
-        <f>TEXT(Automatos!I74, "##")</f>
-        <v/>
+        <f>TEXT(Automatos!I49, "##")</f>
+        <v>15</v>
       </c>
       <c r="J4" s="22" t="str">
-        <f>TEXT(Automatos!J74, "##")</f>
+        <f>TEXT(Automatos!J49, "##")</f>
         <v/>
       </c>
       <c r="K4" s="22" t="str">
-        <f>TEXT(Automatos!K74, "##")</f>
-        <v>6</v>
+        <f>TEXT(Automatos!K49, "##")</f>
+        <v/>
       </c>
       <c r="L4" s="22" t="str">
-        <f>TEXT(Automatos!L74, "##")</f>
-        <v>6</v>
+        <f>TEXT(Automatos!L49, "##")</f>
+        <v/>
       </c>
       <c r="M4" s="22" t="str">
-        <f>TEXT(Automatos!M74, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <f>TEXT(Automatos!M49, "##")</f>
+        <v/>
+      </c>
+      <c r="N4" s="22" t="str">
+        <f>TEXT(Automatos!N49, "##")</f>
+        <v/>
+      </c>
+      <c r="O4" s="22" t="str">
+        <f>TEXT(Automatos!O49, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="22" t="str">
-        <f>TEXT(Automatos!B75, "##")</f>
+        <f>TEXT(Automatos!B50, "##")</f>
         <v/>
       </c>
       <c r="C5" s="22" t="str">
-        <f>TEXT(Automatos!C75, "##")</f>
+        <f>TEXT(Automatos!C50, "##")</f>
         <v/>
       </c>
       <c r="D5" s="22" t="str">
-        <f>TEXT(Automatos!D75, "##")</f>
+        <f>TEXT(Automatos!D50, "##")</f>
         <v/>
       </c>
       <c r="E5" s="22" t="str">
-        <f>TEXT(Automatos!E75, "##")</f>
+        <f>TEXT(Automatos!E50, "##")</f>
         <v/>
       </c>
       <c r="F5" s="22" t="str">
-        <f>TEXT(Automatos!F75, "##")</f>
-        <v>4</v>
+        <f>TEXT(Automatos!F50, "##")</f>
+        <v/>
       </c>
       <c r="G5" s="22" t="str">
-        <f>TEXT(Automatos!G75, "##")</f>
-        <v>4</v>
+        <f>TEXT(Automatos!G50, "##")</f>
+        <v/>
       </c>
       <c r="H5" s="22" t="str">
-        <f>TEXT(Automatos!H75, "##")</f>
-        <v>5</v>
+        <f>TEXT(Automatos!H50, "##")</f>
+        <v/>
       </c>
       <c r="I5" s="22" t="str">
-        <f>TEXT(Automatos!I75, "##")</f>
-        <v>5</v>
+        <f>TEXT(Automatos!I50, "##")</f>
+        <v>11</v>
       </c>
       <c r="J5" s="22" t="str">
-        <f>TEXT(Automatos!J75, "##")</f>
+        <f>TEXT(Automatos!J50, "##")</f>
         <v/>
       </c>
       <c r="K5" s="22" t="str">
-        <f>TEXT(Automatos!K75, "##")</f>
-        <v>6</v>
+        <f>TEXT(Automatos!K50, "##")</f>
+        <v/>
       </c>
       <c r="L5" s="22" t="str">
-        <f>TEXT(Automatos!L75, "##")</f>
-        <v>6</v>
+        <f>TEXT(Automatos!L50, "##")</f>
+        <v/>
       </c>
       <c r="M5" s="22" t="str">
-        <f>TEXT(Automatos!M75, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <f>TEXT(Automatos!M50, "##")</f>
+        <v/>
+      </c>
+      <c r="N5" s="22" t="str">
+        <f>TEXT(Automatos!N50, "##")</f>
+        <v/>
+      </c>
+      <c r="O5" s="22" t="str">
+        <f>TEXT(Automatos!O50, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="22" t="str">
-        <f>TEXT(Automatos!B76, "##")</f>
+        <f>TEXT(Automatos!B51, "##")</f>
         <v/>
       </c>
       <c r="C6" s="22" t="str">
-        <f>TEXT(Automatos!C76, "##")</f>
+        <f>TEXT(Automatos!C51, "##")</f>
         <v/>
       </c>
       <c r="D6" s="22" t="str">
-        <f>TEXT(Automatos!D76, "##")</f>
+        <f>TEXT(Automatos!D51, "##")</f>
         <v/>
       </c>
       <c r="E6" s="22" t="str">
-        <f>TEXT(Automatos!E76, "##")</f>
+        <f>TEXT(Automatos!E51, "##")</f>
         <v/>
       </c>
       <c r="F6" s="22" t="str">
-        <f>TEXT(Automatos!F76, "##")</f>
+        <f>TEXT(Automatos!F51, "##")</f>
         <v/>
       </c>
       <c r="G6" s="22" t="str">
-        <f>TEXT(Automatos!G76, "##")</f>
+        <f>TEXT(Automatos!G51, "##")</f>
         <v/>
       </c>
       <c r="H6" s="22" t="str">
-        <f>TEXT(Automatos!H76, "##")</f>
+        <f>TEXT(Automatos!H51, "##")</f>
         <v/>
       </c>
       <c r="I6" s="22" t="str">
-        <f>TEXT(Automatos!I76, "##")</f>
+        <f>TEXT(Automatos!I51, "##")</f>
         <v/>
       </c>
       <c r="J6" s="22" t="str">
-        <f>TEXT(Automatos!J76, "##")</f>
+        <f>TEXT(Automatos!J51, "##")</f>
         <v/>
       </c>
       <c r="K6" s="22" t="str">
-        <f>TEXT(Automatos!K76, "##")</f>
+        <f>TEXT(Automatos!K51, "##")</f>
         <v/>
       </c>
       <c r="L6" s="22" t="str">
-        <f>TEXT(Automatos!L76, "##")</f>
+        <f>TEXT(Automatos!L51, "##")</f>
         <v/>
       </c>
       <c r="M6" s="22" t="str">
-        <f>TEXT(Automatos!M76, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <f>TEXT(Automatos!M51, "##")</f>
+        <v/>
+      </c>
+      <c r="N6" s="22" t="str">
+        <f>TEXT(Automatos!N51, "##")</f>
+        <v/>
+      </c>
+      <c r="O6" s="22" t="str">
+        <f>TEXT(Automatos!O51, "##")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="22" t="str">
-        <f>TEXT(Automatos!B77, "##")</f>
+        <f>TEXT(Automatos!B52, "##")</f>
         <v/>
       </c>
       <c r="C7" s="22" t="str">
-        <f>TEXT(Automatos!C77, "##")</f>
+        <f>TEXT(Automatos!C52, "##")</f>
         <v/>
       </c>
       <c r="D7" s="22" t="str">
-        <f>TEXT(Automatos!D77, "##")</f>
+        <f>TEXT(Automatos!D52, "##")</f>
         <v/>
       </c>
       <c r="E7" s="22" t="str">
-        <f>TEXT(Automatos!E77, "##")</f>
+        <f>TEXT(Automatos!E52, "##")</f>
         <v/>
       </c>
       <c r="F7" s="22" t="str">
-        <f>TEXT(Automatos!F77, "##")</f>
+        <f>TEXT(Automatos!F52, "##")</f>
         <v/>
       </c>
       <c r="G7" s="22" t="str">
-        <f>TEXT(Automatos!G77, "##")</f>
+        <f>TEXT(Automatos!G52, "##")</f>
         <v/>
       </c>
       <c r="H7" s="22" t="str">
-        <f>TEXT(Automatos!H77, "##")</f>
+        <f>TEXT(Automatos!H52, "##")</f>
         <v/>
       </c>
       <c r="I7" s="22" t="str">
-        <f>TEXT(Automatos!I77, "##")</f>
+        <f>TEXT(Automatos!I52, "##")</f>
         <v/>
       </c>
       <c r="J7" s="22" t="str">
-        <f>TEXT(Automatos!J77, "##")</f>
+        <f>TEXT(Automatos!J52, "##")</f>
         <v/>
       </c>
       <c r="K7" s="22" t="str">
-        <f>TEXT(Automatos!K77, "##")</f>
+        <f>TEXT(Automatos!K52, "##")</f>
         <v/>
       </c>
       <c r="L7" s="22" t="str">
-        <f>TEXT(Automatos!L77, "##")</f>
+        <f>TEXT(Automatos!L52, "##")</f>
         <v/>
       </c>
       <c r="M7" s="22" t="str">
-        <f>TEXT(Automatos!M77, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <f>TEXT(Automatos!M52, "##")</f>
+        <v/>
+      </c>
+      <c r="N7" s="22" t="str">
+        <f>TEXT(Automatos!N52, "##")</f>
+        <v/>
+      </c>
+      <c r="O7" s="22" t="str">
+        <f>TEXT(Automatos!O52, "##")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="22" t="str">
-        <f>TEXT(Automatos!B78, "##")</f>
+        <f>TEXT(Automatos!B53, "##")</f>
         <v/>
       </c>
       <c r="C8" s="22" t="str">
-        <f>TEXT(Automatos!C78, "##")</f>
+        <f>TEXT(Automatos!C53, "##")</f>
         <v/>
       </c>
       <c r="D8" s="22" t="str">
-        <f>TEXT(Automatos!D78, "##")</f>
+        <f>TEXT(Automatos!D53, "##")</f>
         <v/>
       </c>
       <c r="E8" s="22" t="str">
-        <f>TEXT(Automatos!E78, "##")</f>
+        <f>TEXT(Automatos!E53, "##")</f>
         <v/>
       </c>
       <c r="F8" s="22" t="str">
-        <f>TEXT(Automatos!F78, "##")</f>
-        <v>4</v>
+        <f>TEXT(Automatos!F53, "##")</f>
+        <v/>
       </c>
       <c r="G8" s="22" t="str">
-        <f>TEXT(Automatos!G78, "##")</f>
+        <f>TEXT(Automatos!G53, "##")</f>
         <v/>
       </c>
       <c r="H8" s="22" t="str">
-        <f>TEXT(Automatos!H78, "##")</f>
+        <f>TEXT(Automatos!H53, "##")</f>
         <v/>
       </c>
       <c r="I8" s="22" t="str">
-        <f>TEXT(Automatos!I78, "##")</f>
+        <f>TEXT(Automatos!I53, "##")</f>
         <v/>
       </c>
       <c r="J8" s="22" t="str">
-        <f>TEXT(Automatos!J78, "##")</f>
+        <f>TEXT(Automatos!J53, "##")</f>
         <v/>
       </c>
       <c r="K8" s="22" t="str">
-        <f>TEXT(Automatos!K78, "##")</f>
-        <v/>
+        <f>TEXT(Automatos!K53, "##")</f>
+        <v>8</v>
       </c>
       <c r="L8" s="22" t="str">
-        <f>TEXT(Automatos!L78, "##")</f>
+        <f>TEXT(Automatos!L53, "##")</f>
         <v/>
       </c>
       <c r="M8" s="22" t="str">
-        <f>TEXT(Automatos!M78, "##")</f>
+        <f>TEXT(Automatos!M53, "##")</f>
+        <v/>
+      </c>
+      <c r="N8" s="22" t="str">
+        <f>TEXT(Automatos!N53, "##")</f>
+        <v/>
+      </c>
+      <c r="O8" s="22" t="str">
+        <f>TEXT(Automatos!O53, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22" t="str">
+        <f>TEXT(Automatos!B54, "##")</f>
+        <v/>
+      </c>
+      <c r="C9" s="22" t="str">
+        <f>TEXT(Automatos!C54, "##")</f>
+        <v/>
+      </c>
+      <c r="D9" s="22" t="str">
+        <f>TEXT(Automatos!D54, "##")</f>
+        <v/>
+      </c>
+      <c r="E9" s="22" t="str">
+        <f>TEXT(Automatos!E54, "##")</f>
+        <v/>
+      </c>
+      <c r="F9" s="22" t="str">
+        <f>TEXT(Automatos!F54, "##")</f>
+        <v/>
+      </c>
+      <c r="G9" s="22" t="str">
+        <f>TEXT(Automatos!G54, "##")</f>
+        <v/>
+      </c>
+      <c r="H9" s="22" t="str">
+        <f>TEXT(Automatos!H54, "##")</f>
+        <v/>
+      </c>
+      <c r="I9" s="22" t="str">
+        <f>TEXT(Automatos!I54, "##")</f>
+        <v>9</v>
+      </c>
+      <c r="J9" s="22" t="str">
+        <f>TEXT(Automatos!J54, "##")</f>
+        <v/>
+      </c>
+      <c r="K9" s="22" t="str">
+        <f>TEXT(Automatos!K54, "##")</f>
+        <v/>
+      </c>
+      <c r="L9" s="22" t="str">
+        <f>TEXT(Automatos!L54, "##")</f>
+        <v/>
+      </c>
+      <c r="M9" s="22" t="str">
+        <f>TEXT(Automatos!M54, "##")</f>
+        <v/>
+      </c>
+      <c r="N9" s="22" t="str">
+        <f>TEXT(Automatos!N54, "##")</f>
+        <v/>
+      </c>
+      <c r="O9" s="22" t="str">
+        <f>TEXT(Automatos!O54, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22" t="str">
+        <f>TEXT(Automatos!B55, "##")</f>
+        <v/>
+      </c>
+      <c r="C10" s="22" t="str">
+        <f>TEXT(Automatos!C55, "##")</f>
+        <v/>
+      </c>
+      <c r="D10" s="22" t="str">
+        <f>TEXT(Automatos!D55, "##")</f>
+        <v/>
+      </c>
+      <c r="E10" s="22" t="str">
+        <f>TEXT(Automatos!E55, "##")</f>
+        <v/>
+      </c>
+      <c r="F10" s="22" t="str">
+        <f>TEXT(Automatos!F55, "##")</f>
+        <v/>
+      </c>
+      <c r="G10" s="22" t="str">
+        <f>TEXT(Automatos!G55, "##")</f>
+        <v/>
+      </c>
+      <c r="H10" s="22" t="str">
+        <f>TEXT(Automatos!H55, "##")</f>
+        <v/>
+      </c>
+      <c r="I10" s="22" t="str">
+        <f>TEXT(Automatos!I55, "##")</f>
+        <v/>
+      </c>
+      <c r="J10" s="22" t="str">
+        <f>TEXT(Automatos!J55, "##")</f>
+        <v/>
+      </c>
+      <c r="K10" s="22" t="str">
+        <f>TEXT(Automatos!K55, "##")</f>
+        <v/>
+      </c>
+      <c r="L10" s="22" t="str">
+        <f>TEXT(Automatos!L55, "##")</f>
+        <v/>
+      </c>
+      <c r="M10" s="22" t="str">
+        <f>TEXT(Automatos!M55, "##")</f>
+        <v/>
+      </c>
+      <c r="N10" s="22" t="str">
+        <f>TEXT(Automatos!N55, "##")</f>
+        <v/>
+      </c>
+      <c r="O10" s="22" t="str">
+        <f>TEXT(Automatos!O55, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22" t="str">
+        <f>TEXT(Automatos!B56, "##")</f>
+        <v/>
+      </c>
+      <c r="C11" s="22" t="str">
+        <f>TEXT(Automatos!C56, "##")</f>
+        <v/>
+      </c>
+      <c r="D11" s="22" t="str">
+        <f>TEXT(Automatos!D56, "##")</f>
+        <v/>
+      </c>
+      <c r="E11" s="22" t="str">
+        <f>TEXT(Automatos!E56, "##")</f>
+        <v/>
+      </c>
+      <c r="F11" s="22" t="str">
+        <f>TEXT(Automatos!F56, "##")</f>
+        <v/>
+      </c>
+      <c r="G11" s="22" t="str">
+        <f>TEXT(Automatos!G56, "##")</f>
+        <v/>
+      </c>
+      <c r="H11" s="22" t="str">
+        <f>TEXT(Automatos!H56, "##")</f>
+        <v/>
+      </c>
+      <c r="I11" s="22" t="str">
+        <f>TEXT(Automatos!I56, "##")</f>
+        <v/>
+      </c>
+      <c r="J11" s="22" t="str">
+        <f>TEXT(Automatos!J56, "##")</f>
+        <v>6</v>
+      </c>
+      <c r="K11" s="22" t="str">
+        <f>TEXT(Automatos!K56, "##")</f>
+        <v/>
+      </c>
+      <c r="L11" s="22" t="str">
+        <f>TEXT(Automatos!L56, "##")</f>
+        <v/>
+      </c>
+      <c r="M11" s="22" t="str">
+        <f>TEXT(Automatos!M56, "##")</f>
+        <v/>
+      </c>
+      <c r="N11" s="22" t="str">
+        <f>TEXT(Automatos!N56, "##")</f>
+        <v/>
+      </c>
+      <c r="O11" s="22" t="str">
+        <f>TEXT(Automatos!O56, "##")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22" t="str">
+        <f>TEXT(Automatos!B57, "##")</f>
+        <v/>
+      </c>
+      <c r="C12" s="22" t="str">
+        <f>TEXT(Automatos!C57, "##")</f>
+        <v/>
+      </c>
+      <c r="D12" s="22" t="str">
+        <f>TEXT(Automatos!D57, "##")</f>
+        <v/>
+      </c>
+      <c r="E12" s="22" t="str">
+        <f>TEXT(Automatos!E57, "##")</f>
+        <v/>
+      </c>
+      <c r="F12" s="22" t="str">
+        <f>TEXT(Automatos!F57, "##")</f>
+        <v/>
+      </c>
+      <c r="G12" s="22" t="str">
+        <f>TEXT(Automatos!G57, "##")</f>
+        <v/>
+      </c>
+      <c r="H12" s="22" t="str">
+        <f>TEXT(Automatos!H57, "##")</f>
+        <v/>
+      </c>
+      <c r="I12" s="22" t="str">
+        <f>TEXT(Automatos!I57, "##")</f>
+        <v/>
+      </c>
+      <c r="J12" s="22" t="str">
+        <f>TEXT(Automatos!J57, "##")</f>
+        <v>6</v>
+      </c>
+      <c r="K12" s="22" t="str">
+        <f>TEXT(Automatos!K57, "##")</f>
+        <v/>
+      </c>
+      <c r="L12" s="22" t="str">
+        <f>TEXT(Automatos!L57, "##")</f>
+        <v>12</v>
+      </c>
+      <c r="M12" s="22" t="str">
+        <f>TEXT(Automatos!M57, "##")</f>
+        <v/>
+      </c>
+      <c r="N12" s="22" t="str">
+        <f>TEXT(Automatos!N57, "##")</f>
+        <v/>
+      </c>
+      <c r="O12" s="22" t="str">
+        <f>TEXT(Automatos!O57, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="22" t="str">
+        <f>TEXT(Automatos!B58, "##")</f>
+        <v/>
+      </c>
+      <c r="C13" s="22" t="str">
+        <f>TEXT(Automatos!C58, "##")</f>
+        <v/>
+      </c>
+      <c r="D13" s="22" t="str">
+        <f>TEXT(Automatos!D58, "##")</f>
+        <v/>
+      </c>
+      <c r="E13" s="22" t="str">
+        <f>TEXT(Automatos!E58, "##")</f>
+        <v/>
+      </c>
+      <c r="F13" s="22" t="str">
+        <f>TEXT(Automatos!F58, "##")</f>
+        <v/>
+      </c>
+      <c r="G13" s="22" t="str">
+        <f>TEXT(Automatos!G58, "##")</f>
+        <v/>
+      </c>
+      <c r="H13" s="22" t="str">
+        <f>TEXT(Automatos!H58, "##")</f>
+        <v/>
+      </c>
+      <c r="I13" s="22" t="str">
+        <f>TEXT(Automatos!I58, "##")</f>
+        <v/>
+      </c>
+      <c r="J13" s="22" t="str">
+        <f>TEXT(Automatos!J58, "##")</f>
+        <v/>
+      </c>
+      <c r="K13" s="22" t="str">
+        <f>TEXT(Automatos!K58, "##")</f>
+        <v/>
+      </c>
+      <c r="L13" s="22" t="str">
+        <f>TEXT(Automatos!L58, "##")</f>
+        <v/>
+      </c>
+      <c r="M13" s="22" t="str">
+        <f>TEXT(Automatos!M58, "##")</f>
+        <v/>
+      </c>
+      <c r="N13" s="22" t="str">
+        <f>TEXT(Automatos!N58, "##")</f>
+        <v/>
+      </c>
+      <c r="O13" s="22" t="str">
+        <f>TEXT(Automatos!O58, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="22" t="str">
+        <f>TEXT(Automatos!B59, "##")</f>
+        <v/>
+      </c>
+      <c r="C14" s="22" t="str">
+        <f>TEXT(Automatos!C59, "##")</f>
+        <v/>
+      </c>
+      <c r="D14" s="22" t="str">
+        <f>TEXT(Automatos!D59, "##")</f>
+        <v/>
+      </c>
+      <c r="E14" s="22" t="str">
+        <f>TEXT(Automatos!E59, "##")</f>
+        <v/>
+      </c>
+      <c r="F14" s="22" t="str">
+        <f>TEXT(Automatos!F59, "##")</f>
+        <v/>
+      </c>
+      <c r="G14" s="22" t="str">
+        <f>TEXT(Automatos!G59, "##")</f>
+        <v/>
+      </c>
+      <c r="H14" s="22" t="str">
+        <f>TEXT(Automatos!H59, "##")</f>
+        <v/>
+      </c>
+      <c r="I14" s="22" t="str">
+        <f>TEXT(Automatos!I59, "##")</f>
+        <v/>
+      </c>
+      <c r="J14" s="22" t="str">
+        <f>TEXT(Automatos!J59, "##")</f>
+        <v/>
+      </c>
+      <c r="K14" s="22" t="str">
+        <f>TEXT(Automatos!K59, "##")</f>
+        <v/>
+      </c>
+      <c r="L14" s="22" t="str">
+        <f>TEXT(Automatos!L59, "##")</f>
+        <v/>
+      </c>
+      <c r="M14" s="22" t="str">
+        <f>TEXT(Automatos!M59, "##")</f>
+        <v/>
+      </c>
+      <c r="N14" s="22" t="str">
+        <f>TEXT(Automatos!N59, "##")</f>
+        <v/>
+      </c>
+      <c r="O14" s="22" t="str">
+        <f>TEXT(Automatos!O59, "##")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22" t="str">
+        <f>TEXT(Automatos!B60, "##")</f>
+        <v/>
+      </c>
+      <c r="C15" s="22" t="str">
+        <f>TEXT(Automatos!C60, "##")</f>
+        <v/>
+      </c>
+      <c r="D15" s="22" t="str">
+        <f>TEXT(Automatos!D60, "##")</f>
+        <v/>
+      </c>
+      <c r="E15" s="22" t="str">
+        <f>TEXT(Automatos!E60, "##")</f>
+        <v/>
+      </c>
+      <c r="F15" s="22" t="str">
+        <f>TEXT(Automatos!F60, "##")</f>
+        <v/>
+      </c>
+      <c r="G15" s="22" t="str">
+        <f>TEXT(Automatos!G60, "##")</f>
+        <v/>
+      </c>
+      <c r="H15" s="22" t="str">
+        <f>TEXT(Automatos!H60, "##")</f>
+        <v/>
+      </c>
+      <c r="I15" s="22" t="str">
+        <f>TEXT(Automatos!I60, "##")</f>
+        <v/>
+      </c>
+      <c r="J15" s="22" t="str">
+        <f>TEXT(Automatos!J60, "##")</f>
+        <v>14</v>
+      </c>
+      <c r="K15" s="22" t="str">
+        <f>TEXT(Automatos!K60, "##")</f>
+        <v/>
+      </c>
+      <c r="L15" s="22" t="str">
+        <f>TEXT(Automatos!L60, "##")</f>
+        <v/>
+      </c>
+      <c r="M15" s="22" t="str">
+        <f>TEXT(Automatos!M60, "##")</f>
+        <v/>
+      </c>
+      <c r="N15" s="22" t="str">
+        <f>TEXT(Automatos!N60, "##")</f>
+        <v/>
+      </c>
+      <c r="O15" s="22" t="str">
+        <f>TEXT(Automatos!O60, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="22" t="str">
+        <f>TEXT(Automatos!B61, "##")</f>
+        <v/>
+      </c>
+      <c r="C16" s="22" t="str">
+        <f>TEXT(Automatos!C61, "##")</f>
+        <v/>
+      </c>
+      <c r="D16" s="22" t="str">
+        <f>TEXT(Automatos!D61, "##")</f>
+        <v/>
+      </c>
+      <c r="E16" s="22" t="str">
+        <f>TEXT(Automatos!E61, "##")</f>
+        <v/>
+      </c>
+      <c r="F16" s="22" t="str">
+        <f>TEXT(Automatos!F61, "##")</f>
+        <v/>
+      </c>
+      <c r="G16" s="22" t="str">
+        <f>TEXT(Automatos!G61, "##")</f>
+        <v/>
+      </c>
+      <c r="H16" s="22" t="str">
+        <f>TEXT(Automatos!H61, "##")</f>
+        <v/>
+      </c>
+      <c r="I16" s="22" t="str">
+        <f>TEXT(Automatos!I61, "##")</f>
+        <v/>
+      </c>
+      <c r="J16" s="22" t="str">
+        <f>TEXT(Automatos!J61, "##")</f>
+        <v/>
+      </c>
+      <c r="K16" s="22" t="str">
+        <f>TEXT(Automatos!K61, "##")</f>
+        <v/>
+      </c>
+      <c r="L16" s="22" t="str">
+        <f>TEXT(Automatos!L61, "##")</f>
+        <v/>
+      </c>
+      <c r="M16" s="22" t="str">
+        <f>TEXT(Automatos!M61, "##")</f>
+        <v>16</v>
+      </c>
+      <c r="N16" s="22" t="str">
+        <f>TEXT(Automatos!N61, "##")</f>
+        <v/>
+      </c>
+      <c r="O16" s="22" t="str">
+        <f>TEXT(Automatos!O61, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22" t="str">
+        <f>TEXT(Automatos!B62, "##")</f>
+        <v/>
+      </c>
+      <c r="C17" s="22" t="str">
+        <f>TEXT(Automatos!C62, "##")</f>
+        <v/>
+      </c>
+      <c r="D17" s="22" t="str">
+        <f>TEXT(Automatos!D62, "##")</f>
+        <v/>
+      </c>
+      <c r="E17" s="22" t="str">
+        <f>TEXT(Automatos!E62, "##")</f>
+        <v/>
+      </c>
+      <c r="F17" s="22" t="str">
+        <f>TEXT(Automatos!F62, "##")</f>
+        <v/>
+      </c>
+      <c r="G17" s="22" t="str">
+        <f>TEXT(Automatos!G62, "##")</f>
+        <v/>
+      </c>
+      <c r="H17" s="22" t="str">
+        <f>TEXT(Automatos!H62, "##")</f>
+        <v/>
+      </c>
+      <c r="I17" s="22" t="str">
+        <f>TEXT(Automatos!I62, "##")</f>
+        <v/>
+      </c>
+      <c r="J17" s="22" t="str">
+        <f>TEXT(Automatos!J62, "##")</f>
+        <v/>
+      </c>
+      <c r="K17" s="22" t="str">
+        <f>TEXT(Automatos!K62, "##")</f>
+        <v/>
+      </c>
+      <c r="L17" s="22" t="str">
+        <f>TEXT(Automatos!L62, "##")</f>
+        <v/>
+      </c>
+      <c r="M17" s="22" t="str">
+        <f>TEXT(Automatos!M62, "##")</f>
+        <v/>
+      </c>
+      <c r="N17" s="22" t="str">
+        <f>TEXT(Automatos!N62, "##")</f>
+        <v/>
+      </c>
+      <c r="O17" s="22" t="str">
+        <f>TEXT(Automatos!O62, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="22" t="str">
+        <f>TEXT(Automatos!B63, "##")</f>
+        <v/>
+      </c>
+      <c r="C18" s="22" t="str">
+        <f>TEXT(Automatos!C63, "##")</f>
+        <v/>
+      </c>
+      <c r="D18" s="22" t="str">
+        <f>TEXT(Automatos!D63, "##")</f>
+        <v/>
+      </c>
+      <c r="E18" s="22" t="str">
+        <f>TEXT(Automatos!E63, "##")</f>
+        <v/>
+      </c>
+      <c r="F18" s="22" t="str">
+        <f>TEXT(Automatos!F63, "##")</f>
+        <v/>
+      </c>
+      <c r="G18" s="22" t="str">
+        <f>TEXT(Automatos!G63, "##")</f>
+        <v/>
+      </c>
+      <c r="H18" s="22" t="str">
+        <f>TEXT(Automatos!H63, "##")</f>
+        <v/>
+      </c>
+      <c r="I18" s="22" t="str">
+        <f>TEXT(Automatos!I63, "##")</f>
+        <v/>
+      </c>
+      <c r="J18" s="22" t="str">
+        <f>TEXT(Automatos!J63, "##")</f>
+        <v/>
+      </c>
+      <c r="K18" s="22" t="str">
+        <f>TEXT(Automatos!K63, "##")</f>
+        <v/>
+      </c>
+      <c r="L18" s="22" t="str">
+        <f>TEXT(Automatos!L63, "##")</f>
+        <v/>
+      </c>
+      <c r="M18" s="22" t="str">
+        <f>TEXT(Automatos!M63, "##")</f>
+        <v/>
+      </c>
+      <c r="N18" s="22" t="str">
+        <f>TEXT(Automatos!N63, "##")</f>
+        <v>8</v>
+      </c>
+      <c r="O18" s="22" t="str">
+        <f>TEXT(Automatos!O63, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="22" t="str">
+        <f>TEXT(Automatos!B64, "##")</f>
+        <v/>
+      </c>
+      <c r="C19" s="22" t="str">
+        <f>TEXT(Automatos!C64, "##")</f>
+        <v/>
+      </c>
+      <c r="D19" s="22" t="str">
+        <f>TEXT(Automatos!D64, "##")</f>
+        <v/>
+      </c>
+      <c r="E19" s="22" t="str">
+        <f>TEXT(Automatos!E64, "##")</f>
+        <v/>
+      </c>
+      <c r="F19" s="22" t="str">
+        <f>TEXT(Automatos!F64, "##")</f>
+        <v/>
+      </c>
+      <c r="G19" s="22" t="str">
+        <f>TEXT(Automatos!G64, "##")</f>
+        <v/>
+      </c>
+      <c r="H19" s="22" t="str">
+        <f>TEXT(Automatos!H64, "##")</f>
+        <v/>
+      </c>
+      <c r="I19" s="22" t="str">
+        <f>TEXT(Automatos!I64, "##")</f>
+        <v/>
+      </c>
+      <c r="J19" s="22" t="str">
+        <f>TEXT(Automatos!J64, "##")</f>
+        <v>18</v>
+      </c>
+      <c r="K19" s="22" t="str">
+        <f>TEXT(Automatos!K64, "##")</f>
+        <v/>
+      </c>
+      <c r="L19" s="22" t="str">
+        <f>TEXT(Automatos!L64, "##")</f>
+        <v/>
+      </c>
+      <c r="M19" s="22" t="str">
+        <f>TEXT(Automatos!M64, "##")</f>
+        <v/>
+      </c>
+      <c r="N19" s="22" t="str">
+        <f>TEXT(Automatos!N64, "##")</f>
+        <v/>
+      </c>
+      <c r="O19" s="22" t="str">
+        <f>TEXT(Automatos!O64, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="22" t="str">
+        <f>TEXT(Automatos!B65, "##")</f>
+        <v/>
+      </c>
+      <c r="C20" s="22" t="str">
+        <f>TEXT(Automatos!C65, "##")</f>
+        <v/>
+      </c>
+      <c r="D20" s="22" t="str">
+        <f>TEXT(Automatos!D65, "##")</f>
+        <v>19</v>
+      </c>
+      <c r="E20" s="22" t="str">
+        <f>TEXT(Automatos!E65, "##")</f>
+        <v/>
+      </c>
+      <c r="F20" s="22" t="str">
+        <f>TEXT(Automatos!F65, "##")</f>
+        <v/>
+      </c>
+      <c r="G20" s="22" t="str">
+        <f>TEXT(Automatos!G65, "##")</f>
+        <v/>
+      </c>
+      <c r="H20" s="22" t="str">
+        <f>TEXT(Automatos!H65, "##")</f>
+        <v/>
+      </c>
+      <c r="I20" s="22" t="str">
+        <f>TEXT(Automatos!I65, "##")</f>
+        <v/>
+      </c>
+      <c r="J20" s="22" t="str">
+        <f>TEXT(Automatos!J65, "##")</f>
+        <v/>
+      </c>
+      <c r="K20" s="22" t="str">
+        <f>TEXT(Automatos!K65, "##")</f>
+        <v/>
+      </c>
+      <c r="L20" s="22" t="str">
+        <f>TEXT(Automatos!L65, "##")</f>
+        <v/>
+      </c>
+      <c r="M20" s="22" t="str">
+        <f>TEXT(Automatos!M65, "##")</f>
+        <v/>
+      </c>
+      <c r="N20" s="22" t="str">
+        <f>TEXT(Automatos!N65, "##")</f>
+        <v/>
+      </c>
+      <c r="O20" s="22" t="str">
+        <f>TEXT(Automatos!O65, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="22" t="str">
+        <f>TEXT(Automatos!B66, "##")</f>
+        <v/>
+      </c>
+      <c r="C21" s="22" t="str">
+        <f>TEXT(Automatos!C66, "##")</f>
+        <v/>
+      </c>
+      <c r="D21" s="22" t="str">
+        <f>TEXT(Automatos!D66, "##")</f>
+        <v/>
+      </c>
+      <c r="E21" s="22" t="str">
+        <f>TEXT(Automatos!E66, "##")</f>
+        <v/>
+      </c>
+      <c r="F21" s="22" t="str">
+        <f>TEXT(Automatos!F66, "##")</f>
+        <v/>
+      </c>
+      <c r="G21" s="22" t="str">
+        <f>TEXT(Automatos!G66, "##")</f>
+        <v/>
+      </c>
+      <c r="H21" s="22" t="str">
+        <f>TEXT(Automatos!H66, "##")</f>
+        <v/>
+      </c>
+      <c r="I21" s="22" t="str">
+        <f>TEXT(Automatos!I66, "##")</f>
+        <v/>
+      </c>
+      <c r="J21" s="22" t="str">
+        <f>TEXT(Automatos!J66, "##")</f>
+        <v/>
+      </c>
+      <c r="K21" s="22" t="str">
+        <f>TEXT(Automatos!K66, "##")</f>
+        <v/>
+      </c>
+      <c r="L21" s="22" t="str">
+        <f>TEXT(Automatos!L66, "##")</f>
+        <v/>
+      </c>
+      <c r="M21" s="22" t="str">
+        <f>TEXT(Automatos!M66, "##")</f>
+        <v>20</v>
+      </c>
+      <c r="N21" s="22" t="str">
+        <f>TEXT(Automatos!N66, "##")</f>
+        <v/>
+      </c>
+      <c r="O21" s="22" t="str">
+        <f>TEXT(Automatos!O66, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="22" t="str">
+        <f>TEXT(Automatos!B67, "##")</f>
+        <v/>
+      </c>
+      <c r="C22" s="22" t="str">
+        <f>TEXT(Automatos!C67, "##")</f>
+        <v/>
+      </c>
+      <c r="D22" s="22" t="str">
+        <f>TEXT(Automatos!D67, "##")</f>
+        <v/>
+      </c>
+      <c r="E22" s="22" t="str">
+        <f>TEXT(Automatos!E67, "##")</f>
+        <v/>
+      </c>
+      <c r="F22" s="22" t="str">
+        <f>TEXT(Automatos!F67, "##")</f>
+        <v/>
+      </c>
+      <c r="G22" s="22" t="str">
+        <f>TEXT(Automatos!G67, "##")</f>
+        <v/>
+      </c>
+      <c r="H22" s="22" t="str">
+        <f>TEXT(Automatos!H67, "##")</f>
+        <v/>
+      </c>
+      <c r="I22" s="22" t="str">
+        <f>TEXT(Automatos!I67, "##")</f>
+        <v/>
+      </c>
+      <c r="J22" s="22" t="str">
+        <f>TEXT(Automatos!J67, "##")</f>
+        <v/>
+      </c>
+      <c r="K22" s="22" t="str">
+        <f>TEXT(Automatos!K67, "##")</f>
+        <v/>
+      </c>
+      <c r="L22" s="22" t="str">
+        <f>TEXT(Automatos!L67, "##")</f>
+        <v/>
+      </c>
+      <c r="M22" s="22" t="str">
+        <f>TEXT(Automatos!M67, "##")</f>
+        <v/>
+      </c>
+      <c r="N22" s="22" t="str">
+        <f>TEXT(Automatos!N67, "##")</f>
+        <v>21</v>
+      </c>
+      <c r="O22" s="22" t="str">
+        <f>TEXT(Automatos!O67, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="22" t="str">
+        <f>TEXT(Automatos!B68, "##")</f>
+        <v/>
+      </c>
+      <c r="C23" s="22" t="str">
+        <f>TEXT(Automatos!C68, "##")</f>
+        <v>14</v>
+      </c>
+      <c r="D23" s="22" t="str">
+        <f>TEXT(Automatos!D68, "##")</f>
+        <v/>
+      </c>
+      <c r="E23" s="22" t="str">
+        <f>TEXT(Automatos!E68, "##")</f>
+        <v/>
+      </c>
+      <c r="F23" s="22" t="str">
+        <f>TEXT(Automatos!F68, "##")</f>
+        <v/>
+      </c>
+      <c r="G23" s="22" t="str">
+        <f>TEXT(Automatos!G68, "##")</f>
+        <v/>
+      </c>
+      <c r="H23" s="22" t="str">
+        <f>TEXT(Automatos!H68, "##")</f>
+        <v/>
+      </c>
+      <c r="I23" s="22" t="str">
+        <f>TEXT(Automatos!I68, "##")</f>
+        <v/>
+      </c>
+      <c r="J23" s="22" t="str">
+        <f>TEXT(Automatos!J68, "##")</f>
+        <v/>
+      </c>
+      <c r="K23" s="22" t="str">
+        <f>TEXT(Automatos!K68, "##")</f>
+        <v/>
+      </c>
+      <c r="L23" s="22" t="str">
+        <f>TEXT(Automatos!L68, "##")</f>
+        <v/>
+      </c>
+      <c r="M23" s="22" t="str">
+        <f>TEXT(Automatos!M68, "##")</f>
+        <v/>
+      </c>
+      <c r="N23" s="22" t="str">
+        <f>TEXT(Automatos!N68, "##")</f>
+        <v/>
+      </c>
+      <c r="O23" s="22" t="str">
+        <f>TEXT(Automatos!O68, "##")</f>
         <v/>
       </c>
     </row>
@@ -3226,224 +3008,421 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B2" sqref="B2:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>20</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="9">
         <v>0</v>
       </c>
       <c r="B2" s="22" t="str">
-        <f>TEXT(Automatos!B82, "##")</f>
+        <f>TEXT(Automatos!B72, "##")</f>
+        <v/>
+      </c>
+      <c r="C2" s="22" t="str">
+        <f>TEXT(Automatos!C72, "##")</f>
+        <v/>
+      </c>
+      <c r="D2" s="22" t="str">
+        <f>TEXT(Automatos!D72, "##")</f>
+        <v/>
+      </c>
+      <c r="E2" s="22" t="str">
+        <f>TEXT(Automatos!E72, "##")</f>
+        <v/>
+      </c>
+      <c r="F2" s="22" t="str">
+        <f>TEXT(Automatos!F72, "##")</f>
+        <v/>
+      </c>
+      <c r="G2" s="22" t="str">
+        <f>TEXT(Automatos!G72, "##")</f>
+        <v/>
+      </c>
+      <c r="H2" s="22" t="str">
+        <f>TEXT(Automatos!H72, "##")</f>
+        <v/>
+      </c>
+      <c r="I2" s="22" t="str">
+        <f>TEXT(Automatos!I72, "##")</f>
+        <v/>
+      </c>
+      <c r="J2" s="22" t="str">
+        <f>TEXT(Automatos!J72, "##")</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="22" t="str">
+        <f>TEXT(Automatos!K72, "##")</f>
+        <v/>
+      </c>
+      <c r="L2" s="22" t="str">
+        <f>TEXT(Automatos!L72, "##")</f>
+        <v/>
+      </c>
+      <c r="M2" s="22" t="str">
+        <f>TEXT(Automatos!M72, "##")</f>
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="str">
-        <f>TEXT(Automatos!C82, "##")</f>
-        <v/>
-      </c>
-      <c r="D2" s="22" t="str">
-        <f>TEXT(Automatos!D82, "##")</f>
-        <v/>
-      </c>
-      <c r="E2" s="22" t="str">
-        <f>TEXT(Automatos!E82, "##")</f>
-        <v/>
-      </c>
-      <c r="F2" s="22" t="str">
-        <f>TEXT(Automatos!F82, "##")</f>
-        <v/>
-      </c>
-      <c r="G2" s="22" t="str">
-        <f>TEXT(Automatos!G82, "##")</f>
-        <v/>
-      </c>
-      <c r="H2" s="22" t="str">
-        <f>TEXT(Automatos!H82, "##")</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="22" t="str">
-        <f>TEXT(Automatos!I82, "##")</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="22" t="str">
-        <f>TEXT(Automatos!J82, "##")</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="22" t="str">
-        <f>TEXT(Automatos!K82, "##")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="22" t="str">
-        <f>TEXT(Automatos!B83, "##")</f>
+        <f>TEXT(Automatos!B73, "##")</f>
         <v/>
       </c>
       <c r="C3" s="22" t="str">
-        <f>TEXT(Automatos!C83, "##")</f>
+        <f>TEXT(Automatos!C73, "##")</f>
         <v/>
       </c>
       <c r="D3" s="22" t="str">
-        <f>TEXT(Automatos!D83, "##")</f>
+        <f>TEXT(Automatos!D73, "##")</f>
         <v/>
       </c>
       <c r="E3" s="22" t="str">
-        <f>TEXT(Automatos!E83, "##")</f>
+        <f>TEXT(Automatos!E73, "##")</f>
         <v/>
       </c>
       <c r="F3" s="22" t="str">
-        <f>TEXT(Automatos!F83, "##")</f>
+        <f>TEXT(Automatos!F73, "##")</f>
         <v/>
       </c>
       <c r="G3" s="22" t="str">
-        <f>TEXT(Automatos!G83, "##")</f>
+        <f>TEXT(Automatos!G73, "##")</f>
         <v/>
       </c>
       <c r="H3" s="22" t="str">
-        <f>TEXT(Automatos!H83, "##")</f>
+        <f>TEXT(Automatos!H73, "##")</f>
         <v/>
       </c>
       <c r="I3" s="22" t="str">
-        <f>TEXT(Automatos!I83, "##")</f>
+        <f>TEXT(Automatos!I73, "##")</f>
         <v/>
       </c>
       <c r="J3" s="22" t="str">
-        <f>TEXT(Automatos!J83, "##")</f>
+        <f>TEXT(Automatos!J73, "##")</f>
         <v/>
       </c>
       <c r="K3" s="22" t="str">
-        <f>TEXT(Automatos!K83, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <f>TEXT(Automatos!K73, "##")</f>
+        <v/>
+      </c>
+      <c r="L3" s="22" t="str">
+        <f>TEXT(Automatos!L73, "##")</f>
+        <v/>
+      </c>
+      <c r="M3" s="22" t="str">
+        <f>TEXT(Automatos!M73, "##")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="22" t="str">
-        <f>TEXT(Automatos!B84, "##")</f>
+        <f>TEXT(Automatos!B74, "##")</f>
         <v/>
       </c>
       <c r="C4" s="22" t="str">
-        <f>TEXT(Automatos!C84, "##")</f>
+        <f>TEXT(Automatos!C74, "##")</f>
         <v/>
       </c>
       <c r="D4" s="22" t="str">
-        <f>TEXT(Automatos!D84, "##")</f>
+        <f>TEXT(Automatos!D74, "##")</f>
         <v/>
       </c>
       <c r="E4" s="22" t="str">
-        <f>TEXT(Automatos!E84, "##")</f>
+        <f>TEXT(Automatos!E74, "##")</f>
         <v/>
       </c>
       <c r="F4" s="22" t="str">
-        <f>TEXT(Automatos!F84, "##")</f>
+        <f>TEXT(Automatos!F74, "##")</f>
         <v/>
       </c>
       <c r="G4" s="22" t="str">
-        <f>TEXT(Automatos!G84, "##")</f>
+        <f>TEXT(Automatos!G74, "##")</f>
         <v/>
       </c>
       <c r="H4" s="22" t="str">
-        <f>TEXT(Automatos!H84, "##")</f>
+        <f>TEXT(Automatos!H74, "##")</f>
         <v/>
       </c>
       <c r="I4" s="22" t="str">
-        <f>TEXT(Automatos!I84, "##")</f>
+        <f>TEXT(Automatos!I74, "##")</f>
         <v/>
       </c>
       <c r="J4" s="22" t="str">
-        <f>TEXT(Automatos!J84, "##")</f>
+        <f>TEXT(Automatos!J74, "##")</f>
         <v/>
       </c>
       <c r="K4" s="22" t="str">
-        <f>TEXT(Automatos!K84, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <f>TEXT(Automatos!K74, "##")</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="22" t="str">
+        <f>TEXT(Automatos!L74, "##")</f>
+        <v>6</v>
+      </c>
+      <c r="M4" s="22" t="str">
+        <f>TEXT(Automatos!M74, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="22" t="str">
-        <f>TEXT(Automatos!B85, "##")</f>
+        <f>TEXT(Automatos!B75, "##")</f>
         <v/>
       </c>
       <c r="C5" s="22" t="str">
-        <f>TEXT(Automatos!C85, "##")</f>
-        <v>1</v>
+        <f>TEXT(Automatos!C75, "##")</f>
+        <v/>
       </c>
       <c r="D5" s="22" t="str">
-        <f>TEXT(Automatos!D85, "##")</f>
+        <f>TEXT(Automatos!D75, "##")</f>
         <v/>
       </c>
       <c r="E5" s="22" t="str">
-        <f>TEXT(Automatos!E85, "##")</f>
+        <f>TEXT(Automatos!E75, "##")</f>
         <v/>
       </c>
       <c r="F5" s="22" t="str">
-        <f>TEXT(Automatos!F85, "##")</f>
-        <v/>
+        <f>TEXT(Automatos!F75, "##")</f>
+        <v>4</v>
       </c>
       <c r="G5" s="22" t="str">
-        <f>TEXT(Automatos!G85, "##")</f>
-        <v/>
+        <f>TEXT(Automatos!G75, "##")</f>
+        <v>4</v>
       </c>
       <c r="H5" s="22" t="str">
-        <f>TEXT(Automatos!H85, "##")</f>
-        <v/>
+        <f>TEXT(Automatos!H75, "##")</f>
+        <v>5</v>
       </c>
       <c r="I5" s="22" t="str">
-        <f>TEXT(Automatos!I85, "##")</f>
-        <v/>
+        <f>TEXT(Automatos!I75, "##")</f>
+        <v>5</v>
       </c>
       <c r="J5" s="22" t="str">
-        <f>TEXT(Automatos!J85, "##")</f>
+        <f>TEXT(Automatos!J75, "##")</f>
         <v/>
       </c>
       <c r="K5" s="22" t="str">
-        <f>TEXT(Automatos!K85, "##")</f>
+        <f>TEXT(Automatos!K75, "##")</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="22" t="str">
+        <f>TEXT(Automatos!L75, "##")</f>
+        <v>6</v>
+      </c>
+      <c r="M5" s="22" t="str">
+        <f>TEXT(Automatos!M75, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22" t="str">
+        <f>TEXT(Automatos!B76, "##")</f>
+        <v/>
+      </c>
+      <c r="C6" s="22" t="str">
+        <f>TEXT(Automatos!C76, "##")</f>
+        <v/>
+      </c>
+      <c r="D6" s="22" t="str">
+        <f>TEXT(Automatos!D76, "##")</f>
+        <v/>
+      </c>
+      <c r="E6" s="22" t="str">
+        <f>TEXT(Automatos!E76, "##")</f>
+        <v/>
+      </c>
+      <c r="F6" s="22" t="str">
+        <f>TEXT(Automatos!F76, "##")</f>
+        <v/>
+      </c>
+      <c r="G6" s="22" t="str">
+        <f>TEXT(Automatos!G76, "##")</f>
+        <v/>
+      </c>
+      <c r="H6" s="22" t="str">
+        <f>TEXT(Automatos!H76, "##")</f>
+        <v/>
+      </c>
+      <c r="I6" s="22" t="str">
+        <f>TEXT(Automatos!I76, "##")</f>
+        <v/>
+      </c>
+      <c r="J6" s="22" t="str">
+        <f>TEXT(Automatos!J76, "##")</f>
+        <v/>
+      </c>
+      <c r="K6" s="22" t="str">
+        <f>TEXT(Automatos!K76, "##")</f>
+        <v/>
+      </c>
+      <c r="L6" s="22" t="str">
+        <f>TEXT(Automatos!L76, "##")</f>
+        <v/>
+      </c>
+      <c r="M6" s="22" t="str">
+        <f>TEXT(Automatos!M76, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22" t="str">
+        <f>TEXT(Automatos!B77, "##")</f>
+        <v/>
+      </c>
+      <c r="C7" s="22" t="str">
+        <f>TEXT(Automatos!C77, "##")</f>
+        <v/>
+      </c>
+      <c r="D7" s="22" t="str">
+        <f>TEXT(Automatos!D77, "##")</f>
+        <v/>
+      </c>
+      <c r="E7" s="22" t="str">
+        <f>TEXT(Automatos!E77, "##")</f>
+        <v/>
+      </c>
+      <c r="F7" s="22" t="str">
+        <f>TEXT(Automatos!F77, "##")</f>
+        <v/>
+      </c>
+      <c r="G7" s="22" t="str">
+        <f>TEXT(Automatos!G77, "##")</f>
+        <v/>
+      </c>
+      <c r="H7" s="22" t="str">
+        <f>TEXT(Automatos!H77, "##")</f>
+        <v/>
+      </c>
+      <c r="I7" s="22" t="str">
+        <f>TEXT(Automatos!I77, "##")</f>
+        <v/>
+      </c>
+      <c r="J7" s="22" t="str">
+        <f>TEXT(Automatos!J77, "##")</f>
+        <v/>
+      </c>
+      <c r="K7" s="22" t="str">
+        <f>TEXT(Automatos!K77, "##")</f>
+        <v/>
+      </c>
+      <c r="L7" s="22" t="str">
+        <f>TEXT(Automatos!L77, "##")</f>
+        <v/>
+      </c>
+      <c r="M7" s="22" t="str">
+        <f>TEXT(Automatos!M77, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="str">
+        <f>TEXT(Automatos!B78, "##")</f>
+        <v/>
+      </c>
+      <c r="C8" s="22" t="str">
+        <f>TEXT(Automatos!C78, "##")</f>
+        <v/>
+      </c>
+      <c r="D8" s="22" t="str">
+        <f>TEXT(Automatos!D78, "##")</f>
+        <v/>
+      </c>
+      <c r="E8" s="22" t="str">
+        <f>TEXT(Automatos!E78, "##")</f>
+        <v/>
+      </c>
+      <c r="F8" s="22" t="str">
+        <f>TEXT(Automatos!F78, "##")</f>
+        <v>4</v>
+      </c>
+      <c r="G8" s="22" t="str">
+        <f>TEXT(Automatos!G78, "##")</f>
+        <v/>
+      </c>
+      <c r="H8" s="22" t="str">
+        <f>TEXT(Automatos!H78, "##")</f>
+        <v/>
+      </c>
+      <c r="I8" s="22" t="str">
+        <f>TEXT(Automatos!I78, "##")</f>
+        <v/>
+      </c>
+      <c r="J8" s="22" t="str">
+        <f>TEXT(Automatos!J78, "##")</f>
+        <v/>
+      </c>
+      <c r="K8" s="22" t="str">
+        <f>TEXT(Automatos!K78, "##")</f>
+        <v/>
+      </c>
+      <c r="L8" s="22" t="str">
+        <f>TEXT(Automatos!L78, "##")</f>
+        <v/>
+      </c>
+      <c r="M8" s="22" t="str">
+        <f>TEXT(Automatos!M78, "##")</f>
         <v/>
       </c>
     </row>
@@ -3460,6 +3439,240 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="str">
+        <f>TEXT(Automatos!B82, "##")</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="22" t="str">
+        <f>TEXT(Automatos!C82, "##")</f>
+        <v/>
+      </c>
+      <c r="D2" s="22" t="str">
+        <f>TEXT(Automatos!D82, "##")</f>
+        <v/>
+      </c>
+      <c r="E2" s="22" t="str">
+        <f>TEXT(Automatos!E82, "##")</f>
+        <v/>
+      </c>
+      <c r="F2" s="22" t="str">
+        <f>TEXT(Automatos!F82, "##")</f>
+        <v/>
+      </c>
+      <c r="G2" s="22" t="str">
+        <f>TEXT(Automatos!G82, "##")</f>
+        <v/>
+      </c>
+      <c r="H2" s="22" t="str">
+        <f>TEXT(Automatos!H82, "##")</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="22" t="str">
+        <f>TEXT(Automatos!I82, "##")</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="22" t="str">
+        <f>TEXT(Automatos!J82, "##")</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="22" t="str">
+        <f>TEXT(Automatos!K82, "##")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="str">
+        <f>TEXT(Automatos!B83, "##")</f>
+        <v/>
+      </c>
+      <c r="C3" s="22" t="str">
+        <f>TEXT(Automatos!C83, "##")</f>
+        <v/>
+      </c>
+      <c r="D3" s="22" t="str">
+        <f>TEXT(Automatos!D83, "##")</f>
+        <v/>
+      </c>
+      <c r="E3" s="22" t="str">
+        <f>TEXT(Automatos!E83, "##")</f>
+        <v/>
+      </c>
+      <c r="F3" s="22" t="str">
+        <f>TEXT(Automatos!F83, "##")</f>
+        <v/>
+      </c>
+      <c r="G3" s="22" t="str">
+        <f>TEXT(Automatos!G83, "##")</f>
+        <v/>
+      </c>
+      <c r="H3" s="22" t="str">
+        <f>TEXT(Automatos!H83, "##")</f>
+        <v/>
+      </c>
+      <c r="I3" s="22" t="str">
+        <f>TEXT(Automatos!I83, "##")</f>
+        <v/>
+      </c>
+      <c r="J3" s="22" t="str">
+        <f>TEXT(Automatos!J83, "##")</f>
+        <v/>
+      </c>
+      <c r="K3" s="22" t="str">
+        <f>TEXT(Automatos!K83, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22" t="str">
+        <f>TEXT(Automatos!B84, "##")</f>
+        <v/>
+      </c>
+      <c r="C4" s="22" t="str">
+        <f>TEXT(Automatos!C84, "##")</f>
+        <v/>
+      </c>
+      <c r="D4" s="22" t="str">
+        <f>TEXT(Automatos!D84, "##")</f>
+        <v/>
+      </c>
+      <c r="E4" s="22" t="str">
+        <f>TEXT(Automatos!E84, "##")</f>
+        <v/>
+      </c>
+      <c r="F4" s="22" t="str">
+        <f>TEXT(Automatos!F84, "##")</f>
+        <v/>
+      </c>
+      <c r="G4" s="22" t="str">
+        <f>TEXT(Automatos!G84, "##")</f>
+        <v/>
+      </c>
+      <c r="H4" s="22" t="str">
+        <f>TEXT(Automatos!H84, "##")</f>
+        <v/>
+      </c>
+      <c r="I4" s="22" t="str">
+        <f>TEXT(Automatos!I84, "##")</f>
+        <v/>
+      </c>
+      <c r="J4" s="22" t="str">
+        <f>TEXT(Automatos!J84, "##")</f>
+        <v/>
+      </c>
+      <c r="K4" s="22" t="str">
+        <f>TEXT(Automatos!K84, "##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22" t="str">
+        <f>TEXT(Automatos!B85, "##")</f>
+        <v/>
+      </c>
+      <c r="C5" s="22" t="str">
+        <f>TEXT(Automatos!C85, "##")</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="22" t="str">
+        <f>TEXT(Automatos!D85, "##")</f>
+        <v/>
+      </c>
+      <c r="E5" s="22" t="str">
+        <f>TEXT(Automatos!E85, "##")</f>
+        <v/>
+      </c>
+      <c r="F5" s="22" t="str">
+        <f>TEXT(Automatos!F85, "##")</f>
+        <v/>
+      </c>
+      <c r="G5" s="22" t="str">
+        <f>TEXT(Automatos!G85, "##")</f>
+        <v/>
+      </c>
+      <c r="H5" s="22" t="str">
+        <f>TEXT(Automatos!H85, "##")</f>
+        <v/>
+      </c>
+      <c r="I5" s="22" t="str">
+        <f>TEXT(Automatos!I85, "##")</f>
+        <v/>
+      </c>
+      <c r="J5" s="22" t="str">
+        <f>TEXT(Automatos!J85, "##")</f>
+        <v/>
+      </c>
+      <c r="K5" s="22" t="str">
+        <f>TEXT(Automatos!K85, "##")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3576,48 +3789,6 @@
       </c>
       <c r="C10" s="4">
         <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3635,19 +3806,19 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3656,10 +3827,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3674,10 +3845,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3695,57 +3866,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4">
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4">
         <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3781,57 +3908,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
         <v>6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3845,6 +3972,92 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4290,7 +4503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -5936,8 +6149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:C48"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6932,930 +7145,93 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="19"/>
+    <row r="1" spans="1:3">
+      <c r="A1" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="B1" s="19" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="19">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23" t="str">
-        <f>TEXT(Automatos!B12,"##")</f>
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="str">
-        <f>TEXT(Automatos!C12,"##")</f>
+      <c r="B2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="D2" s="23" t="str">
-        <f>TEXT(Automatos!D12,"##")</f>
-        <v/>
-      </c>
-      <c r="E2" s="23" t="str">
-        <f>TEXT(Automatos!E12,"##")</f>
-        <v/>
-      </c>
-      <c r="F2" s="23" t="str">
-        <f>TEXT(Automatos!F12,"##")</f>
-        <v/>
-      </c>
-      <c r="G2" s="23" t="str">
-        <f>TEXT(Automatos!G12,"##")</f>
-        <v/>
-      </c>
-      <c r="H2" s="23" t="str">
-        <f>TEXT(Automatos!H12,"##")</f>
-        <v/>
-      </c>
-      <c r="I2" s="23" t="str">
-        <f>TEXT(Automatos!I12,"##")</f>
-        <v/>
-      </c>
-      <c r="J2" s="23" t="str">
-        <f>TEXT(Automatos!J12,"##")</f>
-        <v/>
-      </c>
-      <c r="K2" s="23" t="str">
-        <f>TEXT(Automatos!K12,"##")</f>
-        <v/>
-      </c>
-      <c r="L2" s="23" t="str">
-        <f>TEXT(Automatos!L12,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="19">
-        <v>1</v>
-      </c>
-      <c r="B3" s="23" t="str">
-        <f>TEXT(Automatos!B13,"##")</f>
-        <v/>
-      </c>
-      <c r="C3" s="23" t="str">
-        <f>TEXT(Automatos!C13,"##")</f>
-        <v/>
-      </c>
-      <c r="D3" s="23" t="str">
-        <f>TEXT(Automatos!D13,"##")</f>
+      <c r="B4" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="E3" s="23" t="str">
-        <f>TEXT(Automatos!E13,"##")</f>
-        <v>4</v>
-      </c>
-      <c r="F3" s="23" t="str">
-        <f>TEXT(Automatos!F13,"##")</f>
-        <v>4</v>
-      </c>
-      <c r="G3" s="23" t="str">
-        <f>TEXT(Automatos!G13,"##")</f>
-        <v/>
-      </c>
-      <c r="H3" s="23" t="str">
-        <f>TEXT(Automatos!H13,"##")</f>
-        <v/>
-      </c>
-      <c r="I3" s="23" t="str">
-        <f>TEXT(Automatos!I13,"##")</f>
-        <v/>
-      </c>
-      <c r="J3" s="23" t="str">
-        <f>TEXT(Automatos!J13,"##")</f>
-        <v/>
-      </c>
-      <c r="K3" s="23" t="str">
-        <f>TEXT(Automatos!K13,"##")</f>
-        <v/>
-      </c>
-      <c r="L3" s="23" t="str">
-        <f>TEXT(Automatos!L13,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="19">
-        <v>2</v>
-      </c>
-      <c r="B4" s="23" t="str">
-        <f>TEXT(Automatos!B14,"##")</f>
-        <v/>
-      </c>
-      <c r="C4" s="23" t="str">
-        <f>TEXT(Automatos!C14,"##")</f>
-        <v>3</v>
-      </c>
-      <c r="D4" s="23" t="str">
-        <f>TEXT(Automatos!D14,"##")</f>
-        <v/>
-      </c>
-      <c r="E4" s="23" t="str">
-        <f>TEXT(Automatos!E14,"##")</f>
-        <v/>
-      </c>
-      <c r="F4" s="23" t="str">
-        <f>TEXT(Automatos!F14,"##")</f>
-        <v/>
-      </c>
-      <c r="G4" s="23" t="str">
-        <f>TEXT(Automatos!G14,"##")</f>
-        <v/>
-      </c>
-      <c r="H4" s="23" t="str">
-        <f>TEXT(Automatos!H14,"##")</f>
-        <v/>
-      </c>
-      <c r="I4" s="23" t="str">
-        <f>TEXT(Automatos!I14,"##")</f>
-        <v/>
-      </c>
-      <c r="J4" s="23" t="str">
-        <f>TEXT(Automatos!J14,"##")</f>
-        <v/>
-      </c>
-      <c r="K4" s="23" t="str">
-        <f>TEXT(Automatos!K14,"##")</f>
-        <v/>
-      </c>
-      <c r="L4" s="23" t="str">
-        <f>TEXT(Automatos!L14,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="19">
-        <v>3</v>
-      </c>
-      <c r="B5" s="23" t="str">
-        <f>TEXT(Automatos!B15,"##")</f>
-        <v/>
-      </c>
-      <c r="C5" s="23" t="str">
-        <f>TEXT(Automatos!C15,"##")</f>
-        <v/>
-      </c>
-      <c r="D5" s="23" t="str">
-        <f>TEXT(Automatos!D15,"##")</f>
-        <v/>
-      </c>
-      <c r="E5" s="23" t="str">
-        <f>TEXT(Automatos!E15,"##")</f>
-        <v/>
-      </c>
-      <c r="F5" s="23" t="str">
-        <f>TEXT(Automatos!F15,"##")</f>
-        <v/>
-      </c>
-      <c r="G5" s="23" t="str">
-        <f>TEXT(Automatos!G15,"##")</f>
+      <c r="B5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="H5" s="23" t="str">
-        <f>TEXT(Automatos!H15,"##")</f>
-        <v/>
-      </c>
-      <c r="I5" s="23" t="str">
-        <f>TEXT(Automatos!I15,"##")</f>
-        <v/>
-      </c>
-      <c r="J5" s="23" t="str">
-        <f>TEXT(Automatos!J15,"##")</f>
-        <v/>
-      </c>
-      <c r="K5" s="23" t="str">
-        <f>TEXT(Automatos!K15,"##")</f>
-        <v/>
-      </c>
-      <c r="L5" s="23" t="str">
-        <f>TEXT(Automatos!L15,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="19">
-        <v>4</v>
-      </c>
-      <c r="B6" s="23" t="str">
-        <f>TEXT(Automatos!B16,"##")</f>
-        <v/>
-      </c>
-      <c r="C6" s="23" t="str">
-        <f>TEXT(Automatos!C16,"##")</f>
-        <v/>
-      </c>
-      <c r="D6" s="23" t="str">
-        <f>TEXT(Automatos!D16,"##")</f>
-        <v/>
-      </c>
-      <c r="E6" s="23" t="str">
-        <f>TEXT(Automatos!E16,"##")</f>
-        <v/>
-      </c>
-      <c r="F6" s="23" t="str">
-        <f>TEXT(Automatos!F16,"##")</f>
-        <v/>
-      </c>
-      <c r="G6" s="23" t="str">
-        <f>TEXT(Automatos!G16,"##")</f>
-        <v/>
-      </c>
-      <c r="H6" s="23" t="str">
-        <f>TEXT(Automatos!H16,"##")</f>
-        <v/>
-      </c>
-      <c r="I6" s="23" t="str">
-        <f>TEXT(Automatos!I16,"##")</f>
-        <v/>
-      </c>
-      <c r="J6" s="23" t="str">
-        <f>TEXT(Automatos!J16,"##")</f>
-        <v/>
-      </c>
-      <c r="K6" s="23" t="str">
-        <f>TEXT(Automatos!K16,"##")</f>
-        <v/>
-      </c>
-      <c r="L6" s="23" t="str">
-        <f>TEXT(Automatos!L16,"##")</f>
+      <c r="B6" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="19">
-        <v>5</v>
-      </c>
-      <c r="B7" s="23" t="str">
-        <f>TEXT(Automatos!B17,"##")</f>
-        <v/>
-      </c>
-      <c r="C7" s="23" t="str">
-        <f>TEXT(Automatos!C17,"##")</f>
-        <v/>
-      </c>
-      <c r="D7" s="23" t="str">
-        <f>TEXT(Automatos!D17,"##")</f>
-        <v/>
-      </c>
-      <c r="E7" s="23" t="str">
-        <f>TEXT(Automatos!E17,"##")</f>
-        <v/>
-      </c>
-      <c r="F7" s="23" t="str">
-        <f>TEXT(Automatos!F17,"##")</f>
-        <v/>
-      </c>
-      <c r="G7" s="23" t="str">
-        <f>TEXT(Automatos!G17,"##")</f>
-        <v/>
-      </c>
-      <c r="H7" s="23" t="str">
-        <f>TEXT(Automatos!H17,"##")</f>
-        <v>7</v>
-      </c>
-      <c r="I7" s="23" t="str">
-        <f>TEXT(Automatos!I17,"##")</f>
-        <v/>
-      </c>
-      <c r="J7" s="23" t="str">
-        <f>TEXT(Automatos!J17,"##")</f>
-        <v/>
-      </c>
-      <c r="K7" s="23" t="str">
-        <f>TEXT(Automatos!K17,"##")</f>
-        <v/>
-      </c>
-      <c r="L7" s="23" t="str">
-        <f>TEXT(Automatos!L17,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="19">
-        <v>6</v>
-      </c>
-      <c r="B8" s="23" t="str">
-        <f>TEXT(Automatos!B18,"##")</f>
-        <v/>
-      </c>
-      <c r="C8" s="23" t="str">
-        <f>TEXT(Automatos!C18,"##")</f>
-        <v/>
-      </c>
-      <c r="D8" s="23" t="str">
-        <f>TEXT(Automatos!D18,"##")</f>
-        <v/>
-      </c>
-      <c r="E8" s="23" t="str">
-        <f>TEXT(Automatos!E18,"##")</f>
-        <v/>
-      </c>
-      <c r="F8" s="23" t="str">
-        <f>TEXT(Automatos!F18,"##")</f>
-        <v/>
-      </c>
-      <c r="G8" s="23" t="str">
-        <f>TEXT(Automatos!G18,"##")</f>
-        <v>8</v>
-      </c>
-      <c r="H8" s="23" t="str">
-        <f>TEXT(Automatos!H18,"##")</f>
-        <v/>
-      </c>
-      <c r="I8" s="23" t="str">
-        <f>TEXT(Automatos!I18,"##")</f>
-        <v/>
-      </c>
-      <c r="J8" s="23" t="str">
-        <f>TEXT(Automatos!J18,"##")</f>
-        <v/>
-      </c>
-      <c r="K8" s="23" t="str">
-        <f>TEXT(Automatos!K18,"##")</f>
-        <v/>
-      </c>
-      <c r="L8" s="23" t="str">
-        <f>TEXT(Automatos!L18,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="19">
-        <v>7</v>
-      </c>
-      <c r="B9" s="23" t="str">
-        <f>TEXT(Automatos!B19,"##")</f>
-        <v/>
-      </c>
-      <c r="C9" s="23" t="str">
-        <f>TEXT(Automatos!C19,"##")</f>
-        <v/>
-      </c>
-      <c r="D9" s="23" t="str">
-        <f>TEXT(Automatos!D19,"##")</f>
-        <v/>
-      </c>
-      <c r="E9" s="23" t="str">
-        <f>TEXT(Automatos!E19,"##")</f>
-        <v/>
-      </c>
-      <c r="F9" s="23" t="str">
-        <f>TEXT(Automatos!F19,"##")</f>
-        <v/>
-      </c>
-      <c r="G9" s="23" t="str">
-        <f>TEXT(Automatos!G19,"##")</f>
-        <v/>
-      </c>
-      <c r="H9" s="23" t="str">
-        <f>TEXT(Automatos!H19,"##")</f>
-        <v/>
-      </c>
-      <c r="I9" s="23" t="str">
-        <f>TEXT(Automatos!I19,"##")</f>
-        <v>9</v>
-      </c>
-      <c r="J9" s="23" t="str">
-        <f>TEXT(Automatos!J19,"##")</f>
-        <v/>
-      </c>
-      <c r="K9" s="23" t="str">
-        <f>TEXT(Automatos!K19,"##")</f>
-        <v/>
-      </c>
-      <c r="L9" s="23" t="str">
-        <f>TEXT(Automatos!L19,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="19">
-        <v>8</v>
-      </c>
-      <c r="B10" s="23" t="str">
-        <f>TEXT(Automatos!B20,"##")</f>
-        <v/>
-      </c>
-      <c r="C10" s="23" t="str">
-        <f>TEXT(Automatos!C20,"##")</f>
-        <v/>
-      </c>
-      <c r="D10" s="23" t="str">
-        <f>TEXT(Automatos!D20,"##")</f>
-        <v/>
-      </c>
-      <c r="E10" s="23" t="str">
-        <f>TEXT(Automatos!E20,"##")</f>
-        <v/>
-      </c>
-      <c r="F10" s="23" t="str">
-        <f>TEXT(Automatos!F20,"##")</f>
-        <v/>
-      </c>
-      <c r="G10" s="23" t="str">
-        <f>TEXT(Automatos!G20,"##")</f>
-        <v/>
-      </c>
-      <c r="H10" s="23" t="str">
-        <f>TEXT(Automatos!H20,"##")</f>
-        <v/>
-      </c>
-      <c r="I10" s="23" t="str">
-        <f>TEXT(Automatos!I20,"##")</f>
-        <v/>
-      </c>
-      <c r="J10" s="23" t="str">
-        <f>TEXT(Automatos!J20,"##")</f>
-        <v/>
-      </c>
-      <c r="K10" s="23" t="str">
-        <f>TEXT(Automatos!K20,"##")</f>
-        <v/>
-      </c>
-      <c r="L10" s="23" t="str">
-        <f>TEXT(Automatos!L20,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="19">
-        <v>9</v>
-      </c>
-      <c r="B11" s="23" t="str">
-        <f>TEXT(Automatos!B21,"##")</f>
-        <v/>
-      </c>
-      <c r="C11" s="23" t="str">
-        <f>TEXT(Automatos!C21,"##")</f>
-        <v/>
-      </c>
-      <c r="D11" s="23" t="str">
-        <f>TEXT(Automatos!D21,"##")</f>
-        <v/>
-      </c>
-      <c r="E11" s="23" t="str">
-        <f>TEXT(Automatos!E21,"##")</f>
-        <v/>
-      </c>
-      <c r="F11" s="23" t="str">
-        <f>TEXT(Automatos!F21,"##")</f>
-        <v/>
-      </c>
-      <c r="G11" s="23" t="str">
-        <f>TEXT(Automatos!G21,"##")</f>
-        <v/>
-      </c>
-      <c r="H11" s="23" t="str">
-        <f>TEXT(Automatos!H21,"##")</f>
-        <v/>
-      </c>
-      <c r="I11" s="23" t="str">
-        <f>TEXT(Automatos!I21,"##")</f>
-        <v/>
-      </c>
-      <c r="J11" s="23" t="str">
-        <f>TEXT(Automatos!J21,"##")</f>
-        <v>12</v>
-      </c>
-      <c r="K11" s="23" t="str">
-        <f>TEXT(Automatos!K21,"##")</f>
-        <v/>
-      </c>
-      <c r="L11" s="23" t="str">
-        <f>TEXT(Automatos!L21,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="19">
-        <v>10</v>
-      </c>
-      <c r="B12" s="23" t="str">
-        <f>TEXT(Automatos!B22,"##")</f>
-        <v/>
-      </c>
-      <c r="C12" s="23" t="str">
-        <f>TEXT(Automatos!C22,"##")</f>
-        <v/>
-      </c>
-      <c r="D12" s="23" t="str">
-        <f>TEXT(Automatos!D22,"##")</f>
-        <v/>
-      </c>
-      <c r="E12" s="23" t="str">
-        <f>TEXT(Automatos!E22,"##")</f>
-        <v/>
-      </c>
-      <c r="F12" s="23" t="str">
-        <f>TEXT(Automatos!F22,"##")</f>
-        <v/>
-      </c>
-      <c r="G12" s="23" t="str">
-        <f>TEXT(Automatos!G22,"##")</f>
-        <v/>
-      </c>
-      <c r="H12" s="23" t="str">
-        <f>TEXT(Automatos!H22,"##")</f>
-        <v>13</v>
-      </c>
-      <c r="I12" s="23" t="str">
-        <f>TEXT(Automatos!I22,"##")</f>
-        <v/>
-      </c>
-      <c r="J12" s="23" t="str">
-        <f>TEXT(Automatos!J22,"##")</f>
-        <v/>
-      </c>
-      <c r="K12" s="23" t="str">
-        <f>TEXT(Automatos!K22,"##")</f>
-        <v/>
-      </c>
-      <c r="L12" s="23" t="str">
-        <f>TEXT(Automatos!L22,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="19">
-        <v>11</v>
-      </c>
-      <c r="B13" s="23" t="str">
-        <f>TEXT(Automatos!B23,"##")</f>
-        <v/>
-      </c>
-      <c r="C13" s="23" t="str">
-        <f>TEXT(Automatos!C23,"##")</f>
-        <v/>
-      </c>
-      <c r="D13" s="23" t="str">
-        <f>TEXT(Automatos!D23,"##")</f>
-        <v/>
-      </c>
-      <c r="E13" s="23" t="str">
-        <f>TEXT(Automatos!E23,"##")</f>
-        <v/>
-      </c>
-      <c r="F13" s="23" t="str">
-        <f>TEXT(Automatos!F23,"##")</f>
-        <v/>
-      </c>
-      <c r="G13" s="23" t="str">
-        <f>TEXT(Automatos!G23,"##")</f>
-        <v/>
-      </c>
-      <c r="H13" s="23" t="str">
-        <f>TEXT(Automatos!H23,"##")</f>
-        <v/>
-      </c>
-      <c r="I13" s="23" t="str">
-        <f>TEXT(Automatos!I23,"##")</f>
-        <v/>
-      </c>
-      <c r="J13" s="23" t="str">
-        <f>TEXT(Automatos!J23,"##")</f>
-        <v>12</v>
-      </c>
-      <c r="K13" s="23" t="str">
-        <f>TEXT(Automatos!K23,"##")</f>
-        <v/>
-      </c>
-      <c r="L13" s="23" t="str">
-        <f>TEXT(Automatos!L23,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="19">
-        <v>12</v>
-      </c>
-      <c r="B14" s="23" t="str">
-        <f>TEXT(Automatos!B24,"##")</f>
-        <v/>
-      </c>
-      <c r="C14" s="23" t="str">
-        <f>TEXT(Automatos!C24,"##")</f>
-        <v/>
-      </c>
-      <c r="D14" s="23" t="str">
-        <f>TEXT(Automatos!D24,"##")</f>
-        <v/>
-      </c>
-      <c r="E14" s="23" t="str">
-        <f>TEXT(Automatos!E24,"##")</f>
-        <v/>
-      </c>
-      <c r="F14" s="23" t="str">
-        <f>TEXT(Automatos!F24,"##")</f>
-        <v/>
-      </c>
-      <c r="G14" s="23" t="str">
-        <f>TEXT(Automatos!G24,"##")</f>
-        <v/>
-      </c>
-      <c r="H14" s="23" t="str">
-        <f>TEXT(Automatos!H24,"##")</f>
-        <v/>
-      </c>
-      <c r="I14" s="23" t="str">
-        <f>TEXT(Automatos!I24,"##")</f>
-        <v/>
-      </c>
-      <c r="J14" s="23" t="str">
-        <f>TEXT(Automatos!J24,"##")</f>
-        <v/>
-      </c>
-      <c r="K14" s="23" t="str">
-        <f>TEXT(Automatos!K24,"##")</f>
-        <v/>
-      </c>
-      <c r="L14" s="23" t="str">
-        <f>TEXT(Automatos!L24,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="19">
-        <v>13</v>
-      </c>
-      <c r="B15" s="23" t="str">
-        <f>TEXT(Automatos!B25,"##")</f>
-        <v/>
-      </c>
-      <c r="C15" s="23" t="str">
-        <f>TEXT(Automatos!C25,"##")</f>
-        <v/>
-      </c>
-      <c r="D15" s="23" t="str">
-        <f>TEXT(Automatos!D25,"##")</f>
-        <v/>
-      </c>
-      <c r="E15" s="23" t="str">
-        <f>TEXT(Automatos!E25,"##")</f>
-        <v/>
-      </c>
-      <c r="F15" s="23" t="str">
-        <f>TEXT(Automatos!F25,"##")</f>
-        <v/>
-      </c>
-      <c r="G15" s="23" t="str">
-        <f>TEXT(Automatos!G25,"##")</f>
-        <v/>
-      </c>
-      <c r="H15" s="23" t="str">
-        <f>TEXT(Automatos!H25,"##")</f>
-        <v/>
-      </c>
-      <c r="I15" s="23" t="str">
-        <f>TEXT(Automatos!I25,"##")</f>
-        <v>14</v>
-      </c>
-      <c r="J15" s="23" t="str">
-        <f>TEXT(Automatos!J25,"##")</f>
-        <v/>
-      </c>
-      <c r="K15" s="23" t="str">
-        <f>TEXT(Automatos!K25,"##")</f>
-        <v/>
-      </c>
-      <c r="L15" s="23" t="str">
-        <f>TEXT(Automatos!L25,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="19">
-        <v>14</v>
-      </c>
-      <c r="B16" s="23" t="str">
-        <f>TEXT(Automatos!B26,"##")</f>
-        <v/>
-      </c>
-      <c r="C16" s="23" t="str">
-        <f>TEXT(Automatos!C26,"##")</f>
-        <v/>
-      </c>
-      <c r="D16" s="23" t="str">
-        <f>TEXT(Automatos!D26,"##")</f>
-        <v/>
-      </c>
-      <c r="E16" s="23" t="str">
-        <f>TEXT(Automatos!E26,"##")</f>
-        <v/>
-      </c>
-      <c r="F16" s="23" t="str">
-        <f>TEXT(Automatos!F26,"##")</f>
-        <v/>
-      </c>
-      <c r="G16" s="23" t="str">
-        <f>TEXT(Automatos!G26,"##")</f>
-        <v/>
-      </c>
-      <c r="H16" s="23" t="str">
-        <f>TEXT(Automatos!H26,"##")</f>
-        <v/>
-      </c>
-      <c r="I16" s="23" t="str">
-        <f>TEXT(Automatos!I26,"##")</f>
-        <v/>
-      </c>
-      <c r="J16" s="23" t="str">
-        <f>TEXT(Automatos!J26,"##")</f>
-        <v/>
-      </c>
-      <c r="K16" s="23" t="str">
-        <f>TEXT(Automatos!K26,"##")</f>
-        <v>16</v>
-      </c>
-      <c r="L16" s="23" t="str">
-        <f>TEXT(Automatos!L26,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="19">
-        <v>15</v>
-      </c>
-      <c r="B17" s="23" t="str">
-        <f>TEXT(Automatos!B27,"##")</f>
-        <v/>
-      </c>
-      <c r="C17" s="23" t="str">
-        <f>TEXT(Automatos!C27,"##")</f>
-        <v/>
-      </c>
-      <c r="D17" s="23" t="str">
-        <f>TEXT(Automatos!D27,"##")</f>
-        <v/>
-      </c>
-      <c r="E17" s="23" t="str">
-        <f>TEXT(Automatos!E27,"##")</f>
-        <v/>
-      </c>
-      <c r="F17" s="23" t="str">
-        <f>TEXT(Automatos!F27,"##")</f>
-        <v/>
-      </c>
-      <c r="G17" s="23" t="str">
-        <f>TEXT(Automatos!G27,"##")</f>
-        <v/>
-      </c>
-      <c r="H17" s="23" t="str">
-        <f>TEXT(Automatos!H27,"##")</f>
-        <v/>
-      </c>
-      <c r="I17" s="23" t="str">
-        <f>TEXT(Automatos!I27,"##")</f>
-        <v/>
-      </c>
-      <c r="J17" s="23" t="str">
-        <f>TEXT(Automatos!J27,"##")</f>
-        <v/>
-      </c>
-      <c r="K17" s="23" t="str">
-        <f>TEXT(Automatos!K27,"##")</f>
-        <v>16</v>
-      </c>
-      <c r="L17" s="23" t="str">
-        <f>TEXT(Automatos!L27,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="19">
-        <v>16</v>
-      </c>
-      <c r="B18" s="23" t="str">
-        <f>TEXT(Automatos!B28,"##")</f>
-        <v/>
-      </c>
-      <c r="C18" s="23" t="str">
-        <f>TEXT(Automatos!C28,"##")</f>
-        <v/>
-      </c>
-      <c r="D18" s="23" t="str">
-        <f>TEXT(Automatos!D28,"##")</f>
-        <v/>
-      </c>
-      <c r="E18" s="23" t="str">
-        <f>TEXT(Automatos!E28,"##")</f>
-        <v/>
-      </c>
-      <c r="F18" s="23" t="str">
-        <f>TEXT(Automatos!F28,"##")</f>
-        <v/>
-      </c>
-      <c r="G18" s="23" t="str">
-        <f>TEXT(Automatos!G28,"##")</f>
-        <v/>
-      </c>
-      <c r="H18" s="23" t="str">
-        <f>TEXT(Automatos!H28,"##")</f>
-        <v/>
-      </c>
-      <c r="I18" s="23" t="str">
-        <f>TEXT(Automatos!I28,"##")</f>
-        <v/>
-      </c>
-      <c r="J18" s="23" t="str">
-        <f>TEXT(Automatos!J28,"##")</f>
-        <v/>
-      </c>
-      <c r="K18" s="23" t="str">
-        <f>TEXT(Automatos!K28,"##")</f>
-        <v/>
-      </c>
-      <c r="L18" s="23" t="str">
-        <f>TEXT(Automatos!L28,"##")</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="23" t="str">
-        <f>TEXT(Automatos!B29,"##")</f>
-        <v/>
-      </c>
-      <c r="C19" s="23" t="str">
-        <f>TEXT(Automatos!C29,"##")</f>
-        <v/>
-      </c>
-      <c r="D19" s="23" t="str">
-        <f>TEXT(Automatos!D29,"##")</f>
-        <v/>
-      </c>
-      <c r="E19" s="23" t="str">
-        <f>TEXT(Automatos!E29,"##")</f>
-        <v/>
-      </c>
-      <c r="F19" s="23" t="str">
-        <f>TEXT(Automatos!F29,"##")</f>
-        <v/>
-      </c>
-      <c r="G19" s="23" t="str">
-        <f>TEXT(Automatos!G29,"##")</f>
-        <v/>
-      </c>
-      <c r="H19" s="23" t="str">
-        <f>TEXT(Automatos!H29,"##")</f>
-        <v/>
-      </c>
-      <c r="I19" s="23" t="str">
-        <f>TEXT(Automatos!I29,"##")</f>
-        <v/>
-      </c>
-      <c r="J19" s="23" t="str">
-        <f>TEXT(Automatos!J29,"##")</f>
-        <v/>
-      </c>
-      <c r="K19" s="23" t="str">
-        <f>TEXT(Automatos!K29,"##")</f>
-        <v/>
-      </c>
-      <c r="L19" s="23" t="str">
-        <f>TEXT(Automatos!L29,"##")</f>
-        <v/>
+      <c r="B7" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -7874,6 +7250,945 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="19">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="str">
+        <f>TEXT(Automatos!B12,"##")</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="str">
+        <f>TEXT(Automatos!C12,"##")</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="23" t="str">
+        <f>TEXT(Automatos!D12,"##")</f>
+        <v/>
+      </c>
+      <c r="E2" s="23" t="str">
+        <f>TEXT(Automatos!E12,"##")</f>
+        <v/>
+      </c>
+      <c r="F2" s="23" t="str">
+        <f>TEXT(Automatos!F12,"##")</f>
+        <v/>
+      </c>
+      <c r="G2" s="23" t="str">
+        <f>TEXT(Automatos!G12,"##")</f>
+        <v/>
+      </c>
+      <c r="H2" s="23" t="str">
+        <f>TEXT(Automatos!H12,"##")</f>
+        <v/>
+      </c>
+      <c r="I2" s="23" t="str">
+        <f>TEXT(Automatos!I12,"##")</f>
+        <v/>
+      </c>
+      <c r="J2" s="23" t="str">
+        <f>TEXT(Automatos!J12,"##")</f>
+        <v/>
+      </c>
+      <c r="K2" s="23" t="str">
+        <f>TEXT(Automatos!K12,"##")</f>
+        <v/>
+      </c>
+      <c r="L2" s="23" t="str">
+        <f>TEXT(Automatos!L12,"##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="str">
+        <f>TEXT(Automatos!B13,"##")</f>
+        <v/>
+      </c>
+      <c r="C3" s="23" t="str">
+        <f>TEXT(Automatos!C13,"##")</f>
+        <v/>
+      </c>
+      <c r="D3" s="23" t="str">
+        <f>TEXT(Automatos!D13,"##")</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="23" t="str">
+        <f>TEXT(Automatos!E13,"##")</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="23" t="str">
+        <f>TEXT(Automatos!F13,"##")</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="23" t="str">
+        <f>TEXT(Automatos!G13,"##")</f>
+        <v/>
+      </c>
+      <c r="H3" s="23" t="str">
+        <f>TEXT(Automatos!H13,"##")</f>
+        <v/>
+      </c>
+      <c r="I3" s="23" t="str">
+        <f>TEXT(Automatos!I13,"##")</f>
+        <v/>
+      </c>
+      <c r="J3" s="23" t="str">
+        <f>TEXT(Automatos!J13,"##")</f>
+        <v/>
+      </c>
+      <c r="K3" s="23" t="str">
+        <f>TEXT(Automatos!K13,"##")</f>
+        <v/>
+      </c>
+      <c r="L3" s="23" t="str">
+        <f>TEXT(Automatos!L13,"##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23" t="str">
+        <f>TEXT(Automatos!B14,"##")</f>
+        <v/>
+      </c>
+      <c r="C4" s="23" t="str">
+        <f>TEXT(Automatos!C14,"##")</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="23" t="str">
+        <f>TEXT(Automatos!D14,"##")</f>
+        <v/>
+      </c>
+      <c r="E4" s="23" t="str">
+        <f>TEXT(Automatos!E14,"##")</f>
+        <v/>
+      </c>
+      <c r="F4" s="23" t="str">
+        <f>TEXT(Automatos!F14,"##")</f>
+        <v/>
+      </c>
+      <c r="G4" s="23" t="str">
+        <f>TEXT(Automatos!G14,"##")</f>
+        <v/>
+      </c>
+      <c r="H4" s="23" t="str">
+        <f>TEXT(Automatos!H14,"##")</f>
+        <v/>
+      </c>
+      <c r="I4" s="23" t="str">
+        <f>TEXT(Automatos!I14,"##")</f>
+        <v/>
+      </c>
+      <c r="J4" s="23" t="str">
+        <f>TEXT(Automatos!J14,"##")</f>
+        <v/>
+      </c>
+      <c r="K4" s="23" t="str">
+        <f>TEXT(Automatos!K14,"##")</f>
+        <v/>
+      </c>
+      <c r="L4" s="23" t="str">
+        <f>TEXT(Automatos!L14,"##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23" t="str">
+        <f>TEXT(Automatos!B15,"##")</f>
+        <v/>
+      </c>
+      <c r="C5" s="23" t="str">
+        <f>TEXT(Automatos!C15,"##")</f>
+        <v/>
+      </c>
+      <c r="D5" s="23" t="str">
+        <f>TEXT(Automatos!D15,"##")</f>
+        <v/>
+      </c>
+      <c r="E5" s="23" t="str">
+        <f>TEXT(Automatos!E15,"##")</f>
+        <v/>
+      </c>
+      <c r="F5" s="23" t="str">
+        <f>TEXT(Automatos!F15,"##")</f>
+        <v/>
+      </c>
+      <c r="G5" s="23" t="str">
+        <f>TEXT(Automatos!G15,"##")</f>
+        <v>5</v>
+      </c>
+      <c r="H5" s="23" t="str">
+        <f>TEXT(Automatos!H15,"##")</f>
+        <v/>
+      </c>
+      <c r="I5" s="23" t="str">
+        <f>TEXT(Automatos!I15,"##")</f>
+        <v/>
+      </c>
+      <c r="J5" s="23" t="str">
+        <f>TEXT(Automatos!J15,"##")</f>
+        <v/>
+      </c>
+      <c r="K5" s="23" t="str">
+        <f>TEXT(Automatos!K15,"##")</f>
+        <v/>
+      </c>
+      <c r="L5" s="23" t="str">
+        <f>TEXT(Automatos!L15,"##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="19">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="str">
+        <f>TEXT(Automatos!B16,"##")</f>
+        <v/>
+      </c>
+      <c r="C6" s="23" t="str">
+        <f>TEXT(Automatos!C16,"##")</f>
+        <v/>
+      </c>
+      <c r="D6" s="23" t="str">
+        <f>TEXT(Automatos!D16,"##")</f>
+        <v/>
+      </c>
+      <c r="E6" s="23" t="str">
+        <f>TEXT(Automatos!E16,"##")</f>
+        <v/>
+      </c>
+      <c r="F6" s="23" t="str">
+        <f>TEXT(Automatos!F16,"##")</f>
+        <v/>
+      </c>
+      <c r="G6" s="23" t="str">
+        <f>TEXT(Automatos!G16,"##")</f>
+        <v/>
+      </c>
+      <c r="H6" s="23" t="str">
+        <f>TEXT(Automatos!H16,"##")</f>
+        <v/>
+      </c>
+      <c r="I6" s="23" t="str">
+        <f>TEXT(Automatos!I16,"##")</f>
+        <v/>
+      </c>
+      <c r="J6" s="23" t="str">
+        <f>TEXT(Automatos!J16,"##")</f>
+        <v/>
+      </c>
+      <c r="K6" s="23" t="str">
+        <f>TEXT(Automatos!K16,"##")</f>
+        <v/>
+      </c>
+      <c r="L6" s="23" t="str">
+        <f>TEXT(Automatos!L16,"##")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="B7" s="23" t="str">
+        <f>TEXT(Automatos!B17,"##")</f>
+        <v/>
+      </c>
+      <c r="C7" s="23" t="str">
+        <f>TEXT(Automatos!C17,"##")</f>
+        <v/>
+      </c>
+      <c r="D7" s="23" t="str">
+        <f>TEXT(Automatos!D17,"##")</f>
+        <v/>
+      </c>
+      <c r="E7" s="23" t="str">
+        <f>TEXT(Automatos!E17,"##")</f>
+        <v/>
+      </c>
+      <c r="F7" s="23" t="str">
+        <f>TEXT(Automatos!F17,"##")</f>
+        <v/>
+      </c>
+      <c r="G7" s="23" t="str">
+        <f>TEXT(Automatos!G17,"##")</f>
+        <v/>
+      </c>
+      <c r="H7" s="23" t="str">
+        <f>TEXT(Automatos!H17,"##")</f>
+        <v>7</v>
+      </c>
+      <c r="I7" s="23" t="str">
+        <f>TEXT(Automatos!I17,"##")</f>
+        <v/>
+      </c>
+      <c r="J7" s="23" t="str">
+        <f>TEXT(Automatos!J17,"##")</f>
+        <v/>
+      </c>
+      <c r="K7" s="23" t="str">
+        <f>TEXT(Automatos!K17,"##")</f>
+        <v/>
+      </c>
+      <c r="L7" s="23" t="str">
+        <f>TEXT(Automatos!L17,"##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23" t="str">
+        <f>TEXT(Automatos!B18,"##")</f>
+        <v/>
+      </c>
+      <c r="C8" s="23" t="str">
+        <f>TEXT(Automatos!C18,"##")</f>
+        <v/>
+      </c>
+      <c r="D8" s="23" t="str">
+        <f>TEXT(Automatos!D18,"##")</f>
+        <v/>
+      </c>
+      <c r="E8" s="23" t="str">
+        <f>TEXT(Automatos!E18,"##")</f>
+        <v/>
+      </c>
+      <c r="F8" s="23" t="str">
+        <f>TEXT(Automatos!F18,"##")</f>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="str">
+        <f>TEXT(Automatos!G18,"##")</f>
+        <v>8</v>
+      </c>
+      <c r="H8" s="23" t="str">
+        <f>TEXT(Automatos!H18,"##")</f>
+        <v/>
+      </c>
+      <c r="I8" s="23" t="str">
+        <f>TEXT(Automatos!I18,"##")</f>
+        <v/>
+      </c>
+      <c r="J8" s="23" t="str">
+        <f>TEXT(Automatos!J18,"##")</f>
+        <v/>
+      </c>
+      <c r="K8" s="23" t="str">
+        <f>TEXT(Automatos!K18,"##")</f>
+        <v/>
+      </c>
+      <c r="L8" s="23" t="str">
+        <f>TEXT(Automatos!L18,"##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="19">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23" t="str">
+        <f>TEXT(Automatos!B19,"##")</f>
+        <v/>
+      </c>
+      <c r="C9" s="23" t="str">
+        <f>TEXT(Automatos!C19,"##")</f>
+        <v/>
+      </c>
+      <c r="D9" s="23" t="str">
+        <f>TEXT(Automatos!D19,"##")</f>
+        <v/>
+      </c>
+      <c r="E9" s="23" t="str">
+        <f>TEXT(Automatos!E19,"##")</f>
+        <v/>
+      </c>
+      <c r="F9" s="23" t="str">
+        <f>TEXT(Automatos!F19,"##")</f>
+        <v/>
+      </c>
+      <c r="G9" s="23" t="str">
+        <f>TEXT(Automatos!G19,"##")</f>
+        <v/>
+      </c>
+      <c r="H9" s="23" t="str">
+        <f>TEXT(Automatos!H19,"##")</f>
+        <v/>
+      </c>
+      <c r="I9" s="23" t="str">
+        <f>TEXT(Automatos!I19,"##")</f>
+        <v>9</v>
+      </c>
+      <c r="J9" s="23" t="str">
+        <f>TEXT(Automatos!J19,"##")</f>
+        <v/>
+      </c>
+      <c r="K9" s="23" t="str">
+        <f>TEXT(Automatos!K19,"##")</f>
+        <v/>
+      </c>
+      <c r="L9" s="23" t="str">
+        <f>TEXT(Automatos!L19,"##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="19">
+        <v>8</v>
+      </c>
+      <c r="B10" s="23" t="str">
+        <f>TEXT(Automatos!B20,"##")</f>
+        <v/>
+      </c>
+      <c r="C10" s="23" t="str">
+        <f>TEXT(Automatos!C20,"##")</f>
+        <v/>
+      </c>
+      <c r="D10" s="23" t="str">
+        <f>TEXT(Automatos!D20,"##")</f>
+        <v/>
+      </c>
+      <c r="E10" s="23" t="str">
+        <f>TEXT(Automatos!E20,"##")</f>
+        <v/>
+      </c>
+      <c r="F10" s="23" t="str">
+        <f>TEXT(Automatos!F20,"##")</f>
+        <v/>
+      </c>
+      <c r="G10" s="23" t="str">
+        <f>TEXT(Automatos!G20,"##")</f>
+        <v/>
+      </c>
+      <c r="H10" s="23" t="str">
+        <f>TEXT(Automatos!H20,"##")</f>
+        <v/>
+      </c>
+      <c r="I10" s="23" t="str">
+        <f>TEXT(Automatos!I20,"##")</f>
+        <v/>
+      </c>
+      <c r="J10" s="23" t="str">
+        <f>TEXT(Automatos!J20,"##")</f>
+        <v/>
+      </c>
+      <c r="K10" s="23" t="str">
+        <f>TEXT(Automatos!K20,"##")</f>
+        <v/>
+      </c>
+      <c r="L10" s="23" t="str">
+        <f>TEXT(Automatos!L20,"##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="19">
+        <v>9</v>
+      </c>
+      <c r="B11" s="23" t="str">
+        <f>TEXT(Automatos!B21,"##")</f>
+        <v/>
+      </c>
+      <c r="C11" s="23" t="str">
+        <f>TEXT(Automatos!C21,"##")</f>
+        <v/>
+      </c>
+      <c r="D11" s="23" t="str">
+        <f>TEXT(Automatos!D21,"##")</f>
+        <v/>
+      </c>
+      <c r="E11" s="23" t="str">
+        <f>TEXT(Automatos!E21,"##")</f>
+        <v/>
+      </c>
+      <c r="F11" s="23" t="str">
+        <f>TEXT(Automatos!F21,"##")</f>
+        <v/>
+      </c>
+      <c r="G11" s="23" t="str">
+        <f>TEXT(Automatos!G21,"##")</f>
+        <v/>
+      </c>
+      <c r="H11" s="23" t="str">
+        <f>TEXT(Automatos!H21,"##")</f>
+        <v/>
+      </c>
+      <c r="I11" s="23" t="str">
+        <f>TEXT(Automatos!I21,"##")</f>
+        <v/>
+      </c>
+      <c r="J11" s="23" t="str">
+        <f>TEXT(Automatos!J21,"##")</f>
+        <v>12</v>
+      </c>
+      <c r="K11" s="23" t="str">
+        <f>TEXT(Automatos!K21,"##")</f>
+        <v/>
+      </c>
+      <c r="L11" s="23" t="str">
+        <f>TEXT(Automatos!L21,"##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="19">
+        <v>10</v>
+      </c>
+      <c r="B12" s="23" t="str">
+        <f>TEXT(Automatos!B22,"##")</f>
+        <v/>
+      </c>
+      <c r="C12" s="23" t="str">
+        <f>TEXT(Automatos!C22,"##")</f>
+        <v/>
+      </c>
+      <c r="D12" s="23" t="str">
+        <f>TEXT(Automatos!D22,"##")</f>
+        <v/>
+      </c>
+      <c r="E12" s="23" t="str">
+        <f>TEXT(Automatos!E22,"##")</f>
+        <v/>
+      </c>
+      <c r="F12" s="23" t="str">
+        <f>TEXT(Automatos!F22,"##")</f>
+        <v/>
+      </c>
+      <c r="G12" s="23" t="str">
+        <f>TEXT(Automatos!G22,"##")</f>
+        <v/>
+      </c>
+      <c r="H12" s="23" t="str">
+        <f>TEXT(Automatos!H22,"##")</f>
+        <v>13</v>
+      </c>
+      <c r="I12" s="23" t="str">
+        <f>TEXT(Automatos!I22,"##")</f>
+        <v/>
+      </c>
+      <c r="J12" s="23" t="str">
+        <f>TEXT(Automatos!J22,"##")</f>
+        <v/>
+      </c>
+      <c r="K12" s="23" t="str">
+        <f>TEXT(Automatos!K22,"##")</f>
+        <v/>
+      </c>
+      <c r="L12" s="23" t="str">
+        <f>TEXT(Automatos!L22,"##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="19">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23" t="str">
+        <f>TEXT(Automatos!B23,"##")</f>
+        <v/>
+      </c>
+      <c r="C13" s="23" t="str">
+        <f>TEXT(Automatos!C23,"##")</f>
+        <v/>
+      </c>
+      <c r="D13" s="23" t="str">
+        <f>TEXT(Automatos!D23,"##")</f>
+        <v/>
+      </c>
+      <c r="E13" s="23" t="str">
+        <f>TEXT(Automatos!E23,"##")</f>
+        <v/>
+      </c>
+      <c r="F13" s="23" t="str">
+        <f>TEXT(Automatos!F23,"##")</f>
+        <v/>
+      </c>
+      <c r="G13" s="23" t="str">
+        <f>TEXT(Automatos!G23,"##")</f>
+        <v/>
+      </c>
+      <c r="H13" s="23" t="str">
+        <f>TEXT(Automatos!H23,"##")</f>
+        <v/>
+      </c>
+      <c r="I13" s="23" t="str">
+        <f>TEXT(Automatos!I23,"##")</f>
+        <v/>
+      </c>
+      <c r="J13" s="23" t="str">
+        <f>TEXT(Automatos!J23,"##")</f>
+        <v>12</v>
+      </c>
+      <c r="K13" s="23" t="str">
+        <f>TEXT(Automatos!K23,"##")</f>
+        <v/>
+      </c>
+      <c r="L13" s="23" t="str">
+        <f>TEXT(Automatos!L23,"##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="19">
+        <v>12</v>
+      </c>
+      <c r="B14" s="23" t="str">
+        <f>TEXT(Automatos!B24,"##")</f>
+        <v/>
+      </c>
+      <c r="C14" s="23" t="str">
+        <f>TEXT(Automatos!C24,"##")</f>
+        <v/>
+      </c>
+      <c r="D14" s="23" t="str">
+        <f>TEXT(Automatos!D24,"##")</f>
+        <v/>
+      </c>
+      <c r="E14" s="23" t="str">
+        <f>TEXT(Automatos!E24,"##")</f>
+        <v/>
+      </c>
+      <c r="F14" s="23" t="str">
+        <f>TEXT(Automatos!F24,"##")</f>
+        <v/>
+      </c>
+      <c r="G14" s="23" t="str">
+        <f>TEXT(Automatos!G24,"##")</f>
+        <v/>
+      </c>
+      <c r="H14" s="23" t="str">
+        <f>TEXT(Automatos!H24,"##")</f>
+        <v/>
+      </c>
+      <c r="I14" s="23" t="str">
+        <f>TEXT(Automatos!I24,"##")</f>
+        <v/>
+      </c>
+      <c r="J14" s="23" t="str">
+        <f>TEXT(Automatos!J24,"##")</f>
+        <v/>
+      </c>
+      <c r="K14" s="23" t="str">
+        <f>TEXT(Automatos!K24,"##")</f>
+        <v/>
+      </c>
+      <c r="L14" s="23" t="str">
+        <f>TEXT(Automatos!L24,"##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="19">
+        <v>13</v>
+      </c>
+      <c r="B15" s="23" t="str">
+        <f>TEXT(Automatos!B25,"##")</f>
+        <v/>
+      </c>
+      <c r="C15" s="23" t="str">
+        <f>TEXT(Automatos!C25,"##")</f>
+        <v/>
+      </c>
+      <c r="D15" s="23" t="str">
+        <f>TEXT(Automatos!D25,"##")</f>
+        <v/>
+      </c>
+      <c r="E15" s="23" t="str">
+        <f>TEXT(Automatos!E25,"##")</f>
+        <v/>
+      </c>
+      <c r="F15" s="23" t="str">
+        <f>TEXT(Automatos!F25,"##")</f>
+        <v/>
+      </c>
+      <c r="G15" s="23" t="str">
+        <f>TEXT(Automatos!G25,"##")</f>
+        <v/>
+      </c>
+      <c r="H15" s="23" t="str">
+        <f>TEXT(Automatos!H25,"##")</f>
+        <v/>
+      </c>
+      <c r="I15" s="23" t="str">
+        <f>TEXT(Automatos!I25,"##")</f>
+        <v>14</v>
+      </c>
+      <c r="J15" s="23" t="str">
+        <f>TEXT(Automatos!J25,"##")</f>
+        <v/>
+      </c>
+      <c r="K15" s="23" t="str">
+        <f>TEXT(Automatos!K25,"##")</f>
+        <v/>
+      </c>
+      <c r="L15" s="23" t="str">
+        <f>TEXT(Automatos!L25,"##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="19">
+        <v>14</v>
+      </c>
+      <c r="B16" s="23" t="str">
+        <f>TEXT(Automatos!B26,"##")</f>
+        <v/>
+      </c>
+      <c r="C16" s="23" t="str">
+        <f>TEXT(Automatos!C26,"##")</f>
+        <v/>
+      </c>
+      <c r="D16" s="23" t="str">
+        <f>TEXT(Automatos!D26,"##")</f>
+        <v/>
+      </c>
+      <c r="E16" s="23" t="str">
+        <f>TEXT(Automatos!E26,"##")</f>
+        <v/>
+      </c>
+      <c r="F16" s="23" t="str">
+        <f>TEXT(Automatos!F26,"##")</f>
+        <v/>
+      </c>
+      <c r="G16" s="23" t="str">
+        <f>TEXT(Automatos!G26,"##")</f>
+        <v/>
+      </c>
+      <c r="H16" s="23" t="str">
+        <f>TEXT(Automatos!H26,"##")</f>
+        <v/>
+      </c>
+      <c r="I16" s="23" t="str">
+        <f>TEXT(Automatos!I26,"##")</f>
+        <v/>
+      </c>
+      <c r="J16" s="23" t="str">
+        <f>TEXT(Automatos!J26,"##")</f>
+        <v/>
+      </c>
+      <c r="K16" s="23" t="str">
+        <f>TEXT(Automatos!K26,"##")</f>
+        <v>16</v>
+      </c>
+      <c r="L16" s="23" t="str">
+        <f>TEXT(Automatos!L26,"##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="19">
+        <v>15</v>
+      </c>
+      <c r="B17" s="23" t="str">
+        <f>TEXT(Automatos!B27,"##")</f>
+        <v/>
+      </c>
+      <c r="C17" s="23" t="str">
+        <f>TEXT(Automatos!C27,"##")</f>
+        <v/>
+      </c>
+      <c r="D17" s="23" t="str">
+        <f>TEXT(Automatos!D27,"##")</f>
+        <v/>
+      </c>
+      <c r="E17" s="23" t="str">
+        <f>TEXT(Automatos!E27,"##")</f>
+        <v/>
+      </c>
+      <c r="F17" s="23" t="str">
+        <f>TEXT(Automatos!F27,"##")</f>
+        <v/>
+      </c>
+      <c r="G17" s="23" t="str">
+        <f>TEXT(Automatos!G27,"##")</f>
+        <v/>
+      </c>
+      <c r="H17" s="23" t="str">
+        <f>TEXT(Automatos!H27,"##")</f>
+        <v/>
+      </c>
+      <c r="I17" s="23" t="str">
+        <f>TEXT(Automatos!I27,"##")</f>
+        <v/>
+      </c>
+      <c r="J17" s="23" t="str">
+        <f>TEXT(Automatos!J27,"##")</f>
+        <v/>
+      </c>
+      <c r="K17" s="23" t="str">
+        <f>TEXT(Automatos!K27,"##")</f>
+        <v>16</v>
+      </c>
+      <c r="L17" s="23" t="str">
+        <f>TEXT(Automatos!L27,"##")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="19">
+        <v>16</v>
+      </c>
+      <c r="B18" s="23" t="str">
+        <f>TEXT(Automatos!B28,"##")</f>
+        <v/>
+      </c>
+      <c r="C18" s="23" t="str">
+        <f>TEXT(Automatos!C28,"##")</f>
+        <v/>
+      </c>
+      <c r="D18" s="23" t="str">
+        <f>TEXT(Automatos!D28,"##")</f>
+        <v/>
+      </c>
+      <c r="E18" s="23" t="str">
+        <f>TEXT(Automatos!E28,"##")</f>
+        <v/>
+      </c>
+      <c r="F18" s="23" t="str">
+        <f>TEXT(Automatos!F28,"##")</f>
+        <v/>
+      </c>
+      <c r="G18" s="23" t="str">
+        <f>TEXT(Automatos!G28,"##")</f>
+        <v/>
+      </c>
+      <c r="H18" s="23" t="str">
+        <f>TEXT(Automatos!H28,"##")</f>
+        <v/>
+      </c>
+      <c r="I18" s="23" t="str">
+        <f>TEXT(Automatos!I28,"##")</f>
+        <v/>
+      </c>
+      <c r="J18" s="23" t="str">
+        <f>TEXT(Automatos!J28,"##")</f>
+        <v/>
+      </c>
+      <c r="K18" s="23" t="str">
+        <f>TEXT(Automatos!K28,"##")</f>
+        <v/>
+      </c>
+      <c r="L18" s="23" t="str">
+        <f>TEXT(Automatos!L28,"##")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="23" t="str">
+        <f>TEXT(Automatos!B29,"##")</f>
+        <v/>
+      </c>
+      <c r="C19" s="23" t="str">
+        <f>TEXT(Automatos!C29,"##")</f>
+        <v/>
+      </c>
+      <c r="D19" s="23" t="str">
+        <f>TEXT(Automatos!D29,"##")</f>
+        <v/>
+      </c>
+      <c r="E19" s="23" t="str">
+        <f>TEXT(Automatos!E29,"##")</f>
+        <v/>
+      </c>
+      <c r="F19" s="23" t="str">
+        <f>TEXT(Automatos!F29,"##")</f>
+        <v/>
+      </c>
+      <c r="G19" s="23" t="str">
+        <f>TEXT(Automatos!G29,"##")</f>
+        <v/>
+      </c>
+      <c r="H19" s="23" t="str">
+        <f>TEXT(Automatos!H29,"##")</f>
+        <v/>
+      </c>
+      <c r="I19" s="23" t="str">
+        <f>TEXT(Automatos!I29,"##")</f>
+        <v/>
+      </c>
+      <c r="J19" s="23" t="str">
+        <f>TEXT(Automatos!J29,"##")</f>
+        <v/>
+      </c>
+      <c r="K19" s="23" t="str">
+        <f>TEXT(Automatos!K29,"##")</f>
+        <v/>
+      </c>
+      <c r="L19" s="23" t="str">
+        <f>TEXT(Automatos!L29,"##")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -8232,193 +8547,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="9">
-        <v>0</v>
-      </c>
-      <c r="B2" s="22" t="str">
-        <f>TEXT(Automatos!B39, "##")</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="22" t="str">
-        <f>TEXT(Automatos!C39, "##")</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="22" t="str">
-        <f>TEXT(Automatos!D39, "##")</f>
-        <v/>
-      </c>
-      <c r="E2" s="22" t="str">
-        <f>TEXT(Automatos!E39, "##")</f>
-        <v/>
-      </c>
-      <c r="F2" s="22" t="str">
-        <f>TEXT(Automatos!F39, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="22" t="str">
-        <f>TEXT(Automatos!B40, "##")</f>
-        <v/>
-      </c>
-      <c r="C3" s="22" t="str">
-        <f>TEXT(Automatos!C40, "##")</f>
-        <v/>
-      </c>
-      <c r="D3" s="22" t="str">
-        <f>TEXT(Automatos!D40, "##")</f>
-        <v>2</v>
-      </c>
-      <c r="E3" s="22" t="str">
-        <f>TEXT(Automatos!E40, "##")</f>
-        <v/>
-      </c>
-      <c r="F3" s="22" t="str">
-        <f>TEXT(Automatos!F40, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22" t="str">
-        <f>TEXT(Automatos!B41, "##")</f>
-        <v/>
-      </c>
-      <c r="C4" s="22" t="str">
-        <f>TEXT(Automatos!C41, "##")</f>
-        <v/>
-      </c>
-      <c r="D4" s="22" t="str">
-        <f>TEXT(Automatos!D41, "##")</f>
-        <v/>
-      </c>
-      <c r="E4" s="22" t="str">
-        <f>TEXT(Automatos!E41, "##")</f>
-        <v>3</v>
-      </c>
-      <c r="F4" s="22" t="str">
-        <f>TEXT(Automatos!F41, "##")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="22" t="str">
-        <f>TEXT(Automatos!B42, "##")</f>
-        <v/>
-      </c>
-      <c r="C5" s="22" t="str">
-        <f>TEXT(Automatos!C42, "##")</f>
-        <v/>
-      </c>
-      <c r="D5" s="22" t="str">
-        <f>TEXT(Automatos!D42, "##")</f>
-        <v/>
-      </c>
-      <c r="E5" s="22" t="str">
-        <f>TEXT(Automatos!E42, "##")</f>
-        <v/>
-      </c>
-      <c r="F5" s="22" t="str">
-        <f>TEXT(Automatos!F42, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="22" t="str">
-        <f>TEXT(Automatos!B43, "##")</f>
-        <v/>
-      </c>
-      <c r="C6" s="22" t="str">
-        <f>TEXT(Automatos!C43, "##")</f>
-        <v/>
-      </c>
-      <c r="D6" s="22" t="str">
-        <f>TEXT(Automatos!D43, "##")</f>
-        <v/>
-      </c>
-      <c r="E6" s="22" t="str">
-        <f>TEXT(Automatos!E43, "##")</f>
-        <v/>
-      </c>
-      <c r="F6" s="22" t="str">
-        <f>TEXT(Automatos!F43, "##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="22" t="str">
-        <f>TEXT(Automatos!B44, "##")</f>
-        <v/>
-      </c>
-      <c r="C7" s="22" t="str">
-        <f>TEXT(Automatos!C44, "##")</f>
-        <v/>
-      </c>
-      <c r="D7" s="22" t="str">
-        <f>TEXT(Automatos!D44, "##")</f>
-        <v/>
-      </c>
-      <c r="E7" s="22" t="str">
-        <f>TEXT(Automatos!E44, "##")</f>
-        <v/>
-      </c>
-      <c r="F7" s="22" t="str">
-        <f>TEXT(Automatos!F44, "##")</f>
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/config/input.xlsx
+++ b/config/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15040" yWindow="0" windowWidth="12940" windowHeight="15620" tabRatio="884" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24640" windowHeight="15620" tabRatio="884" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PalavrasReservadas" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="5.Indiretas" sheetId="18" r:id="rId18"/>
     <sheet name="6.Indiretas" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="98">
   <si>
     <t>if</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>2,6</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1592,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2997,7 +2999,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3011,7 +3012,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M8"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3105,7 +3106,7 @@
       </c>
       <c r="M2" s="22" t="str">
         <f>TEXT(Automatos!M72, "##")</f>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3183,19 +3184,19 @@
       </c>
       <c r="F4" s="22" t="str">
         <f>TEXT(Automatos!F74, "##")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G4" s="22" t="str">
         <f>TEXT(Automatos!G74, "##")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="H4" s="22" t="str">
         <f>TEXT(Automatos!H74, "##")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I4" s="22" t="str">
         <f>TEXT(Automatos!I74, "##")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="J4" s="22" t="str">
         <f>TEXT(Automatos!J74, "##")</f>
@@ -3203,11 +3204,11 @@
       </c>
       <c r="K4" s="22" t="str">
         <f>TEXT(Automatos!K74, "##")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4" s="22" t="str">
         <f>TEXT(Automatos!L74, "##")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" s="22" t="str">
         <f>TEXT(Automatos!M74, "##")</f>
@@ -3236,19 +3237,19 @@
       </c>
       <c r="F5" s="22" t="str">
         <f>TEXT(Automatos!F75, "##")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="G5" s="22" t="str">
         <f>TEXT(Automatos!G75, "##")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="H5" s="22" t="str">
         <f>TEXT(Automatos!H75, "##")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I5" s="22" t="str">
         <f>TEXT(Automatos!I75, "##")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="J5" s="22" t="str">
         <f>TEXT(Automatos!J75, "##")</f>
@@ -3256,11 +3257,11 @@
       </c>
       <c r="K5" s="22" t="str">
         <f>TEXT(Automatos!K75, "##")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="L5" s="22" t="str">
         <f>TEXT(Automatos!L75, "##")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="M5" s="22" t="str">
         <f>TEXT(Automatos!M75, "##")</f>
@@ -3289,7 +3290,7 @@
       </c>
       <c r="F6" s="22" t="str">
         <f>TEXT(Automatos!F76, "##")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="G6" s="22" t="str">
         <f>TEXT(Automatos!G76, "##")</f>
@@ -3395,7 +3396,7 @@
       </c>
       <c r="F8" s="22" t="str">
         <f>TEXT(Automatos!F78, "##")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="G8" s="22" t="str">
         <f>TEXT(Automatos!G78, "##")</f>
@@ -3415,11 +3416,11 @@
       </c>
       <c r="K8" s="22" t="str">
         <f>TEXT(Automatos!K78, "##")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="L8" s="22" t="str">
         <f>TEXT(Automatos!L78, "##")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="M8" s="22" t="str">
         <f>TEXT(Automatos!M78, "##")</f>
@@ -3428,7 +3429,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3662,7 +3662,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3976,7 +3975,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4000,7 +3999,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4011,29 +4010,29 @@
         <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4044,7 +4043,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4503,8 +4502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5909,9 +5908,6 @@
       <c r="J72" s="8">
         <v>1</v>
       </c>
-      <c r="M72" s="8">
-        <v>2</v>
-      </c>
       <c r="S72" s="16"/>
       <c r="T72" s="16"/>
       <c r="U72" s="16"/>
@@ -5931,11 +5927,23 @@
       <c r="A74" s="9">
         <v>2</v>
       </c>
+      <c r="F74" s="8">
+        <v>3</v>
+      </c>
+      <c r="G74" s="8">
+        <v>3</v>
+      </c>
+      <c r="H74" s="8">
+        <v>4</v>
+      </c>
+      <c r="I74" s="8">
+        <v>4</v>
+      </c>
       <c r="K74" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L74" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S74" s="16"/>
       <c r="T74" s="16"/>
@@ -5945,24 +5953,6 @@
       <c r="A75" s="9">
         <v>3</v>
       </c>
-      <c r="F75" s="8">
-        <v>4</v>
-      </c>
-      <c r="G75" s="8">
-        <v>4</v>
-      </c>
-      <c r="H75" s="8">
-        <v>5</v>
-      </c>
-      <c r="I75" s="8">
-        <v>5</v>
-      </c>
-      <c r="K75" s="8">
-        <v>6</v>
-      </c>
-      <c r="L75" s="8">
-        <v>6</v>
-      </c>
       <c r="S75" s="16"/>
       <c r="T75" s="16"/>
       <c r="U75" s="16"/>
@@ -5971,6 +5961,9 @@
       <c r="A76" s="9">
         <v>4</v>
       </c>
+      <c r="F76" s="8">
+        <v>3</v>
+      </c>
       <c r="S76" s="16"/>
       <c r="T76" s="16"/>
       <c r="U76" s="16"/>
@@ -5987,8 +5980,11 @@
       <c r="A78" s="9">
         <v>6</v>
       </c>
-      <c r="F78" s="8">
-        <v>4</v>
+      <c r="K78" s="8">
+        <v>5</v>
+      </c>
+      <c r="L78" s="8">
+        <v>5</v>
       </c>
       <c r="S78" s="16"/>
       <c r="T78" s="16"/>
@@ -6136,7 +6132,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6663,7 +6658,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7148,7 +7142,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7220,7 +7214,7 @@
         <v>87</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7236,7 +7230,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8175,7 +8168,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8540,7 +8532,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/config/input.xlsx
+++ b/config/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24640" windowHeight="15620" tabRatio="884" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="6080" yWindow="0" windowWidth="18580" windowHeight="15620" tabRatio="884" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="PalavrasReservadas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="98">
   <si>
     <t>if</t>
   </si>
@@ -324,13 +324,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>8,21</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>2,6</t>
+  </si>
+  <si>
+    <t>10,21</t>
   </si>
 </sst>
 </file>
@@ -398,8 +398,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="219">
+  <cellStyleXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -678,7 +710,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="219">
+  <cellStyles count="251">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -788,6 +820,22 @@
     <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -897,6 +945,22 @@
     <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1417,7 +1481,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1445,23 +1509,23 @@
         <v>0</v>
       </c>
       <c r="B2" s="22" t="str">
-        <f>TEXT(Automatos!B39, "##")</f>
+        <f>IF(Automatos!B40="","",IF(Automatos!B40=0,"0",TEXT(Automatos!B40,"##")))</f>
         <v>1</v>
       </c>
       <c r="C2" s="22" t="str">
-        <f>TEXT(Automatos!C39, "##")</f>
+        <f>IF(Automatos!C40="","",IF(Automatos!C40=0,"0",TEXT(Automatos!C40,"##")))</f>
         <v>1</v>
       </c>
       <c r="D2" s="22" t="str">
-        <f>TEXT(Automatos!D39, "##")</f>
+        <f>IF(Automatos!D40="","",IF(Automatos!D40=0,"0",TEXT(Automatos!D40,"##")))</f>
         <v/>
       </c>
       <c r="E2" s="22" t="str">
-        <f>TEXT(Automatos!E39, "##")</f>
+        <f>IF(Automatos!E40="","",IF(Automatos!E40=0,"0",TEXT(Automatos!E40,"##")))</f>
         <v/>
       </c>
       <c r="F2" s="22" t="str">
-        <f>TEXT(Automatos!F39, "##")</f>
+        <f>IF(Automatos!F40="","",IF(Automatos!F40=0,"0",TEXT(Automatos!F40,"##")))</f>
         <v/>
       </c>
     </row>
@@ -1470,23 +1534,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="str">
-        <f>TEXT(Automatos!B40, "##")</f>
+        <f>IF(Automatos!B41="","",IF(Automatos!B41=0,"0",TEXT(Automatos!B41,"##")))</f>
         <v/>
       </c>
       <c r="C3" s="22" t="str">
-        <f>TEXT(Automatos!C40, "##")</f>
+        <f>IF(Automatos!C41="","",IF(Automatos!C41=0,"0",TEXT(Automatos!C41,"##")))</f>
         <v/>
       </c>
       <c r="D3" s="22" t="str">
-        <f>TEXT(Automatos!D40, "##")</f>
+        <f>IF(Automatos!D41="","",IF(Automatos!D41=0,"0",TEXT(Automatos!D41,"##")))</f>
         <v>2</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f>TEXT(Automatos!E40, "##")</f>
+        <f>IF(Automatos!E41="","",IF(Automatos!E41=0,"0",TEXT(Automatos!E41,"##")))</f>
         <v/>
       </c>
       <c r="F3" s="22" t="str">
-        <f>TEXT(Automatos!F40, "##")</f>
+        <f>IF(Automatos!F41="","",IF(Automatos!F41=0,"0",TEXT(Automatos!F41,"##")))</f>
         <v/>
       </c>
     </row>
@@ -1495,23 +1559,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="str">
-        <f>TEXT(Automatos!B41, "##")</f>
+        <f>IF(Automatos!B42="","",IF(Automatos!B42=0,"0",TEXT(Automatos!B42,"##")))</f>
         <v/>
       </c>
       <c r="C4" s="22" t="str">
-        <f>TEXT(Automatos!C41, "##")</f>
+        <f>IF(Automatos!C42="","",IF(Automatos!C42=0,"0",TEXT(Automatos!C42,"##")))</f>
         <v/>
       </c>
       <c r="D4" s="22" t="str">
-        <f>TEXT(Automatos!D41, "##")</f>
+        <f>IF(Automatos!D42="","",IF(Automatos!D42=0,"0",TEXT(Automatos!D42,"##")))</f>
         <v/>
       </c>
       <c r="E4" s="22" t="str">
-        <f>TEXT(Automatos!E41, "##")</f>
+        <f>IF(Automatos!E42="","",IF(Automatos!E42=0,"0",TEXT(Automatos!E42,"##")))</f>
         <v>3</v>
       </c>
       <c r="F4" s="22" t="str">
-        <f>TEXT(Automatos!F41, "##")</f>
+        <f>IF(Automatos!F42="","",IF(Automatos!F42=0,"0",TEXT(Automatos!F42,"##")))</f>
         <v>4</v>
       </c>
     </row>
@@ -1520,23 +1584,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="22" t="str">
-        <f>TEXT(Automatos!B42, "##")</f>
+        <f>IF(Automatos!B43="","",IF(Automatos!B43=0,"0",TEXT(Automatos!B43,"##")))</f>
         <v/>
       </c>
       <c r="C5" s="22" t="str">
-        <f>TEXT(Automatos!C42, "##")</f>
+        <f>IF(Automatos!C43="","",IF(Automatos!C43=0,"0",TEXT(Automatos!C43,"##")))</f>
         <v/>
       </c>
       <c r="D5" s="22" t="str">
-        <f>TEXT(Automatos!D42, "##")</f>
+        <f>IF(Automatos!D43="","",IF(Automatos!D43=0,"0",TEXT(Automatos!D43,"##")))</f>
         <v/>
       </c>
       <c r="E5" s="22" t="str">
-        <f>TEXT(Automatos!E42, "##")</f>
+        <f>IF(Automatos!E43="","",IF(Automatos!E43=0,"0",TEXT(Automatos!E43,"##")))</f>
         <v/>
       </c>
       <c r="F5" s="22" t="str">
-        <f>TEXT(Automatos!F42, "##")</f>
+        <f>IF(Automatos!F43="","",IF(Automatos!F43=0,"0",TEXT(Automatos!F43,"##")))</f>
         <v/>
       </c>
     </row>
@@ -1545,23 +1609,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="22" t="str">
-        <f>TEXT(Automatos!B43, "##")</f>
+        <f>IF(Automatos!B44="","",IF(Automatos!B44=0,"0",TEXT(Automatos!B44,"##")))</f>
         <v/>
       </c>
       <c r="C6" s="22" t="str">
-        <f>TEXT(Automatos!C43, "##")</f>
+        <f>IF(Automatos!C44="","",IF(Automatos!C44=0,"0",TEXT(Automatos!C44,"##")))</f>
         <v/>
       </c>
       <c r="D6" s="22" t="str">
-        <f>TEXT(Automatos!D43, "##")</f>
+        <f>IF(Automatos!D44="","",IF(Automatos!D44=0,"0",TEXT(Automatos!D44,"##")))</f>
         <v/>
       </c>
       <c r="E6" s="22" t="str">
-        <f>TEXT(Automatos!E43, "##")</f>
+        <f>IF(Automatos!E44="","",IF(Automatos!E44=0,"0",TEXT(Automatos!E44,"##")))</f>
         <v/>
       </c>
       <c r="F6" s="22" t="str">
-        <f>TEXT(Automatos!F43, "##")</f>
+        <f>IF(Automatos!F44="","",IF(Automatos!F44=0,"0",TEXT(Automatos!F44,"##")))</f>
         <v/>
       </c>
     </row>
@@ -1570,28 +1634,29 @@
         <v>5</v>
       </c>
       <c r="B7" s="22" t="str">
-        <f>TEXT(Automatos!B44, "##")</f>
+        <f>IF(Automatos!B45="","",IF(Automatos!B45=0,"0",TEXT(Automatos!B45,"##")))</f>
         <v/>
       </c>
       <c r="C7" s="22" t="str">
-        <f>TEXT(Automatos!C44, "##")</f>
+        <f>IF(Automatos!C45="","",IF(Automatos!C45=0,"0",TEXT(Automatos!C45,"##")))</f>
         <v/>
       </c>
       <c r="D7" s="22" t="str">
-        <f>TEXT(Automatos!D44, "##")</f>
+        <f>IF(Automatos!D45="","",IF(Automatos!D45=0,"0",TEXT(Automatos!D45,"##")))</f>
         <v/>
       </c>
       <c r="E7" s="22" t="str">
-        <f>TEXT(Automatos!E44, "##")</f>
+        <f>IF(Automatos!E45="","",IF(Automatos!E45=0,"0",TEXT(Automatos!E45,"##")))</f>
         <v/>
       </c>
       <c r="F7" s="22" t="str">
-        <f>TEXT(Automatos!F44, "##")</f>
+        <f>IF(Automatos!F45="","",IF(Automatos!F45=0,"0",TEXT(Automatos!F45,"##")))</f>
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1605,7 +1670,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1660,59 +1725,59 @@
         <v>0</v>
       </c>
       <c r="B2" s="22" t="str">
-        <f>TEXT(Automatos!B47, "##")</f>
+        <f>IF(Automatos!B48="","",IF(Automatos!B48=0,"0",TEXT(Automatos!B48,"##")))</f>
+        <v>3</v>
+      </c>
+      <c r="C2" s="22" t="str">
+        <f>IF(Automatos!C48="","",IF(Automatos!C48=0,"0",TEXT(Automatos!C48,"##")))</f>
+        <v/>
+      </c>
+      <c r="D2" s="22" t="str">
+        <f>IF(Automatos!D48="","",IF(Automatos!D48=0,"0",TEXT(Automatos!D48,"##")))</f>
+        <v/>
+      </c>
+      <c r="E2" s="22" t="str">
+        <f>IF(Automatos!E48="","",IF(Automatos!E48=0,"0",TEXT(Automatos!E48,"##")))</f>
+        <v>4</v>
+      </c>
+      <c r="F2" s="22" t="str">
+        <f>IF(Automatos!F48="","",IF(Automatos!F48=0,"0",TEXT(Automatos!F48,"##")))</f>
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="str">
-        <f>TEXT(Automatos!C47, "##")</f>
-        <v/>
-      </c>
-      <c r="D2" s="22" t="str">
-        <f>TEXT(Automatos!D47, "##")</f>
-        <v/>
-      </c>
-      <c r="E2" s="22" t="str">
-        <f>TEXT(Automatos!E47, "##")</f>
-        <v>3</v>
-      </c>
-      <c r="F2" s="22" t="str">
-        <f>TEXT(Automatos!F47, "##")</f>
-        <v>4</v>
-      </c>
       <c r="G2" s="22" t="str">
-        <f>TEXT(Automatos!G47, "##")</f>
-        <v>4</v>
+        <f>IF(Automatos!G48="","",IF(Automatos!G48=0,"0",TEXT(Automatos!G48,"##")))</f>
+        <v>2</v>
       </c>
       <c r="H2" s="22" t="str">
-        <f>TEXT(Automatos!H47, "##")</f>
+        <f>IF(Automatos!H48="","",IF(Automatos!H48=0,"0",TEXT(Automatos!H48,"##")))</f>
         <v/>
       </c>
       <c r="I2" s="22" t="str">
-        <f>TEXT(Automatos!I47, "##")</f>
+        <f>IF(Automatos!I48="","",IF(Automatos!I48=0,"0",TEXT(Automatos!I48,"##")))</f>
         <v/>
       </c>
       <c r="J2" s="22" t="str">
-        <f>TEXT(Automatos!J47, "##")</f>
+        <f>IF(Automatos!J48="","",IF(Automatos!J48=0,"0",TEXT(Automatos!J48,"##")))</f>
         <v/>
       </c>
       <c r="K2" s="22" t="str">
-        <f>TEXT(Automatos!K47, "##")</f>
+        <f>IF(Automatos!K48="","",IF(Automatos!K48=0,"0",TEXT(Automatos!K48,"##")))</f>
         <v/>
       </c>
       <c r="L2" s="22" t="str">
-        <f>TEXT(Automatos!L47, "##")</f>
+        <f>IF(Automatos!L48="","",IF(Automatos!L48=0,"0",TEXT(Automatos!L48,"##")))</f>
         <v/>
       </c>
       <c r="M2" s="22" t="str">
-        <f>TEXT(Automatos!M47, "##")</f>
+        <f>IF(Automatos!M48="","",IF(Automatos!M48=0,"0",TEXT(Automatos!M48,"##")))</f>
         <v/>
       </c>
       <c r="N2" s="22" t="str">
-        <f>TEXT(Automatos!N47, "##")</f>
+        <f>IF(Automatos!N48="","",IF(Automatos!N48=0,"0",TEXT(Automatos!N48,"##")))</f>
         <v/>
       </c>
       <c r="O2" s="22" t="str">
-        <f>TEXT(Automatos!O47, "##")</f>
+        <f>IF(Automatos!O48="","",IF(Automatos!O48=0,"0",TEXT(Automatos!O48,"##")))</f>
         <v>1</v>
       </c>
     </row>
@@ -1721,59 +1786,59 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="str">
-        <f>TEXT(Automatos!B48, "##")</f>
+        <f>IF(Automatos!B49="","",IF(Automatos!B49=0,"0",TEXT(Automatos!B49,"##")))</f>
         <v/>
       </c>
       <c r="C3" s="22" t="str">
-        <f>TEXT(Automatos!C48, "##")</f>
+        <f>IF(Automatos!C49="","",IF(Automatos!C49=0,"0",TEXT(Automatos!C49,"##")))</f>
         <v/>
       </c>
       <c r="D3" s="22" t="str">
-        <f>TEXT(Automatos!D48, "##")</f>
+        <f>IF(Automatos!D49="","",IF(Automatos!D49=0,"0",TEXT(Automatos!D49,"##")))</f>
         <v/>
       </c>
       <c r="E3" s="22" t="str">
-        <f>TEXT(Automatos!E48, "##")</f>
+        <f>IF(Automatos!E49="","",IF(Automatos!E49=0,"0",TEXT(Automatos!E49,"##")))</f>
         <v/>
       </c>
       <c r="F3" s="22" t="str">
-        <f>TEXT(Automatos!F48, "##")</f>
+        <f>IF(Automatos!F49="","",IF(Automatos!F49=0,"0",TEXT(Automatos!F49,"##")))</f>
         <v/>
       </c>
       <c r="G3" s="22" t="str">
-        <f>TEXT(Automatos!G48, "##")</f>
+        <f>IF(Automatos!G49="","",IF(Automatos!G49=0,"0",TEXT(Automatos!G49,"##")))</f>
         <v/>
       </c>
       <c r="H3" s="22" t="str">
-        <f>TEXT(Automatos!H48, "##")</f>
+        <f>IF(Automatos!H49="","",IF(Automatos!H49=0,"0",TEXT(Automatos!H49,"##")))</f>
         <v>5</v>
       </c>
       <c r="I3" s="22" t="str">
-        <f>TEXT(Automatos!I48, "##")</f>
+        <f>IF(Automatos!I49="","",IF(Automatos!I49=0,"0",TEXT(Automatos!I49,"##")))</f>
         <v/>
       </c>
       <c r="J3" s="22" t="str">
-        <f>TEXT(Automatos!J48, "##")</f>
+        <f>IF(Automatos!J49="","",IF(Automatos!J49=0,"0",TEXT(Automatos!J49,"##")))</f>
         <v/>
       </c>
       <c r="K3" s="22" t="str">
-        <f>TEXT(Automatos!K48, "##")</f>
+        <f>IF(Automatos!K49="","",IF(Automatos!K49=0,"0",TEXT(Automatos!K49,"##")))</f>
         <v/>
       </c>
       <c r="L3" s="22" t="str">
-        <f>TEXT(Automatos!L48, "##")</f>
+        <f>IF(Automatos!L49="","",IF(Automatos!L49=0,"0",TEXT(Automatos!L49,"##")))</f>
         <v/>
       </c>
       <c r="M3" s="22" t="str">
-        <f>TEXT(Automatos!M48, "##")</f>
+        <f>IF(Automatos!M49="","",IF(Automatos!M49=0,"0",TEXT(Automatos!M49,"##")))</f>
         <v/>
       </c>
       <c r="N3" s="22" t="str">
-        <f>TEXT(Automatos!N48, "##")</f>
+        <f>IF(Automatos!N49="","",IF(Automatos!N49=0,"0",TEXT(Automatos!N49,"##")))</f>
         <v/>
       </c>
       <c r="O3" s="22" t="str">
-        <f>TEXT(Automatos!O48, "##")</f>
+        <f>IF(Automatos!O49="","",IF(Automatos!O49=0,"0",TEXT(Automatos!O49,"##")))</f>
         <v/>
       </c>
     </row>
@@ -1782,60 +1847,60 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="str">
-        <f>TEXT(Automatos!B49, "##")</f>
+        <f>IF(Automatos!B50="","",IF(Automatos!B50=0,"0",TEXT(Automatos!B50,"##")))</f>
         <v/>
       </c>
       <c r="C4" s="22" t="str">
-        <f>TEXT(Automatos!C49, "##")</f>
+        <f>IF(Automatos!C50="","",IF(Automatos!C50=0,"0",TEXT(Automatos!C50,"##")))</f>
         <v/>
       </c>
       <c r="D4" s="22" t="str">
-        <f>TEXT(Automatos!D49, "##")</f>
+        <f>IF(Automatos!D50="","",IF(Automatos!D50=0,"0",TEXT(Automatos!D50,"##")))</f>
         <v/>
       </c>
       <c r="E4" s="22" t="str">
-        <f>TEXT(Automatos!E49, "##")</f>
+        <f>IF(Automatos!E50="","",IF(Automatos!E50=0,"0",TEXT(Automatos!E50,"##")))</f>
         <v/>
       </c>
       <c r="F4" s="22" t="str">
-        <f>TEXT(Automatos!F49, "##")</f>
+        <f>IF(Automatos!F50="","",IF(Automatos!F50=0,"0",TEXT(Automatos!F50,"##")))</f>
         <v/>
       </c>
       <c r="G4" s="22" t="str">
-        <f>TEXT(Automatos!G49, "##")</f>
+        <f>IF(Automatos!G50="","",IF(Automatos!G50=0,"0",TEXT(Automatos!G50,"##")))</f>
         <v/>
       </c>
       <c r="H4" s="22" t="str">
-        <f>TEXT(Automatos!H49, "##")</f>
+        <f>IF(Automatos!H50="","",IF(Automatos!H50=0,"0",TEXT(Automatos!H50,"##")))</f>
         <v/>
       </c>
       <c r="I4" s="22" t="str">
-        <f>TEXT(Automatos!I49, "##")</f>
-        <v>15</v>
+        <f>IF(Automatos!I50="","",IF(Automatos!I50=0,"0",TEXT(Automatos!I50,"##")))</f>
+        <v/>
       </c>
       <c r="J4" s="22" t="str">
-        <f>TEXT(Automatos!J49, "##")</f>
+        <f>IF(Automatos!J50="","",IF(Automatos!J50=0,"0",TEXT(Automatos!J50,"##")))</f>
         <v/>
       </c>
       <c r="K4" s="22" t="str">
-        <f>TEXT(Automatos!K49, "##")</f>
+        <f>IF(Automatos!K50="","",IF(Automatos!K50=0,"0",TEXT(Automatos!K50,"##")))</f>
         <v/>
       </c>
       <c r="L4" s="22" t="str">
-        <f>TEXT(Automatos!L49, "##")</f>
+        <f>IF(Automatos!L50="","",IF(Automatos!L50=0,"0",TEXT(Automatos!L50,"##")))</f>
         <v/>
       </c>
       <c r="M4" s="22" t="str">
-        <f>TEXT(Automatos!M49, "##")</f>
+        <f>IF(Automatos!M50="","",IF(Automatos!M50=0,"0",TEXT(Automatos!M50,"##")))</f>
         <v/>
       </c>
       <c r="N4" s="22" t="str">
-        <f>TEXT(Automatos!N49, "##")</f>
+        <f>IF(Automatos!N50="","",IF(Automatos!N50=0,"0",TEXT(Automatos!N50,"##")))</f>
         <v/>
       </c>
       <c r="O4" s="22" t="str">
-        <f>TEXT(Automatos!O49, "##")</f>
-        <v/>
+        <f>IF(Automatos!O50="","",IF(Automatos!O50=0,"0",TEXT(Automatos!O50,"##")))</f>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1843,59 +1908,59 @@
         <v>3</v>
       </c>
       <c r="B5" s="22" t="str">
-        <f>TEXT(Automatos!B50, "##")</f>
+        <f>IF(Automatos!B51="","",IF(Automatos!B51=0,"0",TEXT(Automatos!B51,"##")))</f>
         <v/>
       </c>
       <c r="C5" s="22" t="str">
-        <f>TEXT(Automatos!C50, "##")</f>
+        <f>IF(Automatos!C51="","",IF(Automatos!C51=0,"0",TEXT(Automatos!C51,"##")))</f>
         <v/>
       </c>
       <c r="D5" s="22" t="str">
-        <f>TEXT(Automatos!D50, "##")</f>
+        <f>IF(Automatos!D51="","",IF(Automatos!D51=0,"0",TEXT(Automatos!D51,"##")))</f>
         <v/>
       </c>
       <c r="E5" s="22" t="str">
-        <f>TEXT(Automatos!E50, "##")</f>
+        <f>IF(Automatos!E51="","",IF(Automatos!E51=0,"0",TEXT(Automatos!E51,"##")))</f>
         <v/>
       </c>
       <c r="F5" s="22" t="str">
-        <f>TEXT(Automatos!F50, "##")</f>
+        <f>IF(Automatos!F51="","",IF(Automatos!F51=0,"0",TEXT(Automatos!F51,"##")))</f>
         <v/>
       </c>
       <c r="G5" s="22" t="str">
-        <f>TEXT(Automatos!G50, "##")</f>
+        <f>IF(Automatos!G51="","",IF(Automatos!G51=0,"0",TEXT(Automatos!G51,"##")))</f>
         <v/>
       </c>
       <c r="H5" s="22" t="str">
-        <f>TEXT(Automatos!H50, "##")</f>
+        <f>IF(Automatos!H51="","",IF(Automatos!H51=0,"0",TEXT(Automatos!H51,"##")))</f>
         <v/>
       </c>
       <c r="I5" s="22" t="str">
-        <f>TEXT(Automatos!I50, "##")</f>
-        <v>11</v>
+        <f>IF(Automatos!I51="","",IF(Automatos!I51=0,"0",TEXT(Automatos!I51,"##")))</f>
+        <v>16</v>
       </c>
       <c r="J5" s="22" t="str">
-        <f>TEXT(Automatos!J50, "##")</f>
+        <f>IF(Automatos!J51="","",IF(Automatos!J51=0,"0",TEXT(Automatos!J51,"##")))</f>
         <v/>
       </c>
       <c r="K5" s="22" t="str">
-        <f>TEXT(Automatos!K50, "##")</f>
+        <f>IF(Automatos!K51="","",IF(Automatos!K51=0,"0",TEXT(Automatos!K51,"##")))</f>
         <v/>
       </c>
       <c r="L5" s="22" t="str">
-        <f>TEXT(Automatos!L50, "##")</f>
+        <f>IF(Automatos!L51="","",IF(Automatos!L51=0,"0",TEXT(Automatos!L51,"##")))</f>
         <v/>
       </c>
       <c r="M5" s="22" t="str">
-        <f>TEXT(Automatos!M50, "##")</f>
+        <f>IF(Automatos!M51="","",IF(Automatos!M51=0,"0",TEXT(Automatos!M51,"##")))</f>
         <v/>
       </c>
       <c r="N5" s="22" t="str">
-        <f>TEXT(Automatos!N50, "##")</f>
+        <f>IF(Automatos!N51="","",IF(Automatos!N51=0,"0",TEXT(Automatos!N51,"##")))</f>
         <v/>
       </c>
       <c r="O5" s="22" t="str">
-        <f>TEXT(Automatos!O50, "##")</f>
+        <f>IF(Automatos!O51="","",IF(Automatos!O51=0,"0",TEXT(Automatos!O51,"##")))</f>
         <v/>
       </c>
     </row>
@@ -1904,60 +1969,60 @@
         <v>4</v>
       </c>
       <c r="B6" s="22" t="str">
-        <f>TEXT(Automatos!B51, "##")</f>
+        <f>IF(Automatos!B52="","",IF(Automatos!B52=0,"0",TEXT(Automatos!B52,"##")))</f>
         <v/>
       </c>
       <c r="C6" s="22" t="str">
-        <f>TEXT(Automatos!C51, "##")</f>
+        <f>IF(Automatos!C52="","",IF(Automatos!C52=0,"0",TEXT(Automatos!C52,"##")))</f>
         <v/>
       </c>
       <c r="D6" s="22" t="str">
-        <f>TEXT(Automatos!D51, "##")</f>
+        <f>IF(Automatos!D52="","",IF(Automatos!D52=0,"0",TEXT(Automatos!D52,"##")))</f>
         <v/>
       </c>
       <c r="E6" s="22" t="str">
-        <f>TEXT(Automatos!E51, "##")</f>
+        <f>IF(Automatos!E52="","",IF(Automatos!E52=0,"0",TEXT(Automatos!E52,"##")))</f>
         <v/>
       </c>
       <c r="F6" s="22" t="str">
-        <f>TEXT(Automatos!F51, "##")</f>
+        <f>IF(Automatos!F52="","",IF(Automatos!F52=0,"0",TEXT(Automatos!F52,"##")))</f>
         <v/>
       </c>
       <c r="G6" s="22" t="str">
-        <f>TEXT(Automatos!G51, "##")</f>
+        <f>IF(Automatos!G52="","",IF(Automatos!G52=0,"0",TEXT(Automatos!G52,"##")))</f>
         <v/>
       </c>
       <c r="H6" s="22" t="str">
-        <f>TEXT(Automatos!H51, "##")</f>
+        <f>IF(Automatos!H52="","",IF(Automatos!H52=0,"0",TEXT(Automatos!H52,"##")))</f>
         <v/>
       </c>
       <c r="I6" s="22" t="str">
-        <f>TEXT(Automatos!I51, "##")</f>
-        <v/>
+        <f>IF(Automatos!I52="","",IF(Automatos!I52=0,"0",TEXT(Automatos!I52,"##")))</f>
+        <v>6</v>
       </c>
       <c r="J6" s="22" t="str">
-        <f>TEXT(Automatos!J51, "##")</f>
+        <f>IF(Automatos!J52="","",IF(Automatos!J52=0,"0",TEXT(Automatos!J52,"##")))</f>
         <v/>
       </c>
       <c r="K6" s="22" t="str">
-        <f>TEXT(Automatos!K51, "##")</f>
+        <f>IF(Automatos!K52="","",IF(Automatos!K52=0,"0",TEXT(Automatos!K52,"##")))</f>
         <v/>
       </c>
       <c r="L6" s="22" t="str">
-        <f>TEXT(Automatos!L51, "##")</f>
+        <f>IF(Automatos!L52="","",IF(Automatos!L52=0,"0",TEXT(Automatos!L52,"##")))</f>
         <v/>
       </c>
       <c r="M6" s="22" t="str">
-        <f>TEXT(Automatos!M51, "##")</f>
+        <f>IF(Automatos!M52="","",IF(Automatos!M52=0,"0",TEXT(Automatos!M52,"##")))</f>
         <v/>
       </c>
       <c r="N6" s="22" t="str">
-        <f>TEXT(Automatos!N51, "##")</f>
+        <f>IF(Automatos!N52="","",IF(Automatos!N52=0,"0",TEXT(Automatos!N52,"##")))</f>
         <v/>
       </c>
       <c r="O6" s="22" t="str">
-        <f>TEXT(Automatos!O51, "##")</f>
-        <v>6</v>
+        <f>IF(Automatos!O52="","",IF(Automatos!O52=0,"0",TEXT(Automatos!O52,"##")))</f>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1965,60 +2030,60 @@
         <v>5</v>
       </c>
       <c r="B7" s="22" t="str">
-        <f>TEXT(Automatos!B52, "##")</f>
+        <f>IF(Automatos!B53="","",IF(Automatos!B53=0,"0",TEXT(Automatos!B53,"##")))</f>
         <v/>
       </c>
       <c r="C7" s="22" t="str">
-        <f>TEXT(Automatos!C52, "##")</f>
+        <f>IF(Automatos!C53="","",IF(Automatos!C53=0,"0",TEXT(Automatos!C53,"##")))</f>
         <v/>
       </c>
       <c r="D7" s="22" t="str">
-        <f>TEXT(Automatos!D52, "##")</f>
+        <f>IF(Automatos!D53="","",IF(Automatos!D53=0,"0",TEXT(Automatos!D53,"##")))</f>
         <v/>
       </c>
       <c r="E7" s="22" t="str">
-        <f>TEXT(Automatos!E52, "##")</f>
+        <f>IF(Automatos!E53="","",IF(Automatos!E53=0,"0",TEXT(Automatos!E53,"##")))</f>
         <v/>
       </c>
       <c r="F7" s="22" t="str">
-        <f>TEXT(Automatos!F52, "##")</f>
+        <f>IF(Automatos!F53="","",IF(Automatos!F53=0,"0",TEXT(Automatos!F53,"##")))</f>
         <v/>
       </c>
       <c r="G7" s="22" t="str">
-        <f>TEXT(Automatos!G52, "##")</f>
+        <f>IF(Automatos!G53="","",IF(Automatos!G53=0,"0",TEXT(Automatos!G53,"##")))</f>
         <v/>
       </c>
       <c r="H7" s="22" t="str">
-        <f>TEXT(Automatos!H52, "##")</f>
+        <f>IF(Automatos!H53="","",IF(Automatos!H53=0,"0",TEXT(Automatos!H53,"##")))</f>
         <v/>
       </c>
       <c r="I7" s="22" t="str">
-        <f>TEXT(Automatos!I52, "##")</f>
+        <f>IF(Automatos!I53="","",IF(Automatos!I53=0,"0",TEXT(Automatos!I53,"##")))</f>
         <v/>
       </c>
       <c r="J7" s="22" t="str">
-        <f>TEXT(Automatos!J52, "##")</f>
+        <f>IF(Automatos!J53="","",IF(Automatos!J53=0,"0",TEXT(Automatos!J53,"##")))</f>
         <v/>
       </c>
       <c r="K7" s="22" t="str">
-        <f>TEXT(Automatos!K52, "##")</f>
+        <f>IF(Automatos!K53="","",IF(Automatos!K53=0,"0",TEXT(Automatos!K53,"##")))</f>
         <v/>
       </c>
       <c r="L7" s="22" t="str">
-        <f>TEXT(Automatos!L52, "##")</f>
+        <f>IF(Automatos!L53="","",IF(Automatos!L53=0,"0",TEXT(Automatos!L53,"##")))</f>
         <v/>
       </c>
       <c r="M7" s="22" t="str">
-        <f>TEXT(Automatos!M52, "##")</f>
+        <f>IF(Automatos!M53="","",IF(Automatos!M53=0,"0",TEXT(Automatos!M53,"##")))</f>
         <v/>
       </c>
       <c r="N7" s="22" t="str">
-        <f>TEXT(Automatos!N52, "##")</f>
+        <f>IF(Automatos!N53="","",IF(Automatos!N53=0,"0",TEXT(Automatos!N53,"##")))</f>
         <v/>
       </c>
       <c r="O7" s="22" t="str">
-        <f>TEXT(Automatos!O52, "##")</f>
-        <v>7</v>
+        <f>IF(Automatos!O53="","",IF(Automatos!O53=0,"0",TEXT(Automatos!O53,"##")))</f>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2026,59 +2091,59 @@
         <v>6</v>
       </c>
       <c r="B8" s="22" t="str">
-        <f>TEXT(Automatos!B53, "##")</f>
+        <f>IF(Automatos!B54="","",IF(Automatos!B54=0,"0",TEXT(Automatos!B54,"##")))</f>
         <v/>
       </c>
       <c r="C8" s="22" t="str">
-        <f>TEXT(Automatos!C53, "##")</f>
+        <f>IF(Automatos!C54="","",IF(Automatos!C54=0,"0",TEXT(Automatos!C54,"##")))</f>
         <v/>
       </c>
       <c r="D8" s="22" t="str">
-        <f>TEXT(Automatos!D53, "##")</f>
+        <f>IF(Automatos!D54="","",IF(Automatos!D54=0,"0",TEXT(Automatos!D54,"##")))</f>
         <v/>
       </c>
       <c r="E8" s="22" t="str">
-        <f>TEXT(Automatos!E53, "##")</f>
+        <f>IF(Automatos!E54="","",IF(Automatos!E54=0,"0",TEXT(Automatos!E54,"##")))</f>
         <v/>
       </c>
       <c r="F8" s="22" t="str">
-        <f>TEXT(Automatos!F53, "##")</f>
+        <f>IF(Automatos!F54="","",IF(Automatos!F54=0,"0",TEXT(Automatos!F54,"##")))</f>
         <v/>
       </c>
       <c r="G8" s="22" t="str">
-        <f>TEXT(Automatos!G53, "##")</f>
+        <f>IF(Automatos!G54="","",IF(Automatos!G54=0,"0",TEXT(Automatos!G54,"##")))</f>
         <v/>
       </c>
       <c r="H8" s="22" t="str">
-        <f>TEXT(Automatos!H53, "##")</f>
+        <f>IF(Automatos!H54="","",IF(Automatos!H54=0,"0",TEXT(Automatos!H54,"##")))</f>
         <v/>
       </c>
       <c r="I8" s="22" t="str">
-        <f>TEXT(Automatos!I53, "##")</f>
+        <f>IF(Automatos!I54="","",IF(Automatos!I54=0,"0",TEXT(Automatos!I54,"##")))</f>
         <v/>
       </c>
       <c r="J8" s="22" t="str">
-        <f>TEXT(Automatos!J53, "##")</f>
+        <f>IF(Automatos!J54="","",IF(Automatos!J54=0,"0",TEXT(Automatos!J54,"##")))</f>
         <v/>
       </c>
       <c r="K8" s="22" t="str">
-        <f>TEXT(Automatos!K53, "##")</f>
-        <v>8</v>
+        <f>IF(Automatos!K54="","",IF(Automatos!K54=0,"0",TEXT(Automatos!K54,"##")))</f>
+        <v/>
       </c>
       <c r="L8" s="22" t="str">
-        <f>TEXT(Automatos!L53, "##")</f>
+        <f>IF(Automatos!L54="","",IF(Automatos!L54=0,"0",TEXT(Automatos!L54,"##")))</f>
         <v/>
       </c>
       <c r="M8" s="22" t="str">
-        <f>TEXT(Automatos!M53, "##")</f>
+        <f>IF(Automatos!M54="","",IF(Automatos!M54=0,"0",TEXT(Automatos!M54,"##")))</f>
         <v/>
       </c>
       <c r="N8" s="22" t="str">
-        <f>TEXT(Automatos!N53, "##")</f>
+        <f>IF(Automatos!N54="","",IF(Automatos!N54=0,"0",TEXT(Automatos!N54,"##")))</f>
         <v/>
       </c>
       <c r="O8" s="22" t="str">
-        <f>TEXT(Automatos!O53, "##")</f>
+        <f>IF(Automatos!O54="","",IF(Automatos!O54=0,"0",TEXT(Automatos!O54,"##")))</f>
         <v/>
       </c>
     </row>
@@ -2087,59 +2152,59 @@
         <v>7</v>
       </c>
       <c r="B9" s="22" t="str">
-        <f>TEXT(Automatos!B54, "##")</f>
+        <f>IF(Automatos!B55="","",IF(Automatos!B55=0,"0",TEXT(Automatos!B55,"##")))</f>
         <v/>
       </c>
       <c r="C9" s="22" t="str">
-        <f>TEXT(Automatos!C54, "##")</f>
+        <f>IF(Automatos!C55="","",IF(Automatos!C55=0,"0",TEXT(Automatos!C55,"##")))</f>
         <v/>
       </c>
       <c r="D9" s="22" t="str">
-        <f>TEXT(Automatos!D54, "##")</f>
+        <f>IF(Automatos!D55="","",IF(Automatos!D55=0,"0",TEXT(Automatos!D55,"##")))</f>
         <v/>
       </c>
       <c r="E9" s="22" t="str">
-        <f>TEXT(Automatos!E54, "##")</f>
+        <f>IF(Automatos!E55="","",IF(Automatos!E55=0,"0",TEXT(Automatos!E55,"##")))</f>
         <v/>
       </c>
       <c r="F9" s="22" t="str">
-        <f>TEXT(Automatos!F54, "##")</f>
+        <f>IF(Automatos!F55="","",IF(Automatos!F55=0,"0",TEXT(Automatos!F55,"##")))</f>
         <v/>
       </c>
       <c r="G9" s="22" t="str">
-        <f>TEXT(Automatos!G54, "##")</f>
+        <f>IF(Automatos!G55="","",IF(Automatos!G55=0,"0",TEXT(Automatos!G55,"##")))</f>
         <v/>
       </c>
       <c r="H9" s="22" t="str">
-        <f>TEXT(Automatos!H54, "##")</f>
+        <f>IF(Automatos!H55="","",IF(Automatos!H55=0,"0",TEXT(Automatos!H55,"##")))</f>
         <v/>
       </c>
       <c r="I9" s="22" t="str">
-        <f>TEXT(Automatos!I54, "##")</f>
+        <f>IF(Automatos!I55="","",IF(Automatos!I55=0,"0",TEXT(Automatos!I55,"##")))</f>
         <v>9</v>
       </c>
       <c r="J9" s="22" t="str">
-        <f>TEXT(Automatos!J54, "##")</f>
+        <f>IF(Automatos!J55="","",IF(Automatos!J55=0,"0",TEXT(Automatos!J55,"##")))</f>
         <v/>
       </c>
       <c r="K9" s="22" t="str">
-        <f>TEXT(Automatos!K54, "##")</f>
-        <v/>
+        <f>IF(Automatos!K55="","",IF(Automatos!K55=0,"0",TEXT(Automatos!K55,"##")))</f>
+        <v>10</v>
       </c>
       <c r="L9" s="22" t="str">
-        <f>TEXT(Automatos!L54, "##")</f>
+        <f>IF(Automatos!L55="","",IF(Automatos!L55=0,"0",TEXT(Automatos!L55,"##")))</f>
         <v/>
       </c>
       <c r="M9" s="22" t="str">
-        <f>TEXT(Automatos!M54, "##")</f>
+        <f>IF(Automatos!M55="","",IF(Automatos!M55=0,"0",TEXT(Automatos!M55,"##")))</f>
         <v/>
       </c>
       <c r="N9" s="22" t="str">
-        <f>TEXT(Automatos!N54, "##")</f>
+        <f>IF(Automatos!N55="","",IF(Automatos!N55=0,"0",TEXT(Automatos!N55,"##")))</f>
         <v/>
       </c>
       <c r="O9" s="22" t="str">
-        <f>TEXT(Automatos!O54, "##")</f>
+        <f>IF(Automatos!O55="","",IF(Automatos!O55=0,"0",TEXT(Automatos!O55,"##")))</f>
         <v/>
       </c>
     </row>
@@ -2148,59 +2213,59 @@
         <v>8</v>
       </c>
       <c r="B10" s="22" t="str">
-        <f>TEXT(Automatos!B55, "##")</f>
+        <f>IF(Automatos!B56="","",IF(Automatos!B56=0,"0",TEXT(Automatos!B56,"##")))</f>
         <v/>
       </c>
       <c r="C10" s="22" t="str">
-        <f>TEXT(Automatos!C55, "##")</f>
+        <f>IF(Automatos!C56="","",IF(Automatos!C56=0,"0",TEXT(Automatos!C56,"##")))</f>
         <v/>
       </c>
       <c r="D10" s="22" t="str">
-        <f>TEXT(Automatos!D55, "##")</f>
+        <f>IF(Automatos!D56="","",IF(Automatos!D56=0,"0",TEXT(Automatos!D56,"##")))</f>
         <v/>
       </c>
       <c r="E10" s="22" t="str">
-        <f>TEXT(Automatos!E55, "##")</f>
+        <f>IF(Automatos!E56="","",IF(Automatos!E56=0,"0",TEXT(Automatos!E56,"##")))</f>
         <v/>
       </c>
       <c r="F10" s="22" t="str">
-        <f>TEXT(Automatos!F55, "##")</f>
+        <f>IF(Automatos!F56="","",IF(Automatos!F56=0,"0",TEXT(Automatos!F56,"##")))</f>
         <v/>
       </c>
       <c r="G10" s="22" t="str">
-        <f>TEXT(Automatos!G55, "##")</f>
+        <f>IF(Automatos!G56="","",IF(Automatos!G56=0,"0",TEXT(Automatos!G56,"##")))</f>
         <v/>
       </c>
       <c r="H10" s="22" t="str">
-        <f>TEXT(Automatos!H55, "##")</f>
+        <f>IF(Automatos!H56="","",IF(Automatos!H56=0,"0",TEXT(Automatos!H56,"##")))</f>
         <v/>
       </c>
       <c r="I10" s="22" t="str">
-        <f>TEXT(Automatos!I55, "##")</f>
+        <f>IF(Automatos!I56="","",IF(Automatos!I56=0,"0",TEXT(Automatos!I56,"##")))</f>
         <v/>
       </c>
       <c r="J10" s="22" t="str">
-        <f>TEXT(Automatos!J55, "##")</f>
-        <v/>
+        <f>IF(Automatos!J56="","",IF(Automatos!J56=0,"0",TEXT(Automatos!J56,"##")))</f>
+        <v>11</v>
       </c>
       <c r="K10" s="22" t="str">
-        <f>TEXT(Automatos!K55, "##")</f>
+        <f>IF(Automatos!K56="","",IF(Automatos!K56=0,"0",TEXT(Automatos!K56,"##")))</f>
         <v/>
       </c>
       <c r="L10" s="22" t="str">
-        <f>TEXT(Automatos!L55, "##")</f>
+        <f>IF(Automatos!L56="","",IF(Automatos!L56=0,"0",TEXT(Automatos!L56,"##")))</f>
         <v/>
       </c>
       <c r="M10" s="22" t="str">
-        <f>TEXT(Automatos!M55, "##")</f>
+        <f>IF(Automatos!M56="","",IF(Automatos!M56=0,"0",TEXT(Automatos!M56,"##")))</f>
         <v/>
       </c>
       <c r="N10" s="22" t="str">
-        <f>TEXT(Automatos!N55, "##")</f>
+        <f>IF(Automatos!N56="","",IF(Automatos!N56=0,"0",TEXT(Automatos!N56,"##")))</f>
         <v/>
       </c>
       <c r="O10" s="22" t="str">
-        <f>TEXT(Automatos!O55, "##")</f>
+        <f>IF(Automatos!O56="","",IF(Automatos!O56=0,"0",TEXT(Automatos!O56,"##")))</f>
         <v/>
       </c>
     </row>
@@ -2209,60 +2274,60 @@
         <v>9</v>
       </c>
       <c r="B11" s="22" t="str">
-        <f>TEXT(Automatos!B56, "##")</f>
+        <f>IF(Automatos!B57="","",IF(Automatos!B57=0,"0",TEXT(Automatos!B57,"##")))</f>
         <v/>
       </c>
       <c r="C11" s="22" t="str">
-        <f>TEXT(Automatos!C56, "##")</f>
+        <f>IF(Automatos!C57="","",IF(Automatos!C57=0,"0",TEXT(Automatos!C57,"##")))</f>
         <v/>
       </c>
       <c r="D11" s="22" t="str">
-        <f>TEXT(Automatos!D56, "##")</f>
+        <f>IF(Automatos!D57="","",IF(Automatos!D57=0,"0",TEXT(Automatos!D57,"##")))</f>
         <v/>
       </c>
       <c r="E11" s="22" t="str">
-        <f>TEXT(Automatos!E56, "##")</f>
+        <f>IF(Automatos!E57="","",IF(Automatos!E57=0,"0",TEXT(Automatos!E57,"##")))</f>
         <v/>
       </c>
       <c r="F11" s="22" t="str">
-        <f>TEXT(Automatos!F56, "##")</f>
+        <f>IF(Automatos!F57="","",IF(Automatos!F57=0,"0",TEXT(Automatos!F57,"##")))</f>
         <v/>
       </c>
       <c r="G11" s="22" t="str">
-        <f>TEXT(Automatos!G56, "##")</f>
+        <f>IF(Automatos!G57="","",IF(Automatos!G57=0,"0",TEXT(Automatos!G57,"##")))</f>
         <v/>
       </c>
       <c r="H11" s="22" t="str">
-        <f>TEXT(Automatos!H56, "##")</f>
+        <f>IF(Automatos!H57="","",IF(Automatos!H57=0,"0",TEXT(Automatos!H57,"##")))</f>
         <v/>
       </c>
       <c r="I11" s="22" t="str">
-        <f>TEXT(Automatos!I56, "##")</f>
+        <f>IF(Automatos!I57="","",IF(Automatos!I57=0,"0",TEXT(Automatos!I57,"##")))</f>
         <v/>
       </c>
       <c r="J11" s="22" t="str">
-        <f>TEXT(Automatos!J56, "##")</f>
-        <v>6</v>
+        <f>IF(Automatos!J57="","",IF(Automatos!J57=0,"0",TEXT(Automatos!J57,"##")))</f>
+        <v>14</v>
       </c>
       <c r="K11" s="22" t="str">
-        <f>TEXT(Automatos!K56, "##")</f>
+        <f>IF(Automatos!K57="","",IF(Automatos!K57=0,"0",TEXT(Automatos!K57,"##")))</f>
         <v/>
       </c>
       <c r="L11" s="22" t="str">
-        <f>TEXT(Automatos!L56, "##")</f>
+        <f>IF(Automatos!L57="","",IF(Automatos!L57=0,"0",TEXT(Automatos!L57,"##")))</f>
         <v/>
       </c>
       <c r="M11" s="22" t="str">
-        <f>TEXT(Automatos!M56, "##")</f>
+        <f>IF(Automatos!M57="","",IF(Automatos!M57=0,"0",TEXT(Automatos!M57,"##")))</f>
         <v/>
       </c>
       <c r="N11" s="22" t="str">
-        <f>TEXT(Automatos!N56, "##")</f>
+        <f>IF(Automatos!N57="","",IF(Automatos!N57=0,"0",TEXT(Automatos!N57,"##")))</f>
         <v/>
       </c>
       <c r="O11" s="22" t="str">
-        <f>TEXT(Automatos!O56, "##")</f>
-        <v>10</v>
+        <f>IF(Automatos!O57="","",IF(Automatos!O57=0,"0",TEXT(Automatos!O57,"##")))</f>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2270,59 +2335,59 @@
         <v>10</v>
       </c>
       <c r="B12" s="22" t="str">
-        <f>TEXT(Automatos!B57, "##")</f>
+        <f>IF(Automatos!B58="","",IF(Automatos!B58=0,"0",TEXT(Automatos!B58,"##")))</f>
         <v/>
       </c>
       <c r="C12" s="22" t="str">
-        <f>TEXT(Automatos!C57, "##")</f>
+        <f>IF(Automatos!C58="","",IF(Automatos!C58=0,"0",TEXT(Automatos!C58,"##")))</f>
         <v/>
       </c>
       <c r="D12" s="22" t="str">
-        <f>TEXT(Automatos!D57, "##")</f>
+        <f>IF(Automatos!D58="","",IF(Automatos!D58=0,"0",TEXT(Automatos!D58,"##")))</f>
         <v/>
       </c>
       <c r="E12" s="22" t="str">
-        <f>TEXT(Automatos!E57, "##")</f>
+        <f>IF(Automatos!E58="","",IF(Automatos!E58=0,"0",TEXT(Automatos!E58,"##")))</f>
         <v/>
       </c>
       <c r="F12" s="22" t="str">
-        <f>TEXT(Automatos!F57, "##")</f>
+        <f>IF(Automatos!F58="","",IF(Automatos!F58=0,"0",TEXT(Automatos!F58,"##")))</f>
         <v/>
       </c>
       <c r="G12" s="22" t="str">
-        <f>TEXT(Automatos!G57, "##")</f>
+        <f>IF(Automatos!G58="","",IF(Automatos!G58=0,"0",TEXT(Automatos!G58,"##")))</f>
         <v/>
       </c>
       <c r="H12" s="22" t="str">
-        <f>TEXT(Automatos!H57, "##")</f>
+        <f>IF(Automatos!H58="","",IF(Automatos!H58=0,"0",TEXT(Automatos!H58,"##")))</f>
         <v/>
       </c>
       <c r="I12" s="22" t="str">
-        <f>TEXT(Automatos!I57, "##")</f>
+        <f>IF(Automatos!I58="","",IF(Automatos!I58=0,"0",TEXT(Automatos!I58,"##")))</f>
         <v/>
       </c>
       <c r="J12" s="22" t="str">
-        <f>TEXT(Automatos!J57, "##")</f>
-        <v>6</v>
+        <f>IF(Automatos!J58="","",IF(Automatos!J58=0,"0",TEXT(Automatos!J58,"##")))</f>
+        <v/>
       </c>
       <c r="K12" s="22" t="str">
-        <f>TEXT(Automatos!K57, "##")</f>
+        <f>IF(Automatos!K58="","",IF(Automatos!K58=0,"0",TEXT(Automatos!K58,"##")))</f>
         <v/>
       </c>
       <c r="L12" s="22" t="str">
-        <f>TEXT(Automatos!L57, "##")</f>
-        <v>12</v>
+        <f>IF(Automatos!L58="","",IF(Automatos!L58=0,"0",TEXT(Automatos!L58,"##")))</f>
+        <v/>
       </c>
       <c r="M12" s="22" t="str">
-        <f>TEXT(Automatos!M57, "##")</f>
+        <f>IF(Automatos!M58="","",IF(Automatos!M58=0,"0",TEXT(Automatos!M58,"##")))</f>
         <v/>
       </c>
       <c r="N12" s="22" t="str">
-        <f>TEXT(Automatos!N57, "##")</f>
+        <f>IF(Automatos!N58="","",IF(Automatos!N58=0,"0",TEXT(Automatos!N58,"##")))</f>
         <v/>
       </c>
       <c r="O12" s="22" t="str">
-        <f>TEXT(Automatos!O57, "##")</f>
+        <f>IF(Automatos!O58="","",IF(Automatos!O58=0,"0",TEXT(Automatos!O58,"##")))</f>
         <v/>
       </c>
     </row>
@@ -2331,59 +2396,59 @@
         <v>11</v>
       </c>
       <c r="B13" s="22" t="str">
-        <f>TEXT(Automatos!B58, "##")</f>
+        <f>IF(Automatos!B59="","",IF(Automatos!B59=0,"0",TEXT(Automatos!B59,"##")))</f>
         <v/>
       </c>
       <c r="C13" s="22" t="str">
-        <f>TEXT(Automatos!C58, "##")</f>
+        <f>IF(Automatos!C59="","",IF(Automatos!C59=0,"0",TEXT(Automatos!C59,"##")))</f>
         <v/>
       </c>
       <c r="D13" s="22" t="str">
-        <f>TEXT(Automatos!D58, "##")</f>
+        <f>IF(Automatos!D59="","",IF(Automatos!D59=0,"0",TEXT(Automatos!D59,"##")))</f>
         <v/>
       </c>
       <c r="E13" s="22" t="str">
-        <f>TEXT(Automatos!E58, "##")</f>
+        <f>IF(Automatos!E59="","",IF(Automatos!E59=0,"0",TEXT(Automatos!E59,"##")))</f>
         <v/>
       </c>
       <c r="F13" s="22" t="str">
-        <f>TEXT(Automatos!F58, "##")</f>
+        <f>IF(Automatos!F59="","",IF(Automatos!F59=0,"0",TEXT(Automatos!F59,"##")))</f>
         <v/>
       </c>
       <c r="G13" s="22" t="str">
-        <f>TEXT(Automatos!G58, "##")</f>
+        <f>IF(Automatos!G59="","",IF(Automatos!G59=0,"0",TEXT(Automatos!G59,"##")))</f>
         <v/>
       </c>
       <c r="H13" s="22" t="str">
-        <f>TEXT(Automatos!H58, "##")</f>
+        <f>IF(Automatos!H59="","",IF(Automatos!H59=0,"0",TEXT(Automatos!H59,"##")))</f>
         <v/>
       </c>
       <c r="I13" s="22" t="str">
-        <f>TEXT(Automatos!I58, "##")</f>
+        <f>IF(Automatos!I59="","",IF(Automatos!I59=0,"0",TEXT(Automatos!I59,"##")))</f>
         <v/>
       </c>
       <c r="J13" s="22" t="str">
-        <f>TEXT(Automatos!J58, "##")</f>
+        <f>IF(Automatos!J59="","",IF(Automatos!J59=0,"0",TEXT(Automatos!J59,"##")))</f>
         <v/>
       </c>
       <c r="K13" s="22" t="str">
-        <f>TEXT(Automatos!K58, "##")</f>
+        <f>IF(Automatos!K59="","",IF(Automatos!K59=0,"0",TEXT(Automatos!K59,"##")))</f>
         <v/>
       </c>
       <c r="L13" s="22" t="str">
-        <f>TEXT(Automatos!L58, "##")</f>
+        <f>IF(Automatos!L59="","",IF(Automatos!L59=0,"0",TEXT(Automatos!L59,"##")))</f>
         <v/>
       </c>
       <c r="M13" s="22" t="str">
-        <f>TEXT(Automatos!M58, "##")</f>
-        <v/>
+        <f>IF(Automatos!M59="","",IF(Automatos!M59=0,"0",TEXT(Automatos!M59,"##")))</f>
+        <v>12</v>
       </c>
       <c r="N13" s="22" t="str">
-        <f>TEXT(Automatos!N58, "##")</f>
+        <f>IF(Automatos!N59="","",IF(Automatos!N59=0,"0",TEXT(Automatos!N59,"##")))</f>
         <v/>
       </c>
       <c r="O13" s="22" t="str">
-        <f>TEXT(Automatos!O58, "##")</f>
+        <f>IF(Automatos!O59="","",IF(Automatos!O59=0,"0",TEXT(Automatos!O59,"##")))</f>
         <v/>
       </c>
     </row>
@@ -2392,60 +2457,60 @@
         <v>12</v>
       </c>
       <c r="B14" s="22" t="str">
-        <f>TEXT(Automatos!B59, "##")</f>
+        <f>IF(Automatos!B60="","",IF(Automatos!B60=0,"0",TEXT(Automatos!B60,"##")))</f>
         <v/>
       </c>
       <c r="C14" s="22" t="str">
-        <f>TEXT(Automatos!C59, "##")</f>
+        <f>IF(Automatos!C60="","",IF(Automatos!C60=0,"0",TEXT(Automatos!C60,"##")))</f>
         <v/>
       </c>
       <c r="D14" s="22" t="str">
-        <f>TEXT(Automatos!D59, "##")</f>
+        <f>IF(Automatos!D60="","",IF(Automatos!D60=0,"0",TEXT(Automatos!D60,"##")))</f>
         <v/>
       </c>
       <c r="E14" s="22" t="str">
-        <f>TEXT(Automatos!E59, "##")</f>
+        <f>IF(Automatos!E60="","",IF(Automatos!E60=0,"0",TEXT(Automatos!E60,"##")))</f>
         <v/>
       </c>
       <c r="F14" s="22" t="str">
-        <f>TEXT(Automatos!F59, "##")</f>
+        <f>IF(Automatos!F60="","",IF(Automatos!F60=0,"0",TEXT(Automatos!F60,"##")))</f>
         <v/>
       </c>
       <c r="G14" s="22" t="str">
-        <f>TEXT(Automatos!G59, "##")</f>
+        <f>IF(Automatos!G60="","",IF(Automatos!G60=0,"0",TEXT(Automatos!G60,"##")))</f>
         <v/>
       </c>
       <c r="H14" s="22" t="str">
-        <f>TEXT(Automatos!H59, "##")</f>
+        <f>IF(Automatos!H60="","",IF(Automatos!H60=0,"0",TEXT(Automatos!H60,"##")))</f>
         <v/>
       </c>
       <c r="I14" s="22" t="str">
-        <f>TEXT(Automatos!I59, "##")</f>
+        <f>IF(Automatos!I60="","",IF(Automatos!I60=0,"0",TEXT(Automatos!I60,"##")))</f>
         <v/>
       </c>
       <c r="J14" s="22" t="str">
-        <f>TEXT(Automatos!J59, "##")</f>
+        <f>IF(Automatos!J60="","",IF(Automatos!J60=0,"0",TEXT(Automatos!J60,"##")))</f>
         <v/>
       </c>
       <c r="K14" s="22" t="str">
-        <f>TEXT(Automatos!K59, "##")</f>
+        <f>IF(Automatos!K60="","",IF(Automatos!K60=0,"0",TEXT(Automatos!K60,"##")))</f>
         <v/>
       </c>
       <c r="L14" s="22" t="str">
-        <f>TEXT(Automatos!L59, "##")</f>
+        <f>IF(Automatos!L60="","",IF(Automatos!L60=0,"0",TEXT(Automatos!L60,"##")))</f>
         <v/>
       </c>
       <c r="M14" s="22" t="str">
-        <f>TEXT(Automatos!M59, "##")</f>
+        <f>IF(Automatos!M60="","",IF(Automatos!M60=0,"0",TEXT(Automatos!M60,"##")))</f>
         <v/>
       </c>
       <c r="N14" s="22" t="str">
-        <f>TEXT(Automatos!N59, "##")</f>
-        <v/>
+        <f>IF(Automatos!N60="","",IF(Automatos!N60=0,"0",TEXT(Automatos!N60,"##")))</f>
+        <v>10</v>
       </c>
       <c r="O14" s="22" t="str">
-        <f>TEXT(Automatos!O59, "##")</f>
-        <v>10</v>
+        <f>IF(Automatos!O60="","",IF(Automatos!O60=0,"0",TEXT(Automatos!O60,"##")))</f>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2453,59 +2518,59 @@
         <v>13</v>
       </c>
       <c r="B15" s="22" t="str">
-        <f>TEXT(Automatos!B60, "##")</f>
+        <f>IF(Automatos!B61="","",IF(Automatos!B61=0,"0",TEXT(Automatos!B61,"##")))</f>
         <v/>
       </c>
       <c r="C15" s="22" t="str">
-        <f>TEXT(Automatos!C60, "##")</f>
+        <f>IF(Automatos!C61="","",IF(Automatos!C61=0,"0",TEXT(Automatos!C61,"##")))</f>
         <v/>
       </c>
       <c r="D15" s="22" t="str">
-        <f>TEXT(Automatos!D60, "##")</f>
+        <f>IF(Automatos!D61="","",IF(Automatos!D61=0,"0",TEXT(Automatos!D61,"##")))</f>
         <v/>
       </c>
       <c r="E15" s="22" t="str">
-        <f>TEXT(Automatos!E60, "##")</f>
+        <f>IF(Automatos!E61="","",IF(Automatos!E61=0,"0",TEXT(Automatos!E61,"##")))</f>
         <v/>
       </c>
       <c r="F15" s="22" t="str">
-        <f>TEXT(Automatos!F60, "##")</f>
+        <f>IF(Automatos!F61="","",IF(Automatos!F61=0,"0",TEXT(Automatos!F61,"##")))</f>
         <v/>
       </c>
       <c r="G15" s="22" t="str">
-        <f>TEXT(Automatos!G60, "##")</f>
+        <f>IF(Automatos!G61="","",IF(Automatos!G61=0,"0",TEXT(Automatos!G61,"##")))</f>
         <v/>
       </c>
       <c r="H15" s="22" t="str">
-        <f>TEXT(Automatos!H60, "##")</f>
+        <f>IF(Automatos!H61="","",IF(Automatos!H61=0,"0",TEXT(Automatos!H61,"##")))</f>
         <v/>
       </c>
       <c r="I15" s="22" t="str">
-        <f>TEXT(Automatos!I60, "##")</f>
+        <f>IF(Automatos!I61="","",IF(Automatos!I61=0,"0",TEXT(Automatos!I61,"##")))</f>
         <v/>
       </c>
       <c r="J15" s="22" t="str">
-        <f>TEXT(Automatos!J60, "##")</f>
+        <f>IF(Automatos!J61="","",IF(Automatos!J61=0,"0",TEXT(Automatos!J61,"##")))</f>
         <v>14</v>
       </c>
       <c r="K15" s="22" t="str">
-        <f>TEXT(Automatos!K60, "##")</f>
+        <f>IF(Automatos!K61="","",IF(Automatos!K61=0,"0",TEXT(Automatos!K61,"##")))</f>
         <v/>
       </c>
       <c r="L15" s="22" t="str">
-        <f>TEXT(Automatos!L60, "##")</f>
-        <v/>
+        <f>IF(Automatos!L61="","",IF(Automatos!L61=0,"0",TEXT(Automatos!L61,"##")))</f>
+        <v>15</v>
       </c>
       <c r="M15" s="22" t="str">
-        <f>TEXT(Automatos!M60, "##")</f>
+        <f>IF(Automatos!M61="","",IF(Automatos!M61=0,"0",TEXT(Automatos!M61,"##")))</f>
         <v/>
       </c>
       <c r="N15" s="22" t="str">
-        <f>TEXT(Automatos!N60, "##")</f>
+        <f>IF(Automatos!N61="","",IF(Automatos!N61=0,"0",TEXT(Automatos!N61,"##")))</f>
         <v/>
       </c>
       <c r="O15" s="22" t="str">
-        <f>TEXT(Automatos!O60, "##")</f>
+        <f>IF(Automatos!O61="","",IF(Automatos!O61=0,"0",TEXT(Automatos!O61,"##")))</f>
         <v/>
       </c>
     </row>
@@ -2514,59 +2579,59 @@
         <v>14</v>
       </c>
       <c r="B16" s="22" t="str">
-        <f>TEXT(Automatos!B61, "##")</f>
+        <f>IF(Automatos!B62="","",IF(Automatos!B62=0,"0",TEXT(Automatos!B62,"##")))</f>
         <v/>
       </c>
       <c r="C16" s="22" t="str">
-        <f>TEXT(Automatos!C61, "##")</f>
+        <f>IF(Automatos!C62="","",IF(Automatos!C62=0,"0",TEXT(Automatos!C62,"##")))</f>
         <v/>
       </c>
       <c r="D16" s="22" t="str">
-        <f>TEXT(Automatos!D61, "##")</f>
+        <f>IF(Automatos!D62="","",IF(Automatos!D62=0,"0",TEXT(Automatos!D62,"##")))</f>
         <v/>
       </c>
       <c r="E16" s="22" t="str">
-        <f>TEXT(Automatos!E61, "##")</f>
+        <f>IF(Automatos!E62="","",IF(Automatos!E62=0,"0",TEXT(Automatos!E62,"##")))</f>
         <v/>
       </c>
       <c r="F16" s="22" t="str">
-        <f>TEXT(Automatos!F61, "##")</f>
+        <f>IF(Automatos!F62="","",IF(Automatos!F62=0,"0",TEXT(Automatos!F62,"##")))</f>
         <v/>
       </c>
       <c r="G16" s="22" t="str">
-        <f>TEXT(Automatos!G61, "##")</f>
+        <f>IF(Automatos!G62="","",IF(Automatos!G62=0,"0",TEXT(Automatos!G62,"##")))</f>
         <v/>
       </c>
       <c r="H16" s="22" t="str">
-        <f>TEXT(Automatos!H61, "##")</f>
+        <f>IF(Automatos!H62="","",IF(Automatos!H62=0,"0",TEXT(Automatos!H62,"##")))</f>
         <v/>
       </c>
       <c r="I16" s="22" t="str">
-        <f>TEXT(Automatos!I61, "##")</f>
+        <f>IF(Automatos!I62="","",IF(Automatos!I62=0,"0",TEXT(Automatos!I62,"##")))</f>
         <v/>
       </c>
       <c r="J16" s="22" t="str">
-        <f>TEXT(Automatos!J61, "##")</f>
+        <f>IF(Automatos!J62="","",IF(Automatos!J62=0,"0",TEXT(Automatos!J62,"##")))</f>
         <v/>
       </c>
       <c r="K16" s="22" t="str">
-        <f>TEXT(Automatos!K61, "##")</f>
-        <v/>
+        <f>IF(Automatos!K62="","",IF(Automatos!K62=0,"0",TEXT(Automatos!K62,"##")))</f>
+        <v>10</v>
       </c>
       <c r="L16" s="22" t="str">
-        <f>TEXT(Automatos!L61, "##")</f>
+        <f>IF(Automatos!L62="","",IF(Automatos!L62=0,"0",TEXT(Automatos!L62,"##")))</f>
         <v/>
       </c>
       <c r="M16" s="22" t="str">
-        <f>TEXT(Automatos!M61, "##")</f>
-        <v>16</v>
+        <f>IF(Automatos!M62="","",IF(Automatos!M62=0,"0",TEXT(Automatos!M62,"##")))</f>
+        <v/>
       </c>
       <c r="N16" s="22" t="str">
-        <f>TEXT(Automatos!N61, "##")</f>
+        <f>IF(Automatos!N62="","",IF(Automatos!N62=0,"0",TEXT(Automatos!N62,"##")))</f>
         <v/>
       </c>
       <c r="O16" s="22" t="str">
-        <f>TEXT(Automatos!O61, "##")</f>
+        <f>IF(Automatos!O62="","",IF(Automatos!O62=0,"0",TEXT(Automatos!O62,"##")))</f>
         <v/>
       </c>
     </row>
@@ -2575,60 +2640,60 @@
         <v>15</v>
       </c>
       <c r="B17" s="22" t="str">
-        <f>TEXT(Automatos!B62, "##")</f>
+        <f>IF(Automatos!B63="","",IF(Automatos!B63=0,"0",TEXT(Automatos!B63,"##")))</f>
         <v/>
       </c>
       <c r="C17" s="22" t="str">
-        <f>TEXT(Automatos!C62, "##")</f>
+        <f>IF(Automatos!C63="","",IF(Automatos!C63=0,"0",TEXT(Automatos!C63,"##")))</f>
         <v/>
       </c>
       <c r="D17" s="22" t="str">
-        <f>TEXT(Automatos!D62, "##")</f>
+        <f>IF(Automatos!D63="","",IF(Automatos!D63=0,"0",TEXT(Automatos!D63,"##")))</f>
         <v/>
       </c>
       <c r="E17" s="22" t="str">
-        <f>TEXT(Automatos!E62, "##")</f>
+        <f>IF(Automatos!E63="","",IF(Automatos!E63=0,"0",TEXT(Automatos!E63,"##")))</f>
         <v/>
       </c>
       <c r="F17" s="22" t="str">
-        <f>TEXT(Automatos!F62, "##")</f>
+        <f>IF(Automatos!F63="","",IF(Automatos!F63=0,"0",TEXT(Automatos!F63,"##")))</f>
         <v/>
       </c>
       <c r="G17" s="22" t="str">
-        <f>TEXT(Automatos!G62, "##")</f>
+        <f>IF(Automatos!G63="","",IF(Automatos!G63=0,"0",TEXT(Automatos!G63,"##")))</f>
         <v/>
       </c>
       <c r="H17" s="22" t="str">
-        <f>TEXT(Automatos!H62, "##")</f>
+        <f>IF(Automatos!H63="","",IF(Automatos!H63=0,"0",TEXT(Automatos!H63,"##")))</f>
         <v/>
       </c>
       <c r="I17" s="22" t="str">
-        <f>TEXT(Automatos!I62, "##")</f>
+        <f>IF(Automatos!I63="","",IF(Automatos!I63=0,"0",TEXT(Automatos!I63,"##")))</f>
         <v/>
       </c>
       <c r="J17" s="22" t="str">
-        <f>TEXT(Automatos!J62, "##")</f>
+        <f>IF(Automatos!J63="","",IF(Automatos!J63=0,"0",TEXT(Automatos!J63,"##")))</f>
         <v/>
       </c>
       <c r="K17" s="22" t="str">
-        <f>TEXT(Automatos!K62, "##")</f>
+        <f>IF(Automatos!K63="","",IF(Automatos!K63=0,"0",TEXT(Automatos!K63,"##")))</f>
         <v/>
       </c>
       <c r="L17" s="22" t="str">
-        <f>TEXT(Automatos!L62, "##")</f>
+        <f>IF(Automatos!L63="","",IF(Automatos!L63=0,"0",TEXT(Automatos!L63,"##")))</f>
         <v/>
       </c>
       <c r="M17" s="22" t="str">
-        <f>TEXT(Automatos!M62, "##")</f>
+        <f>IF(Automatos!M63="","",IF(Automatos!M63=0,"0",TEXT(Automatos!M63,"##")))</f>
         <v/>
       </c>
       <c r="N17" s="22" t="str">
-        <f>TEXT(Automatos!N62, "##")</f>
+        <f>IF(Automatos!N63="","",IF(Automatos!N63=0,"0",TEXT(Automatos!N63,"##")))</f>
         <v/>
       </c>
       <c r="O17" s="22" t="str">
-        <f>TEXT(Automatos!O62, "##")</f>
-        <v/>
+        <f>IF(Automatos!O63="","",IF(Automatos!O63=0,"0",TEXT(Automatos!O63,"##")))</f>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2636,59 +2701,59 @@
         <v>16</v>
       </c>
       <c r="B18" s="22" t="str">
-        <f>TEXT(Automatos!B63, "##")</f>
+        <f>IF(Automatos!B64="","",IF(Automatos!B64=0,"0",TEXT(Automatos!B64,"##")))</f>
         <v/>
       </c>
       <c r="C18" s="22" t="str">
-        <f>TEXT(Automatos!C63, "##")</f>
+        <f>IF(Automatos!C64="","",IF(Automatos!C64=0,"0",TEXT(Automatos!C64,"##")))</f>
         <v/>
       </c>
       <c r="D18" s="22" t="str">
-        <f>TEXT(Automatos!D63, "##")</f>
+        <f>IF(Automatos!D64="","",IF(Automatos!D64=0,"0",TEXT(Automatos!D64,"##")))</f>
         <v/>
       </c>
       <c r="E18" s="22" t="str">
-        <f>TEXT(Automatos!E63, "##")</f>
+        <f>IF(Automatos!E64="","",IF(Automatos!E64=0,"0",TEXT(Automatos!E64,"##")))</f>
         <v/>
       </c>
       <c r="F18" s="22" t="str">
-        <f>TEXT(Automatos!F63, "##")</f>
+        <f>IF(Automatos!F64="","",IF(Automatos!F64=0,"0",TEXT(Automatos!F64,"##")))</f>
         <v/>
       </c>
       <c r="G18" s="22" t="str">
-        <f>TEXT(Automatos!G63, "##")</f>
+        <f>IF(Automatos!G64="","",IF(Automatos!G64=0,"0",TEXT(Automatos!G64,"##")))</f>
         <v/>
       </c>
       <c r="H18" s="22" t="str">
-        <f>TEXT(Automatos!H63, "##")</f>
+        <f>IF(Automatos!H64="","",IF(Automatos!H64=0,"0",TEXT(Automatos!H64,"##")))</f>
         <v/>
       </c>
       <c r="I18" s="22" t="str">
-        <f>TEXT(Automatos!I63, "##")</f>
+        <f>IF(Automatos!I64="","",IF(Automatos!I64=0,"0",TEXT(Automatos!I64,"##")))</f>
         <v/>
       </c>
       <c r="J18" s="22" t="str">
-        <f>TEXT(Automatos!J63, "##")</f>
+        <f>IF(Automatos!J64="","",IF(Automatos!J64=0,"0",TEXT(Automatos!J64,"##")))</f>
         <v/>
       </c>
       <c r="K18" s="22" t="str">
-        <f>TEXT(Automatos!K63, "##")</f>
+        <f>IF(Automatos!K64="","",IF(Automatos!K64=0,"0",TEXT(Automatos!K64,"##")))</f>
         <v/>
       </c>
       <c r="L18" s="22" t="str">
-        <f>TEXT(Automatos!L63, "##")</f>
+        <f>IF(Automatos!L64="","",IF(Automatos!L64=0,"0",TEXT(Automatos!L64,"##")))</f>
         <v/>
       </c>
       <c r="M18" s="22" t="str">
-        <f>TEXT(Automatos!M63, "##")</f>
+        <f>IF(Automatos!M64="","",IF(Automatos!M64=0,"0",TEXT(Automatos!M64,"##")))</f>
         <v/>
       </c>
       <c r="N18" s="22" t="str">
-        <f>TEXT(Automatos!N63, "##")</f>
-        <v>8</v>
+        <f>IF(Automatos!N64="","",IF(Automatos!N64=0,"0",TEXT(Automatos!N64,"##")))</f>
+        <v/>
       </c>
       <c r="O18" s="22" t="str">
-        <f>TEXT(Automatos!O63, "##")</f>
+        <f>IF(Automatos!O64="","",IF(Automatos!O64=0,"0",TEXT(Automatos!O64,"##")))</f>
         <v/>
       </c>
     </row>
@@ -2697,59 +2762,59 @@
         <v>17</v>
       </c>
       <c r="B19" s="22" t="str">
-        <f>TEXT(Automatos!B64, "##")</f>
+        <f>IF(Automatos!B65="","",IF(Automatos!B65=0,"0",TEXT(Automatos!B65,"##")))</f>
         <v/>
       </c>
       <c r="C19" s="22" t="str">
-        <f>TEXT(Automatos!C64, "##")</f>
+        <f>IF(Automatos!C65="","",IF(Automatos!C65=0,"0",TEXT(Automatos!C65,"##")))</f>
         <v/>
       </c>
       <c r="D19" s="22" t="str">
-        <f>TEXT(Automatos!D64, "##")</f>
+        <f>IF(Automatos!D65="","",IF(Automatos!D65=0,"0",TEXT(Automatos!D65,"##")))</f>
         <v/>
       </c>
       <c r="E19" s="22" t="str">
-        <f>TEXT(Automatos!E64, "##")</f>
+        <f>IF(Automatos!E65="","",IF(Automatos!E65=0,"0",TEXT(Automatos!E65,"##")))</f>
         <v/>
       </c>
       <c r="F19" s="22" t="str">
-        <f>TEXT(Automatos!F64, "##")</f>
+        <f>IF(Automatos!F65="","",IF(Automatos!F65=0,"0",TEXT(Automatos!F65,"##")))</f>
         <v/>
       </c>
       <c r="G19" s="22" t="str">
-        <f>TEXT(Automatos!G64, "##")</f>
+        <f>IF(Automatos!G65="","",IF(Automatos!G65=0,"0",TEXT(Automatos!G65,"##")))</f>
         <v/>
       </c>
       <c r="H19" s="22" t="str">
-        <f>TEXT(Automatos!H64, "##")</f>
+        <f>IF(Automatos!H65="","",IF(Automatos!H65=0,"0",TEXT(Automatos!H65,"##")))</f>
         <v/>
       </c>
       <c r="I19" s="22" t="str">
-        <f>TEXT(Automatos!I64, "##")</f>
+        <f>IF(Automatos!I65="","",IF(Automatos!I65=0,"0",TEXT(Automatos!I65,"##")))</f>
         <v/>
       </c>
       <c r="J19" s="22" t="str">
-        <f>TEXT(Automatos!J64, "##")</f>
+        <f>IF(Automatos!J65="","",IF(Automatos!J65=0,"0",TEXT(Automatos!J65,"##")))</f>
         <v>18</v>
       </c>
       <c r="K19" s="22" t="str">
-        <f>TEXT(Automatos!K64, "##")</f>
+        <f>IF(Automatos!K65="","",IF(Automatos!K65=0,"0",TEXT(Automatos!K65,"##")))</f>
         <v/>
       </c>
       <c r="L19" s="22" t="str">
-        <f>TEXT(Automatos!L64, "##")</f>
+        <f>IF(Automatos!L65="","",IF(Automatos!L65=0,"0",TEXT(Automatos!L65,"##")))</f>
         <v/>
       </c>
       <c r="M19" s="22" t="str">
-        <f>TEXT(Automatos!M64, "##")</f>
+        <f>IF(Automatos!M65="","",IF(Automatos!M65=0,"0",TEXT(Automatos!M65,"##")))</f>
         <v/>
       </c>
       <c r="N19" s="22" t="str">
-        <f>TEXT(Automatos!N64, "##")</f>
+        <f>IF(Automatos!N65="","",IF(Automatos!N65=0,"0",TEXT(Automatos!N65,"##")))</f>
         <v/>
       </c>
       <c r="O19" s="22" t="str">
-        <f>TEXT(Automatos!O64, "##")</f>
+        <f>IF(Automatos!O65="","",IF(Automatos!O65=0,"0",TEXT(Automatos!O65,"##")))</f>
         <v/>
       </c>
     </row>
@@ -2758,59 +2823,59 @@
         <v>18</v>
       </c>
       <c r="B20" s="22" t="str">
-        <f>TEXT(Automatos!B65, "##")</f>
+        <f>IF(Automatos!B66="","",IF(Automatos!B66=0,"0",TEXT(Automatos!B66,"##")))</f>
         <v/>
       </c>
       <c r="C20" s="22" t="str">
-        <f>TEXT(Automatos!C65, "##")</f>
+        <f>IF(Automatos!C66="","",IF(Automatos!C66=0,"0",TEXT(Automatos!C66,"##")))</f>
         <v/>
       </c>
       <c r="D20" s="22" t="str">
-        <f>TEXT(Automatos!D65, "##")</f>
+        <f>IF(Automatos!D66="","",IF(Automatos!D66=0,"0",TEXT(Automatos!D66,"##")))</f>
         <v>19</v>
       </c>
       <c r="E20" s="22" t="str">
-        <f>TEXT(Automatos!E65, "##")</f>
+        <f>IF(Automatos!E66="","",IF(Automatos!E66=0,"0",TEXT(Automatos!E66,"##")))</f>
         <v/>
       </c>
       <c r="F20" s="22" t="str">
-        <f>TEXT(Automatos!F65, "##")</f>
+        <f>IF(Automatos!F66="","",IF(Automatos!F66=0,"0",TEXT(Automatos!F66,"##")))</f>
         <v/>
       </c>
       <c r="G20" s="22" t="str">
-        <f>TEXT(Automatos!G65, "##")</f>
+        <f>IF(Automatos!G66="","",IF(Automatos!G66=0,"0",TEXT(Automatos!G66,"##")))</f>
         <v/>
       </c>
       <c r="H20" s="22" t="str">
-        <f>TEXT(Automatos!H65, "##")</f>
+        <f>IF(Automatos!H66="","",IF(Automatos!H66=0,"0",TEXT(Automatos!H66,"##")))</f>
         <v/>
       </c>
       <c r="I20" s="22" t="str">
-        <f>TEXT(Automatos!I65, "##")</f>
+        <f>IF(Automatos!I66="","",IF(Automatos!I66=0,"0",TEXT(Automatos!I66,"##")))</f>
         <v/>
       </c>
       <c r="J20" s="22" t="str">
-        <f>TEXT(Automatos!J65, "##")</f>
+        <f>IF(Automatos!J66="","",IF(Automatos!J66=0,"0",TEXT(Automatos!J66,"##")))</f>
         <v/>
       </c>
       <c r="K20" s="22" t="str">
-        <f>TEXT(Automatos!K65, "##")</f>
+        <f>IF(Automatos!K66="","",IF(Automatos!K66=0,"0",TEXT(Automatos!K66,"##")))</f>
         <v/>
       </c>
       <c r="L20" s="22" t="str">
-        <f>TEXT(Automatos!L65, "##")</f>
+        <f>IF(Automatos!L66="","",IF(Automatos!L66=0,"0",TEXT(Automatos!L66,"##")))</f>
         <v/>
       </c>
       <c r="M20" s="22" t="str">
-        <f>TEXT(Automatos!M65, "##")</f>
+        <f>IF(Automatos!M66="","",IF(Automatos!M66=0,"0",TEXT(Automatos!M66,"##")))</f>
         <v/>
       </c>
       <c r="N20" s="22" t="str">
-        <f>TEXT(Automatos!N65, "##")</f>
+        <f>IF(Automatos!N66="","",IF(Automatos!N66=0,"0",TEXT(Automatos!N66,"##")))</f>
         <v/>
       </c>
       <c r="O20" s="22" t="str">
-        <f>TEXT(Automatos!O65, "##")</f>
+        <f>IF(Automatos!O66="","",IF(Automatos!O66=0,"0",TEXT(Automatos!O66,"##")))</f>
         <v/>
       </c>
     </row>
@@ -2819,59 +2884,59 @@
         <v>19</v>
       </c>
       <c r="B21" s="22" t="str">
-        <f>TEXT(Automatos!B66, "##")</f>
+        <f>IF(Automatos!B67="","",IF(Automatos!B67=0,"0",TEXT(Automatos!B67,"##")))</f>
         <v/>
       </c>
       <c r="C21" s="22" t="str">
-        <f>TEXT(Automatos!C66, "##")</f>
+        <f>IF(Automatos!C67="","",IF(Automatos!C67=0,"0",TEXT(Automatos!C67,"##")))</f>
         <v/>
       </c>
       <c r="D21" s="22" t="str">
-        <f>TEXT(Automatos!D66, "##")</f>
+        <f>IF(Automatos!D67="","",IF(Automatos!D67=0,"0",TEXT(Automatos!D67,"##")))</f>
         <v/>
       </c>
       <c r="E21" s="22" t="str">
-        <f>TEXT(Automatos!E66, "##")</f>
+        <f>IF(Automatos!E67="","",IF(Automatos!E67=0,"0",TEXT(Automatos!E67,"##")))</f>
         <v/>
       </c>
       <c r="F21" s="22" t="str">
-        <f>TEXT(Automatos!F66, "##")</f>
+        <f>IF(Automatos!F67="","",IF(Automatos!F67=0,"0",TEXT(Automatos!F67,"##")))</f>
         <v/>
       </c>
       <c r="G21" s="22" t="str">
-        <f>TEXT(Automatos!G66, "##")</f>
+        <f>IF(Automatos!G67="","",IF(Automatos!G67=0,"0",TEXT(Automatos!G67,"##")))</f>
         <v/>
       </c>
       <c r="H21" s="22" t="str">
-        <f>TEXT(Automatos!H66, "##")</f>
+        <f>IF(Automatos!H67="","",IF(Automatos!H67=0,"0",TEXT(Automatos!H67,"##")))</f>
         <v/>
       </c>
       <c r="I21" s="22" t="str">
-        <f>TEXT(Automatos!I66, "##")</f>
+        <f>IF(Automatos!I67="","",IF(Automatos!I67=0,"0",TEXT(Automatos!I67,"##")))</f>
         <v/>
       </c>
       <c r="J21" s="22" t="str">
-        <f>TEXT(Automatos!J66, "##")</f>
+        <f>IF(Automatos!J67="","",IF(Automatos!J67=0,"0",TEXT(Automatos!J67,"##")))</f>
         <v/>
       </c>
       <c r="K21" s="22" t="str">
-        <f>TEXT(Automatos!K66, "##")</f>
+        <f>IF(Automatos!K67="","",IF(Automatos!K67=0,"0",TEXT(Automatos!K67,"##")))</f>
         <v/>
       </c>
       <c r="L21" s="22" t="str">
-        <f>TEXT(Automatos!L66, "##")</f>
+        <f>IF(Automatos!L67="","",IF(Automatos!L67=0,"0",TEXT(Automatos!L67,"##")))</f>
         <v/>
       </c>
       <c r="M21" s="22" t="str">
-        <f>TEXT(Automatos!M66, "##")</f>
+        <f>IF(Automatos!M67="","",IF(Automatos!M67=0,"0",TEXT(Automatos!M67,"##")))</f>
         <v>20</v>
       </c>
       <c r="N21" s="22" t="str">
-        <f>TEXT(Automatos!N66, "##")</f>
+        <f>IF(Automatos!N67="","",IF(Automatos!N67=0,"0",TEXT(Automatos!N67,"##")))</f>
         <v/>
       </c>
       <c r="O21" s="22" t="str">
-        <f>TEXT(Automatos!O66, "##")</f>
+        <f>IF(Automatos!O67="","",IF(Automatos!O67=0,"0",TEXT(Automatos!O67,"##")))</f>
         <v/>
       </c>
     </row>
@@ -2880,59 +2945,59 @@
         <v>20</v>
       </c>
       <c r="B22" s="22" t="str">
-        <f>TEXT(Automatos!B67, "##")</f>
+        <f>IF(Automatos!B68="","",IF(Automatos!B68=0,"0",TEXT(Automatos!B68,"##")))</f>
         <v/>
       </c>
       <c r="C22" s="22" t="str">
-        <f>TEXT(Automatos!C67, "##")</f>
+        <f>IF(Automatos!C68="","",IF(Automatos!C68=0,"0",TEXT(Automatos!C68,"##")))</f>
         <v/>
       </c>
       <c r="D22" s="22" t="str">
-        <f>TEXT(Automatos!D67, "##")</f>
+        <f>IF(Automatos!D68="","",IF(Automatos!D68=0,"0",TEXT(Automatos!D68,"##")))</f>
         <v/>
       </c>
       <c r="E22" s="22" t="str">
-        <f>TEXT(Automatos!E67, "##")</f>
+        <f>IF(Automatos!E68="","",IF(Automatos!E68=0,"0",TEXT(Automatos!E68,"##")))</f>
         <v/>
       </c>
       <c r="F22" s="22" t="str">
-        <f>TEXT(Automatos!F67, "##")</f>
+        <f>IF(Automatos!F68="","",IF(Automatos!F68=0,"0",TEXT(Automatos!F68,"##")))</f>
         <v/>
       </c>
       <c r="G22" s="22" t="str">
-        <f>TEXT(Automatos!G67, "##")</f>
+        <f>IF(Automatos!G68="","",IF(Automatos!G68=0,"0",TEXT(Automatos!G68,"##")))</f>
         <v/>
       </c>
       <c r="H22" s="22" t="str">
-        <f>TEXT(Automatos!H67, "##")</f>
+        <f>IF(Automatos!H68="","",IF(Automatos!H68=0,"0",TEXT(Automatos!H68,"##")))</f>
         <v/>
       </c>
       <c r="I22" s="22" t="str">
-        <f>TEXT(Automatos!I67, "##")</f>
+        <f>IF(Automatos!I68="","",IF(Automatos!I68=0,"0",TEXT(Automatos!I68,"##")))</f>
         <v/>
       </c>
       <c r="J22" s="22" t="str">
-        <f>TEXT(Automatos!J67, "##")</f>
+        <f>IF(Automatos!J68="","",IF(Automatos!J68=0,"0",TEXT(Automatos!J68,"##")))</f>
         <v/>
       </c>
       <c r="K22" s="22" t="str">
-        <f>TEXT(Automatos!K67, "##")</f>
+        <f>IF(Automatos!K68="","",IF(Automatos!K68=0,"0",TEXT(Automatos!K68,"##")))</f>
         <v/>
       </c>
       <c r="L22" s="22" t="str">
-        <f>TEXT(Automatos!L67, "##")</f>
+        <f>IF(Automatos!L68="","",IF(Automatos!L68=0,"0",TEXT(Automatos!L68,"##")))</f>
         <v/>
       </c>
       <c r="M22" s="22" t="str">
-        <f>TEXT(Automatos!M67, "##")</f>
+        <f>IF(Automatos!M68="","",IF(Automatos!M68=0,"0",TEXT(Automatos!M68,"##")))</f>
         <v/>
       </c>
       <c r="N22" s="22" t="str">
-        <f>TEXT(Automatos!N67, "##")</f>
+        <f>IF(Automatos!N68="","",IF(Automatos!N68=0,"0",TEXT(Automatos!N68,"##")))</f>
         <v>21</v>
       </c>
       <c r="O22" s="22" t="str">
-        <f>TEXT(Automatos!O67, "##")</f>
+        <f>IF(Automatos!O68="","",IF(Automatos!O68=0,"0",TEXT(Automatos!O68,"##")))</f>
         <v/>
       </c>
     </row>
@@ -2941,64 +3006,65 @@
         <v>21</v>
       </c>
       <c r="B23" s="22" t="str">
-        <f>TEXT(Automatos!B68, "##")</f>
+        <f>IF(Automatos!B69="","",IF(Automatos!B69=0,"0",TEXT(Automatos!B69,"##")))</f>
         <v/>
       </c>
       <c r="C23" s="22" t="str">
-        <f>TEXT(Automatos!C68, "##")</f>
-        <v>14</v>
+        <f>IF(Automatos!C69="","",IF(Automatos!C69=0,"0",TEXT(Automatos!C69,"##")))</f>
+        <v>11</v>
       </c>
       <c r="D23" s="22" t="str">
-        <f>TEXT(Automatos!D68, "##")</f>
+        <f>IF(Automatos!D69="","",IF(Automatos!D69=0,"0",TEXT(Automatos!D69,"##")))</f>
         <v/>
       </c>
       <c r="E23" s="22" t="str">
-        <f>TEXT(Automatos!E68, "##")</f>
+        <f>IF(Automatos!E69="","",IF(Automatos!E69=0,"0",TEXT(Automatos!E69,"##")))</f>
         <v/>
       </c>
       <c r="F23" s="22" t="str">
-        <f>TEXT(Automatos!F68, "##")</f>
+        <f>IF(Automatos!F69="","",IF(Automatos!F69=0,"0",TEXT(Automatos!F69,"##")))</f>
         <v/>
       </c>
       <c r="G23" s="22" t="str">
-        <f>TEXT(Automatos!G68, "##")</f>
+        <f>IF(Automatos!G69="","",IF(Automatos!G69=0,"0",TEXT(Automatos!G69,"##")))</f>
         <v/>
       </c>
       <c r="H23" s="22" t="str">
-        <f>TEXT(Automatos!H68, "##")</f>
+        <f>IF(Automatos!H69="","",IF(Automatos!H69=0,"0",TEXT(Automatos!H69,"##")))</f>
         <v/>
       </c>
       <c r="I23" s="22" t="str">
-        <f>TEXT(Automatos!I68, "##")</f>
+        <f>IF(Automatos!I69="","",IF(Automatos!I69=0,"0",TEXT(Automatos!I69,"##")))</f>
         <v/>
       </c>
       <c r="J23" s="22" t="str">
-        <f>TEXT(Automatos!J68, "##")</f>
+        <f>IF(Automatos!J69="","",IF(Automatos!J69=0,"0",TEXT(Automatos!J69,"##")))</f>
         <v/>
       </c>
       <c r="K23" s="22" t="str">
-        <f>TEXT(Automatos!K68, "##")</f>
+        <f>IF(Automatos!K69="","",IF(Automatos!K69=0,"0",TEXT(Automatos!K69,"##")))</f>
         <v/>
       </c>
       <c r="L23" s="22" t="str">
-        <f>TEXT(Automatos!L68, "##")</f>
+        <f>IF(Automatos!L69="","",IF(Automatos!L69=0,"0",TEXT(Automatos!L69,"##")))</f>
         <v/>
       </c>
       <c r="M23" s="22" t="str">
-        <f>TEXT(Automatos!M68, "##")</f>
+        <f>IF(Automatos!M69="","",IF(Automatos!M69=0,"0",TEXT(Automatos!M69,"##")))</f>
         <v/>
       </c>
       <c r="N23" s="22" t="str">
-        <f>TEXT(Automatos!N68, "##")</f>
+        <f>IF(Automatos!N69="","",IF(Automatos!N69=0,"0",TEXT(Automatos!N69,"##")))</f>
         <v/>
       </c>
       <c r="O23" s="22" t="str">
-        <f>TEXT(Automatos!O68, "##")</f>
+        <f>IF(Automatos!O69="","",IF(Automatos!O69=0,"0",TEXT(Automatos!O69,"##")))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3012,7 +3078,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3061,51 +3127,51 @@
         <v>0</v>
       </c>
       <c r="B2" s="22" t="str">
-        <f>TEXT(Automatos!B72, "##")</f>
+        <f>IF(Automatos!B73="","",IF(Automatos!B73=0,"0",TEXT(Automatos!B73,"##")))</f>
         <v/>
       </c>
       <c r="C2" s="22" t="str">
-        <f>TEXT(Automatos!C72, "##")</f>
+        <f>IF(Automatos!C73="","",IF(Automatos!C73=0,"0",TEXT(Automatos!C73,"##")))</f>
         <v/>
       </c>
       <c r="D2" s="22" t="str">
-        <f>TEXT(Automatos!D72, "##")</f>
+        <f>IF(Automatos!D73="","",IF(Automatos!D73=0,"0",TEXT(Automatos!D73,"##")))</f>
         <v/>
       </c>
       <c r="E2" s="22" t="str">
-        <f>TEXT(Automatos!E72, "##")</f>
+        <f>IF(Automatos!E73="","",IF(Automatos!E73=0,"0",TEXT(Automatos!E73,"##")))</f>
         <v/>
       </c>
       <c r="F2" s="22" t="str">
-        <f>TEXT(Automatos!F72, "##")</f>
+        <f>IF(Automatos!F73="","",IF(Automatos!F73=0,"0",TEXT(Automatos!F73,"##")))</f>
         <v/>
       </c>
       <c r="G2" s="22" t="str">
-        <f>TEXT(Automatos!G72, "##")</f>
+        <f>IF(Automatos!G73="","",IF(Automatos!G73=0,"0",TEXT(Automatos!G73,"##")))</f>
         <v/>
       </c>
       <c r="H2" s="22" t="str">
-        <f>TEXT(Automatos!H72, "##")</f>
+        <f>IF(Automatos!H73="","",IF(Automatos!H73=0,"0",TEXT(Automatos!H73,"##")))</f>
         <v/>
       </c>
       <c r="I2" s="22" t="str">
-        <f>TEXT(Automatos!I72, "##")</f>
+        <f>IF(Automatos!I73="","",IF(Automatos!I73=0,"0",TEXT(Automatos!I73,"##")))</f>
         <v/>
       </c>
       <c r="J2" s="22" t="str">
-        <f>TEXT(Automatos!J72, "##")</f>
+        <f>IF(Automatos!J73="","",IF(Automatos!J73=0,"0",TEXT(Automatos!J73,"##")))</f>
         <v>1</v>
       </c>
       <c r="K2" s="22" t="str">
-        <f>TEXT(Automatos!K72, "##")</f>
+        <f>IF(Automatos!K73="","",IF(Automatos!K73=0,"0",TEXT(Automatos!K73,"##")))</f>
         <v/>
       </c>
       <c r="L2" s="22" t="str">
-        <f>TEXT(Automatos!L72, "##")</f>
+        <f>IF(Automatos!L73="","",IF(Automatos!L73=0,"0",TEXT(Automatos!L73,"##")))</f>
         <v/>
       </c>
       <c r="M2" s="22" t="str">
-        <f>TEXT(Automatos!M72, "##")</f>
+        <f>IF(Automatos!M73="","",IF(Automatos!M73=0,"0",TEXT(Automatos!M73,"##")))</f>
         <v/>
       </c>
     </row>
@@ -3114,51 +3180,51 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="str">
-        <f>TEXT(Automatos!B73, "##")</f>
+        <f>IF(Automatos!B74="","",IF(Automatos!B74=0,"0",TEXT(Automatos!B74,"##")))</f>
         <v/>
       </c>
       <c r="C3" s="22" t="str">
-        <f>TEXT(Automatos!C73, "##")</f>
+        <f>IF(Automatos!C74="","",IF(Automatos!C74=0,"0",TEXT(Automatos!C74,"##")))</f>
         <v/>
       </c>
       <c r="D3" s="22" t="str">
-        <f>TEXT(Automatos!D73, "##")</f>
+        <f>IF(Automatos!D74="","",IF(Automatos!D74=0,"0",TEXT(Automatos!D74,"##")))</f>
         <v/>
       </c>
       <c r="E3" s="22" t="str">
-        <f>TEXT(Automatos!E73, "##")</f>
+        <f>IF(Automatos!E74="","",IF(Automatos!E74=0,"0",TEXT(Automatos!E74,"##")))</f>
         <v/>
       </c>
       <c r="F3" s="22" t="str">
-        <f>TEXT(Automatos!F73, "##")</f>
+        <f>IF(Automatos!F74="","",IF(Automatos!F74=0,"0",TEXT(Automatos!F74,"##")))</f>
         <v/>
       </c>
       <c r="G3" s="22" t="str">
-        <f>TEXT(Automatos!G73, "##")</f>
+        <f>IF(Automatos!G74="","",IF(Automatos!G74=0,"0",TEXT(Automatos!G74,"##")))</f>
         <v/>
       </c>
       <c r="H3" s="22" t="str">
-        <f>TEXT(Automatos!H73, "##")</f>
+        <f>IF(Automatos!H74="","",IF(Automatos!H74=0,"0",TEXT(Automatos!H74,"##")))</f>
         <v/>
       </c>
       <c r="I3" s="22" t="str">
-        <f>TEXT(Automatos!I73, "##")</f>
+        <f>IF(Automatos!I74="","",IF(Automatos!I74=0,"0",TEXT(Automatos!I74,"##")))</f>
         <v/>
       </c>
       <c r="J3" s="22" t="str">
-        <f>TEXT(Automatos!J73, "##")</f>
+        <f>IF(Automatos!J74="","",IF(Automatos!J74=0,"0",TEXT(Automatos!J74,"##")))</f>
         <v/>
       </c>
       <c r="K3" s="22" t="str">
-        <f>TEXT(Automatos!K73, "##")</f>
+        <f>IF(Automatos!K74="","",IF(Automatos!K74=0,"0",TEXT(Automatos!K74,"##")))</f>
         <v/>
       </c>
       <c r="L3" s="22" t="str">
-        <f>TEXT(Automatos!L73, "##")</f>
+        <f>IF(Automatos!L74="","",IF(Automatos!L74=0,"0",TEXT(Automatos!L74,"##")))</f>
         <v/>
       </c>
       <c r="M3" s="22" t="str">
-        <f>TEXT(Automatos!M73, "##")</f>
+        <f>IF(Automatos!M74="","",IF(Automatos!M74=0,"0",TEXT(Automatos!M74,"##")))</f>
         <v>2</v>
       </c>
     </row>
@@ -3167,51 +3233,51 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="str">
-        <f>TEXT(Automatos!B74, "##")</f>
+        <f>IF(Automatos!B75="","",IF(Automatos!B75=0,"0",TEXT(Automatos!B75,"##")))</f>
         <v/>
       </c>
       <c r="C4" s="22" t="str">
-        <f>TEXT(Automatos!C74, "##")</f>
+        <f>IF(Automatos!C75="","",IF(Automatos!C75=0,"0",TEXT(Automatos!C75,"##")))</f>
         <v/>
       </c>
       <c r="D4" s="22" t="str">
-        <f>TEXT(Automatos!D74, "##")</f>
+        <f>IF(Automatos!D75="","",IF(Automatos!D75=0,"0",TEXT(Automatos!D75,"##")))</f>
         <v/>
       </c>
       <c r="E4" s="22" t="str">
-        <f>TEXT(Automatos!E74, "##")</f>
+        <f>IF(Automatos!E75="","",IF(Automatos!E75=0,"0",TEXT(Automatos!E75,"##")))</f>
         <v/>
       </c>
       <c r="F4" s="22" t="str">
-        <f>TEXT(Automatos!F74, "##")</f>
+        <f>IF(Automatos!F75="","",IF(Automatos!F75=0,"0",TEXT(Automatos!F75,"##")))</f>
         <v>3</v>
       </c>
       <c r="G4" s="22" t="str">
-        <f>TEXT(Automatos!G74, "##")</f>
+        <f>IF(Automatos!G75="","",IF(Automatos!G75=0,"0",TEXT(Automatos!G75,"##")))</f>
         <v>3</v>
       </c>
       <c r="H4" s="22" t="str">
-        <f>TEXT(Automatos!H74, "##")</f>
+        <f>IF(Automatos!H75="","",IF(Automatos!H75=0,"0",TEXT(Automatos!H75,"##")))</f>
         <v>4</v>
       </c>
       <c r="I4" s="22" t="str">
-        <f>TEXT(Automatos!I74, "##")</f>
+        <f>IF(Automatos!I75="","",IF(Automatos!I75=0,"0",TEXT(Automatos!I75,"##")))</f>
         <v>4</v>
       </c>
       <c r="J4" s="22" t="str">
-        <f>TEXT(Automatos!J74, "##")</f>
+        <f>IF(Automatos!J75="","",IF(Automatos!J75=0,"0",TEXT(Automatos!J75,"##")))</f>
         <v/>
       </c>
       <c r="K4" s="22" t="str">
-        <f>TEXT(Automatos!K74, "##")</f>
+        <f>IF(Automatos!K75="","",IF(Automatos!K75=0,"0",TEXT(Automatos!K75,"##")))</f>
         <v>5</v>
       </c>
       <c r="L4" s="22" t="str">
-        <f>TEXT(Automatos!L74, "##")</f>
+        <f>IF(Automatos!L75="","",IF(Automatos!L75=0,"0",TEXT(Automatos!L75,"##")))</f>
         <v>5</v>
       </c>
       <c r="M4" s="22" t="str">
-        <f>TEXT(Automatos!M74, "##")</f>
+        <f>IF(Automatos!M75="","",IF(Automatos!M75=0,"0",TEXT(Automatos!M75,"##")))</f>
         <v/>
       </c>
     </row>
@@ -3220,51 +3286,51 @@
         <v>3</v>
       </c>
       <c r="B5" s="22" t="str">
-        <f>TEXT(Automatos!B75, "##")</f>
+        <f>IF(Automatos!B76="","",IF(Automatos!B76=0,"0",TEXT(Automatos!B76,"##")))</f>
         <v/>
       </c>
       <c r="C5" s="22" t="str">
-        <f>TEXT(Automatos!C75, "##")</f>
+        <f>IF(Automatos!C76="","",IF(Automatos!C76=0,"0",TEXT(Automatos!C76,"##")))</f>
         <v/>
       </c>
       <c r="D5" s="22" t="str">
-        <f>TEXT(Automatos!D75, "##")</f>
+        <f>IF(Automatos!D76="","",IF(Automatos!D76=0,"0",TEXT(Automatos!D76,"##")))</f>
         <v/>
       </c>
       <c r="E5" s="22" t="str">
-        <f>TEXT(Automatos!E75, "##")</f>
+        <f>IF(Automatos!E76="","",IF(Automatos!E76=0,"0",TEXT(Automatos!E76,"##")))</f>
         <v/>
       </c>
       <c r="F5" s="22" t="str">
-        <f>TEXT(Automatos!F75, "##")</f>
+        <f>IF(Automatos!F76="","",IF(Automatos!F76=0,"0",TEXT(Automatos!F76,"##")))</f>
         <v/>
       </c>
       <c r="G5" s="22" t="str">
-        <f>TEXT(Automatos!G75, "##")</f>
+        <f>IF(Automatos!G76="","",IF(Automatos!G76=0,"0",TEXT(Automatos!G76,"##")))</f>
         <v/>
       </c>
       <c r="H5" s="22" t="str">
-        <f>TEXT(Automatos!H75, "##")</f>
+        <f>IF(Automatos!H76="","",IF(Automatos!H76=0,"0",TEXT(Automatos!H76,"##")))</f>
         <v/>
       </c>
       <c r="I5" s="22" t="str">
-        <f>TEXT(Automatos!I75, "##")</f>
+        <f>IF(Automatos!I76="","",IF(Automatos!I76=0,"0",TEXT(Automatos!I76,"##")))</f>
         <v/>
       </c>
       <c r="J5" s="22" t="str">
-        <f>TEXT(Automatos!J75, "##")</f>
+        <f>IF(Automatos!J76="","",IF(Automatos!J76=0,"0",TEXT(Automatos!J76,"##")))</f>
         <v/>
       </c>
       <c r="K5" s="22" t="str">
-        <f>TEXT(Automatos!K75, "##")</f>
+        <f>IF(Automatos!K76="","",IF(Automatos!K76=0,"0",TEXT(Automatos!K76,"##")))</f>
         <v/>
       </c>
       <c r="L5" s="22" t="str">
-        <f>TEXT(Automatos!L75, "##")</f>
+        <f>IF(Automatos!L76="","",IF(Automatos!L76=0,"0",TEXT(Automatos!L76,"##")))</f>
         <v/>
       </c>
       <c r="M5" s="22" t="str">
-        <f>TEXT(Automatos!M75, "##")</f>
+        <f>IF(Automatos!M76="","",IF(Automatos!M76=0,"0",TEXT(Automatos!M76,"##")))</f>
         <v/>
       </c>
     </row>
@@ -3273,51 +3339,51 @@
         <v>4</v>
       </c>
       <c r="B6" s="22" t="str">
-        <f>TEXT(Automatos!B76, "##")</f>
+        <f>IF(Automatos!B77="","",IF(Automatos!B77=0,"0",TEXT(Automatos!B77,"##")))</f>
         <v/>
       </c>
       <c r="C6" s="22" t="str">
-        <f>TEXT(Automatos!C76, "##")</f>
+        <f>IF(Automatos!C77="","",IF(Automatos!C77=0,"0",TEXT(Automatos!C77,"##")))</f>
         <v/>
       </c>
       <c r="D6" s="22" t="str">
-        <f>TEXT(Automatos!D76, "##")</f>
+        <f>IF(Automatos!D77="","",IF(Automatos!D77=0,"0",TEXT(Automatos!D77,"##")))</f>
         <v/>
       </c>
       <c r="E6" s="22" t="str">
-        <f>TEXT(Automatos!E76, "##")</f>
+        <f>IF(Automatos!E77="","",IF(Automatos!E77=0,"0",TEXT(Automatos!E77,"##")))</f>
         <v/>
       </c>
       <c r="F6" s="22" t="str">
-        <f>TEXT(Automatos!F76, "##")</f>
+        <f>IF(Automatos!F77="","",IF(Automatos!F77=0,"0",TEXT(Automatos!F77,"##")))</f>
         <v>3</v>
       </c>
       <c r="G6" s="22" t="str">
-        <f>TEXT(Automatos!G76, "##")</f>
+        <f>IF(Automatos!G77="","",IF(Automatos!G77=0,"0",TEXT(Automatos!G77,"##")))</f>
         <v/>
       </c>
       <c r="H6" s="22" t="str">
-        <f>TEXT(Automatos!H76, "##")</f>
+        <f>IF(Automatos!H77="","",IF(Automatos!H77=0,"0",TEXT(Automatos!H77,"##")))</f>
         <v/>
       </c>
       <c r="I6" s="22" t="str">
-        <f>TEXT(Automatos!I76, "##")</f>
+        <f>IF(Automatos!I77="","",IF(Automatos!I77=0,"0",TEXT(Automatos!I77,"##")))</f>
         <v/>
       </c>
       <c r="J6" s="22" t="str">
-        <f>TEXT(Automatos!J76, "##")</f>
+        <f>IF(Automatos!J77="","",IF(Automatos!J77=0,"0",TEXT(Automatos!J77,"##")))</f>
         <v/>
       </c>
       <c r="K6" s="22" t="str">
-        <f>TEXT(Automatos!K76, "##")</f>
+        <f>IF(Automatos!K77="","",IF(Automatos!K77=0,"0",TEXT(Automatos!K77,"##")))</f>
         <v/>
       </c>
       <c r="L6" s="22" t="str">
-        <f>TEXT(Automatos!L76, "##")</f>
+        <f>IF(Automatos!L77="","",IF(Automatos!L77=0,"0",TEXT(Automatos!L77,"##")))</f>
         <v/>
       </c>
       <c r="M6" s="22" t="str">
-        <f>TEXT(Automatos!M76, "##")</f>
+        <f>IF(Automatos!M77="","",IF(Automatos!M77=0,"0",TEXT(Automatos!M77,"##")))</f>
         <v/>
       </c>
     </row>
@@ -3326,51 +3392,51 @@
         <v>5</v>
       </c>
       <c r="B7" s="22" t="str">
-        <f>TEXT(Automatos!B77, "##")</f>
+        <f>IF(Automatos!B78="","",IF(Automatos!B78=0,"0",TEXT(Automatos!B78,"##")))</f>
         <v/>
       </c>
       <c r="C7" s="22" t="str">
-        <f>TEXT(Automatos!C77, "##")</f>
+        <f>IF(Automatos!C78="","",IF(Automatos!C78=0,"0",TEXT(Automatos!C78,"##")))</f>
         <v/>
       </c>
       <c r="D7" s="22" t="str">
-        <f>TEXT(Automatos!D77, "##")</f>
+        <f>IF(Automatos!D78="","",IF(Automatos!D78=0,"0",TEXT(Automatos!D78,"##")))</f>
         <v/>
       </c>
       <c r="E7" s="22" t="str">
-        <f>TEXT(Automatos!E77, "##")</f>
+        <f>IF(Automatos!E78="","",IF(Automatos!E78=0,"0",TEXT(Automatos!E78,"##")))</f>
         <v/>
       </c>
       <c r="F7" s="22" t="str">
-        <f>TEXT(Automatos!F77, "##")</f>
+        <f>IF(Automatos!F78="","",IF(Automatos!F78=0,"0",TEXT(Automatos!F78,"##")))</f>
         <v/>
       </c>
       <c r="G7" s="22" t="str">
-        <f>TEXT(Automatos!G77, "##")</f>
+        <f>IF(Automatos!G78="","",IF(Automatos!G78=0,"0",TEXT(Automatos!G78,"##")))</f>
         <v/>
       </c>
       <c r="H7" s="22" t="str">
-        <f>TEXT(Automatos!H77, "##")</f>
+        <f>IF(Automatos!H78="","",IF(Automatos!H78=0,"0",TEXT(Automatos!H78,"##")))</f>
         <v/>
       </c>
       <c r="I7" s="22" t="str">
-        <f>TEXT(Automatos!I77, "##")</f>
+        <f>IF(Automatos!I78="","",IF(Automatos!I78=0,"0",TEXT(Automatos!I78,"##")))</f>
         <v/>
       </c>
       <c r="J7" s="22" t="str">
-        <f>TEXT(Automatos!J77, "##")</f>
+        <f>IF(Automatos!J78="","",IF(Automatos!J78=0,"0",TEXT(Automatos!J78,"##")))</f>
         <v/>
       </c>
       <c r="K7" s="22" t="str">
-        <f>TEXT(Automatos!K77, "##")</f>
+        <f>IF(Automatos!K78="","",IF(Automatos!K78=0,"0",TEXT(Automatos!K78,"##")))</f>
         <v/>
       </c>
       <c r="L7" s="22" t="str">
-        <f>TEXT(Automatos!L77, "##")</f>
+        <f>IF(Automatos!L78="","",IF(Automatos!L78=0,"0",TEXT(Automatos!L78,"##")))</f>
         <v/>
       </c>
       <c r="M7" s="22" t="str">
-        <f>TEXT(Automatos!M77, "##")</f>
+        <f>IF(Automatos!M78="","",IF(Automatos!M78=0,"0",TEXT(Automatos!M78,"##")))</f>
         <v/>
       </c>
     </row>
@@ -3379,56 +3445,57 @@
         <v>6</v>
       </c>
       <c r="B8" s="22" t="str">
-        <f>TEXT(Automatos!B78, "##")</f>
+        <f>IF(Automatos!B79="","",IF(Automatos!B79=0,"0",TEXT(Automatos!B79,"##")))</f>
         <v/>
       </c>
       <c r="C8" s="22" t="str">
-        <f>TEXT(Automatos!C78, "##")</f>
+        <f>IF(Automatos!C79="","",IF(Automatos!C79=0,"0",TEXT(Automatos!C79,"##")))</f>
         <v/>
       </c>
       <c r="D8" s="22" t="str">
-        <f>TEXT(Automatos!D78, "##")</f>
+        <f>IF(Automatos!D79="","",IF(Automatos!D79=0,"0",TEXT(Automatos!D79,"##")))</f>
         <v/>
       </c>
       <c r="E8" s="22" t="str">
-        <f>TEXT(Automatos!E78, "##")</f>
+        <f>IF(Automatos!E79="","",IF(Automatos!E79=0,"0",TEXT(Automatos!E79,"##")))</f>
         <v/>
       </c>
       <c r="F8" s="22" t="str">
-        <f>TEXT(Automatos!F78, "##")</f>
+        <f>IF(Automatos!F79="","",IF(Automatos!F79=0,"0",TEXT(Automatos!F79,"##")))</f>
         <v/>
       </c>
       <c r="G8" s="22" t="str">
-        <f>TEXT(Automatos!G78, "##")</f>
+        <f>IF(Automatos!G79="","",IF(Automatos!G79=0,"0",TEXT(Automatos!G79,"##")))</f>
         <v/>
       </c>
       <c r="H8" s="22" t="str">
-        <f>TEXT(Automatos!H78, "##")</f>
+        <f>IF(Automatos!H79="","",IF(Automatos!H79=0,"0",TEXT(Automatos!H79,"##")))</f>
         <v/>
       </c>
       <c r="I8" s="22" t="str">
-        <f>TEXT(Automatos!I78, "##")</f>
+        <f>IF(Automatos!I79="","",IF(Automatos!I79=0,"0",TEXT(Automatos!I79,"##")))</f>
         <v/>
       </c>
       <c r="J8" s="22" t="str">
-        <f>TEXT(Automatos!J78, "##")</f>
+        <f>IF(Automatos!J79="","",IF(Automatos!J79=0,"0",TEXT(Automatos!J79,"##")))</f>
         <v/>
       </c>
       <c r="K8" s="22" t="str">
-        <f>TEXT(Automatos!K78, "##")</f>
+        <f>IF(Automatos!K79="","",IF(Automatos!K79=0,"0",TEXT(Automatos!K79,"##")))</f>
         <v>5</v>
       </c>
       <c r="L8" s="22" t="str">
-        <f>TEXT(Automatos!L78, "##")</f>
+        <f>IF(Automatos!L79="","",IF(Automatos!L79=0,"0",TEXT(Automatos!L79,"##")))</f>
         <v>5</v>
       </c>
       <c r="M8" s="22" t="str">
-        <f>TEXT(Automatos!M78, "##")</f>
+        <f>IF(Automatos!M79="","",IF(Automatos!M79=0,"0",TEXT(Automatos!M79,"##")))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3441,8 +3508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3485,43 +3552,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="22" t="str">
-        <f>TEXT(Automatos!B82, "##")</f>
+        <f>IF(Automatos!B83="","",IF(Automatos!B83=0,"0",TEXT(Automatos!B83,"##")))</f>
         <v>2</v>
       </c>
       <c r="C2" s="22" t="str">
-        <f>TEXT(Automatos!C82, "##")</f>
+        <f>IF(Automatos!C83="","",IF(Automatos!C83=0,"0",TEXT(Automatos!C83,"##")))</f>
         <v/>
       </c>
       <c r="D2" s="22" t="str">
-        <f>TEXT(Automatos!D82, "##")</f>
+        <f>IF(Automatos!D83="","",IF(Automatos!D83=0,"0",TEXT(Automatos!D83,"##")))</f>
         <v/>
       </c>
       <c r="E2" s="22" t="str">
-        <f>TEXT(Automatos!E82, "##")</f>
+        <f>IF(Automatos!E83="","",IF(Automatos!E83=0,"0",TEXT(Automatos!E83,"##")))</f>
         <v/>
       </c>
       <c r="F2" s="22" t="str">
-        <f>TEXT(Automatos!F82, "##")</f>
+        <f>IF(Automatos!F83="","",IF(Automatos!F83=0,"0",TEXT(Automatos!F83,"##")))</f>
         <v/>
       </c>
       <c r="G2" s="22" t="str">
-        <f>TEXT(Automatos!G82, "##")</f>
+        <f>IF(Automatos!G83="","",IF(Automatos!G83=0,"0",TEXT(Automatos!G83,"##")))</f>
         <v/>
       </c>
       <c r="H2" s="22" t="str">
-        <f>TEXT(Automatos!H82, "##")</f>
+        <f>IF(Automatos!H83="","",IF(Automatos!H83=0,"0",TEXT(Automatos!H83,"##")))</f>
         <v>1</v>
       </c>
       <c r="I2" s="22" t="str">
-        <f>TEXT(Automatos!I82, "##")</f>
+        <f>IF(Automatos!I83="","",IF(Automatos!I83=0,"0",TEXT(Automatos!I83,"##")))</f>
         <v>1</v>
       </c>
       <c r="J2" s="22" t="str">
-        <f>TEXT(Automatos!J82, "##")</f>
+        <f>IF(Automatos!J83="","",IF(Automatos!J83=0,"0",TEXT(Automatos!J83,"##")))</f>
         <v>1</v>
       </c>
       <c r="K2" s="22" t="str">
-        <f>TEXT(Automatos!K82, "##")</f>
+        <f>IF(Automatos!K83="","",IF(Automatos!K83=0,"0",TEXT(Automatos!K83,"##")))</f>
         <v>1</v>
       </c>
     </row>
@@ -3530,43 +3597,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="str">
-        <f>TEXT(Automatos!B83, "##")</f>
+        <f>IF(Automatos!B84="","",IF(Automatos!B84=0,"0",TEXT(Automatos!B84,"##")))</f>
         <v/>
       </c>
       <c r="C3" s="22" t="str">
-        <f>TEXT(Automatos!C83, "##")</f>
+        <f>IF(Automatos!C84="","",IF(Automatos!C84=0,"0",TEXT(Automatos!C84,"##")))</f>
         <v/>
       </c>
       <c r="D3" s="22" t="str">
-        <f>TEXT(Automatos!D83, "##")</f>
-        <v/>
+        <f>IF(Automatos!D84="","",IF(Automatos!D84=0,"0",TEXT(Automatos!D84,"##")))</f>
+        <v>0</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f>TEXT(Automatos!E83, "##")</f>
-        <v/>
+        <f>IF(Automatos!E84="","",IF(Automatos!E84=0,"0",TEXT(Automatos!E84,"##")))</f>
+        <v>0</v>
       </c>
       <c r="F3" s="22" t="str">
-        <f>TEXT(Automatos!F83, "##")</f>
-        <v/>
+        <f>IF(Automatos!F84="","",IF(Automatos!F84=0,"0",TEXT(Automatos!F84,"##")))</f>
+        <v>0</v>
       </c>
       <c r="G3" s="22" t="str">
-        <f>TEXT(Automatos!G83, "##")</f>
-        <v/>
+        <f>IF(Automatos!G84="","",IF(Automatos!G84=0,"0",TEXT(Automatos!G84,"##")))</f>
+        <v>0</v>
       </c>
       <c r="H3" s="22" t="str">
-        <f>TEXT(Automatos!H83, "##")</f>
+        <f>IF(Automatos!H84="","",IF(Automatos!H84=0,"0",TEXT(Automatos!H84,"##")))</f>
         <v/>
       </c>
       <c r="I3" s="22" t="str">
-        <f>TEXT(Automatos!I83, "##")</f>
+        <f>IF(Automatos!I84="","",IF(Automatos!I84=0,"0",TEXT(Automatos!I84,"##")))</f>
         <v/>
       </c>
       <c r="J3" s="22" t="str">
-        <f>TEXT(Automatos!J83, "##")</f>
+        <f>IF(Automatos!J84="","",IF(Automatos!J84=0,"0",TEXT(Automatos!J84,"##")))</f>
         <v/>
       </c>
       <c r="K3" s="22" t="str">
-        <f>TEXT(Automatos!K83, "##")</f>
+        <f>IF(Automatos!K84="","",IF(Automatos!K84=0,"0",TEXT(Automatos!K84,"##")))</f>
         <v/>
       </c>
     </row>
@@ -3575,43 +3642,43 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="str">
-        <f>TEXT(Automatos!B84, "##")</f>
+        <f>IF(Automatos!B85="","",IF(Automatos!B85=0,"0",TEXT(Automatos!B85,"##")))</f>
         <v/>
       </c>
       <c r="C4" s="22" t="str">
-        <f>TEXT(Automatos!C84, "##")</f>
+        <f>IF(Automatos!C85="","",IF(Automatos!C85=0,"0",TEXT(Automatos!C85,"##")))</f>
         <v/>
       </c>
       <c r="D4" s="22" t="str">
-        <f>TEXT(Automatos!D84, "##")</f>
+        <f>IF(Automatos!D85="","",IF(Automatos!D85=0,"0",TEXT(Automatos!D85,"##")))</f>
         <v/>
       </c>
       <c r="E4" s="22" t="str">
-        <f>TEXT(Automatos!E84, "##")</f>
+        <f>IF(Automatos!E85="","",IF(Automatos!E85=0,"0",TEXT(Automatos!E85,"##")))</f>
         <v/>
       </c>
       <c r="F4" s="22" t="str">
-        <f>TEXT(Automatos!F84, "##")</f>
+        <f>IF(Automatos!F85="","",IF(Automatos!F85=0,"0",TEXT(Automatos!F85,"##")))</f>
         <v/>
       </c>
       <c r="G4" s="22" t="str">
-        <f>TEXT(Automatos!G84, "##")</f>
+        <f>IF(Automatos!G85="","",IF(Automatos!G85=0,"0",TEXT(Automatos!G85,"##")))</f>
         <v/>
       </c>
       <c r="H4" s="22" t="str">
-        <f>TEXT(Automatos!H84, "##")</f>
+        <f>IF(Automatos!H85="","",IF(Automatos!H85=0,"0",TEXT(Automatos!H85,"##")))</f>
         <v/>
       </c>
       <c r="I4" s="22" t="str">
-        <f>TEXT(Automatos!I84, "##")</f>
+        <f>IF(Automatos!I85="","",IF(Automatos!I85=0,"0",TEXT(Automatos!I85,"##")))</f>
         <v/>
       </c>
       <c r="J4" s="22" t="str">
-        <f>TEXT(Automatos!J84, "##")</f>
+        <f>IF(Automatos!J85="","",IF(Automatos!J85=0,"0",TEXT(Automatos!J85,"##")))</f>
         <v/>
       </c>
       <c r="K4" s="22" t="str">
-        <f>TEXT(Automatos!K84, "##")</f>
+        <f>IF(Automatos!K85="","",IF(Automatos!K85=0,"0",TEXT(Automatos!K85,"##")))</f>
         <v/>
       </c>
     </row>
@@ -3620,48 +3687,49 @@
         <v>3</v>
       </c>
       <c r="B5" s="22" t="str">
-        <f>TEXT(Automatos!B85, "##")</f>
+        <f>IF(Automatos!B86="","",IF(Automatos!B86=0,"0",TEXT(Automatos!B86,"##")))</f>
         <v/>
       </c>
       <c r="C5" s="22" t="str">
-        <f>TEXT(Automatos!C85, "##")</f>
+        <f>IF(Automatos!C86="","",IF(Automatos!C86=0,"0",TEXT(Automatos!C86,"##")))</f>
         <v>1</v>
       </c>
       <c r="D5" s="22" t="str">
-        <f>TEXT(Automatos!D85, "##")</f>
+        <f>IF(Automatos!D86="","",IF(Automatos!D86=0,"0",TEXT(Automatos!D86,"##")))</f>
         <v/>
       </c>
       <c r="E5" s="22" t="str">
-        <f>TEXT(Automatos!E85, "##")</f>
+        <f>IF(Automatos!E86="","",IF(Automatos!E86=0,"0",TEXT(Automatos!E86,"##")))</f>
         <v/>
       </c>
       <c r="F5" s="22" t="str">
-        <f>TEXT(Automatos!F85, "##")</f>
+        <f>IF(Automatos!F86="","",IF(Automatos!F86=0,"0",TEXT(Automatos!F86,"##")))</f>
         <v/>
       </c>
       <c r="G5" s="22" t="str">
-        <f>TEXT(Automatos!G85, "##")</f>
+        <f>IF(Automatos!G86="","",IF(Automatos!G86=0,"0",TEXT(Automatos!G86,"##")))</f>
         <v/>
       </c>
       <c r="H5" s="22" t="str">
-        <f>TEXT(Automatos!H85, "##")</f>
+        <f>IF(Automatos!H86="","",IF(Automatos!H86=0,"0",TEXT(Automatos!H86,"##")))</f>
         <v/>
       </c>
       <c r="I5" s="22" t="str">
-        <f>TEXT(Automatos!I85, "##")</f>
+        <f>IF(Automatos!I86="","",IF(Automatos!I86=0,"0",TEXT(Automatos!I86,"##")))</f>
         <v/>
       </c>
       <c r="J5" s="22" t="str">
-        <f>TEXT(Automatos!J85, "##")</f>
+        <f>IF(Automatos!J86="","",IF(Automatos!J86=0,"0",TEXT(Automatos!J86,"##")))</f>
         <v/>
       </c>
       <c r="K5" s="22" t="str">
-        <f>TEXT(Automatos!K85, "##")</f>
+        <f>IF(Automatos!K86="","",IF(Automatos!K86=0,"0",TEXT(Automatos!K86,"##")))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3672,10 +3740,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3788,6 +3856,17 @@
       </c>
       <c r="C10" s="4">
         <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3889,7 +3968,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3913,29 +3992,29 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3943,10 +4022,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4500,10 +4579,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="M78" sqref="M78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4783,6 +4862,9 @@
       <c r="L11" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="M11" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="S11" s="16" t="s">
         <v>17</v>
       </c>
@@ -5230,9 +5312,6 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="8">
-        <v>17</v>
-      </c>
       <c r="S28" s="16" t="s">
         <v>40</v>
       </c>
@@ -5255,10 +5334,11 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="9">
-        <v>0</v>
-      </c>
+      <c r="J29" s="9"/>
       <c r="K29" s="9"/>
+      <c r="M29" s="9">
+        <v>18</v>
+      </c>
       <c r="S29" s="16" t="s">
         <v>41</v>
       </c>
@@ -5270,57 +5350,58 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="S30" s="16" t="s">
+      <c r="A30" s="9">
+        <v>18</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="S31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="T30" s="16">
+      <c r="T31" s="16">
         <v>271</v>
-      </c>
-      <c r="U30" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="S31" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="T31" s="16">
-        <v>272</v>
       </c>
       <c r="U31" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="9">
-        <v>0</v>
-      </c>
-      <c r="B32" s="8">
-        <v>1</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1</v>
+      <c r="A32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="S32" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T32" s="16">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U32" s="16" t="s">
         <v>70</v>
@@ -5328,16 +5409,19 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="9">
+        <v>0</v>
+      </c>
+      <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="E33" s="8">
-        <v>2</v>
+      <c r="C33" s="8">
+        <v>1</v>
       </c>
       <c r="S33" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T33" s="16">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U33" s="16" t="s">
         <v>70</v>
@@ -5345,16 +5429,16 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
         <v>2</v>
       </c>
-      <c r="D34" s="8">
-        <v>3</v>
-      </c>
       <c r="S34" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T34" s="16">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U34" s="16" t="s">
         <v>70</v>
@@ -5362,13 +5446,16 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="9">
+        <v>2</v>
+      </c>
+      <c r="D35" s="8">
         <v>3</v>
       </c>
       <c r="S35" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T35" s="16">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U35" s="16" t="s">
         <v>70</v>
@@ -5376,73 +5463,67 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S36" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T36" s="16">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U36" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:21">
+      <c r="A37" s="9">
+        <v>4</v>
+      </c>
       <c r="S37" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T37" s="16">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U37" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>9</v>
-      </c>
       <c r="S38" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T38" s="16">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U38" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="9">
-        <v>0</v>
-      </c>
-      <c r="B39" s="8">
-        <v>1</v>
-      </c>
-      <c r="C39" s="8">
-        <v>1</v>
+      <c r="A39" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="S39" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T39" s="16">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U39" s="16" t="s">
         <v>70</v>
@@ -5450,24 +5531,30 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="9">
+        <v>0</v>
+      </c>
+      <c r="B40" s="8">
         <v>1</v>
       </c>
-      <c r="D40" s="8">
-        <v>2</v>
-      </c>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="S40" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="T40" s="16">
+        <v>280</v>
+      </c>
+      <c r="U40" s="16" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="9">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8">
         <v>2</v>
-      </c>
-      <c r="E41" s="8">
-        <v>3</v>
-      </c>
-      <c r="F41" s="8">
-        <v>4</v>
       </c>
       <c r="S41" s="16"/>
       <c r="T41" s="16"/>
@@ -5475,7 +5562,13 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="9">
+        <v>2</v>
+      </c>
+      <c r="E42" s="8">
         <v>3</v>
+      </c>
+      <c r="F42" s="8">
+        <v>4</v>
       </c>
       <c r="S42" s="16"/>
       <c r="T42" s="16"/>
@@ -5483,7 +5576,7 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S43" s="16"/>
       <c r="T43" s="16"/>
@@ -5491,9 +5584,6 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="9">
-        <v>5</v>
-      </c>
-      <c r="F44" s="8">
         <v>4</v>
       </c>
       <c r="S44" s="16"/>
@@ -5501,80 +5591,67 @@
       <c r="U44" s="16"/>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="9"/>
+      <c r="A45" s="9">
+        <v>5</v>
+      </c>
+      <c r="F45" s="8">
+        <v>4</v>
+      </c>
       <c r="S45" s="16"/>
       <c r="T45" s="16"/>
       <c r="U45" s="16"/>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O46" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="R46" s="8"/>
+      <c r="A46" s="9"/>
       <c r="S46" s="16"/>
       <c r="T46" s="16"/>
-      <c r="U46" s="17"/>
+      <c r="U46" s="16"/>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="9">
+      <c r="A47" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="8">
-        <v>2</v>
-      </c>
-      <c r="E47" s="8">
+      <c r="C47" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="8">
-        <v>4</v>
-      </c>
-      <c r="G47" s="8">
-        <v>4</v>
-      </c>
-      <c r="O47" s="9">
-        <v>1</v>
+      <c r="E47" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="R47" s="8"/>
       <c r="S47" s="16"/>
@@ -5583,12 +5660,23 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="9">
+        <v>0</v>
+      </c>
+      <c r="B48" s="8">
+        <v>3</v>
+      </c>
+      <c r="E48" s="8">
+        <v>4</v>
+      </c>
+      <c r="F48" s="8">
+        <v>2</v>
+      </c>
+      <c r="G48" s="8">
+        <v>2</v>
+      </c>
+      <c r="O48" s="9">
         <v>1</v>
       </c>
-      <c r="H48" s="8">
-        <v>5</v>
-      </c>
-      <c r="O48" s="9"/>
       <c r="R48" s="8"/>
       <c r="S48" s="16"/>
       <c r="T48" s="16"/>
@@ -5596,10 +5684,10 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="9">
-        <v>2</v>
-      </c>
-      <c r="I49" s="8">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="H49" s="8">
+        <v>5</v>
       </c>
       <c r="O49" s="9"/>
       <c r="R49" s="8"/>
@@ -5609,12 +5697,11 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="9">
-        <v>3</v>
-      </c>
-      <c r="I50" s="8">
-        <v>11</v>
-      </c>
-      <c r="O50" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="O50" s="9">
+        <v>14</v>
+      </c>
       <c r="R50" s="8"/>
       <c r="S50" s="16"/>
       <c r="T50" s="16"/>
@@ -5622,11 +5709,12 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="9">
-        <v>4</v>
-      </c>
-      <c r="O51" s="9">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" s="8">
+        <v>16</v>
+      </c>
+      <c r="O51" s="9"/>
       <c r="R51" s="8"/>
       <c r="S51" s="16"/>
       <c r="T51" s="16"/>
@@ -5634,11 +5722,12 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="9">
-        <v>5</v>
-      </c>
-      <c r="O52" s="9">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I52" s="8">
+        <v>6</v>
+      </c>
+      <c r="O52" s="9"/>
       <c r="R52" s="8"/>
       <c r="S52" s="16"/>
       <c r="T52" s="16"/>
@@ -5646,10 +5735,7 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="9">
-        <v>6</v>
-      </c>
-      <c r="K53" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O53" s="9"/>
       <c r="R53" s="8"/>
@@ -5659,10 +5745,7 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="9">
-        <v>7</v>
-      </c>
-      <c r="I54" s="8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O54" s="9"/>
       <c r="R54" s="8"/>
@@ -5672,7 +5755,13 @@
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="9">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="I55" s="8">
+        <v>9</v>
+      </c>
+      <c r="K55" s="8">
+        <v>10</v>
       </c>
       <c r="O55" s="9"/>
       <c r="R55" s="8"/>
@@ -5682,14 +5771,12 @@
     </row>
     <row r="56" spans="1:21">
       <c r="A56" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J56" s="8">
-        <v>6</v>
-      </c>
-      <c r="O56" s="9">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="O56" s="9"/>
       <c r="R56" s="8"/>
       <c r="S56" s="16"/>
       <c r="T56" s="16"/>
@@ -5697,15 +5784,14 @@
     </row>
     <row r="57" spans="1:21">
       <c r="A57" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J57" s="8">
-        <v>6</v>
-      </c>
-      <c r="L57" s="8">
-        <v>12</v>
-      </c>
-      <c r="O57" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="O57" s="9">
+        <v>13</v>
+      </c>
       <c r="R57" s="8"/>
       <c r="S57" s="16"/>
       <c r="T57" s="16"/>
@@ -5713,7 +5799,7 @@
     </row>
     <row r="58" spans="1:21">
       <c r="A58" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O58" s="9"/>
       <c r="R58" s="8"/>
@@ -5723,11 +5809,12 @@
     </row>
     <row r="59" spans="1:21">
       <c r="A59" s="9">
+        <v>11</v>
+      </c>
+      <c r="M59" s="8">
         <v>12</v>
       </c>
-      <c r="O59" s="9">
-        <v>10</v>
-      </c>
+      <c r="O59" s="9"/>
       <c r="R59" s="8"/>
       <c r="S59" s="16"/>
       <c r="T59" s="16"/>
@@ -5735,10 +5822,10 @@
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="9">
-        <v>13</v>
-      </c>
-      <c r="J60" s="8">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="N60" s="8">
+        <v>10</v>
       </c>
       <c r="O60" s="9"/>
       <c r="R60" s="8"/>
@@ -5748,10 +5835,13 @@
     </row>
     <row r="61" spans="1:21">
       <c r="A61" s="9">
+        <v>13</v>
+      </c>
+      <c r="J61" s="8">
         <v>14</v>
       </c>
-      <c r="M61" s="8">
-        <v>16</v>
+      <c r="L61" s="8">
+        <v>15</v>
       </c>
       <c r="O61" s="9"/>
       <c r="R61" s="8"/>
@@ -5761,7 +5851,10 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="9">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K62" s="8">
+        <v>10</v>
       </c>
       <c r="O62" s="9"/>
       <c r="R62" s="8"/>
@@ -5771,12 +5864,11 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="9">
-        <v>16</v>
-      </c>
-      <c r="N63" s="8">
-        <v>8</v>
-      </c>
-      <c r="O63" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="O63" s="9">
+        <v>13</v>
+      </c>
       <c r="R63" s="8"/>
       <c r="S63" s="16"/>
       <c r="T63" s="16"/>
@@ -5784,10 +5876,7 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="9">
-        <v>17</v>
-      </c>
-      <c r="J64" s="8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O64" s="9"/>
       <c r="R64" s="8"/>
@@ -5797,10 +5886,10 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="9">
+        <v>17</v>
+      </c>
+      <c r="J65" s="8">
         <v>18</v>
-      </c>
-      <c r="D65" s="8">
-        <v>19</v>
       </c>
       <c r="O65" s="9"/>
       <c r="R65" s="8"/>
@@ -5810,10 +5899,10 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="9">
+        <v>18</v>
+      </c>
+      <c r="D66" s="8">
         <v>19</v>
-      </c>
-      <c r="M66" s="8">
-        <v>20</v>
       </c>
       <c r="O66" s="9"/>
       <c r="R66" s="8"/>
@@ -5823,10 +5912,10 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="9">
+        <v>19</v>
+      </c>
+      <c r="M67" s="8">
         <v>20</v>
-      </c>
-      <c r="N67" s="8">
-        <v>21</v>
       </c>
       <c r="O67" s="9"/>
       <c r="R67" s="8"/>
@@ -5836,10 +5925,10 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="9">
+        <v>20</v>
+      </c>
+      <c r="N68" s="8">
         <v>21</v>
-      </c>
-      <c r="C68" s="8">
-        <v>14</v>
       </c>
       <c r="O68" s="9"/>
       <c r="R68" s="8"/>
@@ -5848,9 +5937,17 @@
       <c r="U68" s="17"/>
     </row>
     <row r="69" spans="1:21">
+      <c r="A69" s="9">
+        <v>21</v>
+      </c>
+      <c r="C69" s="8">
+        <v>11</v>
+      </c>
+      <c r="O69" s="9"/>
+      <c r="R69" s="8"/>
       <c r="S69" s="16"/>
       <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
+      <c r="U69" s="17"/>
     </row>
     <row r="70" spans="1:21">
       <c r="S70" s="16"/>
@@ -5858,55 +5955,49 @@
       <c r="U70" s="16"/>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K71" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L71" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M71" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="S71" s="16"/>
       <c r="T71" s="16"/>
       <c r="U71" s="16"/>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="9">
-        <v>0</v>
-      </c>
-      <c r="J72" s="8">
-        <v>1</v>
+      <c r="A72" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="16"/>
@@ -5914,10 +6005,10 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="9">
+        <v>0</v>
+      </c>
+      <c r="J73" s="8">
         <v>1</v>
-      </c>
-      <c r="M73" s="8">
-        <v>2</v>
       </c>
       <c r="S73" s="16"/>
       <c r="T73" s="16"/>
@@ -5925,25 +6016,10 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="9">
+        <v>1</v>
+      </c>
+      <c r="M74" s="8">
         <v>2</v>
-      </c>
-      <c r="F74" s="8">
-        <v>3</v>
-      </c>
-      <c r="G74" s="8">
-        <v>3</v>
-      </c>
-      <c r="H74" s="8">
-        <v>4</v>
-      </c>
-      <c r="I74" s="8">
-        <v>4</v>
-      </c>
-      <c r="K74" s="8">
-        <v>5</v>
-      </c>
-      <c r="L74" s="8">
-        <v>5</v>
       </c>
       <c r="S74" s="16"/>
       <c r="T74" s="16"/>
@@ -5951,7 +6027,25 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="9">
+        <v>2</v>
+      </c>
+      <c r="F75" s="8">
         <v>3</v>
+      </c>
+      <c r="G75" s="8">
+        <v>3</v>
+      </c>
+      <c r="H75" s="8">
+        <v>4</v>
+      </c>
+      <c r="I75" s="8">
+        <v>4</v>
+      </c>
+      <c r="K75" s="8">
+        <v>5</v>
+      </c>
+      <c r="L75" s="8">
+        <v>5</v>
       </c>
       <c r="S75" s="16"/>
       <c r="T75" s="16"/>
@@ -5959,9 +6053,6 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="9">
-        <v>4</v>
-      </c>
-      <c r="F76" s="8">
         <v>3</v>
       </c>
       <c r="S76" s="16"/>
@@ -5970,7 +6061,10 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="9">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F77" s="8">
+        <v>3</v>
       </c>
       <c r="S77" s="16"/>
       <c r="T77" s="16"/>
@@ -5978,12 +6072,6 @@
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="9">
-        <v>6</v>
-      </c>
-      <c r="K78" s="8">
-        <v>5</v>
-      </c>
-      <c r="L78" s="8">
         <v>5</v>
       </c>
       <c r="S78" s="16"/>
@@ -5991,72 +6079,63 @@
       <c r="U78" s="16"/>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="9"/>
+      <c r="A79" s="9">
+        <v>6</v>
+      </c>
+      <c r="K79" s="8">
+        <v>5</v>
+      </c>
+      <c r="L79" s="8">
+        <v>5</v>
+      </c>
       <c r="S79" s="16"/>
       <c r="T79" s="16"/>
       <c r="U79" s="16"/>
     </row>
     <row r="80" spans="1:21">
+      <c r="A80" s="9"/>
       <c r="S80" s="16"/>
       <c r="T80" s="16"/>
       <c r="U80" s="16"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J81" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K81" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="S81" s="16"/>
       <c r="T81" s="16"/>
       <c r="U81" s="16"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="9">
-        <v>0</v>
-      </c>
-      <c r="B82" s="8">
-        <v>2</v>
-      </c>
-      <c r="H82" s="8">
-        <v>1</v>
-      </c>
-      <c r="I82" s="8">
-        <v>1</v>
-      </c>
-      <c r="J82" s="8">
-        <v>1</v>
-      </c>
-      <c r="K82" s="8">
-        <v>1</v>
+      <c r="A82" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J82" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K82" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="S82" s="16"/>
       <c r="T82" s="16"/>
@@ -6064,19 +6143,22 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" s="9">
+        <v>0</v>
+      </c>
+      <c r="B83" s="8">
+        <v>2</v>
+      </c>
+      <c r="H83" s="8">
         <v>1</v>
       </c>
-      <c r="D83" s="8">
-        <v>0</v>
-      </c>
-      <c r="E83" s="8">
-        <v>0</v>
-      </c>
-      <c r="F83" s="8">
-        <v>0</v>
-      </c>
-      <c r="G83" s="8">
-        <v>0</v>
+      <c r="I83" s="8">
+        <v>1</v>
+      </c>
+      <c r="J83" s="8">
+        <v>1</v>
+      </c>
+      <c r="K83" s="8">
+        <v>1</v>
       </c>
       <c r="S83" s="16"/>
       <c r="T83" s="16"/>
@@ -6084,7 +6166,19 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="9">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D84" s="8">
+        <v>0</v>
+      </c>
+      <c r="E84" s="8">
+        <v>0</v>
+      </c>
+      <c r="F84" s="8">
+        <v>0</v>
+      </c>
+      <c r="G84" s="8">
+        <v>0</v>
       </c>
       <c r="S84" s="16"/>
       <c r="T84" s="16"/>
@@ -6092,16 +6186,19 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="9">
-        <v>3</v>
-      </c>
-      <c r="C85" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S85" s="16"/>
       <c r="T85" s="16"/>
       <c r="U85" s="16"/>
     </row>
     <row r="86" spans="1:21">
+      <c r="A86" s="9">
+        <v>3</v>
+      </c>
+      <c r="C86" s="8">
+        <v>1</v>
+      </c>
       <c r="S86" s="16"/>
       <c r="T86" s="16"/>
       <c r="U86" s="16"/>
@@ -6112,7 +6209,6 @@
       <c r="U87" s="16"/>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="9"/>
       <c r="S88" s="16"/>
       <c r="T88" s="16"/>
       <c r="U88" s="16"/>
@@ -6128,6 +6224,12 @@
       <c r="S90" s="16"/>
       <c r="T90" s="16"/>
       <c r="U90" s="16"/>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91" s="9"/>
+      <c r="S91" s="16"/>
+      <c r="T91" s="16"/>
+      <c r="U91" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7141,8 +7243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7192,7 +7294,7 @@
         <v>59</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7203,7 +7305,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7214,7 +7316,7 @@
         <v>87</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7240,15 +7342,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="19"/>
       <c r="B1" s="19" t="s">
         <v>40</v>
@@ -7283,891 +7385,1020 @@
       <c r="L1" s="19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="19">
         <v>0</v>
       </c>
       <c r="B2" s="23" t="str">
-        <f>TEXT(Automatos!B12,"##")</f>
+        <f>IF(Automatos!B12="","",IF(Automatos!B12=0,"0",TEXT(Automatos!B12,"##")))</f>
         <v>1</v>
       </c>
       <c r="C2" s="23" t="str">
-        <f>TEXT(Automatos!C12,"##")</f>
+        <f>IF(Automatos!C12="","",IF(Automatos!C12=0,"0",TEXT(Automatos!C12,"##")))</f>
         <v>3</v>
       </c>
       <c r="D2" s="23" t="str">
-        <f>TEXT(Automatos!D12,"##")</f>
+        <f>IF(Automatos!D12="","",IF(Automatos!D12=0,"0",TEXT(Automatos!D12,"##")))</f>
         <v/>
       </c>
       <c r="E2" s="23" t="str">
-        <f>TEXT(Automatos!E12,"##")</f>
+        <f>IF(Automatos!E12="","",IF(Automatos!E12=0,"0",TEXT(Automatos!E12,"##")))</f>
         <v/>
       </c>
       <c r="F2" s="23" t="str">
-        <f>TEXT(Automatos!F12,"##")</f>
+        <f>IF(Automatos!F12="","",IF(Automatos!F12=0,"0",TEXT(Automatos!F12,"##")))</f>
         <v/>
       </c>
       <c r="G2" s="23" t="str">
-        <f>TEXT(Automatos!G12,"##")</f>
+        <f>IF(Automatos!G12="","",IF(Automatos!G12=0,"0",TEXT(Automatos!G12,"##")))</f>
         <v/>
       </c>
       <c r="H2" s="23" t="str">
-        <f>TEXT(Automatos!H12,"##")</f>
+        <f>IF(Automatos!H12="","",IF(Automatos!H12=0,"0",TEXT(Automatos!H12,"##")))</f>
         <v/>
       </c>
       <c r="I2" s="23" t="str">
-        <f>TEXT(Automatos!I12,"##")</f>
+        <f>IF(Automatos!I12="","",IF(Automatos!I12=0,"0",TEXT(Automatos!I12,"##")))</f>
         <v/>
       </c>
       <c r="J2" s="23" t="str">
-        <f>TEXT(Automatos!J12,"##")</f>
+        <f>IF(Automatos!J12="","",IF(Automatos!J12=0,"0",TEXT(Automatos!J12,"##")))</f>
         <v/>
       </c>
       <c r="K2" s="23" t="str">
-        <f>TEXT(Automatos!K12,"##")</f>
+        <f>IF(Automatos!K12="","",IF(Automatos!K12=0,"0",TEXT(Automatos!K12,"##")))</f>
         <v/>
       </c>
       <c r="L2" s="23" t="str">
-        <f>TEXT(Automatos!L12,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <f>IF(Automatos!L12="","",IF(Automatos!L12=0,"0",TEXT(Automatos!L12,"##")))</f>
+        <v/>
+      </c>
+      <c r="M2" s="23" t="str">
+        <f>IF(Automatos!M12="","",IF(Automatos!M12=0,"0",TEXT(Automatos!M12,"##")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="19">
         <v>1</v>
       </c>
       <c r="B3" s="23" t="str">
-        <f>TEXT(Automatos!B13,"##")</f>
+        <f>IF(Automatos!B13="","",IF(Automatos!B13=0,"0",TEXT(Automatos!B13,"##")))</f>
         <v/>
       </c>
       <c r="C3" s="23" t="str">
-        <f>TEXT(Automatos!C13,"##")</f>
+        <f>IF(Automatos!C13="","",IF(Automatos!C13=0,"0",TEXT(Automatos!C13,"##")))</f>
         <v/>
       </c>
       <c r="D3" s="23" t="str">
-        <f>TEXT(Automatos!D13,"##")</f>
+        <f>IF(Automatos!D13="","",IF(Automatos!D13=0,"0",TEXT(Automatos!D13,"##")))</f>
         <v>4</v>
       </c>
       <c r="E3" s="23" t="str">
-        <f>TEXT(Automatos!E13,"##")</f>
+        <f>IF(Automatos!E13="","",IF(Automatos!E13=0,"0",TEXT(Automatos!E13,"##")))</f>
         <v>4</v>
       </c>
       <c r="F3" s="23" t="str">
-        <f>TEXT(Automatos!F13,"##")</f>
+        <f>IF(Automatos!F13="","",IF(Automatos!F13=0,"0",TEXT(Automatos!F13,"##")))</f>
         <v>4</v>
       </c>
       <c r="G3" s="23" t="str">
-        <f>TEXT(Automatos!G13,"##")</f>
+        <f>IF(Automatos!G13="","",IF(Automatos!G13=0,"0",TEXT(Automatos!G13,"##")))</f>
         <v/>
       </c>
       <c r="H3" s="23" t="str">
-        <f>TEXT(Automatos!H13,"##")</f>
+        <f>IF(Automatos!H13="","",IF(Automatos!H13=0,"0",TEXT(Automatos!H13,"##")))</f>
         <v/>
       </c>
       <c r="I3" s="23" t="str">
-        <f>TEXT(Automatos!I13,"##")</f>
+        <f>IF(Automatos!I13="","",IF(Automatos!I13=0,"0",TEXT(Automatos!I13,"##")))</f>
         <v/>
       </c>
       <c r="J3" s="23" t="str">
-        <f>TEXT(Automatos!J13,"##")</f>
+        <f>IF(Automatos!J13="","",IF(Automatos!J13=0,"0",TEXT(Automatos!J13,"##")))</f>
         <v/>
       </c>
       <c r="K3" s="23" t="str">
-        <f>TEXT(Automatos!K13,"##")</f>
+        <f>IF(Automatos!K13="","",IF(Automatos!K13=0,"0",TEXT(Automatos!K13,"##")))</f>
         <v/>
       </c>
       <c r="L3" s="23" t="str">
-        <f>TEXT(Automatos!L13,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <f>IF(Automatos!L13="","",IF(Automatos!L13=0,"0",TEXT(Automatos!L13,"##")))</f>
+        <v/>
+      </c>
+      <c r="M3" s="23" t="str">
+        <f>IF(Automatos!M13="","",IF(Automatos!M13=0,"0",TEXT(Automatos!M13,"##")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="19">
         <v>2</v>
       </c>
       <c r="B4" s="23" t="str">
-        <f>TEXT(Automatos!B14,"##")</f>
+        <f>IF(Automatos!B14="","",IF(Automatos!B14=0,"0",TEXT(Automatos!B14,"##")))</f>
         <v/>
       </c>
       <c r="C4" s="23" t="str">
-        <f>TEXT(Automatos!C14,"##")</f>
+        <f>IF(Automatos!C14="","",IF(Automatos!C14=0,"0",TEXT(Automatos!C14,"##")))</f>
         <v>3</v>
       </c>
       <c r="D4" s="23" t="str">
-        <f>TEXT(Automatos!D14,"##")</f>
+        <f>IF(Automatos!D14="","",IF(Automatos!D14=0,"0",TEXT(Automatos!D14,"##")))</f>
         <v/>
       </c>
       <c r="E4" s="23" t="str">
-        <f>TEXT(Automatos!E14,"##")</f>
+        <f>IF(Automatos!E14="","",IF(Automatos!E14=0,"0",TEXT(Automatos!E14,"##")))</f>
         <v/>
       </c>
       <c r="F4" s="23" t="str">
-        <f>TEXT(Automatos!F14,"##")</f>
+        <f>IF(Automatos!F14="","",IF(Automatos!F14=0,"0",TEXT(Automatos!F14,"##")))</f>
         <v/>
       </c>
       <c r="G4" s="23" t="str">
-        <f>TEXT(Automatos!G14,"##")</f>
+        <f>IF(Automatos!G14="","",IF(Automatos!G14=0,"0",TEXT(Automatos!G14,"##")))</f>
         <v/>
       </c>
       <c r="H4" s="23" t="str">
-        <f>TEXT(Automatos!H14,"##")</f>
+        <f>IF(Automatos!H14="","",IF(Automatos!H14=0,"0",TEXT(Automatos!H14,"##")))</f>
         <v/>
       </c>
       <c r="I4" s="23" t="str">
-        <f>TEXT(Automatos!I14,"##")</f>
+        <f>IF(Automatos!I14="","",IF(Automatos!I14=0,"0",TEXT(Automatos!I14,"##")))</f>
         <v/>
       </c>
       <c r="J4" s="23" t="str">
-        <f>TEXT(Automatos!J14,"##")</f>
+        <f>IF(Automatos!J14="","",IF(Automatos!J14=0,"0",TEXT(Automatos!J14,"##")))</f>
         <v/>
       </c>
       <c r="K4" s="23" t="str">
-        <f>TEXT(Automatos!K14,"##")</f>
+        <f>IF(Automatos!K14="","",IF(Automatos!K14=0,"0",TEXT(Automatos!K14,"##")))</f>
         <v/>
       </c>
       <c r="L4" s="23" t="str">
-        <f>TEXT(Automatos!L14,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <f>IF(Automatos!L14="","",IF(Automatos!L14=0,"0",TEXT(Automatos!L14,"##")))</f>
+        <v/>
+      </c>
+      <c r="M4" s="23" t="str">
+        <f>IF(Automatos!M14="","",IF(Automatos!M14=0,"0",TEXT(Automatos!M14,"##")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="19">
         <v>3</v>
       </c>
       <c r="B5" s="23" t="str">
-        <f>TEXT(Automatos!B15,"##")</f>
+        <f>IF(Automatos!B15="","",IF(Automatos!B15=0,"0",TEXT(Automatos!B15,"##")))</f>
         <v/>
       </c>
       <c r="C5" s="23" t="str">
-        <f>TEXT(Automatos!C15,"##")</f>
+        <f>IF(Automatos!C15="","",IF(Automatos!C15=0,"0",TEXT(Automatos!C15,"##")))</f>
         <v/>
       </c>
       <c r="D5" s="23" t="str">
-        <f>TEXT(Automatos!D15,"##")</f>
+        <f>IF(Automatos!D15="","",IF(Automatos!D15=0,"0",TEXT(Automatos!D15,"##")))</f>
         <v/>
       </c>
       <c r="E5" s="23" t="str">
-        <f>TEXT(Automatos!E15,"##")</f>
+        <f>IF(Automatos!E15="","",IF(Automatos!E15=0,"0",TEXT(Automatos!E15,"##")))</f>
         <v/>
       </c>
       <c r="F5" s="23" t="str">
-        <f>TEXT(Automatos!F15,"##")</f>
+        <f>IF(Automatos!F15="","",IF(Automatos!F15=0,"0",TEXT(Automatos!F15,"##")))</f>
         <v/>
       </c>
       <c r="G5" s="23" t="str">
-        <f>TEXT(Automatos!G15,"##")</f>
+        <f>IF(Automatos!G15="","",IF(Automatos!G15=0,"0",TEXT(Automatos!G15,"##")))</f>
         <v>5</v>
       </c>
       <c r="H5" s="23" t="str">
-        <f>TEXT(Automatos!H15,"##")</f>
+        <f>IF(Automatos!H15="","",IF(Automatos!H15=0,"0",TEXT(Automatos!H15,"##")))</f>
         <v/>
       </c>
       <c r="I5" s="23" t="str">
-        <f>TEXT(Automatos!I15,"##")</f>
+        <f>IF(Automatos!I15="","",IF(Automatos!I15=0,"0",TEXT(Automatos!I15,"##")))</f>
         <v/>
       </c>
       <c r="J5" s="23" t="str">
-        <f>TEXT(Automatos!J15,"##")</f>
+        <f>IF(Automatos!J15="","",IF(Automatos!J15=0,"0",TEXT(Automatos!J15,"##")))</f>
         <v/>
       </c>
       <c r="K5" s="23" t="str">
-        <f>TEXT(Automatos!K15,"##")</f>
+        <f>IF(Automatos!K15="","",IF(Automatos!K15=0,"0",TEXT(Automatos!K15,"##")))</f>
         <v/>
       </c>
       <c r="L5" s="23" t="str">
-        <f>TEXT(Automatos!L15,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <f>IF(Automatos!L15="","",IF(Automatos!L15=0,"0",TEXT(Automatos!L15,"##")))</f>
+        <v/>
+      </c>
+      <c r="M5" s="23" t="str">
+        <f>IF(Automatos!M15="","",IF(Automatos!M15=0,"0",TEXT(Automatos!M15,"##")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="19">
         <v>4</v>
       </c>
       <c r="B6" s="23" t="str">
-        <f>TEXT(Automatos!B16,"##")</f>
+        <f>IF(Automatos!B16="","",IF(Automatos!B16=0,"0",TEXT(Automatos!B16,"##")))</f>
         <v/>
       </c>
       <c r="C6" s="23" t="str">
-        <f>TEXT(Automatos!C16,"##")</f>
+        <f>IF(Automatos!C16="","",IF(Automatos!C16=0,"0",TEXT(Automatos!C16,"##")))</f>
         <v/>
       </c>
       <c r="D6" s="23" t="str">
-        <f>TEXT(Automatos!D16,"##")</f>
+        <f>IF(Automatos!D16="","",IF(Automatos!D16=0,"0",TEXT(Automatos!D16,"##")))</f>
         <v/>
       </c>
       <c r="E6" s="23" t="str">
-        <f>TEXT(Automatos!E16,"##")</f>
+        <f>IF(Automatos!E16="","",IF(Automatos!E16=0,"0",TEXT(Automatos!E16,"##")))</f>
         <v/>
       </c>
       <c r="F6" s="23" t="str">
-        <f>TEXT(Automatos!F16,"##")</f>
+        <f>IF(Automatos!F16="","",IF(Automatos!F16=0,"0",TEXT(Automatos!F16,"##")))</f>
         <v/>
       </c>
       <c r="G6" s="23" t="str">
-        <f>TEXT(Automatos!G16,"##")</f>
+        <f>IF(Automatos!G16="","",IF(Automatos!G16=0,"0",TEXT(Automatos!G16,"##")))</f>
         <v/>
       </c>
       <c r="H6" s="23" t="str">
-        <f>TEXT(Automatos!H16,"##")</f>
+        <f>IF(Automatos!H16="","",IF(Automatos!H16=0,"0",TEXT(Automatos!H16,"##")))</f>
         <v/>
       </c>
       <c r="I6" s="23" t="str">
-        <f>TEXT(Automatos!I16,"##")</f>
+        <f>IF(Automatos!I16="","",IF(Automatos!I16=0,"0",TEXT(Automatos!I16,"##")))</f>
         <v/>
       </c>
       <c r="J6" s="23" t="str">
-        <f>TEXT(Automatos!J16,"##")</f>
+        <f>IF(Automatos!J16="","",IF(Automatos!J16=0,"0",TEXT(Automatos!J16,"##")))</f>
         <v/>
       </c>
       <c r="K6" s="23" t="str">
-        <f>TEXT(Automatos!K16,"##")</f>
+        <f>IF(Automatos!K16="","",IF(Automatos!K16=0,"0",TEXT(Automatos!K16,"##")))</f>
         <v/>
       </c>
       <c r="L6" s="23" t="str">
-        <f>TEXT(Automatos!L16,"##")</f>
+        <f>IF(Automatos!L16="","",IF(Automatos!L16=0,"0",TEXT(Automatos!L16,"##")))</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="23" t="str">
+        <f>IF(Automatos!M16="","",IF(Automatos!M16=0,"0",TEXT(Automatos!M16,"##")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="19">
         <v>5</v>
       </c>
       <c r="B7" s="23" t="str">
-        <f>TEXT(Automatos!B17,"##")</f>
+        <f>IF(Automatos!B17="","",IF(Automatos!B17=0,"0",TEXT(Automatos!B17,"##")))</f>
         <v/>
       </c>
       <c r="C7" s="23" t="str">
-        <f>TEXT(Automatos!C17,"##")</f>
+        <f>IF(Automatos!C17="","",IF(Automatos!C17=0,"0",TEXT(Automatos!C17,"##")))</f>
         <v/>
       </c>
       <c r="D7" s="23" t="str">
-        <f>TEXT(Automatos!D17,"##")</f>
+        <f>IF(Automatos!D17="","",IF(Automatos!D17=0,"0",TEXT(Automatos!D17,"##")))</f>
         <v/>
       </c>
       <c r="E7" s="23" t="str">
-        <f>TEXT(Automatos!E17,"##")</f>
+        <f>IF(Automatos!E17="","",IF(Automatos!E17=0,"0",TEXT(Automatos!E17,"##")))</f>
         <v/>
       </c>
       <c r="F7" s="23" t="str">
-        <f>TEXT(Automatos!F17,"##")</f>
+        <f>IF(Automatos!F17="","",IF(Automatos!F17=0,"0",TEXT(Automatos!F17,"##")))</f>
         <v/>
       </c>
       <c r="G7" s="23" t="str">
-        <f>TEXT(Automatos!G17,"##")</f>
+        <f>IF(Automatos!G17="","",IF(Automatos!G17=0,"0",TEXT(Automatos!G17,"##")))</f>
         <v/>
       </c>
       <c r="H7" s="23" t="str">
-        <f>TEXT(Automatos!H17,"##")</f>
+        <f>IF(Automatos!H17="","",IF(Automatos!H17=0,"0",TEXT(Automatos!H17,"##")))</f>
         <v>7</v>
       </c>
       <c r="I7" s="23" t="str">
-        <f>TEXT(Automatos!I17,"##")</f>
+        <f>IF(Automatos!I17="","",IF(Automatos!I17=0,"0",TEXT(Automatos!I17,"##")))</f>
         <v/>
       </c>
       <c r="J7" s="23" t="str">
-        <f>TEXT(Automatos!J17,"##")</f>
+        <f>IF(Automatos!J17="","",IF(Automatos!J17=0,"0",TEXT(Automatos!J17,"##")))</f>
         <v/>
       </c>
       <c r="K7" s="23" t="str">
-        <f>TEXT(Automatos!K17,"##")</f>
+        <f>IF(Automatos!K17="","",IF(Automatos!K17=0,"0",TEXT(Automatos!K17,"##")))</f>
         <v/>
       </c>
       <c r="L7" s="23" t="str">
-        <f>TEXT(Automatos!L17,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <f>IF(Automatos!L17="","",IF(Automatos!L17=0,"0",TEXT(Automatos!L17,"##")))</f>
+        <v/>
+      </c>
+      <c r="M7" s="23" t="str">
+        <f>IF(Automatos!M17="","",IF(Automatos!M17=0,"0",TEXT(Automatos!M17,"##")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="19">
         <v>6</v>
       </c>
       <c r="B8" s="23" t="str">
-        <f>TEXT(Automatos!B18,"##")</f>
+        <f>IF(Automatos!B18="","",IF(Automatos!B18=0,"0",TEXT(Automatos!B18,"##")))</f>
         <v/>
       </c>
       <c r="C8" s="23" t="str">
-        <f>TEXT(Automatos!C18,"##")</f>
+        <f>IF(Automatos!C18="","",IF(Automatos!C18=0,"0",TEXT(Automatos!C18,"##")))</f>
         <v/>
       </c>
       <c r="D8" s="23" t="str">
-        <f>TEXT(Automatos!D18,"##")</f>
+        <f>IF(Automatos!D18="","",IF(Automatos!D18=0,"0",TEXT(Automatos!D18,"##")))</f>
         <v/>
       </c>
       <c r="E8" s="23" t="str">
-        <f>TEXT(Automatos!E18,"##")</f>
+        <f>IF(Automatos!E18="","",IF(Automatos!E18=0,"0",TEXT(Automatos!E18,"##")))</f>
         <v/>
       </c>
       <c r="F8" s="23" t="str">
-        <f>TEXT(Automatos!F18,"##")</f>
+        <f>IF(Automatos!F18="","",IF(Automatos!F18=0,"0",TEXT(Automatos!F18,"##")))</f>
         <v/>
       </c>
       <c r="G8" s="23" t="str">
-        <f>TEXT(Automatos!G18,"##")</f>
+        <f>IF(Automatos!G18="","",IF(Automatos!G18=0,"0",TEXT(Automatos!G18,"##")))</f>
         <v>8</v>
       </c>
       <c r="H8" s="23" t="str">
-        <f>TEXT(Automatos!H18,"##")</f>
+        <f>IF(Automatos!H18="","",IF(Automatos!H18=0,"0",TEXT(Automatos!H18,"##")))</f>
         <v/>
       </c>
       <c r="I8" s="23" t="str">
-        <f>TEXT(Automatos!I18,"##")</f>
+        <f>IF(Automatos!I18="","",IF(Automatos!I18=0,"0",TEXT(Automatos!I18,"##")))</f>
         <v/>
       </c>
       <c r="J8" s="23" t="str">
-        <f>TEXT(Automatos!J18,"##")</f>
+        <f>IF(Automatos!J18="","",IF(Automatos!J18=0,"0",TEXT(Automatos!J18,"##")))</f>
         <v/>
       </c>
       <c r="K8" s="23" t="str">
-        <f>TEXT(Automatos!K18,"##")</f>
+        <f>IF(Automatos!K18="","",IF(Automatos!K18=0,"0",TEXT(Automatos!K18,"##")))</f>
         <v/>
       </c>
       <c r="L8" s="23" t="str">
-        <f>TEXT(Automatos!L18,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <f>IF(Automatos!L18="","",IF(Automatos!L18=0,"0",TEXT(Automatos!L18,"##")))</f>
+        <v/>
+      </c>
+      <c r="M8" s="23" t="str">
+        <f>IF(Automatos!M18="","",IF(Automatos!M18=0,"0",TEXT(Automatos!M18,"##")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="19">
         <v>7</v>
       </c>
       <c r="B9" s="23" t="str">
-        <f>TEXT(Automatos!B19,"##")</f>
+        <f>IF(Automatos!B19="","",IF(Automatos!B19=0,"0",TEXT(Automatos!B19,"##")))</f>
         <v/>
       </c>
       <c r="C9" s="23" t="str">
-        <f>TEXT(Automatos!C19,"##")</f>
+        <f>IF(Automatos!C19="","",IF(Automatos!C19=0,"0",TEXT(Automatos!C19,"##")))</f>
         <v/>
       </c>
       <c r="D9" s="23" t="str">
-        <f>TEXT(Automatos!D19,"##")</f>
+        <f>IF(Automatos!D19="","",IF(Automatos!D19=0,"0",TEXT(Automatos!D19,"##")))</f>
         <v/>
       </c>
       <c r="E9" s="23" t="str">
-        <f>TEXT(Automatos!E19,"##")</f>
+        <f>IF(Automatos!E19="","",IF(Automatos!E19=0,"0",TEXT(Automatos!E19,"##")))</f>
         <v/>
       </c>
       <c r="F9" s="23" t="str">
-        <f>TEXT(Automatos!F19,"##")</f>
+        <f>IF(Automatos!F19="","",IF(Automatos!F19=0,"0",TEXT(Automatos!F19,"##")))</f>
         <v/>
       </c>
       <c r="G9" s="23" t="str">
-        <f>TEXT(Automatos!G19,"##")</f>
+        <f>IF(Automatos!G19="","",IF(Automatos!G19=0,"0",TEXT(Automatos!G19,"##")))</f>
         <v/>
       </c>
       <c r="H9" s="23" t="str">
-        <f>TEXT(Automatos!H19,"##")</f>
+        <f>IF(Automatos!H19="","",IF(Automatos!H19=0,"0",TEXT(Automatos!H19,"##")))</f>
         <v/>
       </c>
       <c r="I9" s="23" t="str">
-        <f>TEXT(Automatos!I19,"##")</f>
+        <f>IF(Automatos!I19="","",IF(Automatos!I19=0,"0",TEXT(Automatos!I19,"##")))</f>
         <v>9</v>
       </c>
       <c r="J9" s="23" t="str">
-        <f>TEXT(Automatos!J19,"##")</f>
+        <f>IF(Automatos!J19="","",IF(Automatos!J19=0,"0",TEXT(Automatos!J19,"##")))</f>
         <v/>
       </c>
       <c r="K9" s="23" t="str">
-        <f>TEXT(Automatos!K19,"##")</f>
+        <f>IF(Automatos!K19="","",IF(Automatos!K19=0,"0",TEXT(Automatos!K19,"##")))</f>
         <v/>
       </c>
       <c r="L9" s="23" t="str">
-        <f>TEXT(Automatos!L19,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <f>IF(Automatos!L19="","",IF(Automatos!L19=0,"0",TEXT(Automatos!L19,"##")))</f>
+        <v/>
+      </c>
+      <c r="M9" s="23" t="str">
+        <f>IF(Automatos!M19="","",IF(Automatos!M19=0,"0",TEXT(Automatos!M19,"##")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="19">
         <v>8</v>
       </c>
       <c r="B10" s="23" t="str">
-        <f>TEXT(Automatos!B20,"##")</f>
+        <f>IF(Automatos!B20="","",IF(Automatos!B20=0,"0",TEXT(Automatos!B20,"##")))</f>
         <v/>
       </c>
       <c r="C10" s="23" t="str">
-        <f>TEXT(Automatos!C20,"##")</f>
+        <f>IF(Automatos!C20="","",IF(Automatos!C20=0,"0",TEXT(Automatos!C20,"##")))</f>
         <v/>
       </c>
       <c r="D10" s="23" t="str">
-        <f>TEXT(Automatos!D20,"##")</f>
+        <f>IF(Automatos!D20="","",IF(Automatos!D20=0,"0",TEXT(Automatos!D20,"##")))</f>
         <v/>
       </c>
       <c r="E10" s="23" t="str">
-        <f>TEXT(Automatos!E20,"##")</f>
+        <f>IF(Automatos!E20="","",IF(Automatos!E20=0,"0",TEXT(Automatos!E20,"##")))</f>
         <v/>
       </c>
       <c r="F10" s="23" t="str">
-        <f>TEXT(Automatos!F20,"##")</f>
+        <f>IF(Automatos!F20="","",IF(Automatos!F20=0,"0",TEXT(Automatos!F20,"##")))</f>
         <v/>
       </c>
       <c r="G10" s="23" t="str">
-        <f>TEXT(Automatos!G20,"##")</f>
+        <f>IF(Automatos!G20="","",IF(Automatos!G20=0,"0",TEXT(Automatos!G20,"##")))</f>
         <v/>
       </c>
       <c r="H10" s="23" t="str">
-        <f>TEXT(Automatos!H20,"##")</f>
+        <f>IF(Automatos!H20="","",IF(Automatos!H20=0,"0",TEXT(Automatos!H20,"##")))</f>
         <v/>
       </c>
       <c r="I10" s="23" t="str">
-        <f>TEXT(Automatos!I20,"##")</f>
+        <f>IF(Automatos!I20="","",IF(Automatos!I20=0,"0",TEXT(Automatos!I20,"##")))</f>
         <v/>
       </c>
       <c r="J10" s="23" t="str">
-        <f>TEXT(Automatos!J20,"##")</f>
+        <f>IF(Automatos!J20="","",IF(Automatos!J20=0,"0",TEXT(Automatos!J20,"##")))</f>
         <v/>
       </c>
       <c r="K10" s="23" t="str">
-        <f>TEXT(Automatos!K20,"##")</f>
+        <f>IF(Automatos!K20="","",IF(Automatos!K20=0,"0",TEXT(Automatos!K20,"##")))</f>
         <v/>
       </c>
       <c r="L10" s="23" t="str">
-        <f>TEXT(Automatos!L20,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <f>IF(Automatos!L20="","",IF(Automatos!L20=0,"0",TEXT(Automatos!L20,"##")))</f>
+        <v/>
+      </c>
+      <c r="M10" s="23" t="str">
+        <f>IF(Automatos!M20="","",IF(Automatos!M20=0,"0",TEXT(Automatos!M20,"##")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="19">
         <v>9</v>
       </c>
       <c r="B11" s="23" t="str">
-        <f>TEXT(Automatos!B21,"##")</f>
+        <f>IF(Automatos!B21="","",IF(Automatos!B21=0,"0",TEXT(Automatos!B21,"##")))</f>
         <v/>
       </c>
       <c r="C11" s="23" t="str">
-        <f>TEXT(Automatos!C21,"##")</f>
+        <f>IF(Automatos!C21="","",IF(Automatos!C21=0,"0",TEXT(Automatos!C21,"##")))</f>
         <v/>
       </c>
       <c r="D11" s="23" t="str">
-        <f>TEXT(Automatos!D21,"##")</f>
+        <f>IF(Automatos!D21="","",IF(Automatos!D21=0,"0",TEXT(Automatos!D21,"##")))</f>
         <v/>
       </c>
       <c r="E11" s="23" t="str">
-        <f>TEXT(Automatos!E21,"##")</f>
+        <f>IF(Automatos!E21="","",IF(Automatos!E21=0,"0",TEXT(Automatos!E21,"##")))</f>
         <v/>
       </c>
       <c r="F11" s="23" t="str">
-        <f>TEXT(Automatos!F21,"##")</f>
+        <f>IF(Automatos!F21="","",IF(Automatos!F21=0,"0",TEXT(Automatos!F21,"##")))</f>
         <v/>
       </c>
       <c r="G11" s="23" t="str">
-        <f>TEXT(Automatos!G21,"##")</f>
+        <f>IF(Automatos!G21="","",IF(Automatos!G21=0,"0",TEXT(Automatos!G21,"##")))</f>
         <v/>
       </c>
       <c r="H11" s="23" t="str">
-        <f>TEXT(Automatos!H21,"##")</f>
+        <f>IF(Automatos!H21="","",IF(Automatos!H21=0,"0",TEXT(Automatos!H21,"##")))</f>
         <v/>
       </c>
       <c r="I11" s="23" t="str">
-        <f>TEXT(Automatos!I21,"##")</f>
+        <f>IF(Automatos!I21="","",IF(Automatos!I21=0,"0",TEXT(Automatos!I21,"##")))</f>
         <v/>
       </c>
       <c r="J11" s="23" t="str">
-        <f>TEXT(Automatos!J21,"##")</f>
+        <f>IF(Automatos!J21="","",IF(Automatos!J21=0,"0",TEXT(Automatos!J21,"##")))</f>
         <v>12</v>
       </c>
       <c r="K11" s="23" t="str">
-        <f>TEXT(Automatos!K21,"##")</f>
+        <f>IF(Automatos!K21="","",IF(Automatos!K21=0,"0",TEXT(Automatos!K21,"##")))</f>
         <v/>
       </c>
       <c r="L11" s="23" t="str">
-        <f>TEXT(Automatos!L21,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <f>IF(Automatos!L21="","",IF(Automatos!L21=0,"0",TEXT(Automatos!L21,"##")))</f>
+        <v/>
+      </c>
+      <c r="M11" s="23" t="str">
+        <f>IF(Automatos!M21="","",IF(Automatos!M21=0,"0",TEXT(Automatos!M21,"##")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="19">
         <v>10</v>
       </c>
       <c r="B12" s="23" t="str">
-        <f>TEXT(Automatos!B22,"##")</f>
+        <f>IF(Automatos!B22="","",IF(Automatos!B22=0,"0",TEXT(Automatos!B22,"##")))</f>
         <v/>
       </c>
       <c r="C12" s="23" t="str">
-        <f>TEXT(Automatos!C22,"##")</f>
+        <f>IF(Automatos!C22="","",IF(Automatos!C22=0,"0",TEXT(Automatos!C22,"##")))</f>
         <v/>
       </c>
       <c r="D12" s="23" t="str">
-        <f>TEXT(Automatos!D22,"##")</f>
+        <f>IF(Automatos!D22="","",IF(Automatos!D22=0,"0",TEXT(Automatos!D22,"##")))</f>
         <v/>
       </c>
       <c r="E12" s="23" t="str">
-        <f>TEXT(Automatos!E22,"##")</f>
+        <f>IF(Automatos!E22="","",IF(Automatos!E22=0,"0",TEXT(Automatos!E22,"##")))</f>
         <v/>
       </c>
       <c r="F12" s="23" t="str">
-        <f>TEXT(Automatos!F22,"##")</f>
+        <f>IF(Automatos!F22="","",IF(Automatos!F22=0,"0",TEXT(Automatos!F22,"##")))</f>
         <v/>
       </c>
       <c r="G12" s="23" t="str">
-        <f>TEXT(Automatos!G22,"##")</f>
+        <f>IF(Automatos!G22="","",IF(Automatos!G22=0,"0",TEXT(Automatos!G22,"##")))</f>
         <v/>
       </c>
       <c r="H12" s="23" t="str">
-        <f>TEXT(Automatos!H22,"##")</f>
+        <f>IF(Automatos!H22="","",IF(Automatos!H22=0,"0",TEXT(Automatos!H22,"##")))</f>
         <v>13</v>
       </c>
       <c r="I12" s="23" t="str">
-        <f>TEXT(Automatos!I22,"##")</f>
+        <f>IF(Automatos!I22="","",IF(Automatos!I22=0,"0",TEXT(Automatos!I22,"##")))</f>
         <v/>
       </c>
       <c r="J12" s="23" t="str">
-        <f>TEXT(Automatos!J22,"##")</f>
+        <f>IF(Automatos!J22="","",IF(Automatos!J22=0,"0",TEXT(Automatos!J22,"##")))</f>
         <v/>
       </c>
       <c r="K12" s="23" t="str">
-        <f>TEXT(Automatos!K22,"##")</f>
+        <f>IF(Automatos!K22="","",IF(Automatos!K22=0,"0",TEXT(Automatos!K22,"##")))</f>
         <v/>
       </c>
       <c r="L12" s="23" t="str">
-        <f>TEXT(Automatos!L22,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <f>IF(Automatos!L22="","",IF(Automatos!L22=0,"0",TEXT(Automatos!L22,"##")))</f>
+        <v/>
+      </c>
+      <c r="M12" s="23" t="str">
+        <f>IF(Automatos!M22="","",IF(Automatos!M22=0,"0",TEXT(Automatos!M22,"##")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="19">
         <v>11</v>
       </c>
       <c r="B13" s="23" t="str">
-        <f>TEXT(Automatos!B23,"##")</f>
+        <f>IF(Automatos!B23="","",IF(Automatos!B23=0,"0",TEXT(Automatos!B23,"##")))</f>
         <v/>
       </c>
       <c r="C13" s="23" t="str">
-        <f>TEXT(Automatos!C23,"##")</f>
+        <f>IF(Automatos!C23="","",IF(Automatos!C23=0,"0",TEXT(Automatos!C23,"##")))</f>
         <v/>
       </c>
       <c r="D13" s="23" t="str">
-        <f>TEXT(Automatos!D23,"##")</f>
+        <f>IF(Automatos!D23="","",IF(Automatos!D23=0,"0",TEXT(Automatos!D23,"##")))</f>
         <v/>
       </c>
       <c r="E13" s="23" t="str">
-        <f>TEXT(Automatos!E23,"##")</f>
+        <f>IF(Automatos!E23="","",IF(Automatos!E23=0,"0",TEXT(Automatos!E23,"##")))</f>
         <v/>
       </c>
       <c r="F13" s="23" t="str">
-        <f>TEXT(Automatos!F23,"##")</f>
+        <f>IF(Automatos!F23="","",IF(Automatos!F23=0,"0",TEXT(Automatos!F23,"##")))</f>
         <v/>
       </c>
       <c r="G13" s="23" t="str">
-        <f>TEXT(Automatos!G23,"##")</f>
+        <f>IF(Automatos!G23="","",IF(Automatos!G23=0,"0",TEXT(Automatos!G23,"##")))</f>
         <v/>
       </c>
       <c r="H13" s="23" t="str">
-        <f>TEXT(Automatos!H23,"##")</f>
+        <f>IF(Automatos!H23="","",IF(Automatos!H23=0,"0",TEXT(Automatos!H23,"##")))</f>
         <v/>
       </c>
       <c r="I13" s="23" t="str">
-        <f>TEXT(Automatos!I23,"##")</f>
+        <f>IF(Automatos!I23="","",IF(Automatos!I23=0,"0",TEXT(Automatos!I23,"##")))</f>
         <v/>
       </c>
       <c r="J13" s="23" t="str">
-        <f>TEXT(Automatos!J23,"##")</f>
+        <f>IF(Automatos!J23="","",IF(Automatos!J23=0,"0",TEXT(Automatos!J23,"##")))</f>
         <v>12</v>
       </c>
       <c r="K13" s="23" t="str">
-        <f>TEXT(Automatos!K23,"##")</f>
+        <f>IF(Automatos!K23="","",IF(Automatos!K23=0,"0",TEXT(Automatos!K23,"##")))</f>
         <v/>
       </c>
       <c r="L13" s="23" t="str">
-        <f>TEXT(Automatos!L23,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <f>IF(Automatos!L23="","",IF(Automatos!L23=0,"0",TEXT(Automatos!L23,"##")))</f>
+        <v/>
+      </c>
+      <c r="M13" s="23" t="str">
+        <f>IF(Automatos!M23="","",IF(Automatos!M23=0,"0",TEXT(Automatos!M23,"##")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="19">
         <v>12</v>
       </c>
       <c r="B14" s="23" t="str">
-        <f>TEXT(Automatos!B24,"##")</f>
+        <f>IF(Automatos!B24="","",IF(Automatos!B24=0,"0",TEXT(Automatos!B24,"##")))</f>
         <v/>
       </c>
       <c r="C14" s="23" t="str">
-        <f>TEXT(Automatos!C24,"##")</f>
+        <f>IF(Automatos!C24="","",IF(Automatos!C24=0,"0",TEXT(Automatos!C24,"##")))</f>
         <v/>
       </c>
       <c r="D14" s="23" t="str">
-        <f>TEXT(Automatos!D24,"##")</f>
+        <f>IF(Automatos!D24="","",IF(Automatos!D24=0,"0",TEXT(Automatos!D24,"##")))</f>
         <v/>
       </c>
       <c r="E14" s="23" t="str">
-        <f>TEXT(Automatos!E24,"##")</f>
+        <f>IF(Automatos!E24="","",IF(Automatos!E24=0,"0",TEXT(Automatos!E24,"##")))</f>
         <v/>
       </c>
       <c r="F14" s="23" t="str">
-        <f>TEXT(Automatos!F24,"##")</f>
+        <f>IF(Automatos!F24="","",IF(Automatos!F24=0,"0",TEXT(Automatos!F24,"##")))</f>
         <v/>
       </c>
       <c r="G14" s="23" t="str">
-        <f>TEXT(Automatos!G24,"##")</f>
+        <f>IF(Automatos!G24="","",IF(Automatos!G24=0,"0",TEXT(Automatos!G24,"##")))</f>
         <v/>
       </c>
       <c r="H14" s="23" t="str">
-        <f>TEXT(Automatos!H24,"##")</f>
+        <f>IF(Automatos!H24="","",IF(Automatos!H24=0,"0",TEXT(Automatos!H24,"##")))</f>
         <v/>
       </c>
       <c r="I14" s="23" t="str">
-        <f>TEXT(Automatos!I24,"##")</f>
+        <f>IF(Automatos!I24="","",IF(Automatos!I24=0,"0",TEXT(Automatos!I24,"##")))</f>
         <v/>
       </c>
       <c r="J14" s="23" t="str">
-        <f>TEXT(Automatos!J24,"##")</f>
+        <f>IF(Automatos!J24="","",IF(Automatos!J24=0,"0",TEXT(Automatos!J24,"##")))</f>
         <v/>
       </c>
       <c r="K14" s="23" t="str">
-        <f>TEXT(Automatos!K24,"##")</f>
+        <f>IF(Automatos!K24="","",IF(Automatos!K24=0,"0",TEXT(Automatos!K24,"##")))</f>
         <v/>
       </c>
       <c r="L14" s="23" t="str">
-        <f>TEXT(Automatos!L24,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <f>IF(Automatos!L24="","",IF(Automatos!L24=0,"0",TEXT(Automatos!L24,"##")))</f>
+        <v/>
+      </c>
+      <c r="M14" s="23" t="str">
+        <f>IF(Automatos!M24="","",IF(Automatos!M24=0,"0",TEXT(Automatos!M24,"##")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="19">
         <v>13</v>
       </c>
       <c r="B15" s="23" t="str">
-        <f>TEXT(Automatos!B25,"##")</f>
+        <f>IF(Automatos!B25="","",IF(Automatos!B25=0,"0",TEXT(Automatos!B25,"##")))</f>
         <v/>
       </c>
       <c r="C15" s="23" t="str">
-        <f>TEXT(Automatos!C25,"##")</f>
+        <f>IF(Automatos!C25="","",IF(Automatos!C25=0,"0",TEXT(Automatos!C25,"##")))</f>
         <v/>
       </c>
       <c r="D15" s="23" t="str">
-        <f>TEXT(Automatos!D25,"##")</f>
+        <f>IF(Automatos!D25="","",IF(Automatos!D25=0,"0",TEXT(Automatos!D25,"##")))</f>
         <v/>
       </c>
       <c r="E15" s="23" t="str">
-        <f>TEXT(Automatos!E25,"##")</f>
+        <f>IF(Automatos!E25="","",IF(Automatos!E25=0,"0",TEXT(Automatos!E25,"##")))</f>
         <v/>
       </c>
       <c r="F15" s="23" t="str">
-        <f>TEXT(Automatos!F25,"##")</f>
+        <f>IF(Automatos!F25="","",IF(Automatos!F25=0,"0",TEXT(Automatos!F25,"##")))</f>
         <v/>
       </c>
       <c r="G15" s="23" t="str">
-        <f>TEXT(Automatos!G25,"##")</f>
+        <f>IF(Automatos!G25="","",IF(Automatos!G25=0,"0",TEXT(Automatos!G25,"##")))</f>
         <v/>
       </c>
       <c r="H15" s="23" t="str">
-        <f>TEXT(Automatos!H25,"##")</f>
+        <f>IF(Automatos!H25="","",IF(Automatos!H25=0,"0",TEXT(Automatos!H25,"##")))</f>
         <v/>
       </c>
       <c r="I15" s="23" t="str">
-        <f>TEXT(Automatos!I25,"##")</f>
+        <f>IF(Automatos!I25="","",IF(Automatos!I25=0,"0",TEXT(Automatos!I25,"##")))</f>
         <v>14</v>
       </c>
       <c r="J15" s="23" t="str">
-        <f>TEXT(Automatos!J25,"##")</f>
+        <f>IF(Automatos!J25="","",IF(Automatos!J25=0,"0",TEXT(Automatos!J25,"##")))</f>
         <v/>
       </c>
       <c r="K15" s="23" t="str">
-        <f>TEXT(Automatos!K25,"##")</f>
+        <f>IF(Automatos!K25="","",IF(Automatos!K25=0,"0",TEXT(Automatos!K25,"##")))</f>
         <v/>
       </c>
       <c r="L15" s="23" t="str">
-        <f>TEXT(Automatos!L25,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <f>IF(Automatos!L25="","",IF(Automatos!L25=0,"0",TEXT(Automatos!L25,"##")))</f>
+        <v/>
+      </c>
+      <c r="M15" s="23" t="str">
+        <f>IF(Automatos!M25="","",IF(Automatos!M25=0,"0",TEXT(Automatos!M25,"##")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="19">
         <v>14</v>
       </c>
       <c r="B16" s="23" t="str">
-        <f>TEXT(Automatos!B26,"##")</f>
+        <f>IF(Automatos!B26="","",IF(Automatos!B26=0,"0",TEXT(Automatos!B26,"##")))</f>
         <v/>
       </c>
       <c r="C16" s="23" t="str">
-        <f>TEXT(Automatos!C26,"##")</f>
+        <f>IF(Automatos!C26="","",IF(Automatos!C26=0,"0",TEXT(Automatos!C26,"##")))</f>
         <v/>
       </c>
       <c r="D16" s="23" t="str">
-        <f>TEXT(Automatos!D26,"##")</f>
+        <f>IF(Automatos!D26="","",IF(Automatos!D26=0,"0",TEXT(Automatos!D26,"##")))</f>
         <v/>
       </c>
       <c r="E16" s="23" t="str">
-        <f>TEXT(Automatos!E26,"##")</f>
+        <f>IF(Automatos!E26="","",IF(Automatos!E26=0,"0",TEXT(Automatos!E26,"##")))</f>
         <v/>
       </c>
       <c r="F16" s="23" t="str">
-        <f>TEXT(Automatos!F26,"##")</f>
+        <f>IF(Automatos!F26="","",IF(Automatos!F26=0,"0",TEXT(Automatos!F26,"##")))</f>
         <v/>
       </c>
       <c r="G16" s="23" t="str">
-        <f>TEXT(Automatos!G26,"##")</f>
+        <f>IF(Automatos!G26="","",IF(Automatos!G26=0,"0",TEXT(Automatos!G26,"##")))</f>
         <v/>
       </c>
       <c r="H16" s="23" t="str">
-        <f>TEXT(Automatos!H26,"##")</f>
+        <f>IF(Automatos!H26="","",IF(Automatos!H26=0,"0",TEXT(Automatos!H26,"##")))</f>
         <v/>
       </c>
       <c r="I16" s="23" t="str">
-        <f>TEXT(Automatos!I26,"##")</f>
+        <f>IF(Automatos!I26="","",IF(Automatos!I26=0,"0",TEXT(Automatos!I26,"##")))</f>
         <v/>
       </c>
       <c r="J16" s="23" t="str">
-        <f>TEXT(Automatos!J26,"##")</f>
-        <v/>
+        <f>IF(Automatos!J26="","",IF(Automatos!J26=0,"0",TEXT(Automatos!J26,"##")))</f>
+        <v>0</v>
       </c>
       <c r="K16" s="23" t="str">
-        <f>TEXT(Automatos!K26,"##")</f>
+        <f>IF(Automatos!K26="","",IF(Automatos!K26=0,"0",TEXT(Automatos!K26,"##")))</f>
         <v>16</v>
       </c>
       <c r="L16" s="23" t="str">
-        <f>TEXT(Automatos!L26,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <f>IF(Automatos!L26="","",IF(Automatos!L26=0,"0",TEXT(Automatos!L26,"##")))</f>
+        <v/>
+      </c>
+      <c r="M16" s="23" t="str">
+        <f>IF(Automatos!M26="","",IF(Automatos!M26=0,"0",TEXT(Automatos!M26,"##")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="19">
         <v>15</v>
       </c>
       <c r="B17" s="23" t="str">
-        <f>TEXT(Automatos!B27,"##")</f>
+        <f>IF(Automatos!B27="","",IF(Automatos!B27=0,"0",TEXT(Automatos!B27,"##")))</f>
         <v/>
       </c>
       <c r="C17" s="23" t="str">
-        <f>TEXT(Automatos!C27,"##")</f>
+        <f>IF(Automatos!C27="","",IF(Automatos!C27=0,"0",TEXT(Automatos!C27,"##")))</f>
         <v/>
       </c>
       <c r="D17" s="23" t="str">
-        <f>TEXT(Automatos!D27,"##")</f>
+        <f>IF(Automatos!D27="","",IF(Automatos!D27=0,"0",TEXT(Automatos!D27,"##")))</f>
         <v/>
       </c>
       <c r="E17" s="23" t="str">
-        <f>TEXT(Automatos!E27,"##")</f>
+        <f>IF(Automatos!E27="","",IF(Automatos!E27=0,"0",TEXT(Automatos!E27,"##")))</f>
         <v/>
       </c>
       <c r="F17" s="23" t="str">
-        <f>TEXT(Automatos!F27,"##")</f>
+        <f>IF(Automatos!F27="","",IF(Automatos!F27=0,"0",TEXT(Automatos!F27,"##")))</f>
         <v/>
       </c>
       <c r="G17" s="23" t="str">
-        <f>TEXT(Automatos!G27,"##")</f>
+        <f>IF(Automatos!G27="","",IF(Automatos!G27=0,"0",TEXT(Automatos!G27,"##")))</f>
         <v/>
       </c>
       <c r="H17" s="23" t="str">
-        <f>TEXT(Automatos!H27,"##")</f>
+        <f>IF(Automatos!H27="","",IF(Automatos!H27=0,"0",TEXT(Automatos!H27,"##")))</f>
         <v/>
       </c>
       <c r="I17" s="23" t="str">
-        <f>TEXT(Automatos!I27,"##")</f>
+        <f>IF(Automatos!I27="","",IF(Automatos!I27=0,"0",TEXT(Automatos!I27,"##")))</f>
         <v/>
       </c>
       <c r="J17" s="23" t="str">
-        <f>TEXT(Automatos!J27,"##")</f>
-        <v/>
+        <f>IF(Automatos!J27="","",IF(Automatos!J27=0,"0",TEXT(Automatos!J27,"##")))</f>
+        <v>0</v>
       </c>
       <c r="K17" s="23" t="str">
-        <f>TEXT(Automatos!K27,"##")</f>
+        <f>IF(Automatos!K27="","",IF(Automatos!K27=0,"0",TEXT(Automatos!K27,"##")))</f>
         <v>16</v>
       </c>
       <c r="L17" s="23" t="str">
-        <f>TEXT(Automatos!L27,"##")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <f>IF(Automatos!L27="","",IF(Automatos!L27=0,"0",TEXT(Automatos!L27,"##")))</f>
+        <v/>
+      </c>
+      <c r="M17" s="23" t="str">
+        <f>IF(Automatos!M27="","",IF(Automatos!M27=0,"0",TEXT(Automatos!M27,"##")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="19">
         <v>16</v>
       </c>
       <c r="B18" s="23" t="str">
-        <f>TEXT(Automatos!B28,"##")</f>
+        <f>IF(Automatos!B28="","",IF(Automatos!B28=0,"0",TEXT(Automatos!B28,"##")))</f>
         <v/>
       </c>
       <c r="C18" s="23" t="str">
-        <f>TEXT(Automatos!C28,"##")</f>
+        <f>IF(Automatos!C28="","",IF(Automatos!C28=0,"0",TEXT(Automatos!C28,"##")))</f>
         <v/>
       </c>
       <c r="D18" s="23" t="str">
-        <f>TEXT(Automatos!D28,"##")</f>
+        <f>IF(Automatos!D28="","",IF(Automatos!D28=0,"0",TEXT(Automatos!D28,"##")))</f>
         <v/>
       </c>
       <c r="E18" s="23" t="str">
-        <f>TEXT(Automatos!E28,"##")</f>
+        <f>IF(Automatos!E28="","",IF(Automatos!E28=0,"0",TEXT(Automatos!E28,"##")))</f>
         <v/>
       </c>
       <c r="F18" s="23" t="str">
-        <f>TEXT(Automatos!F28,"##")</f>
+        <f>IF(Automatos!F28="","",IF(Automatos!F28=0,"0",TEXT(Automatos!F28,"##")))</f>
         <v/>
       </c>
       <c r="G18" s="23" t="str">
-        <f>TEXT(Automatos!G28,"##")</f>
+        <f>IF(Automatos!G28="","",IF(Automatos!G28=0,"0",TEXT(Automatos!G28,"##")))</f>
         <v/>
       </c>
       <c r="H18" s="23" t="str">
-        <f>TEXT(Automatos!H28,"##")</f>
+        <f>IF(Automatos!H28="","",IF(Automatos!H28=0,"0",TEXT(Automatos!H28,"##")))</f>
         <v/>
       </c>
       <c r="I18" s="23" t="str">
-        <f>TEXT(Automatos!I28,"##")</f>
+        <f>IF(Automatos!I28="","",IF(Automatos!I28=0,"0",TEXT(Automatos!I28,"##")))</f>
         <v/>
       </c>
       <c r="J18" s="23" t="str">
-        <f>TEXT(Automatos!J28,"##")</f>
+        <f>IF(Automatos!J28="","",IF(Automatos!J28=0,"0",TEXT(Automatos!J28,"##")))</f>
         <v/>
       </c>
       <c r="K18" s="23" t="str">
-        <f>TEXT(Automatos!K28,"##")</f>
+        <f>IF(Automatos!K28="","",IF(Automatos!K28=0,"0",TEXT(Automatos!K28,"##")))</f>
         <v/>
       </c>
       <c r="L18" s="23" t="str">
-        <f>TEXT(Automatos!L28,"##")</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <f>IF(Automatos!L28="","",IF(Automatos!L28=0,"0",TEXT(Automatos!L28,"##")))</f>
+        <v/>
+      </c>
+      <c r="M18" s="23" t="str">
+        <f>IF(Automatos!M28="","",IF(Automatos!M28=0,"0",TEXT(Automatos!M28,"##")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="19">
         <v>17</v>
       </c>
       <c r="B19" s="23" t="str">
-        <f>TEXT(Automatos!B29,"##")</f>
+        <f>IF(Automatos!B29="","",IF(Automatos!B29=0,"0",TEXT(Automatos!B29,"##")))</f>
         <v/>
       </c>
       <c r="C19" s="23" t="str">
-        <f>TEXT(Automatos!C29,"##")</f>
+        <f>IF(Automatos!C29="","",IF(Automatos!C29=0,"0",TEXT(Automatos!C29,"##")))</f>
         <v/>
       </c>
       <c r="D19" s="23" t="str">
-        <f>TEXT(Automatos!D29,"##")</f>
+        <f>IF(Automatos!D29="","",IF(Automatos!D29=0,"0",TEXT(Automatos!D29,"##")))</f>
         <v/>
       </c>
       <c r="E19" s="23" t="str">
-        <f>TEXT(Automatos!E29,"##")</f>
+        <f>IF(Automatos!E29="","",IF(Automatos!E29=0,"0",TEXT(Automatos!E29,"##")))</f>
         <v/>
       </c>
       <c r="F19" s="23" t="str">
-        <f>TEXT(Automatos!F29,"##")</f>
+        <f>IF(Automatos!F29="","",IF(Automatos!F29=0,"0",TEXT(Automatos!F29,"##")))</f>
         <v/>
       </c>
       <c r="G19" s="23" t="str">
-        <f>TEXT(Automatos!G29,"##")</f>
+        <f>IF(Automatos!G29="","",IF(Automatos!G29=0,"0",TEXT(Automatos!G29,"##")))</f>
         <v/>
       </c>
       <c r="H19" s="23" t="str">
-        <f>TEXT(Automatos!H29,"##")</f>
+        <f>IF(Automatos!H29="","",IF(Automatos!H29=0,"0",TEXT(Automatos!H29,"##")))</f>
         <v/>
       </c>
       <c r="I19" s="23" t="str">
-        <f>TEXT(Automatos!I29,"##")</f>
+        <f>IF(Automatos!I29="","",IF(Automatos!I29=0,"0",TEXT(Automatos!I29,"##")))</f>
         <v/>
       </c>
       <c r="J19" s="23" t="str">
-        <f>TEXT(Automatos!J29,"##")</f>
+        <f>IF(Automatos!J29="","",IF(Automatos!J29=0,"0",TEXT(Automatos!J29,"##")))</f>
         <v/>
       </c>
       <c r="K19" s="23" t="str">
-        <f>TEXT(Automatos!K29,"##")</f>
+        <f>IF(Automatos!K29="","",IF(Automatos!K29=0,"0",TEXT(Automatos!K29,"##")))</f>
         <v/>
       </c>
       <c r="L19" s="23" t="str">
-        <f>TEXT(Automatos!L29,"##")</f>
+        <f>IF(Automatos!L29="","",IF(Automatos!L29=0,"0",TEXT(Automatos!L29,"##")))</f>
+        <v/>
+      </c>
+      <c r="M19" s="23" t="str">
+        <f>IF(Automatos!M29="","",IF(Automatos!M29=0,"0",TEXT(Automatos!M29,"##")))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="19">
+        <v>18</v>
+      </c>
+      <c r="B20" s="23" t="str">
+        <f>IF(Automatos!B30="","",IF(Automatos!B30=0,"0",TEXT(Automatos!B30,"##")))</f>
+        <v/>
+      </c>
+      <c r="C20" s="23" t="str">
+        <f>IF(Automatos!C30="","",IF(Automatos!C30=0,"0",TEXT(Automatos!C30,"##")))</f>
+        <v/>
+      </c>
+      <c r="D20" s="23" t="str">
+        <f>IF(Automatos!D30="","",IF(Automatos!D30=0,"0",TEXT(Automatos!D30,"##")))</f>
+        <v/>
+      </c>
+      <c r="E20" s="23" t="str">
+        <f>IF(Automatos!E30="","",IF(Automatos!E30=0,"0",TEXT(Automatos!E30,"##")))</f>
+        <v/>
+      </c>
+      <c r="F20" s="23" t="str">
+        <f>IF(Automatos!F30="","",IF(Automatos!F30=0,"0",TEXT(Automatos!F30,"##")))</f>
+        <v/>
+      </c>
+      <c r="G20" s="23" t="str">
+        <f>IF(Automatos!G30="","",IF(Automatos!G30=0,"0",TEXT(Automatos!G30,"##")))</f>
+        <v/>
+      </c>
+      <c r="H20" s="23" t="str">
+        <f>IF(Automatos!H30="","",IF(Automatos!H30=0,"0",TEXT(Automatos!H30,"##")))</f>
+        <v/>
+      </c>
+      <c r="I20" s="23" t="str">
+        <f>IF(Automatos!I30="","",IF(Automatos!I30=0,"0",TEXT(Automatos!I30,"##")))</f>
+        <v/>
+      </c>
+      <c r="J20" s="23" t="str">
+        <f>IF(Automatos!J30="","",IF(Automatos!J30=0,"0",TEXT(Automatos!J30,"##")))</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="23" t="str">
+        <f>IF(Automatos!K30="","",IF(Automatos!K30=0,"0",TEXT(Automatos!K30,"##")))</f>
+        <v/>
+      </c>
+      <c r="L20" s="23" t="str">
+        <f>IF(Automatos!L30="","",IF(Automatos!L30=0,"0",TEXT(Automatos!L30,"##")))</f>
+        <v/>
+      </c>
+      <c r="M20" s="23" t="str">
+        <f>IF(Automatos!M30="","",IF(Automatos!M30=0,"0",TEXT(Automatos!M30,"##")))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8181,7 +8412,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8213,19 +8444,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="21" t="str">
-        <f>TEXT(Automatos!B32,"##")</f>
+        <f>IF(Automatos!B33="","",IF(Automatos!B33=0,"0",TEXT(Automatos!B33,"##")))</f>
         <v>1</v>
       </c>
       <c r="C2" s="21" t="str">
-        <f>TEXT(Automatos!C32,"##")</f>
+        <f>IF(Automatos!C33="","",IF(Automatos!C33=0,"0",TEXT(Automatos!C33,"##")))</f>
         <v>1</v>
       </c>
       <c r="D2" s="21" t="str">
-        <f>TEXT(Automatos!D32,"##")</f>
+        <f>IF(Automatos!D33="","",IF(Automatos!D33=0,"0",TEXT(Automatos!D33,"##")))</f>
         <v/>
       </c>
       <c r="E2" s="21" t="str">
-        <f>TEXT(Automatos!E32,"##")</f>
+        <f>IF(Automatos!E33="","",IF(Automatos!E33=0,"0",TEXT(Automatos!E33,"##")))</f>
         <v/>
       </c>
       <c r="F2" s="19"/>
@@ -8241,19 +8472,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="str">
-        <f>TEXT(Automatos!B33,"##")</f>
+        <f>IF(Automatos!B34="","",IF(Automatos!B34=0,"0",TEXT(Automatos!B34,"##")))</f>
         <v/>
       </c>
       <c r="C3" s="21" t="str">
-        <f>TEXT(Automatos!C33,"##")</f>
+        <f>IF(Automatos!C34="","",IF(Automatos!C34=0,"0",TEXT(Automatos!C34,"##")))</f>
         <v/>
       </c>
       <c r="D3" s="21" t="str">
-        <f>TEXT(Automatos!D33,"##")</f>
+        <f>IF(Automatos!D34="","",IF(Automatos!D34=0,"0",TEXT(Automatos!D34,"##")))</f>
         <v/>
       </c>
       <c r="E3" s="21" t="str">
-        <f>TEXT(Automatos!E33,"##")</f>
+        <f>IF(Automatos!E34="","",IF(Automatos!E34=0,"0",TEXT(Automatos!E34,"##")))</f>
         <v>2</v>
       </c>
       <c r="F3" s="20"/>
@@ -8269,19 +8500,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="str">
-        <f>TEXT(Automatos!B34,"##")</f>
+        <f>IF(Automatos!B35="","",IF(Automatos!B35=0,"0",TEXT(Automatos!B35,"##")))</f>
         <v/>
       </c>
       <c r="C4" s="21" t="str">
-        <f>TEXT(Automatos!C34,"##")</f>
+        <f>IF(Automatos!C35="","",IF(Automatos!C35=0,"0",TEXT(Automatos!C35,"##")))</f>
         <v/>
       </c>
       <c r="D4" s="21" t="str">
-        <f>TEXT(Automatos!D34,"##")</f>
+        <f>IF(Automatos!D35="","",IF(Automatos!D35=0,"0",TEXT(Automatos!D35,"##")))</f>
         <v>3</v>
       </c>
       <c r="E4" s="21" t="str">
-        <f>TEXT(Automatos!E34,"##")</f>
+        <f>IF(Automatos!E35="","",IF(Automatos!E35=0,"0",TEXT(Automatos!E35,"##")))</f>
         <v/>
       </c>
       <c r="F4" s="19"/>
@@ -8297,19 +8528,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="21" t="str">
-        <f>TEXT(Automatos!B35,"##")</f>
+        <f>IF(Automatos!B36="","",IF(Automatos!B36=0,"0",TEXT(Automatos!B36,"##")))</f>
         <v/>
       </c>
       <c r="C5" s="21" t="str">
-        <f>TEXT(Automatos!C35,"##")</f>
+        <f>IF(Automatos!C36="","",IF(Automatos!C36=0,"0",TEXT(Automatos!C36,"##")))</f>
         <v/>
       </c>
       <c r="D5" s="21" t="str">
-        <f>TEXT(Automatos!D35,"##")</f>
+        <f>IF(Automatos!D36="","",IF(Automatos!D36=0,"0",TEXT(Automatos!D36,"##")))</f>
         <v/>
       </c>
       <c r="E5" s="21" t="str">
-        <f>TEXT(Automatos!E35,"##")</f>
+        <f>IF(Automatos!E36="","",IF(Automatos!E36=0,"0",TEXT(Automatos!E36,"##")))</f>
         <v/>
       </c>
       <c r="F5" s="19"/>
@@ -8325,19 +8556,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="21" t="str">
-        <f>TEXT(Automatos!B36,"##")</f>
+        <f>IF(Automatos!B37="","",IF(Automatos!B37=0,"0",TEXT(Automatos!B37,"##")))</f>
         <v/>
       </c>
       <c r="C6" s="21" t="str">
-        <f>TEXT(Automatos!C36,"##")</f>
+        <f>IF(Automatos!C37="","",IF(Automatos!C37=0,"0",TEXT(Automatos!C37,"##")))</f>
         <v/>
       </c>
       <c r="D6" s="21" t="str">
-        <f>TEXT(Automatos!D36,"##")</f>
+        <f>IF(Automatos!D37="","",IF(Automatos!D37=0,"0",TEXT(Automatos!D37,"##")))</f>
         <v/>
       </c>
       <c r="E6" s="21" t="str">
-        <f>TEXT(Automatos!E36,"##")</f>
+        <f>IF(Automatos!E37="","",IF(Automatos!E37=0,"0",TEXT(Automatos!E37,"##")))</f>
         <v/>
       </c>
       <c r="F6" s="19"/>
@@ -8532,6 +8763,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/config/input.xlsx
+++ b/config/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="0" windowWidth="18580" windowHeight="15620" tabRatio="884" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24640" windowHeight="15620" tabRatio="884" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PalavrasReservadas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="99">
   <si>
     <t>if</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>10,21</t>
+  </si>
+  <si>
+    <t>Numero</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1659,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3064,7 +3066,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3495,7 +3496,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3508,7 +3508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3729,7 +3729,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6772,8 +6771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6802,7 +6801,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B3" s="12">
         <v>257</v>
@@ -8398,7 +8397,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8763,7 +8761,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/config/input.xlsx
+++ b/config/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24640" windowHeight="15620" tabRatio="884" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="8440" yWindow="0" windowWidth="16340" windowHeight="15620" tabRatio="884" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="PalavrasReservadas" sheetId="1" r:id="rId1"/>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B2" s="22" t="str">
         <f>IF(Automatos!B48="","",IF(Automatos!B48=0,"0",TEXT(Automatos!B48,"##")))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="22" t="str">
         <f>IF(Automatos!C48="","",IF(Automatos!C48=0,"0",TEXT(Automatos!C48,"##")))</f>
@@ -1740,15 +1740,15 @@
       </c>
       <c r="E2" s="22" t="str">
         <f>IF(Automatos!E48="","",IF(Automatos!E48=0,"0",TEXT(Automatos!E48,"##")))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="22" t="str">
         <f>IF(Automatos!F48="","",IF(Automatos!F48=0,"0",TEXT(Automatos!F48,"##")))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="22" t="str">
         <f>IF(Automatos!G48="","",IF(Automatos!G48=0,"0",TEXT(Automatos!G48,"##")))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="22" t="str">
         <f>IF(Automatos!H48="","",IF(Automatos!H48=0,"0",TEXT(Automatos!H48,"##")))</f>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="H3" s="22" t="str">
         <f>IF(Automatos!H49="","",IF(Automatos!H49=0,"0",TEXT(Automatos!H49,"##")))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" s="22" t="str">
         <f>IF(Automatos!I49="","",IF(Automatos!I49=0,"0",TEXT(Automatos!I49,"##")))</f>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="I4" s="22" t="str">
         <f>IF(Automatos!I50="","",IF(Automatos!I50=0,"0",TEXT(Automatos!I50,"##")))</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="J4" s="22" t="str">
         <f>IF(Automatos!J50="","",IF(Automatos!J50=0,"0",TEXT(Automatos!J50,"##")))</f>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="K4" s="22" t="str">
         <f>IF(Automatos!K50="","",IF(Automatos!K50=0,"0",TEXT(Automatos!K50,"##")))</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="L4" s="22" t="str">
         <f>IF(Automatos!L50="","",IF(Automatos!L50=0,"0",TEXT(Automatos!L50,"##")))</f>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="O4" s="22" t="str">
         <f>IF(Automatos!O50="","",IF(Automatos!O50=0,"0",TEXT(Automatos!O50,"##")))</f>
-        <v>14</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="I5" s="22" t="str">
         <f>IF(Automatos!I51="","",IF(Automatos!I51=0,"0",TEXT(Automatos!I51,"##")))</f>
-        <v>16</v>
+        <v/>
       </c>
       <c r="J5" s="22" t="str">
         <f>IF(Automatos!J51="","",IF(Automatos!J51=0,"0",TEXT(Automatos!J51,"##")))</f>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="O5" s="22" t="str">
         <f>IF(Automatos!O51="","",IF(Automatos!O51=0,"0",TEXT(Automatos!O51,"##")))</f>
-        <v/>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="I6" s="22" t="str">
         <f>IF(Automatos!I52="","",IF(Automatos!I52=0,"0",TEXT(Automatos!I52,"##")))</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J6" s="22" t="str">
         <f>IF(Automatos!J52="","",IF(Automatos!J52=0,"0",TEXT(Automatos!J52,"##")))</f>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="I7" s="22" t="str">
         <f>IF(Automatos!I53="","",IF(Automatos!I53=0,"0",TEXT(Automatos!I53,"##")))</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="J7" s="22" t="str">
         <f>IF(Automatos!J53="","",IF(Automatos!J53=0,"0",TEXT(Automatos!J53,"##")))</f>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="I9" s="22" t="str">
         <f>IF(Automatos!I55="","",IF(Automatos!I55=0,"0",TEXT(Automatos!I55,"##")))</f>
-        <v>9</v>
+        <v/>
       </c>
       <c r="J9" s="22" t="str">
         <f>IF(Automatos!J55="","",IF(Automatos!J55=0,"0",TEXT(Automatos!J55,"##")))</f>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="K9" s="22" t="str">
         <f>IF(Automatos!K55="","",IF(Automatos!K55=0,"0",TEXT(Automatos!K55,"##")))</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="L9" s="22" t="str">
         <f>IF(Automatos!L55="","",IF(Automatos!L55=0,"0",TEXT(Automatos!L55,"##")))</f>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="J11" s="22" t="str">
         <f>IF(Automatos!J57="","",IF(Automatos!J57=0,"0",TEXT(Automatos!J57,"##")))</f>
-        <v>14</v>
+        <v/>
       </c>
       <c r="K11" s="22" t="str">
         <f>IF(Automatos!K57="","",IF(Automatos!K57=0,"0",TEXT(Automatos!K57,"##")))</f>
@@ -3964,10 +3964,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3985,13 +3985,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4002,39 +4002,50 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4">
         <v>20</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="4">
         <v>20</v>
       </c>
     </row>
@@ -4580,8 +4591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5662,16 +5673,16 @@
         <v>0</v>
       </c>
       <c r="B48" s="8">
+        <v>4</v>
+      </c>
+      <c r="E48" s="8">
+        <v>5</v>
+      </c>
+      <c r="F48" s="8">
         <v>3</v>
       </c>
-      <c r="E48" s="8">
-        <v>4</v>
-      </c>
-      <c r="F48" s="8">
-        <v>2</v>
-      </c>
       <c r="G48" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O48" s="9">
         <v>1</v>
@@ -5686,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O49" s="9"/>
       <c r="R49" s="8"/>
@@ -5698,9 +5709,13 @@
       <c r="A50" s="9">
         <v>2</v>
       </c>
-      <c r="O50" s="9">
-        <v>14</v>
-      </c>
+      <c r="I50" s="8">
+        <v>9</v>
+      </c>
+      <c r="K50" s="8">
+        <v>10</v>
+      </c>
+      <c r="O50" s="9"/>
       <c r="R50" s="8"/>
       <c r="S50" s="16"/>
       <c r="T50" s="16"/>
@@ -5710,10 +5725,9 @@
       <c r="A51" s="9">
         <v>3</v>
       </c>
-      <c r="I51" s="8">
-        <v>16</v>
-      </c>
-      <c r="O51" s="9"/>
+      <c r="O51" s="9">
+        <v>14</v>
+      </c>
       <c r="R51" s="8"/>
       <c r="S51" s="16"/>
       <c r="T51" s="16"/>
@@ -5724,7 +5738,7 @@
         <v>4</v>
       </c>
       <c r="I52" s="8">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O52" s="9"/>
       <c r="R52" s="8"/>
@@ -5736,6 +5750,9 @@
       <c r="A53" s="9">
         <v>5</v>
       </c>
+      <c r="I53" s="8">
+        <v>7</v>
+      </c>
       <c r="O53" s="9"/>
       <c r="R53" s="8"/>
       <c r="S53" s="16"/>
@@ -5756,12 +5773,6 @@
       <c r="A55" s="9">
         <v>7</v>
       </c>
-      <c r="I55" s="8">
-        <v>9</v>
-      </c>
-      <c r="K55" s="8">
-        <v>10</v>
-      </c>
       <c r="O55" s="9"/>
       <c r="R55" s="8"/>
       <c r="S55" s="16"/>
@@ -5784,9 +5795,6 @@
     <row r="57" spans="1:21">
       <c r="A57" s="9">
         <v>9</v>
-      </c>
-      <c r="J57" s="8">
-        <v>14</v>
       </c>
       <c r="O57" s="9">
         <v>13</v>
@@ -6771,7 +6779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/config/input.xlsx
+++ b/config/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="0" windowWidth="16340" windowHeight="15620" tabRatio="884" firstSheet="11" activeTab="16"/>
+    <workbookView xWindow="4940" yWindow="0" windowWidth="19800" windowHeight="15620" tabRatio="884" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PalavrasReservadas" sheetId="1" r:id="rId1"/>
@@ -330,10 +330,10 @@
     <t>2,6</t>
   </si>
   <si>
-    <t>10,21</t>
-  </si>
-  <si>
     <t>Numero</t>
+  </si>
+  <si>
+    <t>11,21</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1672,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1726,9 +1726,8 @@
       <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="str">
-        <f>IF(Automatos!B48="","",IF(Automatos!B48=0,"0",TEXT(Automatos!B48,"##")))</f>
-        <v>4</v>
+      <c r="B2" s="22">
+        <v>3</v>
       </c>
       <c r="C2" s="22" t="str">
         <f>IF(Automatos!C48="","",IF(Automatos!C48=0,"0",TEXT(Automatos!C48,"##")))</f>
@@ -1738,17 +1737,14 @@
         <f>IF(Automatos!D48="","",IF(Automatos!D48=0,"0",TEXT(Automatos!D48,"##")))</f>
         <v/>
       </c>
-      <c r="E2" s="22" t="str">
-        <f>IF(Automatos!E48="","",IF(Automatos!E48=0,"0",TEXT(Automatos!E48,"##")))</f>
-        <v>5</v>
-      </c>
-      <c r="F2" s="22" t="str">
-        <f>IF(Automatos!F48="","",IF(Automatos!F48=0,"0",TEXT(Automatos!F48,"##")))</f>
-        <v>3</v>
-      </c>
-      <c r="G2" s="22" t="str">
-        <f>IF(Automatos!G48="","",IF(Automatos!G48=0,"0",TEXT(Automatos!G48,"##")))</f>
-        <v>3</v>
+      <c r="E2" s="22">
+        <v>4</v>
+      </c>
+      <c r="F2" s="22">
+        <v>2</v>
+      </c>
+      <c r="G2" s="22">
+        <v>2</v>
       </c>
       <c r="H2" s="22" t="str">
         <f>IF(Automatos!H48="","",IF(Automatos!H48=0,"0",TEXT(Automatos!H48,"##")))</f>
@@ -1811,22 +1807,17 @@
         <f>IF(Automatos!G49="","",IF(Automatos!G49=0,"0",TEXT(Automatos!G49,"##")))</f>
         <v/>
       </c>
-      <c r="H3" s="22" t="str">
-        <f>IF(Automatos!H49="","",IF(Automatos!H49=0,"0",TEXT(Automatos!H49,"##")))</f>
+      <c r="H3" s="22">
+        <v>5</v>
+      </c>
+      <c r="I3" s="22">
         <v>6</v>
-      </c>
-      <c r="I3" s="22" t="str">
-        <f>IF(Automatos!I49="","",IF(Automatos!I49=0,"0",TEXT(Automatos!I49,"##")))</f>
-        <v/>
       </c>
       <c r="J3" s="22" t="str">
         <f>IF(Automatos!J49="","",IF(Automatos!J49=0,"0",TEXT(Automatos!J49,"##")))</f>
         <v/>
       </c>
-      <c r="K3" s="22" t="str">
-        <f>IF(Automatos!K49="","",IF(Automatos!K49=0,"0",TEXT(Automatos!K49,"##")))</f>
-        <v/>
-      </c>
+      <c r="K3" s="22"/>
       <c r="L3" s="22" t="str">
         <f>IF(Automatos!L49="","",IF(Automatos!L49=0,"0",TEXT(Automatos!L49,"##")))</f>
         <v/>
@@ -1876,18 +1867,12 @@
         <f>IF(Automatos!H50="","",IF(Automatos!H50=0,"0",TEXT(Automatos!H50,"##")))</f>
         <v/>
       </c>
-      <c r="I4" s="22" t="str">
-        <f>IF(Automatos!I50="","",IF(Automatos!I50=0,"0",TEXT(Automatos!I50,"##")))</f>
-        <v>9</v>
-      </c>
+      <c r="I4" s="22"/>
       <c r="J4" s="22" t="str">
         <f>IF(Automatos!J50="","",IF(Automatos!J50=0,"0",TEXT(Automatos!J50,"##")))</f>
         <v/>
       </c>
-      <c r="K4" s="22" t="str">
-        <f>IF(Automatos!K50="","",IF(Automatos!K50=0,"0",TEXT(Automatos!K50,"##")))</f>
-        <v>10</v>
-      </c>
+      <c r="K4" s="22"/>
       <c r="L4" s="22" t="str">
         <f>IF(Automatos!L50="","",IF(Automatos!L50=0,"0",TEXT(Automatos!L50,"##")))</f>
         <v/>
@@ -1900,9 +1885,8 @@
         <f>IF(Automatos!N50="","",IF(Automatos!N50=0,"0",TEXT(Automatos!N50,"##")))</f>
         <v/>
       </c>
-      <c r="O4" s="22" t="str">
-        <f>IF(Automatos!O50="","",IF(Automatos!O50=0,"0",TEXT(Automatos!O50,"##")))</f>
-        <v/>
+      <c r="O4" s="22">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1937,9 +1921,8 @@
         <f>IF(Automatos!H51="","",IF(Automatos!H51=0,"0",TEXT(Automatos!H51,"##")))</f>
         <v/>
       </c>
-      <c r="I5" s="22" t="str">
-        <f>IF(Automatos!I51="","",IF(Automatos!I51=0,"0",TEXT(Automatos!I51,"##")))</f>
-        <v/>
+      <c r="I5" s="22">
+        <v>16</v>
       </c>
       <c r="J5" s="22" t="str">
         <f>IF(Automatos!J51="","",IF(Automatos!J51=0,"0",TEXT(Automatos!J51,"##")))</f>
@@ -1961,1108 +1944,383 @@
         <f>IF(Automatos!N51="","",IF(Automatos!N51=0,"0",TEXT(Automatos!N51,"##")))</f>
         <v/>
       </c>
-      <c r="O5" s="22" t="str">
-        <f>IF(Automatos!O51="","",IF(Automatos!O51=0,"0",TEXT(Automatos!O51,"##")))</f>
-        <v>14</v>
-      </c>
+      <c r="O5" s="22"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="str">
-        <f>IF(Automatos!B52="","",IF(Automatos!B52=0,"0",TEXT(Automatos!B52,"##")))</f>
-        <v/>
-      </c>
-      <c r="C6" s="22" t="str">
-        <f>IF(Automatos!C52="","",IF(Automatos!C52=0,"0",TEXT(Automatos!C52,"##")))</f>
-        <v/>
-      </c>
-      <c r="D6" s="22" t="str">
-        <f>IF(Automatos!D52="","",IF(Automatos!D52=0,"0",TEXT(Automatos!D52,"##")))</f>
-        <v/>
-      </c>
-      <c r="E6" s="22" t="str">
-        <f>IF(Automatos!E52="","",IF(Automatos!E52=0,"0",TEXT(Automatos!E52,"##")))</f>
-        <v/>
-      </c>
-      <c r="F6" s="22" t="str">
-        <f>IF(Automatos!F52="","",IF(Automatos!F52=0,"0",TEXT(Automatos!F52,"##")))</f>
-        <v/>
-      </c>
-      <c r="G6" s="22" t="str">
-        <f>IF(Automatos!G52="","",IF(Automatos!G52=0,"0",TEXT(Automatos!G52,"##")))</f>
-        <v/>
-      </c>
-      <c r="H6" s="22" t="str">
-        <f>IF(Automatos!H52="","",IF(Automatos!H52=0,"0",TEXT(Automatos!H52,"##")))</f>
-        <v/>
-      </c>
-      <c r="I6" s="22" t="str">
-        <f>IF(Automatos!I52="","",IF(Automatos!I52=0,"0",TEXT(Automatos!I52,"##")))</f>
-        <v>16</v>
-      </c>
-      <c r="J6" s="22" t="str">
-        <f>IF(Automatos!J52="","",IF(Automatos!J52=0,"0",TEXT(Automatos!J52,"##")))</f>
-        <v/>
-      </c>
-      <c r="K6" s="22" t="str">
-        <f>IF(Automatos!K52="","",IF(Automatos!K52=0,"0",TEXT(Automatos!K52,"##")))</f>
-        <v/>
-      </c>
-      <c r="L6" s="22" t="str">
-        <f>IF(Automatos!L52="","",IF(Automatos!L52=0,"0",TEXT(Automatos!L52,"##")))</f>
-        <v/>
-      </c>
-      <c r="M6" s="22" t="str">
-        <f>IF(Automatos!M52="","",IF(Automatos!M52=0,"0",TEXT(Automatos!M52,"##")))</f>
-        <v/>
-      </c>
-      <c r="N6" s="22" t="str">
-        <f>IF(Automatos!N52="","",IF(Automatos!N52=0,"0",TEXT(Automatos!N52,"##")))</f>
-        <v/>
-      </c>
-      <c r="O6" s="22" t="str">
-        <f>IF(Automatos!O52="","",IF(Automatos!O52=0,"0",TEXT(Automatos!O52,"##")))</f>
-        <v/>
-      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22">
+        <v>7</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="str">
-        <f>IF(Automatos!B53="","",IF(Automatos!B53=0,"0",TEXT(Automatos!B53,"##")))</f>
-        <v/>
-      </c>
-      <c r="C7" s="22" t="str">
-        <f>IF(Automatos!C53="","",IF(Automatos!C53=0,"0",TEXT(Automatos!C53,"##")))</f>
-        <v/>
-      </c>
-      <c r="D7" s="22" t="str">
-        <f>IF(Automatos!D53="","",IF(Automatos!D53=0,"0",TEXT(Automatos!D53,"##")))</f>
-        <v/>
-      </c>
-      <c r="E7" s="22" t="str">
-        <f>IF(Automatos!E53="","",IF(Automatos!E53=0,"0",TEXT(Automatos!E53,"##")))</f>
-        <v/>
-      </c>
-      <c r="F7" s="22" t="str">
-        <f>IF(Automatos!F53="","",IF(Automatos!F53=0,"0",TEXT(Automatos!F53,"##")))</f>
-        <v/>
-      </c>
-      <c r="G7" s="22" t="str">
-        <f>IF(Automatos!G53="","",IF(Automatos!G53=0,"0",TEXT(Automatos!G53,"##")))</f>
-        <v/>
-      </c>
-      <c r="H7" s="22" t="str">
-        <f>IF(Automatos!H53="","",IF(Automatos!H53=0,"0",TEXT(Automatos!H53,"##")))</f>
-        <v/>
-      </c>
-      <c r="I7" s="22" t="str">
-        <f>IF(Automatos!I53="","",IF(Automatos!I53=0,"0",TEXT(Automatos!I53,"##")))</f>
-        <v>7</v>
-      </c>
-      <c r="J7" s="22" t="str">
-        <f>IF(Automatos!J53="","",IF(Automatos!J53=0,"0",TEXT(Automatos!J53,"##")))</f>
-        <v/>
-      </c>
-      <c r="K7" s="22" t="str">
-        <f>IF(Automatos!K53="","",IF(Automatos!K53=0,"0",TEXT(Automatos!K53,"##")))</f>
-        <v/>
-      </c>
-      <c r="L7" s="22" t="str">
-        <f>IF(Automatos!L53="","",IF(Automatos!L53=0,"0",TEXT(Automatos!L53,"##")))</f>
-        <v/>
-      </c>
-      <c r="M7" s="22" t="str">
-        <f>IF(Automatos!M53="","",IF(Automatos!M53=0,"0",TEXT(Automatos!M53,"##")))</f>
-        <v/>
-      </c>
-      <c r="N7" s="22" t="str">
-        <f>IF(Automatos!N53="","",IF(Automatos!N53=0,"0",TEXT(Automatos!N53,"##")))</f>
-        <v/>
-      </c>
-      <c r="O7" s="22" t="str">
-        <f>IF(Automatos!O53="","",IF(Automatos!O53=0,"0",TEXT(Automatos!O53,"##")))</f>
-        <v/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="str">
-        <f>IF(Automatos!B54="","",IF(Automatos!B54=0,"0",TEXT(Automatos!B54,"##")))</f>
-        <v/>
-      </c>
-      <c r="C8" s="22" t="str">
-        <f>IF(Automatos!C54="","",IF(Automatos!C54=0,"0",TEXT(Automatos!C54,"##")))</f>
-        <v/>
-      </c>
-      <c r="D8" s="22" t="str">
-        <f>IF(Automatos!D54="","",IF(Automatos!D54=0,"0",TEXT(Automatos!D54,"##")))</f>
-        <v/>
-      </c>
-      <c r="E8" s="22" t="str">
-        <f>IF(Automatos!E54="","",IF(Automatos!E54=0,"0",TEXT(Automatos!E54,"##")))</f>
-        <v/>
-      </c>
-      <c r="F8" s="22" t="str">
-        <f>IF(Automatos!F54="","",IF(Automatos!F54=0,"0",TEXT(Automatos!F54,"##")))</f>
-        <v/>
-      </c>
-      <c r="G8" s="22" t="str">
-        <f>IF(Automatos!G54="","",IF(Automatos!G54=0,"0",TEXT(Automatos!G54,"##")))</f>
-        <v/>
-      </c>
-      <c r="H8" s="22" t="str">
-        <f>IF(Automatos!H54="","",IF(Automatos!H54=0,"0",TEXT(Automatos!H54,"##")))</f>
-        <v/>
-      </c>
-      <c r="I8" s="22" t="str">
-        <f>IF(Automatos!I54="","",IF(Automatos!I54=0,"0",TEXT(Automatos!I54,"##")))</f>
-        <v/>
-      </c>
-      <c r="J8" s="22" t="str">
-        <f>IF(Automatos!J54="","",IF(Automatos!J54=0,"0",TEXT(Automatos!J54,"##")))</f>
-        <v/>
-      </c>
-      <c r="K8" s="22" t="str">
-        <f>IF(Automatos!K54="","",IF(Automatos!K54=0,"0",TEXT(Automatos!K54,"##")))</f>
-        <v/>
-      </c>
-      <c r="L8" s="22" t="str">
-        <f>IF(Automatos!L54="","",IF(Automatos!L54=0,"0",TEXT(Automatos!L54,"##")))</f>
-        <v/>
-      </c>
-      <c r="M8" s="22" t="str">
-        <f>IF(Automatos!M54="","",IF(Automatos!M54=0,"0",TEXT(Automatos!M54,"##")))</f>
-        <v/>
-      </c>
-      <c r="N8" s="22" t="str">
-        <f>IF(Automatos!N54="","",IF(Automatos!N54=0,"0",TEXT(Automatos!N54,"##")))</f>
-        <v/>
-      </c>
-      <c r="O8" s="22" t="str">
-        <f>IF(Automatos!O54="","",IF(Automatos!O54=0,"0",TEXT(Automatos!O54,"##")))</f>
-        <v/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22">
+        <v>9</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="str">
-        <f>IF(Automatos!B55="","",IF(Automatos!B55=0,"0",TEXT(Automatos!B55,"##")))</f>
-        <v/>
-      </c>
-      <c r="C9" s="22" t="str">
-        <f>IF(Automatos!C55="","",IF(Automatos!C55=0,"0",TEXT(Automatos!C55,"##")))</f>
-        <v/>
-      </c>
-      <c r="D9" s="22" t="str">
-        <f>IF(Automatos!D55="","",IF(Automatos!D55=0,"0",TEXT(Automatos!D55,"##")))</f>
-        <v/>
-      </c>
-      <c r="E9" s="22" t="str">
-        <f>IF(Automatos!E55="","",IF(Automatos!E55=0,"0",TEXT(Automatos!E55,"##")))</f>
-        <v/>
-      </c>
-      <c r="F9" s="22" t="str">
-        <f>IF(Automatos!F55="","",IF(Automatos!F55=0,"0",TEXT(Automatos!F55,"##")))</f>
-        <v/>
-      </c>
-      <c r="G9" s="22" t="str">
-        <f>IF(Automatos!G55="","",IF(Automatos!G55=0,"0",TEXT(Automatos!G55,"##")))</f>
-        <v/>
-      </c>
-      <c r="H9" s="22" t="str">
-        <f>IF(Automatos!H55="","",IF(Automatos!H55=0,"0",TEXT(Automatos!H55,"##")))</f>
-        <v/>
-      </c>
-      <c r="I9" s="22" t="str">
-        <f>IF(Automatos!I55="","",IF(Automatos!I55=0,"0",TEXT(Automatos!I55,"##")))</f>
-        <v/>
-      </c>
-      <c r="J9" s="22" t="str">
-        <f>IF(Automatos!J55="","",IF(Automatos!J55=0,"0",TEXT(Automatos!J55,"##")))</f>
-        <v/>
-      </c>
-      <c r="K9" s="22" t="str">
-        <f>IF(Automatos!K55="","",IF(Automatos!K55=0,"0",TEXT(Automatos!K55,"##")))</f>
-        <v/>
-      </c>
-      <c r="L9" s="22" t="str">
-        <f>IF(Automatos!L55="","",IF(Automatos!L55=0,"0",TEXT(Automatos!L55,"##")))</f>
-        <v/>
-      </c>
-      <c r="M9" s="22" t="str">
-        <f>IF(Automatos!M55="","",IF(Automatos!M55=0,"0",TEXT(Automatos!M55,"##")))</f>
-        <v/>
-      </c>
-      <c r="N9" s="22" t="str">
-        <f>IF(Automatos!N55="","",IF(Automatos!N55=0,"0",TEXT(Automatos!N55,"##")))</f>
-        <v/>
-      </c>
-      <c r="O9" s="22" t="str">
-        <f>IF(Automatos!O55="","",IF(Automatos!O55=0,"0",TEXT(Automatos!O55,"##")))</f>
-        <v/>
-      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="str">
-        <f>IF(Automatos!B56="","",IF(Automatos!B56=0,"0",TEXT(Automatos!B56,"##")))</f>
-        <v/>
-      </c>
-      <c r="C10" s="22" t="str">
-        <f>IF(Automatos!C56="","",IF(Automatos!C56=0,"0",TEXT(Automatos!C56,"##")))</f>
-        <v/>
-      </c>
-      <c r="D10" s="22" t="str">
-        <f>IF(Automatos!D56="","",IF(Automatos!D56=0,"0",TEXT(Automatos!D56,"##")))</f>
-        <v/>
-      </c>
-      <c r="E10" s="22" t="str">
-        <f>IF(Automatos!E56="","",IF(Automatos!E56=0,"0",TEXT(Automatos!E56,"##")))</f>
-        <v/>
-      </c>
-      <c r="F10" s="22" t="str">
-        <f>IF(Automatos!F56="","",IF(Automatos!F56=0,"0",TEXT(Automatos!F56,"##")))</f>
-        <v/>
-      </c>
-      <c r="G10" s="22" t="str">
-        <f>IF(Automatos!G56="","",IF(Automatos!G56=0,"0",TEXT(Automatos!G56,"##")))</f>
-        <v/>
-      </c>
-      <c r="H10" s="22" t="str">
-        <f>IF(Automatos!H56="","",IF(Automatos!H56=0,"0",TEXT(Automatos!H56,"##")))</f>
-        <v/>
-      </c>
-      <c r="I10" s="22" t="str">
-        <f>IF(Automatos!I56="","",IF(Automatos!I56=0,"0",TEXT(Automatos!I56,"##")))</f>
-        <v/>
-      </c>
-      <c r="J10" s="22" t="str">
-        <f>IF(Automatos!J56="","",IF(Automatos!J56=0,"0",TEXT(Automatos!J56,"##")))</f>
-        <v>11</v>
-      </c>
-      <c r="K10" s="22" t="str">
-        <f>IF(Automatos!K56="","",IF(Automatos!K56=0,"0",TEXT(Automatos!K56,"##")))</f>
-        <v/>
-      </c>
-      <c r="L10" s="22" t="str">
-        <f>IF(Automatos!L56="","",IF(Automatos!L56=0,"0",TEXT(Automatos!L56,"##")))</f>
-        <v/>
-      </c>
-      <c r="M10" s="22" t="str">
-        <f>IF(Automatos!M56="","",IF(Automatos!M56=0,"0",TEXT(Automatos!M56,"##")))</f>
-        <v/>
-      </c>
-      <c r="N10" s="22" t="str">
-        <f>IF(Automatos!N56="","",IF(Automatos!N56=0,"0",TEXT(Automatos!N56,"##")))</f>
-        <v/>
-      </c>
-      <c r="O10" s="22" t="str">
-        <f>IF(Automatos!O56="","",IF(Automatos!O56=0,"0",TEXT(Automatos!O56,"##")))</f>
-        <v/>
-      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22">
+        <v>9</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22">
+        <v>14</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="22" t="str">
-        <f>IF(Automatos!B57="","",IF(Automatos!B57=0,"0",TEXT(Automatos!B57,"##")))</f>
-        <v/>
-      </c>
-      <c r="C11" s="22" t="str">
-        <f>IF(Automatos!C57="","",IF(Automatos!C57=0,"0",TEXT(Automatos!C57,"##")))</f>
-        <v/>
-      </c>
-      <c r="D11" s="22" t="str">
-        <f>IF(Automatos!D57="","",IF(Automatos!D57=0,"0",TEXT(Automatos!D57,"##")))</f>
-        <v/>
-      </c>
-      <c r="E11" s="22" t="str">
-        <f>IF(Automatos!E57="","",IF(Automatos!E57=0,"0",TEXT(Automatos!E57,"##")))</f>
-        <v/>
-      </c>
-      <c r="F11" s="22" t="str">
-        <f>IF(Automatos!F57="","",IF(Automatos!F57=0,"0",TEXT(Automatos!F57,"##")))</f>
-        <v/>
-      </c>
-      <c r="G11" s="22" t="str">
-        <f>IF(Automatos!G57="","",IF(Automatos!G57=0,"0",TEXT(Automatos!G57,"##")))</f>
-        <v/>
-      </c>
-      <c r="H11" s="22" t="str">
-        <f>IF(Automatos!H57="","",IF(Automatos!H57=0,"0",TEXT(Automatos!H57,"##")))</f>
-        <v/>
-      </c>
-      <c r="I11" s="22" t="str">
-        <f>IF(Automatos!I57="","",IF(Automatos!I57=0,"0",TEXT(Automatos!I57,"##")))</f>
-        <v/>
-      </c>
-      <c r="J11" s="22" t="str">
-        <f>IF(Automatos!J57="","",IF(Automatos!J57=0,"0",TEXT(Automatos!J57,"##")))</f>
-        <v/>
-      </c>
-      <c r="K11" s="22" t="str">
-        <f>IF(Automatos!K57="","",IF(Automatos!K57=0,"0",TEXT(Automatos!K57,"##")))</f>
-        <v/>
-      </c>
-      <c r="L11" s="22" t="str">
-        <f>IF(Automatos!L57="","",IF(Automatos!L57=0,"0",TEXT(Automatos!L57,"##")))</f>
-        <v/>
-      </c>
-      <c r="M11" s="22" t="str">
-        <f>IF(Automatos!M57="","",IF(Automatos!M57=0,"0",TEXT(Automatos!M57,"##")))</f>
-        <v/>
-      </c>
-      <c r="N11" s="22" t="str">
-        <f>IF(Automatos!N57="","",IF(Automatos!N57=0,"0",TEXT(Automatos!N57,"##")))</f>
-        <v/>
-      </c>
-      <c r="O11" s="22" t="str">
-        <f>IF(Automatos!O57="","",IF(Automatos!O57=0,"0",TEXT(Automatos!O57,"##")))</f>
-        <v>13</v>
-      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22">
+        <v>11</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="22" t="str">
-        <f>IF(Automatos!B58="","",IF(Automatos!B58=0,"0",TEXT(Automatos!B58,"##")))</f>
-        <v/>
-      </c>
-      <c r="C12" s="22" t="str">
-        <f>IF(Automatos!C58="","",IF(Automatos!C58=0,"0",TEXT(Automatos!C58,"##")))</f>
-        <v/>
-      </c>
-      <c r="D12" s="22" t="str">
-        <f>IF(Automatos!D58="","",IF(Automatos!D58=0,"0",TEXT(Automatos!D58,"##")))</f>
-        <v/>
-      </c>
-      <c r="E12" s="22" t="str">
-        <f>IF(Automatos!E58="","",IF(Automatos!E58=0,"0",TEXT(Automatos!E58,"##")))</f>
-        <v/>
-      </c>
-      <c r="F12" s="22" t="str">
-        <f>IF(Automatos!F58="","",IF(Automatos!F58=0,"0",TEXT(Automatos!F58,"##")))</f>
-        <v/>
-      </c>
-      <c r="G12" s="22" t="str">
-        <f>IF(Automatos!G58="","",IF(Automatos!G58=0,"0",TEXT(Automatos!G58,"##")))</f>
-        <v/>
-      </c>
-      <c r="H12" s="22" t="str">
-        <f>IF(Automatos!H58="","",IF(Automatos!H58=0,"0",TEXT(Automatos!H58,"##")))</f>
-        <v/>
-      </c>
-      <c r="I12" s="22" t="str">
-        <f>IF(Automatos!I58="","",IF(Automatos!I58=0,"0",TEXT(Automatos!I58,"##")))</f>
-        <v/>
-      </c>
-      <c r="J12" s="22" t="str">
-        <f>IF(Automatos!J58="","",IF(Automatos!J58=0,"0",TEXT(Automatos!J58,"##")))</f>
-        <v/>
-      </c>
-      <c r="K12" s="22" t="str">
-        <f>IF(Automatos!K58="","",IF(Automatos!K58=0,"0",TEXT(Automatos!K58,"##")))</f>
-        <v/>
-      </c>
-      <c r="L12" s="22" t="str">
-        <f>IF(Automatos!L58="","",IF(Automatos!L58=0,"0",TEXT(Automatos!L58,"##")))</f>
-        <v/>
-      </c>
-      <c r="M12" s="22" t="str">
-        <f>IF(Automatos!M58="","",IF(Automatos!M58=0,"0",TEXT(Automatos!M58,"##")))</f>
-        <v/>
-      </c>
-      <c r="N12" s="22" t="str">
-        <f>IF(Automatos!N58="","",IF(Automatos!N58=0,"0",TEXT(Automatos!N58,"##")))</f>
-        <v/>
-      </c>
-      <c r="O12" s="22" t="str">
-        <f>IF(Automatos!O58="","",IF(Automatos!O58=0,"0",TEXT(Automatos!O58,"##")))</f>
-        <v/>
-      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22">
+        <v>12</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="22" t="str">
-        <f>IF(Automatos!B59="","",IF(Automatos!B59=0,"0",TEXT(Automatos!B59,"##")))</f>
-        <v/>
-      </c>
-      <c r="C13" s="22" t="str">
-        <f>IF(Automatos!C59="","",IF(Automatos!C59=0,"0",TEXT(Automatos!C59,"##")))</f>
-        <v/>
-      </c>
-      <c r="D13" s="22" t="str">
-        <f>IF(Automatos!D59="","",IF(Automatos!D59=0,"0",TEXT(Automatos!D59,"##")))</f>
-        <v/>
-      </c>
-      <c r="E13" s="22" t="str">
-        <f>IF(Automatos!E59="","",IF(Automatos!E59=0,"0",TEXT(Automatos!E59,"##")))</f>
-        <v/>
-      </c>
-      <c r="F13" s="22" t="str">
-        <f>IF(Automatos!F59="","",IF(Automatos!F59=0,"0",TEXT(Automatos!F59,"##")))</f>
-        <v/>
-      </c>
-      <c r="G13" s="22" t="str">
-        <f>IF(Automatos!G59="","",IF(Automatos!G59=0,"0",TEXT(Automatos!G59,"##")))</f>
-        <v/>
-      </c>
-      <c r="H13" s="22" t="str">
-        <f>IF(Automatos!H59="","",IF(Automatos!H59=0,"0",TEXT(Automatos!H59,"##")))</f>
-        <v/>
-      </c>
-      <c r="I13" s="22" t="str">
-        <f>IF(Automatos!I59="","",IF(Automatos!I59=0,"0",TEXT(Automatos!I59,"##")))</f>
-        <v/>
-      </c>
-      <c r="J13" s="22" t="str">
-        <f>IF(Automatos!J59="","",IF(Automatos!J59=0,"0",TEXT(Automatos!J59,"##")))</f>
-        <v/>
-      </c>
-      <c r="K13" s="22" t="str">
-        <f>IF(Automatos!K59="","",IF(Automatos!K59=0,"0",TEXT(Automatos!K59,"##")))</f>
-        <v/>
-      </c>
-      <c r="L13" s="22" t="str">
-        <f>IF(Automatos!L59="","",IF(Automatos!L59=0,"0",TEXT(Automatos!L59,"##")))</f>
-        <v/>
-      </c>
-      <c r="M13" s="22" t="str">
-        <f>IF(Automatos!M59="","",IF(Automatos!M59=0,"0",TEXT(Automatos!M59,"##")))</f>
-        <v>12</v>
-      </c>
-      <c r="N13" s="22" t="str">
-        <f>IF(Automatos!N59="","",IF(Automatos!N59=0,"0",TEXT(Automatos!N59,"##")))</f>
-        <v/>
-      </c>
-      <c r="O13" s="22" t="str">
-        <f>IF(Automatos!O59="","",IF(Automatos!O59=0,"0",TEXT(Automatos!O59,"##")))</f>
-        <v/>
-      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="22" t="str">
-        <f>IF(Automatos!B60="","",IF(Automatos!B60=0,"0",TEXT(Automatos!B60,"##")))</f>
-        <v/>
-      </c>
-      <c r="C14" s="22" t="str">
-        <f>IF(Automatos!C60="","",IF(Automatos!C60=0,"0",TEXT(Automatos!C60,"##")))</f>
-        <v/>
-      </c>
-      <c r="D14" s="22" t="str">
-        <f>IF(Automatos!D60="","",IF(Automatos!D60=0,"0",TEXT(Automatos!D60,"##")))</f>
-        <v/>
-      </c>
-      <c r="E14" s="22" t="str">
-        <f>IF(Automatos!E60="","",IF(Automatos!E60=0,"0",TEXT(Automatos!E60,"##")))</f>
-        <v/>
-      </c>
-      <c r="F14" s="22" t="str">
-        <f>IF(Automatos!F60="","",IF(Automatos!F60=0,"0",TEXT(Automatos!F60,"##")))</f>
-        <v/>
-      </c>
-      <c r="G14" s="22" t="str">
-        <f>IF(Automatos!G60="","",IF(Automatos!G60=0,"0",TEXT(Automatos!G60,"##")))</f>
-        <v/>
-      </c>
-      <c r="H14" s="22" t="str">
-        <f>IF(Automatos!H60="","",IF(Automatos!H60=0,"0",TEXT(Automatos!H60,"##")))</f>
-        <v/>
-      </c>
-      <c r="I14" s="22" t="str">
-        <f>IF(Automatos!I60="","",IF(Automatos!I60=0,"0",TEXT(Automatos!I60,"##")))</f>
-        <v/>
-      </c>
-      <c r="J14" s="22" t="str">
-        <f>IF(Automatos!J60="","",IF(Automatos!J60=0,"0",TEXT(Automatos!J60,"##")))</f>
-        <v/>
-      </c>
-      <c r="K14" s="22" t="str">
-        <f>IF(Automatos!K60="","",IF(Automatos!K60=0,"0",TEXT(Automatos!K60,"##")))</f>
-        <v/>
-      </c>
-      <c r="L14" s="22" t="str">
-        <f>IF(Automatos!L60="","",IF(Automatos!L60=0,"0",TEXT(Automatos!L60,"##")))</f>
-        <v/>
-      </c>
-      <c r="M14" s="22" t="str">
-        <f>IF(Automatos!M60="","",IF(Automatos!M60=0,"0",TEXT(Automatos!M60,"##")))</f>
-        <v/>
-      </c>
-      <c r="N14" s="22" t="str">
-        <f>IF(Automatos!N60="","",IF(Automatos!N60=0,"0",TEXT(Automatos!N60,"##")))</f>
-        <v>10</v>
-      </c>
-      <c r="O14" s="22" t="str">
-        <f>IF(Automatos!O60="","",IF(Automatos!O60=0,"0",TEXT(Automatos!O60,"##")))</f>
-        <v/>
-      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22">
+        <v>13</v>
+      </c>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="22" t="str">
-        <f>IF(Automatos!B61="","",IF(Automatos!B61=0,"0",TEXT(Automatos!B61,"##")))</f>
-        <v/>
-      </c>
-      <c r="C15" s="22" t="str">
-        <f>IF(Automatos!C61="","",IF(Automatos!C61=0,"0",TEXT(Automatos!C61,"##")))</f>
-        <v/>
-      </c>
-      <c r="D15" s="22" t="str">
-        <f>IF(Automatos!D61="","",IF(Automatos!D61=0,"0",TEXT(Automatos!D61,"##")))</f>
-        <v/>
-      </c>
-      <c r="E15" s="22" t="str">
-        <f>IF(Automatos!E61="","",IF(Automatos!E61=0,"0",TEXT(Automatos!E61,"##")))</f>
-        <v/>
-      </c>
-      <c r="F15" s="22" t="str">
-        <f>IF(Automatos!F61="","",IF(Automatos!F61=0,"0",TEXT(Automatos!F61,"##")))</f>
-        <v/>
-      </c>
-      <c r="G15" s="22" t="str">
-        <f>IF(Automatos!G61="","",IF(Automatos!G61=0,"0",TEXT(Automatos!G61,"##")))</f>
-        <v/>
-      </c>
-      <c r="H15" s="22" t="str">
-        <f>IF(Automatos!H61="","",IF(Automatos!H61=0,"0",TEXT(Automatos!H61,"##")))</f>
-        <v/>
-      </c>
-      <c r="I15" s="22" t="str">
-        <f>IF(Automatos!I61="","",IF(Automatos!I61=0,"0",TEXT(Automatos!I61,"##")))</f>
-        <v/>
-      </c>
-      <c r="J15" s="22" t="str">
-        <f>IF(Automatos!J61="","",IF(Automatos!J61=0,"0",TEXT(Automatos!J61,"##")))</f>
-        <v>14</v>
-      </c>
-      <c r="K15" s="22" t="str">
-        <f>IF(Automatos!K61="","",IF(Automatos!K61=0,"0",TEXT(Automatos!K61,"##")))</f>
-        <v/>
-      </c>
-      <c r="L15" s="22" t="str">
-        <f>IF(Automatos!L61="","",IF(Automatos!L61=0,"0",TEXT(Automatos!L61,"##")))</f>
-        <v>15</v>
-      </c>
-      <c r="M15" s="22" t="str">
-        <f>IF(Automatos!M61="","",IF(Automatos!M61=0,"0",TEXT(Automatos!M61,"##")))</f>
-        <v/>
-      </c>
-      <c r="N15" s="22" t="str">
-        <f>IF(Automatos!N61="","",IF(Automatos!N61=0,"0",TEXT(Automatos!N61,"##")))</f>
-        <v/>
-      </c>
-      <c r="O15" s="22" t="str">
-        <f>IF(Automatos!O61="","",IF(Automatos!O61=0,"0",TEXT(Automatos!O61,"##")))</f>
-        <v/>
-      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22">
+        <v>11</v>
+      </c>
+      <c r="O15" s="22"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="22" t="str">
-        <f>IF(Automatos!B62="","",IF(Automatos!B62=0,"0",TEXT(Automatos!B62,"##")))</f>
-        <v/>
-      </c>
-      <c r="C16" s="22" t="str">
-        <f>IF(Automatos!C62="","",IF(Automatos!C62=0,"0",TEXT(Automatos!C62,"##")))</f>
-        <v/>
-      </c>
-      <c r="D16" s="22" t="str">
-        <f>IF(Automatos!D62="","",IF(Automatos!D62=0,"0",TEXT(Automatos!D62,"##")))</f>
-        <v/>
-      </c>
-      <c r="E16" s="22" t="str">
-        <f>IF(Automatos!E62="","",IF(Automatos!E62=0,"0",TEXT(Automatos!E62,"##")))</f>
-        <v/>
-      </c>
-      <c r="F16" s="22" t="str">
-        <f>IF(Automatos!F62="","",IF(Automatos!F62=0,"0",TEXT(Automatos!F62,"##")))</f>
-        <v/>
-      </c>
-      <c r="G16" s="22" t="str">
-        <f>IF(Automatos!G62="","",IF(Automatos!G62=0,"0",TEXT(Automatos!G62,"##")))</f>
-        <v/>
-      </c>
-      <c r="H16" s="22" t="str">
-        <f>IF(Automatos!H62="","",IF(Automatos!H62=0,"0",TEXT(Automatos!H62,"##")))</f>
-        <v/>
-      </c>
-      <c r="I16" s="22" t="str">
-        <f>IF(Automatos!I62="","",IF(Automatos!I62=0,"0",TEXT(Automatos!I62,"##")))</f>
-        <v/>
-      </c>
-      <c r="J16" s="22" t="str">
-        <f>IF(Automatos!J62="","",IF(Automatos!J62=0,"0",TEXT(Automatos!J62,"##")))</f>
-        <v/>
-      </c>
-      <c r="K16" s="22" t="str">
-        <f>IF(Automatos!K62="","",IF(Automatos!K62=0,"0",TEXT(Automatos!K62,"##")))</f>
-        <v>10</v>
-      </c>
-      <c r="L16" s="22" t="str">
-        <f>IF(Automatos!L62="","",IF(Automatos!L62=0,"0",TEXT(Automatos!L62,"##")))</f>
-        <v/>
-      </c>
-      <c r="M16" s="22" t="str">
-        <f>IF(Automatos!M62="","",IF(Automatos!M62=0,"0",TEXT(Automatos!M62,"##")))</f>
-        <v/>
-      </c>
-      <c r="N16" s="22" t="str">
-        <f>IF(Automatos!N62="","",IF(Automatos!N62=0,"0",TEXT(Automatos!N62,"##")))</f>
-        <v/>
-      </c>
-      <c r="O16" s="22" t="str">
-        <f>IF(Automatos!O62="","",IF(Automatos!O62=0,"0",TEXT(Automatos!O62,"##")))</f>
-        <v/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="22" t="str">
-        <f>IF(Automatos!B63="","",IF(Automatos!B63=0,"0",TEXT(Automatos!B63,"##")))</f>
-        <v/>
-      </c>
-      <c r="C17" s="22" t="str">
-        <f>IF(Automatos!C63="","",IF(Automatos!C63=0,"0",TEXT(Automatos!C63,"##")))</f>
-        <v/>
-      </c>
-      <c r="D17" s="22" t="str">
-        <f>IF(Automatos!D63="","",IF(Automatos!D63=0,"0",TEXT(Automatos!D63,"##")))</f>
-        <v/>
-      </c>
-      <c r="E17" s="22" t="str">
-        <f>IF(Automatos!E63="","",IF(Automatos!E63=0,"0",TEXT(Automatos!E63,"##")))</f>
-        <v/>
-      </c>
-      <c r="F17" s="22" t="str">
-        <f>IF(Automatos!F63="","",IF(Automatos!F63=0,"0",TEXT(Automatos!F63,"##")))</f>
-        <v/>
-      </c>
-      <c r="G17" s="22" t="str">
-        <f>IF(Automatos!G63="","",IF(Automatos!G63=0,"0",TEXT(Automatos!G63,"##")))</f>
-        <v/>
-      </c>
-      <c r="H17" s="22" t="str">
-        <f>IF(Automatos!H63="","",IF(Automatos!H63=0,"0",TEXT(Automatos!H63,"##")))</f>
-        <v/>
-      </c>
-      <c r="I17" s="22" t="str">
-        <f>IF(Automatos!I63="","",IF(Automatos!I63=0,"0",TEXT(Automatos!I63,"##")))</f>
-        <v/>
-      </c>
-      <c r="J17" s="22" t="str">
-        <f>IF(Automatos!J63="","",IF(Automatos!J63=0,"0",TEXT(Automatos!J63,"##")))</f>
-        <v/>
-      </c>
-      <c r="K17" s="22" t="str">
-        <f>IF(Automatos!K63="","",IF(Automatos!K63=0,"0",TEXT(Automatos!K63,"##")))</f>
-        <v/>
-      </c>
-      <c r="L17" s="22" t="str">
-        <f>IF(Automatos!L63="","",IF(Automatos!L63=0,"0",TEXT(Automatos!L63,"##")))</f>
-        <v/>
-      </c>
-      <c r="M17" s="22" t="str">
-        <f>IF(Automatos!M63="","",IF(Automatos!M63=0,"0",TEXT(Automatos!M63,"##")))</f>
-        <v/>
-      </c>
-      <c r="N17" s="22" t="str">
-        <f>IF(Automatos!N63="","",IF(Automatos!N63=0,"0",TEXT(Automatos!N63,"##")))</f>
-        <v/>
-      </c>
-      <c r="O17" s="22" t="str">
-        <f>IF(Automatos!O63="","",IF(Automatos!O63=0,"0",TEXT(Automatos!O63,"##")))</f>
-        <v>13</v>
-      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22">
+        <v>6</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="22" t="str">
-        <f>IF(Automatos!B64="","",IF(Automatos!B64=0,"0",TEXT(Automatos!B64,"##")))</f>
-        <v/>
-      </c>
-      <c r="C18" s="22" t="str">
-        <f>IF(Automatos!C64="","",IF(Automatos!C64=0,"0",TEXT(Automatos!C64,"##")))</f>
-        <v/>
-      </c>
-      <c r="D18" s="22" t="str">
-        <f>IF(Automatos!D64="","",IF(Automatos!D64=0,"0",TEXT(Automatos!D64,"##")))</f>
-        <v/>
-      </c>
-      <c r="E18" s="22" t="str">
-        <f>IF(Automatos!E64="","",IF(Automatos!E64=0,"0",TEXT(Automatos!E64,"##")))</f>
-        <v/>
-      </c>
-      <c r="F18" s="22" t="str">
-        <f>IF(Automatos!F64="","",IF(Automatos!F64=0,"0",TEXT(Automatos!F64,"##")))</f>
-        <v/>
-      </c>
-      <c r="G18" s="22" t="str">
-        <f>IF(Automatos!G64="","",IF(Automatos!G64=0,"0",TEXT(Automatos!G64,"##")))</f>
-        <v/>
-      </c>
-      <c r="H18" s="22" t="str">
-        <f>IF(Automatos!H64="","",IF(Automatos!H64=0,"0",TEXT(Automatos!H64,"##")))</f>
-        <v/>
-      </c>
-      <c r="I18" s="22" t="str">
-        <f>IF(Automatos!I64="","",IF(Automatos!I64=0,"0",TEXT(Automatos!I64,"##")))</f>
-        <v/>
-      </c>
-      <c r="J18" s="22" t="str">
-        <f>IF(Automatos!J64="","",IF(Automatos!J64=0,"0",TEXT(Automatos!J64,"##")))</f>
-        <v/>
-      </c>
-      <c r="K18" s="22" t="str">
-        <f>IF(Automatos!K64="","",IF(Automatos!K64=0,"0",TEXT(Automatos!K64,"##")))</f>
-        <v/>
-      </c>
-      <c r="L18" s="22" t="str">
-        <f>IF(Automatos!L64="","",IF(Automatos!L64=0,"0",TEXT(Automatos!L64,"##")))</f>
-        <v/>
-      </c>
-      <c r="M18" s="22" t="str">
-        <f>IF(Automatos!M64="","",IF(Automatos!M64=0,"0",TEXT(Automatos!M64,"##")))</f>
-        <v/>
-      </c>
-      <c r="N18" s="22" t="str">
-        <f>IF(Automatos!N64="","",IF(Automatos!N64=0,"0",TEXT(Automatos!N64,"##")))</f>
-        <v/>
-      </c>
-      <c r="O18" s="22" t="str">
-        <f>IF(Automatos!O64="","",IF(Automatos!O64=0,"0",TEXT(Automatos!O64,"##")))</f>
-        <v/>
-      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="22" t="str">
-        <f>IF(Automatos!B65="","",IF(Automatos!B65=0,"0",TEXT(Automatos!B65,"##")))</f>
-        <v/>
-      </c>
-      <c r="C19" s="22" t="str">
-        <f>IF(Automatos!C65="","",IF(Automatos!C65=0,"0",TEXT(Automatos!C65,"##")))</f>
-        <v/>
-      </c>
-      <c r="D19" s="22" t="str">
-        <f>IF(Automatos!D65="","",IF(Automatos!D65=0,"0",TEXT(Automatos!D65,"##")))</f>
-        <v/>
-      </c>
-      <c r="E19" s="22" t="str">
-        <f>IF(Automatos!E65="","",IF(Automatos!E65=0,"0",TEXT(Automatos!E65,"##")))</f>
-        <v/>
-      </c>
-      <c r="F19" s="22" t="str">
-        <f>IF(Automatos!F65="","",IF(Automatos!F65=0,"0",TEXT(Automatos!F65,"##")))</f>
-        <v/>
-      </c>
-      <c r="G19" s="22" t="str">
-        <f>IF(Automatos!G65="","",IF(Automatos!G65=0,"0",TEXT(Automatos!G65,"##")))</f>
-        <v/>
-      </c>
-      <c r="H19" s="22" t="str">
-        <f>IF(Automatos!H65="","",IF(Automatos!H65=0,"0",TEXT(Automatos!H65,"##")))</f>
-        <v/>
-      </c>
-      <c r="I19" s="22" t="str">
-        <f>IF(Automatos!I65="","",IF(Automatos!I65=0,"0",TEXT(Automatos!I65,"##")))</f>
-        <v/>
-      </c>
-      <c r="J19" s="22" t="str">
-        <f>IF(Automatos!J65="","",IF(Automatos!J65=0,"0",TEXT(Automatos!J65,"##")))</f>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22">
         <v>18</v>
       </c>
-      <c r="K19" s="22" t="str">
-        <f>IF(Automatos!K65="","",IF(Automatos!K65=0,"0",TEXT(Automatos!K65,"##")))</f>
-        <v/>
-      </c>
-      <c r="L19" s="22" t="str">
-        <f>IF(Automatos!L65="","",IF(Automatos!L65=0,"0",TEXT(Automatos!L65,"##")))</f>
-        <v/>
-      </c>
-      <c r="M19" s="22" t="str">
-        <f>IF(Automatos!M65="","",IF(Automatos!M65=0,"0",TEXT(Automatos!M65,"##")))</f>
-        <v/>
-      </c>
-      <c r="N19" s="22" t="str">
-        <f>IF(Automatos!N65="","",IF(Automatos!N65=0,"0",TEXT(Automatos!N65,"##")))</f>
-        <v/>
-      </c>
-      <c r="O19" s="22" t="str">
-        <f>IF(Automatos!O65="","",IF(Automatos!O65=0,"0",TEXT(Automatos!O65,"##")))</f>
-        <v/>
-      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="22" t="str">
-        <f>IF(Automatos!B66="","",IF(Automatos!B66=0,"0",TEXT(Automatos!B66,"##")))</f>
-        <v/>
-      </c>
-      <c r="C20" s="22" t="str">
-        <f>IF(Automatos!C66="","",IF(Automatos!C66=0,"0",TEXT(Automatos!C66,"##")))</f>
-        <v/>
-      </c>
-      <c r="D20" s="22" t="str">
-        <f>IF(Automatos!D66="","",IF(Automatos!D66=0,"0",TEXT(Automatos!D66,"##")))</f>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22">
         <v>19</v>
       </c>
-      <c r="E20" s="22" t="str">
-        <f>IF(Automatos!E66="","",IF(Automatos!E66=0,"0",TEXT(Automatos!E66,"##")))</f>
-        <v/>
-      </c>
-      <c r="F20" s="22" t="str">
-        <f>IF(Automatos!F66="","",IF(Automatos!F66=0,"0",TEXT(Automatos!F66,"##")))</f>
-        <v/>
-      </c>
-      <c r="G20" s="22" t="str">
-        <f>IF(Automatos!G66="","",IF(Automatos!G66=0,"0",TEXT(Automatos!G66,"##")))</f>
-        <v/>
-      </c>
-      <c r="H20" s="22" t="str">
-        <f>IF(Automatos!H66="","",IF(Automatos!H66=0,"0",TEXT(Automatos!H66,"##")))</f>
-        <v/>
-      </c>
-      <c r="I20" s="22" t="str">
-        <f>IF(Automatos!I66="","",IF(Automatos!I66=0,"0",TEXT(Automatos!I66,"##")))</f>
-        <v/>
-      </c>
-      <c r="J20" s="22" t="str">
-        <f>IF(Automatos!J66="","",IF(Automatos!J66=0,"0",TEXT(Automatos!J66,"##")))</f>
-        <v/>
-      </c>
-      <c r="K20" s="22" t="str">
-        <f>IF(Automatos!K66="","",IF(Automatos!K66=0,"0",TEXT(Automatos!K66,"##")))</f>
-        <v/>
-      </c>
-      <c r="L20" s="22" t="str">
-        <f>IF(Automatos!L66="","",IF(Automatos!L66=0,"0",TEXT(Automatos!L66,"##")))</f>
-        <v/>
-      </c>
-      <c r="M20" s="22" t="str">
-        <f>IF(Automatos!M66="","",IF(Automatos!M66=0,"0",TEXT(Automatos!M66,"##")))</f>
-        <v/>
-      </c>
-      <c r="N20" s="22" t="str">
-        <f>IF(Automatos!N66="","",IF(Automatos!N66=0,"0",TEXT(Automatos!N66,"##")))</f>
-        <v/>
-      </c>
-      <c r="O20" s="22" t="str">
-        <f>IF(Automatos!O66="","",IF(Automatos!O66=0,"0",TEXT(Automatos!O66,"##")))</f>
-        <v/>
-      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="22" t="str">
-        <f>IF(Automatos!B67="","",IF(Automatos!B67=0,"0",TEXT(Automatos!B67,"##")))</f>
-        <v/>
-      </c>
-      <c r="C21" s="22" t="str">
-        <f>IF(Automatos!C67="","",IF(Automatos!C67=0,"0",TEXT(Automatos!C67,"##")))</f>
-        <v/>
-      </c>
-      <c r="D21" s="22" t="str">
-        <f>IF(Automatos!D67="","",IF(Automatos!D67=0,"0",TEXT(Automatos!D67,"##")))</f>
-        <v/>
-      </c>
-      <c r="E21" s="22" t="str">
-        <f>IF(Automatos!E67="","",IF(Automatos!E67=0,"0",TEXT(Automatos!E67,"##")))</f>
-        <v/>
-      </c>
-      <c r="F21" s="22" t="str">
-        <f>IF(Automatos!F67="","",IF(Automatos!F67=0,"0",TEXT(Automatos!F67,"##")))</f>
-        <v/>
-      </c>
-      <c r="G21" s="22" t="str">
-        <f>IF(Automatos!G67="","",IF(Automatos!G67=0,"0",TEXT(Automatos!G67,"##")))</f>
-        <v/>
-      </c>
-      <c r="H21" s="22" t="str">
-        <f>IF(Automatos!H67="","",IF(Automatos!H67=0,"0",TEXT(Automatos!H67,"##")))</f>
-        <v/>
-      </c>
-      <c r="I21" s="22" t="str">
-        <f>IF(Automatos!I67="","",IF(Automatos!I67=0,"0",TEXT(Automatos!I67,"##")))</f>
-        <v/>
-      </c>
-      <c r="J21" s="22" t="str">
-        <f>IF(Automatos!J67="","",IF(Automatos!J67=0,"0",TEXT(Automatos!J67,"##")))</f>
-        <v/>
-      </c>
-      <c r="K21" s="22" t="str">
-        <f>IF(Automatos!K67="","",IF(Automatos!K67=0,"0",TEXT(Automatos!K67,"##")))</f>
-        <v/>
-      </c>
-      <c r="L21" s="22" t="str">
-        <f>IF(Automatos!L67="","",IF(Automatos!L67=0,"0",TEXT(Automatos!L67,"##")))</f>
-        <v/>
-      </c>
-      <c r="M21" s="22" t="str">
-        <f>IF(Automatos!M67="","",IF(Automatos!M67=0,"0",TEXT(Automatos!M67,"##")))</f>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22">
         <v>20</v>
       </c>
-      <c r="N21" s="22" t="str">
-        <f>IF(Automatos!N67="","",IF(Automatos!N67=0,"0",TEXT(Automatos!N67,"##")))</f>
-        <v/>
-      </c>
-      <c r="O21" s="22" t="str">
-        <f>IF(Automatos!O67="","",IF(Automatos!O67=0,"0",TEXT(Automatos!O67,"##")))</f>
-        <v/>
-      </c>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="22" t="str">
-        <f>IF(Automatos!B68="","",IF(Automatos!B68=0,"0",TEXT(Automatos!B68,"##")))</f>
-        <v/>
-      </c>
-      <c r="C22" s="22" t="str">
-        <f>IF(Automatos!C68="","",IF(Automatos!C68=0,"0",TEXT(Automatos!C68,"##")))</f>
-        <v/>
-      </c>
-      <c r="D22" s="22" t="str">
-        <f>IF(Automatos!D68="","",IF(Automatos!D68=0,"0",TEXT(Automatos!D68,"##")))</f>
-        <v/>
-      </c>
-      <c r="E22" s="22" t="str">
-        <f>IF(Automatos!E68="","",IF(Automatos!E68=0,"0",TEXT(Automatos!E68,"##")))</f>
-        <v/>
-      </c>
-      <c r="F22" s="22" t="str">
-        <f>IF(Automatos!F68="","",IF(Automatos!F68=0,"0",TEXT(Automatos!F68,"##")))</f>
-        <v/>
-      </c>
-      <c r="G22" s="22" t="str">
-        <f>IF(Automatos!G68="","",IF(Automatos!G68=0,"0",TEXT(Automatos!G68,"##")))</f>
-        <v/>
-      </c>
-      <c r="H22" s="22" t="str">
-        <f>IF(Automatos!H68="","",IF(Automatos!H68=0,"0",TEXT(Automatos!H68,"##")))</f>
-        <v/>
-      </c>
-      <c r="I22" s="22" t="str">
-        <f>IF(Automatos!I68="","",IF(Automatos!I68=0,"0",TEXT(Automatos!I68,"##")))</f>
-        <v/>
-      </c>
-      <c r="J22" s="22" t="str">
-        <f>IF(Automatos!J68="","",IF(Automatos!J68=0,"0",TEXT(Automatos!J68,"##")))</f>
-        <v/>
-      </c>
-      <c r="K22" s="22" t="str">
-        <f>IF(Automatos!K68="","",IF(Automatos!K68=0,"0",TEXT(Automatos!K68,"##")))</f>
-        <v/>
-      </c>
-      <c r="L22" s="22" t="str">
-        <f>IF(Automatos!L68="","",IF(Automatos!L68=0,"0",TEXT(Automatos!L68,"##")))</f>
-        <v/>
-      </c>
-      <c r="M22" s="22" t="str">
-        <f>IF(Automatos!M68="","",IF(Automatos!M68=0,"0",TEXT(Automatos!M68,"##")))</f>
-        <v/>
-      </c>
-      <c r="N22" s="22" t="str">
-        <f>IF(Automatos!N68="","",IF(Automatos!N68=0,"0",TEXT(Automatos!N68,"##")))</f>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22">
         <v>21</v>
       </c>
-      <c r="O22" s="22" t="str">
-        <f>IF(Automatos!O68="","",IF(Automatos!O68=0,"0",TEXT(Automatos!O68,"##")))</f>
-        <v/>
-      </c>
+      <c r="O22" s="22"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="22" t="str">
-        <f>IF(Automatos!B69="","",IF(Automatos!B69=0,"0",TEXT(Automatos!B69,"##")))</f>
-        <v/>
-      </c>
-      <c r="C23" s="22" t="str">
-        <f>IF(Automatos!C69="","",IF(Automatos!C69=0,"0",TEXT(Automatos!C69,"##")))</f>
-        <v>11</v>
-      </c>
-      <c r="D23" s="22" t="str">
-        <f>IF(Automatos!D69="","",IF(Automatos!D69=0,"0",TEXT(Automatos!D69,"##")))</f>
-        <v/>
-      </c>
-      <c r="E23" s="22" t="str">
-        <f>IF(Automatos!E69="","",IF(Automatos!E69=0,"0",TEXT(Automatos!E69,"##")))</f>
-        <v/>
-      </c>
-      <c r="F23" s="22" t="str">
-        <f>IF(Automatos!F69="","",IF(Automatos!F69=0,"0",TEXT(Automatos!F69,"##")))</f>
-        <v/>
-      </c>
-      <c r="G23" s="22" t="str">
-        <f>IF(Automatos!G69="","",IF(Automatos!G69=0,"0",TEXT(Automatos!G69,"##")))</f>
-        <v/>
-      </c>
-      <c r="H23" s="22" t="str">
-        <f>IF(Automatos!H69="","",IF(Automatos!H69=0,"0",TEXT(Automatos!H69,"##")))</f>
-        <v/>
-      </c>
-      <c r="I23" s="22" t="str">
-        <f>IF(Automatos!I69="","",IF(Automatos!I69=0,"0",TEXT(Automatos!I69,"##")))</f>
-        <v/>
-      </c>
-      <c r="J23" s="22" t="str">
-        <f>IF(Automatos!J69="","",IF(Automatos!J69=0,"0",TEXT(Automatos!J69,"##")))</f>
-        <v/>
-      </c>
-      <c r="K23" s="22" t="str">
-        <f>IF(Automatos!K69="","",IF(Automatos!K69=0,"0",TEXT(Automatos!K69,"##")))</f>
-        <v/>
-      </c>
-      <c r="L23" s="22" t="str">
-        <f>IF(Automatos!L69="","",IF(Automatos!L69=0,"0",TEXT(Automatos!L69,"##")))</f>
-        <v/>
-      </c>
-      <c r="M23" s="22" t="str">
-        <f>IF(Automatos!M69="","",IF(Automatos!M69=0,"0",TEXT(Automatos!M69,"##")))</f>
-        <v/>
-      </c>
-      <c r="N23" s="22" t="str">
-        <f>IF(Automatos!N69="","",IF(Automatos!N69=0,"0",TEXT(Automatos!N69,"##")))</f>
-        <v/>
-      </c>
-      <c r="O23" s="22" t="str">
-        <f>IF(Automatos!O69="","",IF(Automatos!O69=0,"0",TEXT(Automatos!O69,"##")))</f>
-        <v/>
-      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22">
+        <v>12</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3966,8 +3224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3985,69 +3243,63 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>20</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6809,7 +6061,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="12">
         <v>257</v>
@@ -7250,8 +6502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7312,7 +6564,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/config/input.xlsx
+++ b/config/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="0" windowWidth="19800" windowHeight="15620" tabRatio="884" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="4940" yWindow="0" windowWidth="19800" windowHeight="15620" tabRatio="884" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="PalavrasReservadas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="100">
   <si>
     <t>if</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>11,21</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -401,8 +404,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="251">
+  <cellStyleXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -713,7 +720,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="251">
+  <cellStyles count="255">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -839,6 +846,8 @@
     <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -964,6 +973,8 @@
     <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1671,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1726,7 +1737,8 @@
       <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="22" t="str">
+        <f>IF(Automatos!B48="","",IF(Automatos!B48=0,"0",TEXT(Automatos!B48,"##")))</f>
         <v>3</v>
       </c>
       <c r="C2" s="22" t="str">
@@ -1737,13 +1749,16 @@
         <f>IF(Automatos!D48="","",IF(Automatos!D48=0,"0",TEXT(Automatos!D48,"##")))</f>
         <v/>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="22" t="str">
+        <f>IF(Automatos!E48="","",IF(Automatos!E48=0,"0",TEXT(Automatos!E48,"##")))</f>
         <v>4</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="22" t="str">
+        <f>IF(Automatos!F48="","",IF(Automatos!F48=0,"0",TEXT(Automatos!F48,"##")))</f>
         <v>2</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="22" t="str">
+        <f>IF(Automatos!G48="","",IF(Automatos!G48=0,"0",TEXT(Automatos!G48,"##")))</f>
         <v>2</v>
       </c>
       <c r="H2" s="22" t="str">
@@ -1807,17 +1822,22 @@
         <f>IF(Automatos!G49="","",IF(Automatos!G49=0,"0",TEXT(Automatos!G49,"##")))</f>
         <v/>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="22" t="str">
+        <f>IF(Automatos!H49="","",IF(Automatos!H49=0,"0",TEXT(Automatos!H49,"##")))</f>
         <v>5</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="22" t="str">
+        <f>IF(Automatos!I49="","",IF(Automatos!I49=0,"0",TEXT(Automatos!I49,"##")))</f>
         <v>6</v>
       </c>
       <c r="J3" s="22" t="str">
         <f>IF(Automatos!J49="","",IF(Automatos!J49=0,"0",TEXT(Automatos!J49,"##")))</f>
         <v/>
       </c>
-      <c r="K3" s="22"/>
+      <c r="K3" s="22" t="str">
+        <f>IF(Automatos!K49="","",IF(Automatos!K49=0,"0",TEXT(Automatos!K49,"##")))</f>
+        <v/>
+      </c>
       <c r="L3" s="22" t="str">
         <f>IF(Automatos!L49="","",IF(Automatos!L49=0,"0",TEXT(Automatos!L49,"##")))</f>
         <v/>
@@ -1867,12 +1887,18 @@
         <f>IF(Automatos!H50="","",IF(Automatos!H50=0,"0",TEXT(Automatos!H50,"##")))</f>
         <v/>
       </c>
-      <c r="I4" s="22"/>
+      <c r="I4" s="22" t="str">
+        <f>IF(Automatos!I50="","",IF(Automatos!I50=0,"0",TEXT(Automatos!I50,"##")))</f>
+        <v/>
+      </c>
       <c r="J4" s="22" t="str">
         <f>IF(Automatos!J50="","",IF(Automatos!J50=0,"0",TEXT(Automatos!J50,"##")))</f>
         <v/>
       </c>
-      <c r="K4" s="22"/>
+      <c r="K4" s="22" t="str">
+        <f>IF(Automatos!K50="","",IF(Automatos!K50=0,"0",TEXT(Automatos!K50,"##")))</f>
+        <v/>
+      </c>
       <c r="L4" s="22" t="str">
         <f>IF(Automatos!L50="","",IF(Automatos!L50=0,"0",TEXT(Automatos!L50,"##")))</f>
         <v/>
@@ -1885,7 +1911,8 @@
         <f>IF(Automatos!N50="","",IF(Automatos!N50=0,"0",TEXT(Automatos!N50,"##")))</f>
         <v/>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="22" t="str">
+        <f>IF(Automatos!O50="","",IF(Automatos!O50=0,"0",TEXT(Automatos!O50,"##")))</f>
         <v>9</v>
       </c>
     </row>
@@ -1921,7 +1948,8 @@
         <f>IF(Automatos!H51="","",IF(Automatos!H51=0,"0",TEXT(Automatos!H51,"##")))</f>
         <v/>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="22" t="str">
+        <f>IF(Automatos!I51="","",IF(Automatos!I51=0,"0",TEXT(Automatos!I51,"##")))</f>
         <v>16</v>
       </c>
       <c r="J5" s="22" t="str">
@@ -1944,47 +1972,130 @@
         <f>IF(Automatos!N51="","",IF(Automatos!N51=0,"0",TEXT(Automatos!N51,"##")))</f>
         <v/>
       </c>
-      <c r="O5" s="22"/>
+      <c r="O5" s="22" t="str">
+        <f>IF(Automatos!O51="","",IF(Automatos!O51=0,"0",TEXT(Automatos!O51,"##")))</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22">
+      <c r="B6" s="22" t="str">
+        <f>IF(Automatos!B52="","",IF(Automatos!B52=0,"0",TEXT(Automatos!B52,"##")))</f>
+        <v/>
+      </c>
+      <c r="C6" s="22" t="str">
+        <f>IF(Automatos!C52="","",IF(Automatos!C52=0,"0",TEXT(Automatos!C52,"##")))</f>
+        <v/>
+      </c>
+      <c r="D6" s="22" t="str">
+        <f>IF(Automatos!D52="","",IF(Automatos!D52=0,"0",TEXT(Automatos!D52,"##")))</f>
+        <v/>
+      </c>
+      <c r="E6" s="22" t="str">
+        <f>IF(Automatos!E52="","",IF(Automatos!E52=0,"0",TEXT(Automatos!E52,"##")))</f>
+        <v/>
+      </c>
+      <c r="F6" s="22" t="str">
+        <f>IF(Automatos!F52="","",IF(Automatos!F52=0,"0",TEXT(Automatos!F52,"##")))</f>
+        <v/>
+      </c>
+      <c r="G6" s="22" t="str">
+        <f>IF(Automatos!G52="","",IF(Automatos!G52=0,"0",TEXT(Automatos!G52,"##")))</f>
+        <v/>
+      </c>
+      <c r="H6" s="22" t="str">
+        <f>IF(Automatos!H52="","",IF(Automatos!H52=0,"0",TEXT(Automatos!H52,"##")))</f>
+        <v/>
+      </c>
+      <c r="I6" s="22" t="str">
+        <f>IF(Automatos!I52="","",IF(Automatos!I52=0,"0",TEXT(Automatos!I52,"##")))</f>
         <v>7</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
+      <c r="J6" s="22" t="str">
+        <f>IF(Automatos!J52="","",IF(Automatos!J52=0,"0",TEXT(Automatos!J52,"##")))</f>
+        <v/>
+      </c>
+      <c r="K6" s="22" t="str">
+        <f>IF(Automatos!K52="","",IF(Automatos!K52=0,"0",TEXT(Automatos!K52,"##")))</f>
+        <v/>
+      </c>
+      <c r="L6" s="22" t="str">
+        <f>IF(Automatos!L52="","",IF(Automatos!L52=0,"0",TEXT(Automatos!L52,"##")))</f>
+        <v/>
+      </c>
+      <c r="M6" s="22" t="str">
+        <f>IF(Automatos!M52="","",IF(Automatos!M52=0,"0",TEXT(Automatos!M52,"##")))</f>
+        <v/>
+      </c>
+      <c r="N6" s="22" t="str">
+        <f>IF(Automatos!N52="","",IF(Automatos!N52=0,"0",TEXT(Automatos!N52,"##")))</f>
+        <v/>
+      </c>
+      <c r="O6" s="22" t="str">
+        <f>IF(Automatos!O52="","",IF(Automatos!O52=0,"0",TEXT(Automatos!O52,"##")))</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22">
+      <c r="B7" s="22" t="str">
+        <f>IF(Automatos!B53="","",IF(Automatos!B53=0,"0",TEXT(Automatos!B53,"##")))</f>
+        <v/>
+      </c>
+      <c r="C7" s="22" t="str">
+        <f>IF(Automatos!C53="","",IF(Automatos!C53=0,"0",TEXT(Automatos!C53,"##")))</f>
+        <v/>
+      </c>
+      <c r="D7" s="22" t="str">
+        <f>IF(Automatos!D53="","",IF(Automatos!D53=0,"0",TEXT(Automatos!D53,"##")))</f>
+        <v/>
+      </c>
+      <c r="E7" s="22" t="str">
+        <f>IF(Automatos!E53="","",IF(Automatos!E53=0,"0",TEXT(Automatos!E53,"##")))</f>
+        <v/>
+      </c>
+      <c r="F7" s="22" t="str">
+        <f>IF(Automatos!F53="","",IF(Automatos!F53=0,"0",TEXT(Automatos!F53,"##")))</f>
+        <v/>
+      </c>
+      <c r="G7" s="22" t="str">
+        <f>IF(Automatos!G53="","",IF(Automatos!G53=0,"0",TEXT(Automatos!G53,"##")))</f>
+        <v/>
+      </c>
+      <c r="H7" s="22" t="str">
+        <f>IF(Automatos!H53="","",IF(Automatos!H53=0,"0",TEXT(Automatos!H53,"##")))</f>
+        <v/>
+      </c>
+      <c r="I7" s="22" t="str">
+        <f>IF(Automatos!I53="","",IF(Automatos!I53=0,"0",TEXT(Automatos!I53,"##")))</f>
+        <v/>
+      </c>
+      <c r="J7" s="22" t="str">
+        <f>IF(Automatos!J53="","",IF(Automatos!J53=0,"0",TEXT(Automatos!J53,"##")))</f>
+        <v/>
+      </c>
+      <c r="K7" s="22" t="str">
+        <f>IF(Automatos!K53="","",IF(Automatos!K53=0,"0",TEXT(Automatos!K53,"##")))</f>
+        <v/>
+      </c>
+      <c r="L7" s="22" t="str">
+        <f>IF(Automatos!L53="","",IF(Automatos!L53=0,"0",TEXT(Automatos!L53,"##")))</f>
+        <v/>
+      </c>
+      <c r="M7" s="22" t="str">
+        <f>IF(Automatos!M53="","",IF(Automatos!M53=0,"0",TEXT(Automatos!M53,"##")))</f>
+        <v/>
+      </c>
+      <c r="N7" s="22" t="str">
+        <f>IF(Automatos!N53="","",IF(Automatos!N53=0,"0",TEXT(Automatos!N53,"##")))</f>
+        <v/>
+      </c>
+      <c r="O7" s="22" t="str">
+        <f>IF(Automatos!O53="","",IF(Automatos!O53=0,"0",TEXT(Automatos!O53,"##")))</f>
         <v>15</v>
       </c>
     </row>
@@ -1992,22 +2103,60 @@
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22">
+      <c r="B8" s="22" t="str">
+        <f>IF(Automatos!B54="","",IF(Automatos!B54=0,"0",TEXT(Automatos!B54,"##")))</f>
+        <v/>
+      </c>
+      <c r="C8" s="22" t="str">
+        <f>IF(Automatos!C54="","",IF(Automatos!C54=0,"0",TEXT(Automatos!C54,"##")))</f>
+        <v/>
+      </c>
+      <c r="D8" s="22" t="str">
+        <f>IF(Automatos!D54="","",IF(Automatos!D54=0,"0",TEXT(Automatos!D54,"##")))</f>
+        <v/>
+      </c>
+      <c r="E8" s="22" t="str">
+        <f>IF(Automatos!E54="","",IF(Automatos!E54=0,"0",TEXT(Automatos!E54,"##")))</f>
+        <v/>
+      </c>
+      <c r="F8" s="22" t="str">
+        <f>IF(Automatos!F54="","",IF(Automatos!F54=0,"0",TEXT(Automatos!F54,"##")))</f>
+        <v/>
+      </c>
+      <c r="G8" s="22" t="str">
+        <f>IF(Automatos!G54="","",IF(Automatos!G54=0,"0",TEXT(Automatos!G54,"##")))</f>
+        <v/>
+      </c>
+      <c r="H8" s="22" t="str">
+        <f>IF(Automatos!H54="","",IF(Automatos!H54=0,"0",TEXT(Automatos!H54,"##")))</f>
+        <v/>
+      </c>
+      <c r="I8" s="22" t="str">
+        <f>IF(Automatos!I54="","",IF(Automatos!I54=0,"0",TEXT(Automatos!I54,"##")))</f>
+        <v/>
+      </c>
+      <c r="J8" s="22" t="str">
+        <f>IF(Automatos!J54="","",IF(Automatos!J54=0,"0",TEXT(Automatos!J54,"##")))</f>
         <v>9</v>
       </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22">
+      <c r="K8" s="22" t="str">
+        <f>IF(Automatos!K54="","",IF(Automatos!K54=0,"0",TEXT(Automatos!K54,"##")))</f>
+        <v/>
+      </c>
+      <c r="L8" s="22" t="str">
+        <f>IF(Automatos!L54="","",IF(Automatos!L54=0,"0",TEXT(Automatos!L54,"##")))</f>
+        <v/>
+      </c>
+      <c r="M8" s="22" t="str">
+        <f>IF(Automatos!M54="","",IF(Automatos!M54=0,"0",TEXT(Automatos!M54,"##")))</f>
+        <v/>
+      </c>
+      <c r="N8" s="22" t="str">
+        <f>IF(Automatos!N54="","",IF(Automatos!N54=0,"0",TEXT(Automatos!N54,"##")))</f>
+        <v/>
+      </c>
+      <c r="O8" s="22" t="str">
+        <f>IF(Automatos!O54="","",IF(Automatos!O54=0,"0",TEXT(Automatos!O54,"##")))</f>
         <v>8</v>
       </c>
     </row>
@@ -2015,165 +2164,487 @@
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
+      <c r="B9" s="22" t="str">
+        <f>IF(Automatos!B55="","",IF(Automatos!B55=0,"0",TEXT(Automatos!B55,"##")))</f>
+        <v/>
+      </c>
+      <c r="C9" s="22" t="str">
+        <f>IF(Automatos!C55="","",IF(Automatos!C55=0,"0",TEXT(Automatos!C55,"##")))</f>
+        <v/>
+      </c>
+      <c r="D9" s="22" t="str">
+        <f>IF(Automatos!D55="","",IF(Automatos!D55=0,"0",TEXT(Automatos!D55,"##")))</f>
+        <v/>
+      </c>
+      <c r="E9" s="22" t="str">
+        <f>IF(Automatos!E55="","",IF(Automatos!E55=0,"0",TEXT(Automatos!E55,"##")))</f>
+        <v/>
+      </c>
+      <c r="F9" s="22" t="str">
+        <f>IF(Automatos!F55="","",IF(Automatos!F55=0,"0",TEXT(Automatos!F55,"##")))</f>
+        <v/>
+      </c>
+      <c r="G9" s="22" t="str">
+        <f>IF(Automatos!G55="","",IF(Automatos!G55=0,"0",TEXT(Automatos!G55,"##")))</f>
+        <v/>
+      </c>
+      <c r="H9" s="22" t="str">
+        <f>IF(Automatos!H55="","",IF(Automatos!H55=0,"0",TEXT(Automatos!H55,"##")))</f>
+        <v/>
+      </c>
+      <c r="I9" s="22" t="str">
+        <f>IF(Automatos!I55="","",IF(Automatos!I55=0,"0",TEXT(Automatos!I55,"##")))</f>
+        <v/>
+      </c>
+      <c r="J9" s="22" t="str">
+        <f>IF(Automatos!J55="","",IF(Automatos!J55=0,"0",TEXT(Automatos!J55,"##")))</f>
+        <v/>
+      </c>
+      <c r="K9" s="22" t="str">
+        <f>IF(Automatos!K55="","",IF(Automatos!K55=0,"0",TEXT(Automatos!K55,"##")))</f>
+        <v/>
+      </c>
+      <c r="L9" s="22" t="str">
+        <f>IF(Automatos!L55="","",IF(Automatos!L55=0,"0",TEXT(Automatos!L55,"##")))</f>
+        <v/>
+      </c>
+      <c r="M9" s="22" t="str">
+        <f>IF(Automatos!M55="","",IF(Automatos!M55=0,"0",TEXT(Automatos!M55,"##")))</f>
+        <v/>
+      </c>
+      <c r="N9" s="22" t="str">
+        <f>IF(Automatos!N55="","",IF(Automatos!N55=0,"0",TEXT(Automatos!N55,"##")))</f>
+        <v/>
+      </c>
+      <c r="O9" s="22" t="str">
+        <f>IF(Automatos!O55="","",IF(Automatos!O55=0,"0",TEXT(Automatos!O55,"##")))</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22">
+      <c r="B10" s="22" t="str">
+        <f>IF(Automatos!B56="","",IF(Automatos!B56=0,"0",TEXT(Automatos!B56,"##")))</f>
+        <v/>
+      </c>
+      <c r="C10" s="22" t="str">
+        <f>IF(Automatos!C56="","",IF(Automatos!C56=0,"0",TEXT(Automatos!C56,"##")))</f>
+        <v/>
+      </c>
+      <c r="D10" s="22" t="str">
+        <f>IF(Automatos!D56="","",IF(Automatos!D56=0,"0",TEXT(Automatos!D56,"##")))</f>
+        <v/>
+      </c>
+      <c r="E10" s="22" t="str">
+        <f>IF(Automatos!E56="","",IF(Automatos!E56=0,"0",TEXT(Automatos!E56,"##")))</f>
+        <v/>
+      </c>
+      <c r="F10" s="22" t="str">
+        <f>IF(Automatos!F56="","",IF(Automatos!F56=0,"0",TEXT(Automatos!F56,"##")))</f>
+        <v/>
+      </c>
+      <c r="G10" s="22" t="str">
+        <f>IF(Automatos!G56="","",IF(Automatos!G56=0,"0",TEXT(Automatos!G56,"##")))</f>
+        <v/>
+      </c>
+      <c r="H10" s="22" t="str">
+        <f>IF(Automatos!H56="","",IF(Automatos!H56=0,"0",TEXT(Automatos!H56,"##")))</f>
+        <v/>
+      </c>
+      <c r="I10" s="22" t="str">
+        <f>IF(Automatos!I56="","",IF(Automatos!I56=0,"0",TEXT(Automatos!I56,"##")))</f>
+        <v/>
+      </c>
+      <c r="J10" s="22" t="str">
+        <f>IF(Automatos!J56="","",IF(Automatos!J56=0,"0",TEXT(Automatos!J56,"##")))</f>
         <v>9</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22">
+      <c r="K10" s="22" t="str">
+        <f>IF(Automatos!K56="","",IF(Automatos!K56=0,"0",TEXT(Automatos!K56,"##")))</f>
+        <v/>
+      </c>
+      <c r="L10" s="22" t="str">
+        <f>IF(Automatos!L56="","",IF(Automatos!L56=0,"0",TEXT(Automatos!L56,"##")))</f>
         <v>14</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
+      <c r="M10" s="22" t="str">
+        <f>IF(Automatos!M56="","",IF(Automatos!M56=0,"0",TEXT(Automatos!M56,"##")))</f>
+        <v/>
+      </c>
+      <c r="N10" s="22" t="str">
+        <f>IF(Automatos!N56="","",IF(Automatos!N56=0,"0",TEXT(Automatos!N56,"##")))</f>
+        <v/>
+      </c>
+      <c r="O10" s="22" t="str">
+        <f>IF(Automatos!O56="","",IF(Automatos!O56=0,"0",TEXT(Automatos!O56,"##")))</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22">
+      <c r="B11" s="22" t="str">
+        <f>IF(Automatos!B57="","",IF(Automatos!B57=0,"0",TEXT(Automatos!B57,"##")))</f>
+        <v/>
+      </c>
+      <c r="C11" s="22" t="str">
+        <f>IF(Automatos!C57="","",IF(Automatos!C57=0,"0",TEXT(Automatos!C57,"##")))</f>
+        <v/>
+      </c>
+      <c r="D11" s="22" t="str">
+        <f>IF(Automatos!D57="","",IF(Automatos!D57=0,"0",TEXT(Automatos!D57,"##")))</f>
+        <v/>
+      </c>
+      <c r="E11" s="22" t="str">
+        <f>IF(Automatos!E57="","",IF(Automatos!E57=0,"0",TEXT(Automatos!E57,"##")))</f>
+        <v/>
+      </c>
+      <c r="F11" s="22" t="str">
+        <f>IF(Automatos!F57="","",IF(Automatos!F57=0,"0",TEXT(Automatos!F57,"##")))</f>
+        <v/>
+      </c>
+      <c r="G11" s="22" t="str">
+        <f>IF(Automatos!G57="","",IF(Automatos!G57=0,"0",TEXT(Automatos!G57,"##")))</f>
+        <v/>
+      </c>
+      <c r="H11" s="22" t="str">
+        <f>IF(Automatos!H57="","",IF(Automatos!H57=0,"0",TEXT(Automatos!H57,"##")))</f>
+        <v/>
+      </c>
+      <c r="I11" s="22" t="str">
+        <f>IF(Automatos!I57="","",IF(Automatos!I57=0,"0",TEXT(Automatos!I57,"##")))</f>
+        <v/>
+      </c>
+      <c r="J11" s="22" t="str">
+        <f>IF(Automatos!J57="","",IF(Automatos!J57=0,"0",TEXT(Automatos!J57,"##")))</f>
+        <v/>
+      </c>
+      <c r="K11" s="22" t="str">
+        <f>IF(Automatos!K57="","",IF(Automatos!K57=0,"0",TEXT(Automatos!K57,"##")))</f>
         <v>11</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
+      <c r="L11" s="22" t="str">
+        <f>IF(Automatos!L57="","",IF(Automatos!L57=0,"0",TEXT(Automatos!L57,"##")))</f>
+        <v/>
+      </c>
+      <c r="M11" s="22" t="str">
+        <f>IF(Automatos!M57="","",IF(Automatos!M57=0,"0",TEXT(Automatos!M57,"##")))</f>
+        <v/>
+      </c>
+      <c r="N11" s="22" t="str">
+        <f>IF(Automatos!N57="","",IF(Automatos!N57=0,"0",TEXT(Automatos!N57,"##")))</f>
+        <v/>
+      </c>
+      <c r="O11" s="22" t="str">
+        <f>IF(Automatos!O57="","",IF(Automatos!O57=0,"0",TEXT(Automatos!O57,"##")))</f>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22">
+      <c r="B12" s="22" t="str">
+        <f>IF(Automatos!B58="","",IF(Automatos!B58=0,"0",TEXT(Automatos!B58,"##")))</f>
+        <v/>
+      </c>
+      <c r="C12" s="22" t="str">
+        <f>IF(Automatos!C58="","",IF(Automatos!C58=0,"0",TEXT(Automatos!C58,"##")))</f>
+        <v/>
+      </c>
+      <c r="D12" s="22" t="str">
+        <f>IF(Automatos!D58="","",IF(Automatos!D58=0,"0",TEXT(Automatos!D58,"##")))</f>
+        <v/>
+      </c>
+      <c r="E12" s="22" t="str">
+        <f>IF(Automatos!E58="","",IF(Automatos!E58=0,"0",TEXT(Automatos!E58,"##")))</f>
+        <v/>
+      </c>
+      <c r="F12" s="22" t="str">
+        <f>IF(Automatos!F58="","",IF(Automatos!F58=0,"0",TEXT(Automatos!F58,"##")))</f>
+        <v/>
+      </c>
+      <c r="G12" s="22" t="str">
+        <f>IF(Automatos!G58="","",IF(Automatos!G58=0,"0",TEXT(Automatos!G58,"##")))</f>
+        <v/>
+      </c>
+      <c r="H12" s="22" t="str">
+        <f>IF(Automatos!H58="","",IF(Automatos!H58=0,"0",TEXT(Automatos!H58,"##")))</f>
+        <v/>
+      </c>
+      <c r="I12" s="22" t="str">
+        <f>IF(Automatos!I58="","",IF(Automatos!I58=0,"0",TEXT(Automatos!I58,"##")))</f>
+        <v/>
+      </c>
+      <c r="J12" s="22" t="str">
+        <f>IF(Automatos!J58="","",IF(Automatos!J58=0,"0",TEXT(Automatos!J58,"##")))</f>
         <v>12</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
+      <c r="K12" s="22" t="str">
+        <f>IF(Automatos!K58="","",IF(Automatos!K58=0,"0",TEXT(Automatos!K58,"##")))</f>
+        <v/>
+      </c>
+      <c r="L12" s="22" t="str">
+        <f>IF(Automatos!L58="","",IF(Automatos!L58=0,"0",TEXT(Automatos!L58,"##")))</f>
+        <v/>
+      </c>
+      <c r="M12" s="22" t="str">
+        <f>IF(Automatos!M58="","",IF(Automatos!M58=0,"0",TEXT(Automatos!M58,"##")))</f>
+        <v/>
+      </c>
+      <c r="N12" s="22" t="str">
+        <f>IF(Automatos!N58="","",IF(Automatos!N58=0,"0",TEXT(Automatos!N58,"##")))</f>
+        <v/>
+      </c>
+      <c r="O12" s="22" t="str">
+        <f>IF(Automatos!O58="","",IF(Automatos!O58=0,"0",TEXT(Automatos!O58,"##")))</f>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
+      <c r="B13" s="22" t="str">
+        <f>IF(Automatos!B59="","",IF(Automatos!B59=0,"0",TEXT(Automatos!B59,"##")))</f>
+        <v/>
+      </c>
+      <c r="C13" s="22" t="str">
+        <f>IF(Automatos!C59="","",IF(Automatos!C59=0,"0",TEXT(Automatos!C59,"##")))</f>
+        <v/>
+      </c>
+      <c r="D13" s="22" t="str">
+        <f>IF(Automatos!D59="","",IF(Automatos!D59=0,"0",TEXT(Automatos!D59,"##")))</f>
+        <v/>
+      </c>
+      <c r="E13" s="22" t="str">
+        <f>IF(Automatos!E59="","",IF(Automatos!E59=0,"0",TEXT(Automatos!E59,"##")))</f>
+        <v/>
+      </c>
+      <c r="F13" s="22" t="str">
+        <f>IF(Automatos!F59="","",IF(Automatos!F59=0,"0",TEXT(Automatos!F59,"##")))</f>
+        <v/>
+      </c>
+      <c r="G13" s="22" t="str">
+        <f>IF(Automatos!G59="","",IF(Automatos!G59=0,"0",TEXT(Automatos!G59,"##")))</f>
+        <v/>
+      </c>
+      <c r="H13" s="22" t="str">
+        <f>IF(Automatos!H59="","",IF(Automatos!H59=0,"0",TEXT(Automatos!H59,"##")))</f>
+        <v/>
+      </c>
+      <c r="I13" s="22" t="str">
+        <f>IF(Automatos!I59="","",IF(Automatos!I59=0,"0",TEXT(Automatos!I59,"##")))</f>
+        <v/>
+      </c>
+      <c r="J13" s="22" t="str">
+        <f>IF(Automatos!J59="","",IF(Automatos!J59=0,"0",TEXT(Automatos!J59,"##")))</f>
+        <v/>
+      </c>
+      <c r="K13" s="22" t="str">
+        <f>IF(Automatos!K59="","",IF(Automatos!K59=0,"0",TEXT(Automatos!K59,"##")))</f>
+        <v/>
+      </c>
+      <c r="L13" s="22" t="str">
+        <f>IF(Automatos!L59="","",IF(Automatos!L59=0,"0",TEXT(Automatos!L59,"##")))</f>
+        <v/>
+      </c>
+      <c r="M13" s="22" t="str">
+        <f>IF(Automatos!M59="","",IF(Automatos!M59=0,"0",TEXT(Automatos!M59,"##")))</f>
+        <v/>
+      </c>
+      <c r="N13" s="22" t="str">
+        <f>IF(Automatos!N59="","",IF(Automatos!N59=0,"0",TEXT(Automatos!N59,"##")))</f>
+        <v/>
+      </c>
+      <c r="O13" s="22" t="str">
+        <f>IF(Automatos!O59="","",IF(Automatos!O59=0,"0",TEXT(Automatos!O59,"##")))</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22">
+      <c r="B14" s="22" t="str">
+        <f>IF(Automatos!B60="","",IF(Automatos!B60=0,"0",TEXT(Automatos!B60,"##")))</f>
+        <v/>
+      </c>
+      <c r="C14" s="22" t="str">
+        <f>IF(Automatos!C60="","",IF(Automatos!C60=0,"0",TEXT(Automatos!C60,"##")))</f>
+        <v/>
+      </c>
+      <c r="D14" s="22" t="str">
+        <f>IF(Automatos!D60="","",IF(Automatos!D60=0,"0",TEXT(Automatos!D60,"##")))</f>
+        <v/>
+      </c>
+      <c r="E14" s="22" t="str">
+        <f>IF(Automatos!E60="","",IF(Automatos!E60=0,"0",TEXT(Automatos!E60,"##")))</f>
+        <v/>
+      </c>
+      <c r="F14" s="22" t="str">
+        <f>IF(Automatos!F60="","",IF(Automatos!F60=0,"0",TEXT(Automatos!F60,"##")))</f>
+        <v/>
+      </c>
+      <c r="G14" s="22" t="str">
+        <f>IF(Automatos!G60="","",IF(Automatos!G60=0,"0",TEXT(Automatos!G60,"##")))</f>
+        <v/>
+      </c>
+      <c r="H14" s="22" t="str">
+        <f>IF(Automatos!H60="","",IF(Automatos!H60=0,"0",TEXT(Automatos!H60,"##")))</f>
+        <v/>
+      </c>
+      <c r="I14" s="22" t="str">
+        <f>IF(Automatos!I60="","",IF(Automatos!I60=0,"0",TEXT(Automatos!I60,"##")))</f>
+        <v/>
+      </c>
+      <c r="J14" s="22" t="str">
+        <f>IF(Automatos!J60="","",IF(Automatos!J60=0,"0",TEXT(Automatos!J60,"##")))</f>
+        <v/>
+      </c>
+      <c r="K14" s="22" t="str">
+        <f>IF(Automatos!K60="","",IF(Automatos!K60=0,"0",TEXT(Automatos!K60,"##")))</f>
+        <v/>
+      </c>
+      <c r="L14" s="22" t="str">
+        <f>IF(Automatos!L60="","",IF(Automatos!L60=0,"0",TEXT(Automatos!L60,"##")))</f>
+        <v/>
+      </c>
+      <c r="M14" s="22" t="str">
+        <f>IF(Automatos!M60="","",IF(Automatos!M60=0,"0",TEXT(Automatos!M60,"##")))</f>
         <v>13</v>
       </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
+      <c r="N14" s="22" t="str">
+        <f>IF(Automatos!N60="","",IF(Automatos!N60=0,"0",TEXT(Automatos!N60,"##")))</f>
+        <v/>
+      </c>
+      <c r="O14" s="22" t="str">
+        <f>IF(Automatos!O60="","",IF(Automatos!O60=0,"0",TEXT(Automatos!O60,"##")))</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22">
+      <c r="B15" s="22" t="str">
+        <f>IF(Automatos!B61="","",IF(Automatos!B61=0,"0",TEXT(Automatos!B61,"##")))</f>
+        <v/>
+      </c>
+      <c r="C15" s="22" t="str">
+        <f>IF(Automatos!C61="","",IF(Automatos!C61=0,"0",TEXT(Automatos!C61,"##")))</f>
+        <v/>
+      </c>
+      <c r="D15" s="22" t="str">
+        <f>IF(Automatos!D61="","",IF(Automatos!D61=0,"0",TEXT(Automatos!D61,"##")))</f>
+        <v/>
+      </c>
+      <c r="E15" s="22" t="str">
+        <f>IF(Automatos!E61="","",IF(Automatos!E61=0,"0",TEXT(Automatos!E61,"##")))</f>
+        <v/>
+      </c>
+      <c r="F15" s="22" t="str">
+        <f>IF(Automatos!F61="","",IF(Automatos!F61=0,"0",TEXT(Automatos!F61,"##")))</f>
+        <v/>
+      </c>
+      <c r="G15" s="22" t="str">
+        <f>IF(Automatos!G61="","",IF(Automatos!G61=0,"0",TEXT(Automatos!G61,"##")))</f>
+        <v/>
+      </c>
+      <c r="H15" s="22" t="str">
+        <f>IF(Automatos!H61="","",IF(Automatos!H61=0,"0",TEXT(Automatos!H61,"##")))</f>
+        <v/>
+      </c>
+      <c r="I15" s="22" t="str">
+        <f>IF(Automatos!I61="","",IF(Automatos!I61=0,"0",TEXT(Automatos!I61,"##")))</f>
+        <v/>
+      </c>
+      <c r="J15" s="22" t="str">
+        <f>IF(Automatos!J61="","",IF(Automatos!J61=0,"0",TEXT(Automatos!J61,"##")))</f>
+        <v/>
+      </c>
+      <c r="K15" s="22" t="str">
+        <f>IF(Automatos!K61="","",IF(Automatos!K61=0,"0",TEXT(Automatos!K61,"##")))</f>
+        <v/>
+      </c>
+      <c r="L15" s="22" t="str">
+        <f>IF(Automatos!L61="","",IF(Automatos!L61=0,"0",TEXT(Automatos!L61,"##")))</f>
+        <v/>
+      </c>
+      <c r="M15" s="22" t="str">
+        <f>IF(Automatos!M61="","",IF(Automatos!M61=0,"0",TEXT(Automatos!M61,"##")))</f>
+        <v/>
+      </c>
+      <c r="N15" s="22" t="str">
+        <f>IF(Automatos!N61="","",IF(Automatos!N61=0,"0",TEXT(Automatos!N61,"##")))</f>
         <v>11</v>
       </c>
-      <c r="O15" s="22"/>
+      <c r="O15" s="22" t="str">
+        <f>IF(Automatos!O61="","",IF(Automatos!O61=0,"0",TEXT(Automatos!O61,"##")))</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22">
+      <c r="B16" s="22" t="str">
+        <f>IF(Automatos!B62="","",IF(Automatos!B62=0,"0",TEXT(Automatos!B62,"##")))</f>
+        <v/>
+      </c>
+      <c r="C16" s="22" t="str">
+        <f>IF(Automatos!C62="","",IF(Automatos!C62=0,"0",TEXT(Automatos!C62,"##")))</f>
+        <v/>
+      </c>
+      <c r="D16" s="22" t="str">
+        <f>IF(Automatos!D62="","",IF(Automatos!D62=0,"0",TEXT(Automatos!D62,"##")))</f>
+        <v/>
+      </c>
+      <c r="E16" s="22" t="str">
+        <f>IF(Automatos!E62="","",IF(Automatos!E62=0,"0",TEXT(Automatos!E62,"##")))</f>
+        <v/>
+      </c>
+      <c r="F16" s="22" t="str">
+        <f>IF(Automatos!F62="","",IF(Automatos!F62=0,"0",TEXT(Automatos!F62,"##")))</f>
+        <v/>
+      </c>
+      <c r="G16" s="22" t="str">
+        <f>IF(Automatos!G62="","",IF(Automatos!G62=0,"0",TEXT(Automatos!G62,"##")))</f>
+        <v/>
+      </c>
+      <c r="H16" s="22" t="str">
+        <f>IF(Automatos!H62="","",IF(Automatos!H62=0,"0",TEXT(Automatos!H62,"##")))</f>
+        <v/>
+      </c>
+      <c r="I16" s="22" t="str">
+        <f>IF(Automatos!I62="","",IF(Automatos!I62=0,"0",TEXT(Automatos!I62,"##")))</f>
+        <v/>
+      </c>
+      <c r="J16" s="22" t="str">
+        <f>IF(Automatos!J62="","",IF(Automatos!J62=0,"0",TEXT(Automatos!J62,"##")))</f>
+        <v/>
+      </c>
+      <c r="K16" s="22" t="str">
+        <f>IF(Automatos!K62="","",IF(Automatos!K62=0,"0",TEXT(Automatos!K62,"##")))</f>
+        <v/>
+      </c>
+      <c r="L16" s="22" t="str">
+        <f>IF(Automatos!L62="","",IF(Automatos!L62=0,"0",TEXT(Automatos!L62,"##")))</f>
+        <v/>
+      </c>
+      <c r="M16" s="22" t="str">
+        <f>IF(Automatos!M62="","",IF(Automatos!M62=0,"0",TEXT(Automatos!M62,"##")))</f>
+        <v/>
+      </c>
+      <c r="N16" s="22" t="str">
+        <f>IF(Automatos!N62="","",IF(Automatos!N62=0,"0",TEXT(Automatos!N62,"##")))</f>
+        <v/>
+      </c>
+      <c r="O16" s="22" t="str">
+        <f>IF(Automatos!O62="","",IF(Automatos!O62=0,"0",TEXT(Automatos!O62,"##")))</f>
         <v>8</v>
       </c>
     </row>
@@ -2181,149 +2652,432 @@
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22">
+      <c r="B17" s="22" t="str">
+        <f>IF(Automatos!B63="","",IF(Automatos!B63=0,"0",TEXT(Automatos!B63,"##")))</f>
+        <v/>
+      </c>
+      <c r="C17" s="22" t="str">
+        <f>IF(Automatos!C63="","",IF(Automatos!C63=0,"0",TEXT(Automatos!C63,"##")))</f>
+        <v/>
+      </c>
+      <c r="D17" s="22" t="str">
+        <f>IF(Automatos!D63="","",IF(Automatos!D63=0,"0",TEXT(Automatos!D63,"##")))</f>
+        <v/>
+      </c>
+      <c r="E17" s="22" t="str">
+        <f>IF(Automatos!E63="","",IF(Automatos!E63=0,"0",TEXT(Automatos!E63,"##")))</f>
+        <v/>
+      </c>
+      <c r="F17" s="22" t="str">
+        <f>IF(Automatos!F63="","",IF(Automatos!F63=0,"0",TEXT(Automatos!F63,"##")))</f>
+        <v/>
+      </c>
+      <c r="G17" s="22" t="str">
+        <f>IF(Automatos!G63="","",IF(Automatos!G63=0,"0",TEXT(Automatos!G63,"##")))</f>
+        <v/>
+      </c>
+      <c r="H17" s="22" t="str">
+        <f>IF(Automatos!H63="","",IF(Automatos!H63=0,"0",TEXT(Automatos!H63,"##")))</f>
+        <v/>
+      </c>
+      <c r="I17" s="22" t="str">
+        <f>IF(Automatos!I63="","",IF(Automatos!I63=0,"0",TEXT(Automatos!I63,"##")))</f>
         <v>6</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
+      <c r="J17" s="22" t="str">
+        <f>IF(Automatos!J63="","",IF(Automatos!J63=0,"0",TEXT(Automatos!J63,"##")))</f>
+        <v/>
+      </c>
+      <c r="K17" s="22" t="str">
+        <f>IF(Automatos!K63="","",IF(Automatos!K63=0,"0",TEXT(Automatos!K63,"##")))</f>
+        <v/>
+      </c>
+      <c r="L17" s="22" t="str">
+        <f>IF(Automatos!L63="","",IF(Automatos!L63=0,"0",TEXT(Automatos!L63,"##")))</f>
+        <v/>
+      </c>
+      <c r="M17" s="22" t="str">
+        <f>IF(Automatos!M63="","",IF(Automatos!M63=0,"0",TEXT(Automatos!M63,"##")))</f>
+        <v/>
+      </c>
+      <c r="N17" s="22" t="str">
+        <f>IF(Automatos!N63="","",IF(Automatos!N63=0,"0",TEXT(Automatos!N63,"##")))</f>
+        <v/>
+      </c>
+      <c r="O17" s="22" t="str">
+        <f>IF(Automatos!O63="","",IF(Automatos!O63=0,"0",TEXT(Automatos!O63,"##")))</f>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
+      <c r="B18" s="22" t="str">
+        <f>IF(Automatos!B64="","",IF(Automatos!B64=0,"0",TEXT(Automatos!B64,"##")))</f>
+        <v/>
+      </c>
+      <c r="C18" s="22" t="str">
+        <f>IF(Automatos!C64="","",IF(Automatos!C64=0,"0",TEXT(Automatos!C64,"##")))</f>
+        <v/>
+      </c>
+      <c r="D18" s="22" t="str">
+        <f>IF(Automatos!D64="","",IF(Automatos!D64=0,"0",TEXT(Automatos!D64,"##")))</f>
+        <v/>
+      </c>
+      <c r="E18" s="22" t="str">
+        <f>IF(Automatos!E64="","",IF(Automatos!E64=0,"0",TEXT(Automatos!E64,"##")))</f>
+        <v/>
+      </c>
+      <c r="F18" s="22" t="str">
+        <f>IF(Automatos!F64="","",IF(Automatos!F64=0,"0",TEXT(Automatos!F64,"##")))</f>
+        <v/>
+      </c>
+      <c r="G18" s="22" t="str">
+        <f>IF(Automatos!G64="","",IF(Automatos!G64=0,"0",TEXT(Automatos!G64,"##")))</f>
+        <v/>
+      </c>
+      <c r="H18" s="22" t="str">
+        <f>IF(Automatos!H64="","",IF(Automatos!H64=0,"0",TEXT(Automatos!H64,"##")))</f>
+        <v/>
+      </c>
+      <c r="I18" s="22" t="str">
+        <f>IF(Automatos!I64="","",IF(Automatos!I64=0,"0",TEXT(Automatos!I64,"##")))</f>
+        <v/>
+      </c>
+      <c r="J18" s="22" t="str">
+        <f>IF(Automatos!J64="","",IF(Automatos!J64=0,"0",TEXT(Automatos!J64,"##")))</f>
+        <v/>
+      </c>
+      <c r="K18" s="22" t="str">
+        <f>IF(Automatos!K64="","",IF(Automatos!K64=0,"0",TEXT(Automatos!K64,"##")))</f>
+        <v/>
+      </c>
+      <c r="L18" s="22" t="str">
+        <f>IF(Automatos!L64="","",IF(Automatos!L64=0,"0",TEXT(Automatos!L64,"##")))</f>
+        <v/>
+      </c>
+      <c r="M18" s="22" t="str">
+        <f>IF(Automatos!M64="","",IF(Automatos!M64=0,"0",TEXT(Automatos!M64,"##")))</f>
+        <v/>
+      </c>
+      <c r="N18" s="22" t="str">
+        <f>IF(Automatos!N64="","",IF(Automatos!N64=0,"0",TEXT(Automatos!N64,"##")))</f>
+        <v/>
+      </c>
+      <c r="O18" s="22" t="str">
+        <f>IF(Automatos!O64="","",IF(Automatos!O64=0,"0",TEXT(Automatos!O64,"##")))</f>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22">
+      <c r="B19" s="22" t="str">
+        <f>IF(Automatos!B65="","",IF(Automatos!B65=0,"0",TEXT(Automatos!B65,"##")))</f>
+        <v/>
+      </c>
+      <c r="C19" s="22" t="str">
+        <f>IF(Automatos!C65="","",IF(Automatos!C65=0,"0",TEXT(Automatos!C65,"##")))</f>
+        <v/>
+      </c>
+      <c r="D19" s="22" t="str">
+        <f>IF(Automatos!D65="","",IF(Automatos!D65=0,"0",TEXT(Automatos!D65,"##")))</f>
+        <v/>
+      </c>
+      <c r="E19" s="22" t="str">
+        <f>IF(Automatos!E65="","",IF(Automatos!E65=0,"0",TEXT(Automatos!E65,"##")))</f>
+        <v/>
+      </c>
+      <c r="F19" s="22" t="str">
+        <f>IF(Automatos!F65="","",IF(Automatos!F65=0,"0",TEXT(Automatos!F65,"##")))</f>
+        <v/>
+      </c>
+      <c r="G19" s="22" t="str">
+        <f>IF(Automatos!G65="","",IF(Automatos!G65=0,"0",TEXT(Automatos!G65,"##")))</f>
+        <v/>
+      </c>
+      <c r="H19" s="22" t="str">
+        <f>IF(Automatos!H65="","",IF(Automatos!H65=0,"0",TEXT(Automatos!H65,"##")))</f>
+        <v/>
+      </c>
+      <c r="I19" s="22" t="str">
+        <f>IF(Automatos!I65="","",IF(Automatos!I65=0,"0",TEXT(Automatos!I65,"##")))</f>
+        <v/>
+      </c>
+      <c r="J19" s="22" t="str">
+        <f>IF(Automatos!J65="","",IF(Automatos!J65=0,"0",TEXT(Automatos!J65,"##")))</f>
         <v>18</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
+      <c r="K19" s="22" t="str">
+        <f>IF(Automatos!K65="","",IF(Automatos!K65=0,"0",TEXT(Automatos!K65,"##")))</f>
+        <v/>
+      </c>
+      <c r="L19" s="22" t="str">
+        <f>IF(Automatos!L65="","",IF(Automatos!L65=0,"0",TEXT(Automatos!L65,"##")))</f>
+        <v/>
+      </c>
+      <c r="M19" s="22" t="str">
+        <f>IF(Automatos!M65="","",IF(Automatos!M65=0,"0",TEXT(Automatos!M65,"##")))</f>
+        <v/>
+      </c>
+      <c r="N19" s="22" t="str">
+        <f>IF(Automatos!N65="","",IF(Automatos!N65=0,"0",TEXT(Automatos!N65,"##")))</f>
+        <v/>
+      </c>
+      <c r="O19" s="22" t="str">
+        <f>IF(Automatos!O65="","",IF(Automatos!O65=0,"0",TEXT(Automatos!O65,"##")))</f>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22">
+      <c r="B20" s="22" t="str">
+        <f>IF(Automatos!B66="","",IF(Automatos!B66=0,"0",TEXT(Automatos!B66,"##")))</f>
+        <v/>
+      </c>
+      <c r="C20" s="22" t="str">
+        <f>IF(Automatos!C66="","",IF(Automatos!C66=0,"0",TEXT(Automatos!C66,"##")))</f>
+        <v/>
+      </c>
+      <c r="D20" s="22" t="str">
+        <f>IF(Automatos!D66="","",IF(Automatos!D66=0,"0",TEXT(Automatos!D66,"##")))</f>
         <v>19</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
+      <c r="E20" s="22" t="str">
+        <f>IF(Automatos!E66="","",IF(Automatos!E66=0,"0",TEXT(Automatos!E66,"##")))</f>
+        <v/>
+      </c>
+      <c r="F20" s="22" t="str">
+        <f>IF(Automatos!F66="","",IF(Automatos!F66=0,"0",TEXT(Automatos!F66,"##")))</f>
+        <v/>
+      </c>
+      <c r="G20" s="22" t="str">
+        <f>IF(Automatos!G66="","",IF(Automatos!G66=0,"0",TEXT(Automatos!G66,"##")))</f>
+        <v/>
+      </c>
+      <c r="H20" s="22" t="str">
+        <f>IF(Automatos!H66="","",IF(Automatos!H66=0,"0",TEXT(Automatos!H66,"##")))</f>
+        <v/>
+      </c>
+      <c r="I20" s="22" t="str">
+        <f>IF(Automatos!I66="","",IF(Automatos!I66=0,"0",TEXT(Automatos!I66,"##")))</f>
+        <v/>
+      </c>
+      <c r="J20" s="22" t="str">
+        <f>IF(Automatos!J66="","",IF(Automatos!J66=0,"0",TEXT(Automatos!J66,"##")))</f>
+        <v/>
+      </c>
+      <c r="K20" s="22" t="str">
+        <f>IF(Automatos!K66="","",IF(Automatos!K66=0,"0",TEXT(Automatos!K66,"##")))</f>
+        <v/>
+      </c>
+      <c r="L20" s="22" t="str">
+        <f>IF(Automatos!L66="","",IF(Automatos!L66=0,"0",TEXT(Automatos!L66,"##")))</f>
+        <v/>
+      </c>
+      <c r="M20" s="22" t="str">
+        <f>IF(Automatos!M66="","",IF(Automatos!M66=0,"0",TEXT(Automatos!M66,"##")))</f>
+        <v/>
+      </c>
+      <c r="N20" s="22" t="str">
+        <f>IF(Automatos!N66="","",IF(Automatos!N66=0,"0",TEXT(Automatos!N66,"##")))</f>
+        <v/>
+      </c>
+      <c r="O20" s="22" t="str">
+        <f>IF(Automatos!O66="","",IF(Automatos!O66=0,"0",TEXT(Automatos!O66,"##")))</f>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22">
+      <c r="B21" s="22" t="str">
+        <f>IF(Automatos!B67="","",IF(Automatos!B67=0,"0",TEXT(Automatos!B67,"##")))</f>
+        <v/>
+      </c>
+      <c r="C21" s="22" t="str">
+        <f>IF(Automatos!C67="","",IF(Automatos!C67=0,"0",TEXT(Automatos!C67,"##")))</f>
+        <v/>
+      </c>
+      <c r="D21" s="22" t="str">
+        <f>IF(Automatos!D67="","",IF(Automatos!D67=0,"0",TEXT(Automatos!D67,"##")))</f>
+        <v/>
+      </c>
+      <c r="E21" s="22" t="str">
+        <f>IF(Automatos!E67="","",IF(Automatos!E67=0,"0",TEXT(Automatos!E67,"##")))</f>
+        <v/>
+      </c>
+      <c r="F21" s="22" t="str">
+        <f>IF(Automatos!F67="","",IF(Automatos!F67=0,"0",TEXT(Automatos!F67,"##")))</f>
+        <v/>
+      </c>
+      <c r="G21" s="22" t="str">
+        <f>IF(Automatos!G67="","",IF(Automatos!G67=0,"0",TEXT(Automatos!G67,"##")))</f>
+        <v/>
+      </c>
+      <c r="H21" s="22" t="str">
+        <f>IF(Automatos!H67="","",IF(Automatos!H67=0,"0",TEXT(Automatos!H67,"##")))</f>
+        <v/>
+      </c>
+      <c r="I21" s="22" t="str">
+        <f>IF(Automatos!I67="","",IF(Automatos!I67=0,"0",TEXT(Automatos!I67,"##")))</f>
+        <v/>
+      </c>
+      <c r="J21" s="22" t="str">
+        <f>IF(Automatos!J67="","",IF(Automatos!J67=0,"0",TEXT(Automatos!J67,"##")))</f>
+        <v/>
+      </c>
+      <c r="K21" s="22" t="str">
+        <f>IF(Automatos!K67="","",IF(Automatos!K67=0,"0",TEXT(Automatos!K67,"##")))</f>
+        <v/>
+      </c>
+      <c r="L21" s="22" t="str">
+        <f>IF(Automatos!L67="","",IF(Automatos!L67=0,"0",TEXT(Automatos!L67,"##")))</f>
+        <v/>
+      </c>
+      <c r="M21" s="22" t="str">
+        <f>IF(Automatos!M67="","",IF(Automatos!M67=0,"0",TEXT(Automatos!M67,"##")))</f>
         <v>20</v>
       </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
+      <c r="N21" s="22" t="str">
+        <f>IF(Automatos!N67="","",IF(Automatos!N67=0,"0",TEXT(Automatos!N67,"##")))</f>
+        <v/>
+      </c>
+      <c r="O21" s="22" t="str">
+        <f>IF(Automatos!O67="","",IF(Automatos!O67=0,"0",TEXT(Automatos!O67,"##")))</f>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22">
+      <c r="B22" s="22" t="str">
+        <f>IF(Automatos!B68="","",IF(Automatos!B68=0,"0",TEXT(Automatos!B68,"##")))</f>
+        <v/>
+      </c>
+      <c r="C22" s="22" t="str">
+        <f>IF(Automatos!C68="","",IF(Automatos!C68=0,"0",TEXT(Automatos!C68,"##")))</f>
+        <v/>
+      </c>
+      <c r="D22" s="22" t="str">
+        <f>IF(Automatos!D68="","",IF(Automatos!D68=0,"0",TEXT(Automatos!D68,"##")))</f>
+        <v/>
+      </c>
+      <c r="E22" s="22" t="str">
+        <f>IF(Automatos!E68="","",IF(Automatos!E68=0,"0",TEXT(Automatos!E68,"##")))</f>
+        <v/>
+      </c>
+      <c r="F22" s="22" t="str">
+        <f>IF(Automatos!F68="","",IF(Automatos!F68=0,"0",TEXT(Automatos!F68,"##")))</f>
+        <v/>
+      </c>
+      <c r="G22" s="22" t="str">
+        <f>IF(Automatos!G68="","",IF(Automatos!G68=0,"0",TEXT(Automatos!G68,"##")))</f>
+        <v/>
+      </c>
+      <c r="H22" s="22" t="str">
+        <f>IF(Automatos!H68="","",IF(Automatos!H68=0,"0",TEXT(Automatos!H68,"##")))</f>
+        <v/>
+      </c>
+      <c r="I22" s="22" t="str">
+        <f>IF(Automatos!I68="","",IF(Automatos!I68=0,"0",TEXT(Automatos!I68,"##")))</f>
+        <v/>
+      </c>
+      <c r="J22" s="22" t="str">
+        <f>IF(Automatos!J68="","",IF(Automatos!J68=0,"0",TEXT(Automatos!J68,"##")))</f>
+        <v/>
+      </c>
+      <c r="K22" s="22" t="str">
+        <f>IF(Automatos!K68="","",IF(Automatos!K68=0,"0",TEXT(Automatos!K68,"##")))</f>
+        <v/>
+      </c>
+      <c r="L22" s="22" t="str">
+        <f>IF(Automatos!L68="","",IF(Automatos!L68=0,"0",TEXT(Automatos!L68,"##")))</f>
+        <v/>
+      </c>
+      <c r="M22" s="22" t="str">
+        <f>IF(Automatos!M68="","",IF(Automatos!M68=0,"0",TEXT(Automatos!M68,"##")))</f>
+        <v/>
+      </c>
+      <c r="N22" s="22" t="str">
+        <f>IF(Automatos!N68="","",IF(Automatos!N68=0,"0",TEXT(Automatos!N68,"##")))</f>
         <v>21</v>
       </c>
-      <c r="O22" s="22"/>
+      <c r="O22" s="22" t="str">
+        <f>IF(Automatos!O68="","",IF(Automatos!O68=0,"0",TEXT(Automatos!O68,"##")))</f>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22">
+      <c r="B23" s="22" t="str">
+        <f>IF(Automatos!B69="","",IF(Automatos!B69=0,"0",TEXT(Automatos!B69,"##")))</f>
+        <v/>
+      </c>
+      <c r="C23" s="22" t="str">
+        <f>IF(Automatos!C69="","",IF(Automatos!C69=0,"0",TEXT(Automatos!C69,"##")))</f>
         <v>12</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
+      <c r="D23" s="22" t="str">
+        <f>IF(Automatos!D69="","",IF(Automatos!D69=0,"0",TEXT(Automatos!D69,"##")))</f>
+        <v/>
+      </c>
+      <c r="E23" s="22" t="str">
+        <f>IF(Automatos!E69="","",IF(Automatos!E69=0,"0",TEXT(Automatos!E69,"##")))</f>
+        <v/>
+      </c>
+      <c r="F23" s="22" t="str">
+        <f>IF(Automatos!F69="","",IF(Automatos!F69=0,"0",TEXT(Automatos!F69,"##")))</f>
+        <v/>
+      </c>
+      <c r="G23" s="22" t="str">
+        <f>IF(Automatos!G69="","",IF(Automatos!G69=0,"0",TEXT(Automatos!G69,"##")))</f>
+        <v/>
+      </c>
+      <c r="H23" s="22" t="str">
+        <f>IF(Automatos!H69="","",IF(Automatos!H69=0,"0",TEXT(Automatos!H69,"##")))</f>
+        <v/>
+      </c>
+      <c r="I23" s="22" t="str">
+        <f>IF(Automatos!I69="","",IF(Automatos!I69=0,"0",TEXT(Automatos!I69,"##")))</f>
+        <v/>
+      </c>
+      <c r="J23" s="22" t="str">
+        <f>IF(Automatos!J69="","",IF(Automatos!J69=0,"0",TEXT(Automatos!J69,"##")))</f>
+        <v/>
+      </c>
+      <c r="K23" s="22" t="str">
+        <f>IF(Automatos!K69="","",IF(Automatos!K69=0,"0",TEXT(Automatos!K69,"##")))</f>
+        <v/>
+      </c>
+      <c r="L23" s="22" t="str">
+        <f>IF(Automatos!L69="","",IF(Automatos!L69=0,"0",TEXT(Automatos!L69,"##")))</f>
+        <v/>
+      </c>
+      <c r="M23" s="22" t="str">
+        <f>IF(Automatos!M69="","",IF(Automatos!M69=0,"0",TEXT(Automatos!M69,"##")))</f>
+        <v/>
+      </c>
+      <c r="N23" s="22" t="str">
+        <f>IF(Automatos!N69="","",IF(Automatos!N69=0,"0",TEXT(Automatos!N69,"##")))</f>
+        <v/>
+      </c>
+      <c r="O23" s="22" t="str">
+        <f>IF(Automatos!O69="","",IF(Automatos!O69=0,"0",TEXT(Automatos!O69,"##")))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3843,8 +4597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4925,19 +5679,46 @@
         <v>0</v>
       </c>
       <c r="B48" s="8">
+        <v>3</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="8">
         <v>4</v>
       </c>
-      <c r="E48" s="8">
-        <v>5</v>
-      </c>
       <c r="F48" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" s="8">
-        <v>3</v>
-      </c>
-      <c r="O48" s="9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="R48" s="8"/>
       <c r="S48" s="16"/>
@@ -4948,10 +5729,45 @@
       <c r="A49" s="9">
         <v>1</v>
       </c>
+      <c r="B49" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="H49" s="8">
+        <v>5</v>
+      </c>
+      <c r="I49" s="8">
         <v>6</v>
       </c>
-      <c r="O49" s="9"/>
+      <c r="J49" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="R49" s="8"/>
       <c r="S49" s="16"/>
       <c r="T49" s="16"/>
@@ -4961,13 +5777,42 @@
       <c r="A50" s="9">
         <v>2</v>
       </c>
-      <c r="I50" s="8">
+      <c r="B50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O50" s="9">
         <v>9</v>
       </c>
-      <c r="K50" s="8">
-        <v>10</v>
-      </c>
-      <c r="O50" s="9"/>
       <c r="R50" s="8"/>
       <c r="S50" s="16"/>
       <c r="T50" s="16"/>
@@ -4977,9 +5822,46 @@
       <c r="A51" s="9">
         <v>3</v>
       </c>
-      <c r="O51" s="9">
-        <v>14</v>
-      </c>
+      <c r="B51" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I51" s="8">
+        <v>16</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O51" s="9"/>
       <c r="R51" s="8"/>
       <c r="S51" s="16"/>
       <c r="T51" s="16"/>
@@ -4990,7 +5872,7 @@
         <v>4</v>
       </c>
       <c r="I52" s="8">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="O52" s="9"/>
       <c r="R52" s="8"/>
@@ -5002,10 +5884,9 @@
       <c r="A53" s="9">
         <v>5</v>
       </c>
-      <c r="I53" s="8">
-        <v>7</v>
-      </c>
-      <c r="O53" s="9"/>
+      <c r="O53" s="9">
+        <v>15</v>
+      </c>
       <c r="R53" s="8"/>
       <c r="S53" s="16"/>
       <c r="T53" s="16"/>
@@ -5015,7 +5896,12 @@
       <c r="A54" s="9">
         <v>6</v>
       </c>
-      <c r="O54" s="9"/>
+      <c r="J54" s="8">
+        <v>9</v>
+      </c>
+      <c r="O54" s="9">
+        <v>8</v>
+      </c>
       <c r="R54" s="8"/>
       <c r="S54" s="16"/>
       <c r="T54" s="16"/>
@@ -5036,7 +5922,10 @@
         <v>8</v>
       </c>
       <c r="J56" s="8">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="L56" s="8">
+        <v>14</v>
       </c>
       <c r="O56" s="9"/>
       <c r="R56" s="8"/>
@@ -5048,9 +5937,10 @@
       <c r="A57" s="9">
         <v>9</v>
       </c>
-      <c r="O57" s="9">
-        <v>13</v>
-      </c>
+      <c r="K57" s="8">
+        <v>11</v>
+      </c>
+      <c r="O57" s="9"/>
       <c r="R57" s="8"/>
       <c r="S57" s="16"/>
       <c r="T57" s="16"/>
@@ -5059,6 +5949,9 @@
     <row r="58" spans="1:21">
       <c r="A58" s="9">
         <v>10</v>
+      </c>
+      <c r="J58" s="8">
+        <v>12</v>
       </c>
       <c r="O58" s="9"/>
       <c r="R58" s="8"/>
@@ -5070,9 +5963,6 @@
       <c r="A59" s="9">
         <v>11</v>
       </c>
-      <c r="M59" s="8">
-        <v>12</v>
-      </c>
       <c r="O59" s="9"/>
       <c r="R59" s="8"/>
       <c r="S59" s="16"/>
@@ -5083,8 +5973,8 @@
       <c r="A60" s="9">
         <v>12</v>
       </c>
-      <c r="N60" s="8">
-        <v>10</v>
+      <c r="M60" s="8">
+        <v>13</v>
       </c>
       <c r="O60" s="9"/>
       <c r="R60" s="8"/>
@@ -5096,11 +5986,8 @@
       <c r="A61" s="9">
         <v>13</v>
       </c>
-      <c r="J61" s="8">
-        <v>14</v>
-      </c>
-      <c r="L61" s="8">
-        <v>15</v>
+      <c r="N61" s="8">
+        <v>11</v>
       </c>
       <c r="O61" s="9"/>
       <c r="R61" s="8"/>
@@ -5112,10 +5999,9 @@
       <c r="A62" s="9">
         <v>14</v>
       </c>
-      <c r="K62" s="8">
-        <v>10</v>
-      </c>
-      <c r="O62" s="9"/>
+      <c r="O62" s="9">
+        <v>8</v>
+      </c>
       <c r="R62" s="8"/>
       <c r="S62" s="16"/>
       <c r="T62" s="16"/>
@@ -5125,9 +6011,10 @@
       <c r="A63" s="9">
         <v>15</v>
       </c>
-      <c r="O63" s="9">
-        <v>13</v>
-      </c>
+      <c r="I63" s="8">
+        <v>6</v>
+      </c>
+      <c r="O63" s="9"/>
       <c r="R63" s="8"/>
       <c r="S63" s="16"/>
       <c r="T63" s="16"/>
@@ -5200,7 +6087,7 @@
         <v>21</v>
       </c>
       <c r="C69" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O69" s="9"/>
       <c r="R69" s="8"/>
@@ -6502,7 +7389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/config/input.xlsx
+++ b/config/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="0" windowWidth="19800" windowHeight="15620" tabRatio="884" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24640" windowHeight="15620" tabRatio="884" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="PalavrasReservadas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="99">
   <si>
     <t>if</t>
   </si>
@@ -334,9 +334,6 @@
   </si>
   <si>
     <t>11,21</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -1682,7 +1679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -2096,7 +2093,7 @@
       </c>
       <c r="O7" s="22" t="str">
         <f>IF(Automatos!O53="","",IF(Automatos!O53=0,"0",TEXT(Automatos!O53,"##")))</f>
-        <v>15</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2690,7 +2687,7 @@
       </c>
       <c r="K17" s="22" t="str">
         <f>IF(Automatos!K63="","",IF(Automatos!K63=0,"0",TEXT(Automatos!K63,"##")))</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="L17" s="22" t="str">
         <f>IF(Automatos!L63="","",IF(Automatos!L63=0,"0",TEXT(Automatos!L63,"##")))</f>
@@ -3077,7 +3074,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3978,8 +3974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4003,7 +3999,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4597,8 +4593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:O69"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5681,12 +5677,6 @@
       <c r="B48" s="8">
         <v>3</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="E48" s="8">
         <v>4</v>
       </c>
@@ -5696,29 +5686,8 @@
       <c r="G48" s="8">
         <v>2</v>
       </c>
-      <c r="H48" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="O48" s="9" t="s">
-        <v>94</v>
+      <c r="O48" s="9">
+        <v>1</v>
       </c>
       <c r="R48" s="8"/>
       <c r="S48" s="16"/>
@@ -5729,45 +5698,13 @@
       <c r="A49" s="9">
         <v>1</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="H49" s="8">
         <v>5</v>
       </c>
       <c r="I49" s="8">
         <v>6</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>99</v>
-      </c>
+      <c r="O49" s="9"/>
       <c r="R49" s="8"/>
       <c r="S49" s="16"/>
       <c r="T49" s="16"/>
@@ -5777,39 +5714,6 @@
       <c r="A50" s="9">
         <v>2</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="O50" s="9">
         <v>9</v>
       </c>
@@ -5822,44 +5726,8 @@
       <c r="A51" s="9">
         <v>3</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="I51" s="8">
         <v>16</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="O51" s="9"/>
       <c r="R51" s="8"/>
@@ -5884,9 +5752,7 @@
       <c r="A53" s="9">
         <v>5</v>
       </c>
-      <c r="O53" s="9">
-        <v>15</v>
-      </c>
+      <c r="O53" s="9"/>
       <c r="R53" s="8"/>
       <c r="S53" s="16"/>
       <c r="T53" s="16"/>
@@ -6013,6 +5879,9 @@
       </c>
       <c r="I63" s="8">
         <v>6</v>
+      </c>
+      <c r="K63" s="8">
+        <v>11</v>
       </c>
       <c r="O63" s="9"/>
       <c r="R63" s="8"/>
@@ -7389,8 +7258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
